--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="UserKNN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -62,9 +62,6 @@
   <si>
     <t>u5.base/u5.test</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Popularit</t>
   </si>
 </sst>
 </file>
@@ -391,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L16" sqref="H1:M44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3868,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3989,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
         <v>8</v>
@@ -4018,16 +4015,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.27995758218451799</v>
+        <v>0.28738069989395498</v>
       </c>
       <c r="D3">
-        <v>1.32E-2</v>
+        <v>1.355E-2</v>
       </c>
       <c r="E3">
-        <v>2.3030303030303002E-2</v>
+        <v>3.8787878787878802E-2</v>
       </c>
       <c r="F3">
-        <v>5.8933572780361203</v>
+        <v>5.6811080839805701</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -4036,16 +4033,16 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.376458112407211</v>
+        <v>0.35737009544008502</v>
       </c>
       <c r="K3">
-        <v>1.7749999999999998E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="L3">
-        <v>2.0631067961165098E-2</v>
+        <v>3.8228155339805801E-2</v>
       </c>
       <c r="M3">
-        <v>5.8690142171864998</v>
+        <v>5.7010356685403902</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -4054,16 +4051,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.41993637327677602</v>
+        <v>0.40721102863202502</v>
       </c>
       <c r="R3">
-        <v>1.9800000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="S3">
-        <v>1.8787878787878801E-2</v>
+        <v>3.9393939393939398E-2</v>
       </c>
       <c r="T3">
-        <v>5.8837641635233302</v>
+        <v>5.6969393291044703</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -4072,16 +4069,16 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0.45811240721102903</v>
+        <v>0.44538706256627802</v>
       </c>
       <c r="Y3">
-        <v>2.1600000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Z3">
-        <v>1.92771084337349E-2</v>
+        <v>4.09638554216867E-2</v>
       </c>
       <c r="AA3">
-        <v>5.8694466646150296</v>
+        <v>5.6591598392276197</v>
       </c>
       <c r="AC3">
         <v>5</v>
@@ -4090,16 +4087,16 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.41463414634146301</v>
+        <v>0.43690349946977702</v>
       </c>
       <c r="AF3">
-        <v>1.9550000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="AG3">
-        <v>1.8787878787878801E-2</v>
+        <v>3.8181818181818199E-2</v>
       </c>
       <c r="AH3">
-        <v>5.9016858632315801</v>
+        <v>5.7252221901442697</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -4107,76 +4104,76 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.23138918345705201</v>
+        <v>0.23711558854719</v>
       </c>
       <c r="D4">
-        <v>5.4550000000000001E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="E4">
-        <v>7.0303030303030298E-2</v>
+        <v>0.123030303030303</v>
       </c>
       <c r="F4">
-        <v>5.7910628234541202</v>
+        <v>5.5395375364212001</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.28674443266171801</v>
+        <v>0.289713679745493</v>
       </c>
       <c r="K4">
-        <v>6.7599999999999993E-2</v>
+        <v>6.83E-2</v>
       </c>
       <c r="L4">
-        <v>6.1893203883495097E-2</v>
+        <v>0.120145631067961</v>
       </c>
       <c r="M4">
-        <v>5.7855582967084196</v>
+        <v>5.5446532701170197</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.31983032873806999</v>
+        <v>0.32555673382820799</v>
       </c>
       <c r="R4">
-        <v>7.5399999999999995E-2</v>
+        <v>7.6749999999999999E-2</v>
       </c>
       <c r="S4">
-        <v>5.63636363636364E-2</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="T4">
-        <v>5.7887246197531601</v>
+        <v>5.5525953735078701</v>
       </c>
       <c r="W4">
         <v>5</v>
       </c>
       <c r="X4">
-        <v>0.33064687168610801</v>
+        <v>0.33700954400848399</v>
       </c>
       <c r="Y4">
-        <v>7.7950000000000005E-2</v>
+        <v>7.9450000000000007E-2</v>
       </c>
       <c r="Z4">
-        <v>5.54216867469879E-2</v>
+        <v>0.106024096385542</v>
       </c>
       <c r="AA4">
-        <v>5.7822684094651704</v>
+        <v>5.5365968013735296</v>
       </c>
       <c r="AD4">
         <v>5</v>
       </c>
       <c r="AE4">
-        <v>0.30562036055143199</v>
+        <v>0.325344644750795</v>
       </c>
       <c r="AF4">
-        <v>7.2050000000000003E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="AG4">
-        <v>0.06</v>
+        <v>0.112727272727273</v>
       </c>
       <c r="AH4">
-        <v>5.7885388882402404</v>
+        <v>5.5575476268547401</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -4184,76 +4181,76 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.20388246525936099</v>
+        <v>0.206044538706257</v>
       </c>
       <c r="D5">
-        <v>9.6100000000000005E-2</v>
+        <v>9.715E-2</v>
       </c>
       <c r="E5">
-        <v>0.13030303030303</v>
+        <v>0.22424242424242399</v>
       </c>
       <c r="F5">
-        <v>5.6606289547089501</v>
+        <v>5.4010723499673903</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>0.24337221633085901</v>
+        <v>0.25015906680805899</v>
       </c>
       <c r="K5">
-        <v>0.11475</v>
+        <v>0.11795</v>
       </c>
       <c r="L5">
-        <v>0.118932038834951</v>
+        <v>0.21723300970873799</v>
       </c>
       <c r="M5">
-        <v>5.6699388062011904</v>
+        <v>5.3906734540520302</v>
       </c>
       <c r="P5">
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>0.26786850477200402</v>
+        <v>0.27317073170731698</v>
       </c>
       <c r="R5">
-        <v>0.1263</v>
+        <v>0.1288</v>
       </c>
       <c r="S5">
-        <v>0.111515151515152</v>
+        <v>0.21393939393939401</v>
       </c>
       <c r="T5">
-        <v>5.6626155950473196</v>
+        <v>5.4092051153119902</v>
       </c>
       <c r="W5">
         <v>10</v>
       </c>
       <c r="X5">
-        <v>0.27009544008483599</v>
+        <v>0.27804878048780501</v>
       </c>
       <c r="Y5">
-        <v>0.12734999999999999</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.105421686746988</v>
+        <v>0.207228915662651</v>
       </c>
       <c r="AA5">
-        <v>5.6693124335417799</v>
+        <v>5.3841839328460903</v>
       </c>
       <c r="AD5">
         <v>10</v>
       </c>
       <c r="AE5">
-        <v>0.25941245094919901</v>
+        <v>0.27253446447508001</v>
       </c>
       <c r="AF5">
-        <v>0.12230000000000001</v>
+        <v>0.1285</v>
       </c>
       <c r="AG5">
-        <v>0.115151515151515</v>
+        <v>0.203636363636364</v>
       </c>
       <c r="AH5">
-        <v>5.6559269496654299</v>
+        <v>5.4089606637227101</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -4261,76 +4258,76 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.18743351535352101</v>
+        <v>0.18822946876989499</v>
       </c>
       <c r="D6">
-        <v>0.13214999999999999</v>
+        <v>0.13305</v>
       </c>
       <c r="E6">
-        <v>0.190909090909091</v>
+        <v>0.30181818181818199</v>
       </c>
       <c r="F6">
-        <v>5.5304694734414301</v>
+        <v>5.2707048061159103</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>0.223623609438107</v>
+        <v>0.22269353128313901</v>
       </c>
       <c r="K6">
-        <v>0.1578</v>
+        <v>0.1575</v>
       </c>
       <c r="L6">
-        <v>0.17354368932038799</v>
+        <v>0.293082524271845</v>
       </c>
       <c r="M6">
-        <v>5.5482464582463198</v>
+        <v>5.26525359351061</v>
       </c>
       <c r="P6">
         <v>15</v>
       </c>
       <c r="Q6">
-        <v>0.23855421686747</v>
+        <v>0.24250565610859701</v>
       </c>
       <c r="R6">
-        <v>0.16830000000000001</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="S6">
-        <v>0.178181818181818</v>
+        <v>0.3</v>
       </c>
       <c r="T6">
-        <v>5.5494902401792503</v>
+        <v>5.2654098061296404</v>
       </c>
       <c r="W6">
         <v>15</v>
       </c>
       <c r="X6">
-        <v>0.242398469062301</v>
+        <v>0.242539951916278</v>
       </c>
       <c r="Y6">
-        <v>0.17100000000000001</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.169277108433735</v>
+        <v>0.3</v>
       </c>
       <c r="AA6">
-        <v>5.5512235798960701</v>
+        <v>5.2685671562529803</v>
       </c>
       <c r="AD6">
         <v>15</v>
       </c>
       <c r="AE6">
-        <v>0.23377821950873201</v>
+        <v>0.23768115942029</v>
       </c>
       <c r="AF6">
-        <v>0.16464999999999999</v>
+        <v>0.1681</v>
       </c>
       <c r="AG6">
-        <v>0.189090909090909</v>
+        <v>0.296363636363636</v>
       </c>
       <c r="AH6">
-        <v>5.5357512708038596</v>
+        <v>5.2877895553274801</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -4338,76 +4335,76 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.17738633915104501</v>
+        <v>0.174090788425803</v>
       </c>
       <c r="D7">
-        <v>0.16464999999999999</v>
+        <v>0.16395000000000001</v>
       </c>
       <c r="E7">
-        <v>0.25818181818181801</v>
+        <v>0.37818181818181801</v>
       </c>
       <c r="F7">
-        <v>5.43053860772695</v>
+        <v>5.1554705269008103</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
       <c r="J7">
-        <v>0.208454028537711</v>
+        <v>0.202757889154071</v>
       </c>
       <c r="K7">
-        <v>0.1943</v>
+        <v>0.19114999999999999</v>
       </c>
       <c r="L7">
-        <v>0.240291262135922</v>
+        <v>0.36589805825242699</v>
       </c>
       <c r="M7">
-        <v>5.44815297043223</v>
+        <v>5.1515507607753497</v>
       </c>
       <c r="P7">
         <v>20</v>
       </c>
       <c r="Q7">
-        <v>0.22021156634269501</v>
+        <v>0.21990556528197799</v>
       </c>
       <c r="R7">
-        <v>0.20505000000000001</v>
+        <v>0.20724999999999999</v>
       </c>
       <c r="S7">
-        <v>0.23818181818181799</v>
+        <v>0.37393939393939402</v>
       </c>
       <c r="T7">
-        <v>5.4521400302717202</v>
+        <v>5.1548525676802699</v>
       </c>
       <c r="W7">
         <v>20</v>
       </c>
       <c r="X7">
-        <v>0.222735823703306</v>
+        <v>0.21818953624111201</v>
       </c>
       <c r="Y7">
-        <v>0.2072</v>
+        <v>0.2056</v>
       </c>
       <c r="Z7">
-        <v>0.23554216867469899</v>
+        <v>0.37590361445783099</v>
       </c>
       <c r="AA7">
-        <v>5.4553383415342296</v>
+        <v>5.1601986926072803</v>
       </c>
       <c r="AD7">
         <v>20</v>
       </c>
       <c r="AE7">
-        <v>0.21609803498164501</v>
+        <v>0.21302340391657401</v>
       </c>
       <c r="AF7">
-        <v>0.20014999999999999</v>
+        <v>0.20069999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.25030303030303003</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="AH7">
-        <v>5.4391039860237296</v>
+        <v>5.17643065357022</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -4415,76 +4412,76 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>0.16996692392502799</v>
+        <v>0.163151391196898</v>
       </c>
       <c r="D8">
-        <v>0.19270000000000001</v>
+        <v>0.19145000000000001</v>
       </c>
       <c r="E8">
-        <v>0.33030303030302999</v>
+        <v>0.443030303030303</v>
       </c>
       <c r="F8">
-        <v>5.3477214223508804</v>
+        <v>5.0648923999987003</v>
       </c>
       <c r="I8">
         <v>25</v>
       </c>
       <c r="J8">
-        <v>0.19779498621866401</v>
+        <v>0.18749734392928499</v>
       </c>
       <c r="K8">
-        <v>0.22605</v>
+        <v>0.22059999999999999</v>
       </c>
       <c r="L8">
-        <v>0.29672330097087402</v>
+        <v>0.43932038834951498</v>
       </c>
       <c r="M8">
-        <v>5.3722628551301801</v>
+        <v>5.0507652457785097</v>
       </c>
       <c r="P8">
         <v>25</v>
       </c>
       <c r="Q8">
-        <v>0.20891864688635101</v>
+        <v>0.20088431614302099</v>
       </c>
       <c r="R8">
-        <v>0.2387</v>
+        <v>0.23624999999999999</v>
       </c>
       <c r="S8">
-        <v>0.30303030303030298</v>
+        <v>0.43575757575757601</v>
       </c>
       <c r="T8">
-        <v>5.3716238289808604</v>
+        <v>5.0622775009289898</v>
       </c>
       <c r="W8">
         <v>25</v>
       </c>
       <c r="X8">
-        <v>0.208780616045218</v>
+        <v>0.19950697041822499</v>
       </c>
       <c r="Y8">
-        <v>0.23824999999999999</v>
+        <v>0.23469999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.30361445783132501</v>
+        <v>0.43313253012048197</v>
       </c>
       <c r="AA8">
-        <v>5.3735453275186602</v>
+        <v>5.0648836203116501</v>
       </c>
       <c r="AD8">
         <v>25</v>
       </c>
       <c r="AE8">
-        <v>0.20314912009879599</v>
+        <v>0.19495490896716</v>
       </c>
       <c r="AF8">
-        <v>0.2303</v>
+        <v>0.22914999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.32</v>
+        <v>0.42848484848484802</v>
       </c>
       <c r="AH8">
-        <v>5.3565846511770898</v>
+        <v>5.0809162949734299</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -4492,76 +4489,76 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>0.164142463270008</v>
+        <v>0.15476488467727501</v>
       </c>
       <c r="D9">
-        <v>0.21729999999999999</v>
+        <v>0.21640000000000001</v>
       </c>
       <c r="E9">
-        <v>0.39212121212121198</v>
+        <v>0.50303030303030305</v>
       </c>
       <c r="F9">
-        <v>5.2801526929434601</v>
+        <v>4.9834657692887303</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
       <c r="J9">
-        <v>0.18942336420675199</v>
+        <v>0.17612524461839499</v>
       </c>
       <c r="K9">
-        <v>0.25359999999999999</v>
+        <v>0.2475</v>
       </c>
       <c r="L9">
-        <v>0.36286407766990297</v>
+        <v>0.49696601941747598</v>
       </c>
       <c r="M9">
-        <v>5.3074411348183199</v>
+        <v>4.9676529067673698</v>
       </c>
       <c r="P9">
         <v>30</v>
       </c>
       <c r="Q9">
-        <v>0.19855110347660501</v>
+        <v>0.187531172069825</v>
       </c>
       <c r="R9">
-        <v>0.26584999999999998</v>
+        <v>0.26319999999999999</v>
       </c>
       <c r="S9">
-        <v>0.37515151515151501</v>
+        <v>0.48606060606060603</v>
       </c>
       <c r="T9">
-        <v>5.3026768018331003</v>
+        <v>4.9875934125313099</v>
       </c>
       <c r="W9">
         <v>30</v>
       </c>
       <c r="X9">
-        <v>0.19878303718082699</v>
+        <v>0.18533807829181501</v>
       </c>
       <c r="Y9">
-        <v>0.26624999999999999</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.38012048192771097</v>
+        <v>0.48674698795180699</v>
       </c>
       <c r="AA9">
-        <v>5.3051603987219904</v>
+        <v>4.9835760256452701</v>
       </c>
       <c r="AD9">
         <v>30</v>
       </c>
       <c r="AE9">
-        <v>0.193572693365482</v>
+        <v>0.181526848027347</v>
       </c>
       <c r="AF9">
-        <v>0.25690000000000002</v>
+        <v>0.25490000000000002</v>
       </c>
       <c r="AG9">
-        <v>0.38666666666666699</v>
+        <v>0.48727272727272702</v>
       </c>
       <c r="AH9">
-        <v>5.2884680091338696</v>
+        <v>4.9968804372477704</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -4572,16 +4569,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.28207847295864302</v>
+        <v>0.29798515376458101</v>
       </c>
       <c r="D10">
-        <v>1.3299999999999999E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="E10">
-        <v>2.48484848484848E-2</v>
+        <v>4.12121212121212E-2</v>
       </c>
       <c r="F10">
-        <v>5.8924861473239902</v>
+        <v>5.6953049098329496</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4590,16 +4587,16 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.36161187698833502</v>
+        <v>0.35524920466595999</v>
       </c>
       <c r="K10">
-        <v>1.7049999999999999E-2</v>
+        <v>1.6750000000000001E-2</v>
       </c>
       <c r="L10">
-        <v>2.18446601941748E-2</v>
+        <v>3.8228155339805801E-2</v>
       </c>
       <c r="M10">
-        <v>5.8740848900419502</v>
+        <v>5.7106941123011197</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -4608,16 +4605,16 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.41251325556733798</v>
+        <v>0.40933191940615099</v>
       </c>
       <c r="R10">
-        <v>1.9449999999999999E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="S10">
-        <v>0.02</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="T10">
-        <v>5.8890869094068101</v>
+        <v>5.7166337898341597</v>
       </c>
       <c r="V10">
         <v>10</v>
@@ -4626,16 +4623,16 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0.455991516436904</v>
+        <v>0.45387062566277803</v>
       </c>
       <c r="Y10">
-        <v>2.1499999999999998E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="Z10">
-        <v>2.1084337349397599E-2</v>
+        <v>3.6746987951807197E-2</v>
       </c>
       <c r="AA10">
-        <v>5.8704100444105602</v>
+        <v>5.6877710380946302</v>
       </c>
       <c r="AC10">
         <v>10</v>
@@ -4644,16 +4641,16 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.406150583244963</v>
+        <v>0.40933191940615099</v>
       </c>
       <c r="AF10">
-        <v>1.915E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="AG10">
-        <v>1.9393939393939401E-2</v>
+        <v>3.4545454545454497E-2</v>
       </c>
       <c r="AH10">
-        <v>5.9068733883830804</v>
+        <v>5.7318454544730502</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -4661,76 +4658,76 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.23266171792152701</v>
+        <v>0.235206786850477</v>
       </c>
       <c r="D11">
-        <v>5.4850000000000003E-2</v>
+        <v>5.5449999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>5.3939393939393898E-2</v>
+        <v>0.10727272727272701</v>
       </c>
       <c r="F11">
-        <v>5.7891630224665098</v>
+        <v>5.5762086147179604</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11">
-        <v>0.28738069989395498</v>
+        <v>0.29056203605514302</v>
       </c>
       <c r="K11">
-        <v>6.7750000000000005E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="L11">
-        <v>5.0364077669902897E-2</v>
+        <v>0.101941747572816</v>
       </c>
       <c r="M11">
-        <v>5.7867344299404397</v>
+        <v>5.5782076073283502</v>
       </c>
       <c r="P11">
         <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.316861081654295</v>
+        <v>0.33128313891834599</v>
       </c>
       <c r="R11">
-        <v>7.4700000000000003E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="S11">
-        <v>4.7878787878787903E-2</v>
+        <v>9.8181818181818203E-2</v>
       </c>
       <c r="T11">
-        <v>5.7846587996646797</v>
+        <v>5.5888491902623798</v>
       </c>
       <c r="W11">
         <v>5</v>
       </c>
       <c r="X11">
-        <v>0.32598091198303297</v>
+        <v>0.34061505832449601</v>
       </c>
       <c r="Y11">
-        <v>7.6850000000000002E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="Z11">
-        <v>4.6987951807228902E-2</v>
+        <v>9.0963855421686807E-2</v>
       </c>
       <c r="AA11">
-        <v>5.7748954068528997</v>
+        <v>5.5881006907922703</v>
       </c>
       <c r="AD11">
         <v>5</v>
       </c>
       <c r="AE11">
-        <v>0.30031813361611898</v>
+        <v>0.32937433722163301</v>
       </c>
       <c r="AF11">
-        <v>7.0800000000000002E-2</v>
+        <v>7.7649999999999997E-2</v>
       </c>
       <c r="AG11">
-        <v>4.6666666666666697E-2</v>
+        <v>9.7575757575757593E-2</v>
       </c>
       <c r="AH11">
-        <v>5.7880282853217597</v>
+        <v>5.5915386702259804</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -4738,76 +4735,76 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.202439024390244</v>
+        <v>0.21039236479321299</v>
       </c>
       <c r="D12">
-        <v>9.5449999999999993E-2</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>9.6363636363636401E-2</v>
+        <v>0.174545454545455</v>
       </c>
       <c r="F12">
-        <v>5.7065260466921197</v>
+        <v>5.48233559129363</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0.240084835630965</v>
+        <v>0.254188759278897</v>
       </c>
       <c r="K12">
-        <v>0.1132</v>
+        <v>0.11985</v>
       </c>
       <c r="L12">
-        <v>9.2839805825242705E-2</v>
+        <v>0.163834951456311</v>
       </c>
       <c r="M12">
-        <v>5.6996731533132898</v>
+        <v>5.4864561087015202</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="Q12">
-        <v>0.261399787910923</v>
+        <v>0.28229056203605501</v>
       </c>
       <c r="R12">
-        <v>0.12325</v>
+        <v>0.1331</v>
       </c>
       <c r="S12">
-        <v>8.24242424242424E-2</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="T12">
-        <v>5.6988053434390196</v>
+        <v>5.4836262357793997</v>
       </c>
       <c r="W12">
         <v>10</v>
       </c>
       <c r="X12">
-        <v>0.26776246023329803</v>
+        <v>0.28388123011664901</v>
       </c>
       <c r="Y12">
-        <v>0.12625</v>
+        <v>0.13385</v>
       </c>
       <c r="Z12">
-        <v>7.7108433734939794E-2</v>
+        <v>0.15722891566265099</v>
       </c>
       <c r="AA12">
-        <v>5.6958400000930203</v>
+        <v>5.4878832682608198</v>
       </c>
       <c r="AD12">
         <v>10</v>
       </c>
       <c r="AE12">
-        <v>0.254294803817603</v>
+        <v>0.27751855779427398</v>
       </c>
       <c r="AF12">
-        <v>0.11990000000000001</v>
+        <v>0.13084999999999999</v>
       </c>
       <c r="AG12">
-        <v>8.3636363636363606E-2</v>
+        <v>0.160606060606061</v>
       </c>
       <c r="AH12">
-        <v>5.6961255788277096</v>
+        <v>5.4904660850231997</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -4815,76 +4812,76 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.18607281724991201</v>
+        <v>0.194697773064687</v>
       </c>
       <c r="D13">
-        <v>0.13159999999999999</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="E13">
-        <v>0.131515151515152</v>
+        <v>0.233939393939394</v>
       </c>
       <c r="F13">
-        <v>5.6352569745074996</v>
+        <v>5.4015205621023501</v>
       </c>
       <c r="I13">
         <v>15</v>
       </c>
       <c r="J13">
-        <v>0.21491693177801299</v>
+        <v>0.23032873806998899</v>
       </c>
       <c r="K13">
-        <v>0.152</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="L13">
-        <v>0.12378640776699</v>
+        <v>0.228155339805825</v>
       </c>
       <c r="M13">
-        <v>5.6309099939275802</v>
+        <v>5.3964255903262899</v>
       </c>
       <c r="P13">
         <v>15</v>
       </c>
       <c r="Q13">
-        <v>0.234924001413927</v>
+        <v>0.25083068221986599</v>
       </c>
       <c r="R13">
-        <v>0.16614999999999999</v>
+        <v>0.1774</v>
       </c>
       <c r="S13">
-        <v>0.11333333333333299</v>
+        <v>0.22909090909090901</v>
       </c>
       <c r="T13">
-        <v>5.6369083053857798</v>
+        <v>5.3937718411019997</v>
       </c>
       <c r="W13">
         <v>15</v>
       </c>
       <c r="X13">
-        <v>0.23697419582891499</v>
+        <v>0.25075998586072801</v>
       </c>
       <c r="Y13">
-        <v>0.1676</v>
+        <v>0.17735000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.11265060240963901</v>
+        <v>0.228313253012048</v>
       </c>
       <c r="AA13">
-        <v>5.6286341478697901</v>
+        <v>5.4001578882879802</v>
       </c>
       <c r="AD13">
         <v>15</v>
       </c>
       <c r="AE13">
-        <v>0.228561329091552</v>
+        <v>0.24291268999646501</v>
       </c>
       <c r="AF13">
-        <v>0.16164999999999999</v>
+        <v>0.17180000000000001</v>
       </c>
       <c r="AG13">
-        <v>0.118787878787879</v>
+        <v>0.223030303030303</v>
       </c>
       <c r="AH13">
-        <v>5.6257018753575396</v>
+        <v>5.3947141545445296</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -4892,76 +4889,76 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.174019088016967</v>
+        <v>0.18239660657476101</v>
       </c>
       <c r="D14">
-        <v>0.1641</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E14">
-        <v>0.17272727272727301</v>
+        <v>0.29030303030303001</v>
       </c>
       <c r="F14">
-        <v>5.5663567732015498</v>
+        <v>5.3255807577750698</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14">
-        <v>0.201824159507901</v>
+        <v>0.21261930010604499</v>
       </c>
       <c r="K14">
-        <v>0.1903</v>
+        <v>0.20050000000000001</v>
       </c>
       <c r="L14">
-        <v>0.160800970873786</v>
+        <v>0.28944174757281599</v>
       </c>
       <c r="M14">
-        <v>5.5611519649448704</v>
+        <v>5.3149251720516704</v>
       </c>
       <c r="P14">
         <v>20</v>
       </c>
       <c r="Q14">
-        <v>0.21611876988335099</v>
+        <v>0.22847295864263001</v>
       </c>
       <c r="R14">
-        <v>0.20380000000000001</v>
+        <v>0.21545</v>
       </c>
       <c r="S14">
-        <v>0.15515151515151501</v>
+        <v>0.28242424242424202</v>
       </c>
       <c r="T14">
-        <v>5.5722519428683102</v>
+        <v>5.31936183766555</v>
       </c>
       <c r="W14">
         <v>20</v>
       </c>
       <c r="X14">
-        <v>0.21829268292682899</v>
+        <v>0.22836691410392401</v>
       </c>
       <c r="Y14">
-        <v>0.20585000000000001</v>
+        <v>0.21535000000000001</v>
       </c>
       <c r="Z14">
-        <v>0.143975903614458</v>
+        <v>0.29216867469879498</v>
       </c>
       <c r="AA14">
-        <v>5.5634737992618302</v>
+        <v>5.3167545424180096</v>
       </c>
       <c r="AD14">
         <v>20</v>
       </c>
       <c r="AE14">
-        <v>0.21076352067868501</v>
+        <v>0.22216330858960801</v>
       </c>
       <c r="AF14">
-        <v>0.19875000000000001</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="AG14">
-        <v>0.15333333333333299</v>
+        <v>0.294545454545455</v>
       </c>
       <c r="AH14">
-        <v>5.55989466575239</v>
+        <v>5.3139526133485102</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -4969,76 +4966,76 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>0.164742338059258</v>
+        <v>0.171792152704136</v>
       </c>
       <c r="D15">
-        <v>0.19405</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="E15">
-        <v>0.205454545454545</v>
+        <v>0.35636363636363599</v>
       </c>
       <c r="F15">
-        <v>5.4983883108601503</v>
+        <v>5.2512052067705897</v>
       </c>
       <c r="I15">
         <v>25</v>
       </c>
       <c r="J15">
-        <v>0.19134937815696801</v>
+        <v>0.19647932131495199</v>
       </c>
       <c r="K15">
-        <v>0.22539999999999999</v>
+        <v>0.2316</v>
       </c>
       <c r="L15">
-        <v>0.204490291262136</v>
+        <v>0.35012135922330101</v>
       </c>
       <c r="M15">
-        <v>5.4931292056848999</v>
+        <v>5.2425674830540698</v>
       </c>
       <c r="P15">
         <v>25</v>
       </c>
       <c r="Q15">
-        <v>0.203266864658464</v>
+        <v>0.21085896076352101</v>
       </c>
       <c r="R15">
-        <v>0.23955000000000001</v>
+        <v>0.24854999999999999</v>
       </c>
       <c r="S15">
-        <v>0.18606060606060601</v>
+        <v>0.34484848484848502</v>
       </c>
       <c r="T15">
-        <v>5.5057972407441902</v>
+        <v>5.2484188812094104</v>
       </c>
       <c r="W15">
         <v>25</v>
       </c>
       <c r="X15">
-        <v>0.20340349685961601</v>
+        <v>0.21021594332018201</v>
       </c>
       <c r="Y15">
-        <v>0.23965</v>
+        <v>0.24775</v>
       </c>
       <c r="Z15">
-        <v>0.18915662650602399</v>
+        <v>0.351204819277108</v>
       </c>
       <c r="AA15">
-        <v>5.4981756601167504</v>
+        <v>5.2405771077387104</v>
       </c>
       <c r="AD15">
         <v>25</v>
       </c>
       <c r="AE15">
-        <v>0.19818328451971601</v>
+        <v>0.205582894960122</v>
       </c>
       <c r="AF15">
-        <v>0.23344999999999999</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="AG15">
-        <v>0.18848484848484801</v>
+        <v>0.354545454545455</v>
       </c>
       <c r="AH15">
-        <v>5.4939799506227702</v>
+        <v>5.2398018131923303</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -5046,76 +5043,76 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>0.158390926811979</v>
+        <v>0.162234794908062</v>
       </c>
       <c r="D16">
-        <v>0.22345000000000001</v>
+        <v>0.22939999999999999</v>
       </c>
       <c r="E16">
-        <v>0.25151515151515202</v>
+        <v>0.410909090909091</v>
       </c>
       <c r="F16">
-        <v>5.4328630488433998</v>
+        <v>5.1840167450435803</v>
       </c>
       <c r="I16">
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.18087332836720901</v>
+        <v>0.18441145281018001</v>
       </c>
       <c r="K16">
-        <v>0.25495000000000001</v>
+        <v>0.26085000000000003</v>
       </c>
       <c r="L16">
-        <v>0.24696601941747601</v>
+        <v>0.408980582524272</v>
       </c>
       <c r="M16">
-        <v>5.4301745498193901</v>
+        <v>5.1766283680818503</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16">
-        <v>0.191692046178908</v>
+        <v>0.19632378932485001</v>
       </c>
       <c r="R16">
-        <v>0.27065</v>
+        <v>0.2777</v>
       </c>
       <c r="S16">
-        <v>0.22848484848484801</v>
+        <v>0.39515151515151498</v>
       </c>
       <c r="T16">
-        <v>5.4448315291774803</v>
+        <v>5.1831775640879796</v>
       </c>
       <c r="W16">
         <v>30</v>
       </c>
       <c r="X16">
-        <v>0.19233493907622601</v>
+        <v>0.19561527581329599</v>
       </c>
       <c r="Y16">
-        <v>0.27150000000000002</v>
+        <v>0.27660000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.23915662650602401</v>
+        <v>0.41566265060240998</v>
       </c>
       <c r="AA16">
-        <v>5.43611506446842</v>
+        <v>5.1734011477939896</v>
       </c>
       <c r="AD16">
         <v>30</v>
       </c>
       <c r="AE16">
-        <v>0.187132222616094</v>
+        <v>0.19186025953820601</v>
       </c>
       <c r="AF16">
-        <v>0.26395000000000002</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="AG16">
-        <v>0.24303030303030301</v>
+        <v>0.40363636363636402</v>
       </c>
       <c r="AH16">
-        <v>5.42958465926296</v>
+        <v>5.1693455954781298</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
@@ -5126,16 +5123,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.28738069989395498</v>
+        <v>0.29162248144220598</v>
       </c>
       <c r="D17">
-        <v>1.355E-2</v>
+        <v>1.375E-2</v>
       </c>
       <c r="E17">
-        <v>2.9090909090909101E-2</v>
+        <v>4.3030303030303002E-2</v>
       </c>
       <c r="F17">
-        <v>5.8771474797607501</v>
+        <v>5.6846990696586497</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -5144,16 +5141,16 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.376458112407211</v>
+        <v>0.35843054082714698</v>
       </c>
       <c r="K17">
-        <v>1.7749999999999998E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="L17">
-        <v>2.6699029126213601E-2</v>
+        <v>4.12621359223301E-2</v>
       </c>
       <c r="M17">
-        <v>5.8576359807172702</v>
+        <v>5.6978120755560902</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -5162,16 +5159,16 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.42417815482502702</v>
+        <v>0.42948038176033898</v>
       </c>
       <c r="R17">
-        <v>0.02</v>
+        <v>2.0250000000000001E-2</v>
       </c>
       <c r="S17">
-        <v>2.2424242424242399E-2</v>
+        <v>3.6969696969697E-2</v>
       </c>
       <c r="T17">
-        <v>5.8725126161038004</v>
+        <v>5.7132017747973398</v>
       </c>
       <c r="V17">
         <v>20</v>
@@ -5180,16 +5177,16 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0.45387062566277803</v>
+        <v>0.43266171792152702</v>
       </c>
       <c r="Y17">
-        <v>2.1399999999999999E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="Z17">
-        <v>2.2891566265060202E-2</v>
+        <v>3.7349397590361398E-2</v>
       </c>
       <c r="AA17">
-        <v>5.8613018415098601</v>
+        <v>5.6726651142802096</v>
       </c>
       <c r="AC17">
         <v>20</v>
@@ -5198,16 +5195,16 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>0.40296924708377502</v>
+        <v>0.39554612937433697</v>
       </c>
       <c r="AF17">
-        <v>1.9E-2</v>
+        <v>1.865E-2</v>
       </c>
       <c r="AG17">
-        <v>2.2424242424242399E-2</v>
+        <v>4.0606060606060597E-2</v>
       </c>
       <c r="AH17">
-        <v>5.89168080681665</v>
+        <v>5.7105386605621202</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -5215,76 +5212,76 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.23096500530222699</v>
+        <v>0.235843054082715</v>
       </c>
       <c r="D18">
-        <v>5.4449999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E18">
-        <v>5.15151515151515E-2</v>
+        <v>0.101818181818182</v>
       </c>
       <c r="F18">
-        <v>5.7621530193907402</v>
+        <v>5.5839319095765703</v>
       </c>
       <c r="I18">
         <v>5</v>
       </c>
       <c r="J18">
-        <v>0.28356309650053002</v>
+        <v>0.28377518557794301</v>
       </c>
       <c r="K18">
-        <v>6.6850000000000007E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="L18">
-        <v>4.9757281553398099E-2</v>
+        <v>9.1019417475728198E-2</v>
       </c>
       <c r="M18">
-        <v>5.7550089793935104</v>
+        <v>5.5886633991445596</v>
       </c>
       <c r="P18">
         <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.31834570519618199</v>
+        <v>0.32979851537645799</v>
       </c>
       <c r="R18">
-        <v>7.5050000000000006E-2</v>
+        <v>7.775E-2</v>
       </c>
       <c r="S18">
-        <v>4.4848484848484797E-2</v>
+        <v>8.24242424242424E-2</v>
       </c>
       <c r="T18">
-        <v>5.76318694215015</v>
+        <v>5.6092237680081896</v>
       </c>
       <c r="W18">
         <v>5</v>
       </c>
       <c r="X18">
-        <v>0.32279957582184499</v>
+        <v>0.33700954400848399</v>
       </c>
       <c r="Y18">
-        <v>7.6100000000000001E-2</v>
+        <v>7.9450000000000007E-2</v>
       </c>
       <c r="Z18">
-        <v>4.33734939759036E-2</v>
+        <v>9.0963855421686807E-2</v>
       </c>
       <c r="AA18">
-        <v>5.7633668995271199</v>
+        <v>5.5970359431902201</v>
       </c>
       <c r="AD18">
         <v>5</v>
       </c>
       <c r="AE18">
-        <v>0.29437963944856799</v>
+        <v>0.316648992576882</v>
       </c>
       <c r="AF18">
-        <v>6.9400000000000003E-2</v>
+        <v>7.4649999999999994E-2</v>
       </c>
       <c r="AG18">
-        <v>4.60606060606061E-2</v>
+        <v>8.7272727272727293E-2</v>
       </c>
       <c r="AH18">
-        <v>5.7657878838661398</v>
+        <v>5.5884745860557796</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -5292,76 +5289,76 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.200212089077413</v>
+        <v>0.21049840933191899</v>
       </c>
       <c r="D19">
-        <v>9.4399999999999998E-2</v>
+        <v>9.9250000000000005E-2</v>
       </c>
       <c r="E19">
-        <v>7.8787878787878796E-2</v>
+        <v>0.14424242424242401</v>
       </c>
       <c r="F19">
-        <v>5.6881362038166303</v>
+        <v>5.5022549584853797</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
-        <v>0.236479321314952</v>
+        <v>0.251537645811241</v>
       </c>
       <c r="K19">
-        <v>0.1115</v>
+        <v>0.1186</v>
       </c>
       <c r="L19">
-        <v>7.4635922330097096E-2</v>
+        <v>0.14259708737864099</v>
       </c>
       <c r="M19">
-        <v>5.6860144087286999</v>
+        <v>5.4998479512397704</v>
       </c>
       <c r="P19">
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>0.25524920466596002</v>
+        <v>0.27751855779427398</v>
       </c>
       <c r="R19">
-        <v>0.12035</v>
+        <v>0.13084999999999999</v>
       </c>
       <c r="S19">
-        <v>7.0909090909090894E-2</v>
+        <v>0.132121212121212</v>
       </c>
       <c r="T19">
-        <v>5.6950402172551904</v>
+        <v>5.5181553365332503</v>
       </c>
       <c r="W19">
         <v>10</v>
       </c>
       <c r="X19">
-        <v>0.261293743372216</v>
+        <v>0.28663838812301201</v>
       </c>
       <c r="Y19">
-        <v>0.1232</v>
+        <v>0.13514999999999999</v>
       </c>
       <c r="Z19">
-        <v>6.5060240963855404E-2</v>
+        <v>0.13674698795180701</v>
       </c>
       <c r="AA19">
-        <v>5.7003481164518304</v>
+        <v>5.5048621120145498</v>
       </c>
       <c r="AD19">
         <v>10</v>
       </c>
       <c r="AE19">
-        <v>0.247932131495228</v>
+        <v>0.27444326617179199</v>
       </c>
       <c r="AF19">
-        <v>0.1169</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="AG19">
-        <v>6.9696969696969702E-2</v>
+        <v>0.133939393939394</v>
       </c>
       <c r="AH19">
-        <v>5.6877255086361398</v>
+        <v>5.5119347661172</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -5369,76 +5366,76 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>0.182608695652174</v>
+        <v>0.19420289855072501</v>
       </c>
       <c r="D20">
-        <v>0.12914999999999999</v>
+        <v>0.13735</v>
       </c>
       <c r="E20">
-        <v>0.100606060606061</v>
+        <v>0.192727272727273</v>
       </c>
       <c r="F20">
-        <v>5.6388762410578996</v>
+        <v>5.4437108181459104</v>
       </c>
       <c r="I20">
         <v>15</v>
       </c>
       <c r="J20">
-        <v>0.21145281018027601</v>
+        <v>0.22792506185931399</v>
       </c>
       <c r="K20">
-        <v>0.14954999999999999</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="L20">
-        <v>9.7087378640776698E-2</v>
+        <v>0.180218446601942</v>
       </c>
       <c r="M20">
-        <v>5.6373679709775404</v>
+        <v>5.44352646468821</v>
       </c>
       <c r="P20">
         <v>15</v>
       </c>
       <c r="Q20">
-        <v>0.22785436550017699</v>
+        <v>0.25182043124779102</v>
       </c>
       <c r="R20">
-        <v>0.16114999999999999</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="S20">
-        <v>9.2121212121212104E-2</v>
+        <v>0.175757575757576</v>
       </c>
       <c r="T20">
-        <v>5.6464650194289296</v>
+        <v>5.4571538050566701</v>
       </c>
       <c r="W20">
         <v>15</v>
       </c>
       <c r="X20">
-        <v>0.23287380699894</v>
+        <v>0.251537645811241</v>
       </c>
       <c r="Y20">
-        <v>0.16470000000000001</v>
+        <v>0.1779</v>
       </c>
       <c r="Z20">
-        <v>9.2168674698795194E-2</v>
+        <v>0.17771084337349399</v>
       </c>
       <c r="AA20">
-        <v>5.6457215191810102</v>
+        <v>5.4426673333111903</v>
       </c>
       <c r="AD20">
         <v>15</v>
       </c>
       <c r="AE20">
-        <v>0.22332979851537599</v>
+        <v>0.24298338635560299</v>
       </c>
       <c r="AF20">
-        <v>0.15795000000000001</v>
+        <v>0.17185</v>
       </c>
       <c r="AG20">
-        <v>9.3939393939393906E-2</v>
+        <v>0.176969696969697</v>
       </c>
       <c r="AH20">
-        <v>5.6356353627287401</v>
+        <v>5.4501727300064804</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -5446,76 +5443,76 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.17142099681866399</v>
+        <v>0.181813361611877</v>
       </c>
       <c r="D21">
-        <v>0.16164999999999999</v>
+        <v>0.17144999999999999</v>
       </c>
       <c r="E21">
-        <v>0.12727272727272701</v>
+        <v>0.24060606060606099</v>
       </c>
       <c r="F21">
-        <v>5.5920730772330396</v>
+        <v>5.3901407356048603</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21">
-        <v>0.19353128313891799</v>
+        <v>0.20996818663838801</v>
       </c>
       <c r="K21">
-        <v>0.1825</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="L21">
-        <v>0.12378640776699</v>
+        <v>0.22208737864077699</v>
       </c>
       <c r="M21">
-        <v>5.5952129653573603</v>
+        <v>5.3939271539158398</v>
       </c>
       <c r="P21">
         <v>20</v>
       </c>
       <c r="Q21">
-        <v>0.211028632025451</v>
+        <v>0.22990455991516401</v>
       </c>
       <c r="R21">
-        <v>0.19900000000000001</v>
+        <v>0.21679999999999999</v>
       </c>
       <c r="S21">
-        <v>0.107878787878788</v>
+        <v>0.22545454545454499</v>
       </c>
       <c r="T21">
-        <v>5.6020127388019301</v>
+        <v>5.4007561246761702</v>
       </c>
       <c r="W21">
         <v>20</v>
       </c>
       <c r="X21">
-        <v>0.21489925768822901</v>
+        <v>0.23165429480381799</v>
       </c>
       <c r="Y21">
-        <v>0.20265</v>
+        <v>0.21845000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.114457831325301</v>
+        <v>0.22048192771084299</v>
       </c>
       <c r="AA21">
-        <v>5.6000602792101102</v>
+        <v>5.3928024841405797</v>
       </c>
       <c r="AD21">
         <v>20</v>
       </c>
       <c r="AE21">
-        <v>0.20556733828207799</v>
+        <v>0.22396606574761399</v>
       </c>
       <c r="AF21">
-        <v>0.19384999999999999</v>
+        <v>0.2112</v>
       </c>
       <c r="AG21">
-        <v>0.116363636363636</v>
+        <v>0.21636363636363601</v>
       </c>
       <c r="AH21">
-        <v>5.5941905658396598</v>
+        <v>5.3931179457844802</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
@@ -5523,76 +5520,76 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.16152704135737</v>
+        <v>0.17034994697773101</v>
       </c>
       <c r="D22">
-        <v>0.19040000000000001</v>
+        <v>0.20080000000000001</v>
       </c>
       <c r="E22">
-        <v>0.148484848484848</v>
+        <v>0.28424242424242402</v>
       </c>
       <c r="F22">
-        <v>5.55173880981806</v>
+        <v>5.3407005316899303</v>
       </c>
       <c r="I22">
         <v>25</v>
       </c>
       <c r="J22">
-        <v>0.182905620360551</v>
+        <v>0.19601272534464501</v>
       </c>
       <c r="K22">
-        <v>0.21560000000000001</v>
+        <v>0.23105000000000001</v>
       </c>
       <c r="L22">
-        <v>0.14320388349514601</v>
+        <v>0.26334951456310701</v>
       </c>
       <c r="M22">
-        <v>5.5552344693923503</v>
+        <v>5.3489994810680797</v>
       </c>
       <c r="P22">
         <v>25</v>
       </c>
       <c r="Q22">
-        <v>0.19762460233297999</v>
+        <v>0.21264050901378601</v>
       </c>
       <c r="R22">
-        <v>0.23294999999999999</v>
+        <v>0.25064999999999998</v>
       </c>
       <c r="S22">
-        <v>0.133333333333333</v>
+        <v>0.263030303030303</v>
       </c>
       <c r="T22">
-        <v>5.5619600274476397</v>
+        <v>5.3471163116715399</v>
       </c>
       <c r="W22">
         <v>25</v>
       </c>
       <c r="X22">
-        <v>0.20101802757157999</v>
+        <v>0.21569459172852601</v>
       </c>
       <c r="Y22">
-        <v>0.23694999999999999</v>
+        <v>0.25424999999999998</v>
       </c>
       <c r="Z22">
-        <v>0.13734939759036099</v>
+        <v>0.25843373493975902</v>
       </c>
       <c r="AA22">
-        <v>5.5553310528429503</v>
+        <v>5.3471714643889898</v>
       </c>
       <c r="AD22">
         <v>25</v>
       </c>
       <c r="AE22">
-        <v>0.19177094379639401</v>
+        <v>0.20636267232237501</v>
       </c>
       <c r="AF22">
-        <v>0.22605</v>
+        <v>0.24324999999999999</v>
       </c>
       <c r="AG22">
-        <v>0.14303030303030301</v>
+        <v>0.26060606060606101</v>
       </c>
       <c r="AH22">
-        <v>5.55418379256247</v>
+        <v>5.3412240488136904</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
@@ -5600,76 +5597,76 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>0.154012018381053</v>
+        <v>0.162212796041004</v>
       </c>
       <c r="D23">
-        <v>0.21784999999999999</v>
+        <v>0.22944999999999999</v>
       </c>
       <c r="E23">
-        <v>0.17090909090909101</v>
+        <v>0.324242424242424</v>
       </c>
       <c r="F23">
-        <v>5.5119187495885997</v>
+        <v>5.2941429847371504</v>
       </c>
       <c r="I23">
         <v>30</v>
       </c>
       <c r="J23">
-        <v>0.17486744432661699</v>
+        <v>0.184057971014493</v>
       </c>
       <c r="K23">
-        <v>0.24734999999999999</v>
+        <v>0.26035000000000003</v>
       </c>
       <c r="L23">
-        <v>0.16686893203883499</v>
+        <v>0.30400485436893199</v>
       </c>
       <c r="M23">
-        <v>5.5151740673717704</v>
+        <v>5.3037697876627199</v>
       </c>
       <c r="P23">
         <v>30</v>
       </c>
       <c r="Q23">
-        <v>0.188511841640156</v>
+        <v>0.19925768822905601</v>
       </c>
       <c r="R23">
-        <v>0.26665</v>
+        <v>0.28184999999999999</v>
       </c>
       <c r="S23">
-        <v>0.15454545454545501</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="T23">
-        <v>5.5200655495740296</v>
+        <v>5.3007958873599401</v>
       </c>
       <c r="W23">
         <v>30</v>
       </c>
       <c r="X23">
-        <v>0.189254153411099</v>
+        <v>0.202615765288088</v>
       </c>
       <c r="Y23">
-        <v>0.26769999999999999</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="Z23">
-        <v>0.15722891566265099</v>
+        <v>0.30602409638554201</v>
       </c>
       <c r="AA23">
-        <v>5.5116121995393001</v>
+        <v>5.2997498892002897</v>
       </c>
       <c r="AD23">
         <v>30</v>
       </c>
       <c r="AE23">
-        <v>0.18165429480381801</v>
+        <v>0.19225874867444301</v>
       </c>
       <c r="AF23">
-        <v>0.25695000000000001</v>
+        <v>0.27195000000000003</v>
       </c>
       <c r="AG23">
-        <v>0.162424242424242</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="AH23">
-        <v>5.5124162168673996</v>
+        <v>5.2989634561593899</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
@@ -5680,16 +5677,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.27995758218451799</v>
+        <v>0.279957582184517</v>
       </c>
       <c r="D24">
         <v>1.32E-2</v>
       </c>
       <c r="E24">
-        <v>3.03030303030303E-2</v>
+        <v>4.60606060606061E-2</v>
       </c>
       <c r="F24">
-        <v>5.8766346119287096</v>
+        <v>5.6889937476617698</v>
       </c>
       <c r="H24">
         <v>40</v>
@@ -5698,16 +5695,16 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.36585365853658502</v>
+        <v>0.36479321314952301</v>
       </c>
       <c r="K24">
-        <v>1.7250000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="L24">
-        <v>2.7912621359223299E-2</v>
+        <v>4.85436893203883E-2</v>
       </c>
       <c r="M24">
-        <v>5.8612416694262599</v>
+        <v>5.69508131484851</v>
       </c>
       <c r="O24">
         <v>40</v>
@@ -5716,16 +5713,16 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.42629904559915199</v>
+        <v>0.42099681866383898</v>
       </c>
       <c r="R24">
-        <v>2.01E-2</v>
+        <v>1.985E-2</v>
       </c>
       <c r="S24">
-        <v>2.3636363636363601E-2</v>
+        <v>3.3939393939393901E-2</v>
       </c>
       <c r="T24">
-        <v>5.8696596508251098</v>
+        <v>5.7192212459234897</v>
       </c>
       <c r="V24">
         <v>40</v>
@@ -5734,16 +5731,16 @@
         <v>1</v>
       </c>
       <c r="X24">
-        <v>0.45493107104984098</v>
+        <v>0.43372216330858998</v>
       </c>
       <c r="Y24">
-        <v>2.145E-2</v>
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="Z24">
-        <v>2.40963855421687E-2</v>
+        <v>3.8554216867469897E-2</v>
       </c>
       <c r="AA24">
-        <v>5.8539248842292704</v>
+        <v>5.6628436918968204</v>
       </c>
       <c r="AC24">
         <v>40</v>
@@ -5752,16 +5749,16 @@
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>0.40402969247083798</v>
+        <v>0.39872746553552502</v>
       </c>
       <c r="AF24">
-        <v>1.9050000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="AG24">
-        <v>2.2424242424242399E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AH24">
-        <v>5.8865093032596096</v>
+        <v>5.7036439275094404</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
@@ -5769,76 +5766,76 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0.230752916224814</v>
+        <v>0.231601272534464</v>
       </c>
       <c r="D25">
-        <v>5.4399999999999997E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="E25">
-        <v>5.9393939393939402E-2</v>
+        <v>9.87878787878788E-2</v>
       </c>
       <c r="F25">
-        <v>5.7446168467081398</v>
+        <v>5.5793574825315604</v>
       </c>
       <c r="I25">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>0.27720042417815499</v>
+        <v>0.27868504772004199</v>
       </c>
       <c r="K25">
-        <v>6.5350000000000005E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="L25">
-        <v>5.3398058252427202E-2</v>
+        <v>9.1626213592232997E-2</v>
       </c>
       <c r="M25">
-        <v>5.7480864114604504</v>
+        <v>5.5829085631583899</v>
       </c>
       <c r="P25">
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>0.31452810180275698</v>
+        <v>0.320890774125133</v>
       </c>
       <c r="R25">
-        <v>7.4149999999999994E-2</v>
+        <v>7.5649999999999995E-2</v>
       </c>
       <c r="S25">
-        <v>4.6666666666666697E-2</v>
+        <v>0.08</v>
       </c>
       <c r="T25">
-        <v>5.7526770513691199</v>
+        <v>5.6137143311104696</v>
       </c>
       <c r="W25">
         <v>5</v>
       </c>
       <c r="X25">
-        <v>0.316648992576882</v>
+        <v>0.32598091198303297</v>
       </c>
       <c r="Y25">
-        <v>7.4649999999999994E-2</v>
+        <v>7.6850000000000002E-2</v>
       </c>
       <c r="Z25">
-        <v>4.6987951807228902E-2</v>
+        <v>8.4939759036144605E-2</v>
       </c>
       <c r="AA25">
-        <v>5.7477061851946303</v>
+        <v>5.5879468943914299</v>
       </c>
       <c r="AD25">
         <v>5</v>
       </c>
       <c r="AE25">
-        <v>0.28907741251325603</v>
+        <v>0.30159066808059398</v>
       </c>
       <c r="AF25">
-        <v>6.8150000000000002E-2</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="AG25">
-        <v>4.9696969696969698E-2</v>
+        <v>8.9090909090909096E-2</v>
       </c>
       <c r="AH25">
-        <v>5.7560316735254196</v>
+        <v>5.5935181538187297</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
@@ -5846,76 +5843,76 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>0.197560975609756</v>
+        <v>0.20509013785790001</v>
       </c>
       <c r="D26">
-        <v>9.3149999999999997E-2</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="E26">
-        <v>7.5757575757575801E-2</v>
+        <v>0.13757575757575799</v>
       </c>
       <c r="F26">
-        <v>5.6650866138671097</v>
+        <v>5.4945472259832497</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <v>0.22629904559915201</v>
+        <v>0.24029692470837799</v>
       </c>
       <c r="K26">
-        <v>0.1067</v>
+        <v>0.1133</v>
       </c>
       <c r="L26">
-        <v>7.2815533980582506E-2</v>
+        <v>0.13046116504854399</v>
       </c>
       <c r="M26">
-        <v>5.6708472145502897</v>
+        <v>5.4998843604896104</v>
       </c>
       <c r="P26">
         <v>10</v>
       </c>
       <c r="Q26">
-        <v>0.25174973488865299</v>
+        <v>0.27295864262990499</v>
       </c>
       <c r="R26">
-        <v>0.1187</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="S26">
-        <v>6.9090909090909106E-2</v>
+        <v>0.116969696969697</v>
       </c>
       <c r="T26">
-        <v>5.6812033221475504</v>
+        <v>5.5283525070132002</v>
       </c>
       <c r="W26">
         <v>10</v>
       </c>
       <c r="X26">
-        <v>0.25259809119830301</v>
+        <v>0.27465535524920498</v>
       </c>
       <c r="Y26">
-        <v>0.1191</v>
+        <v>0.1295</v>
       </c>
       <c r="Z26">
-        <v>6.4457831325301196E-2</v>
+        <v>0.123493975903614</v>
       </c>
       <c r="AA26">
-        <v>5.6820189969582904</v>
+        <v>5.5097228043312496</v>
       </c>
       <c r="AD26">
         <v>10</v>
       </c>
       <c r="AE26">
-        <v>0.24220572640509</v>
+        <v>0.262778366914104</v>
       </c>
       <c r="AF26">
-        <v>0.1142</v>
+        <v>0.1239</v>
       </c>
       <c r="AG26">
-        <v>6.6666666666666693E-2</v>
+        <v>0.12121212121212099</v>
       </c>
       <c r="AH26">
-        <v>5.6762076521914402</v>
+        <v>5.5189902365063803</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
@@ -5923,76 +5920,76 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>0.17765995051254899</v>
+        <v>0.18791092258748701</v>
       </c>
       <c r="D27">
-        <v>0.12565000000000001</v>
+        <v>0.13289999999999999</v>
       </c>
       <c r="E27">
-        <v>9.1515151515151494E-2</v>
+        <v>0.16545454545454499</v>
       </c>
       <c r="F27">
-        <v>5.6173173619933499</v>
+        <v>5.4431517578898596</v>
       </c>
       <c r="I27">
         <v>15</v>
       </c>
       <c r="J27">
-        <v>0.20219158713326299</v>
+        <v>0.21760339342523899</v>
       </c>
       <c r="K27">
-        <v>0.14299999999999999</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="L27">
-        <v>9.3446601941747601E-2</v>
+        <v>0.163228155339806</v>
       </c>
       <c r="M27">
-        <v>5.6195741998196098</v>
+        <v>5.4485831456449203</v>
       </c>
       <c r="P27">
         <v>15</v>
       </c>
       <c r="Q27">
-        <v>0.221703782255214</v>
+        <v>0.24637681159420299</v>
       </c>
       <c r="R27">
-        <v>0.15679999999999999</v>
+        <v>0.17424999999999999</v>
       </c>
       <c r="S27">
-        <v>8.4242424242424202E-2</v>
+        <v>0.146666666666667</v>
       </c>
       <c r="T27">
-        <v>5.6354089411873698</v>
+        <v>5.4725722392143599</v>
       </c>
       <c r="W27">
         <v>15</v>
       </c>
       <c r="X27">
-        <v>0.224955814775539</v>
+        <v>0.244326617179215</v>
       </c>
       <c r="Y27">
-        <v>0.15909999999999999</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="Z27">
-        <v>8.0722891566265095E-2</v>
+        <v>0.15602409638554199</v>
       </c>
       <c r="AA27">
-        <v>5.6309671071969403</v>
+        <v>5.4563970209344497</v>
       </c>
       <c r="AD27">
         <v>15</v>
       </c>
       <c r="AE27">
-        <v>0.21343230823612599</v>
+        <v>0.235913750441852</v>
       </c>
       <c r="AF27">
-        <v>0.15095</v>
+        <v>0.16685</v>
       </c>
       <c r="AG27">
-        <v>8.3636363636363606E-2</v>
+        <v>0.15515151515151501</v>
       </c>
       <c r="AH27">
-        <v>5.62735060524113</v>
+        <v>5.4641191822027704</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
@@ -6000,76 +5997,76 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>0.16373276776246001</v>
+        <v>0.174655355249205</v>
       </c>
       <c r="D28">
-        <v>0.15440000000000001</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="E28">
-        <v>0.107878787878788</v>
+        <v>0.20121212121212101</v>
       </c>
       <c r="F28">
-        <v>5.5802978473233802</v>
+        <v>5.40237975706978</v>
       </c>
       <c r="I28">
         <v>20</v>
       </c>
       <c r="J28">
-        <v>0.18525980911983</v>
+        <v>0.200212089077413</v>
       </c>
       <c r="K28">
-        <v>0.17469999999999999</v>
+        <v>0.1888</v>
       </c>
       <c r="L28">
-        <v>0.10497572815534</v>
+        <v>0.185072815533981</v>
       </c>
       <c r="M28">
-        <v>5.5805091234914901</v>
+        <v>5.4076974636922204</v>
       </c>
       <c r="P28">
         <v>20</v>
       </c>
       <c r="Q28">
-        <v>0.20402969247083799</v>
+        <v>0.22592788971368</v>
       </c>
       <c r="R28">
-        <v>0.19239999999999999</v>
+        <v>0.21304999999999999</v>
       </c>
       <c r="S28">
-        <v>9.6969696969696997E-2</v>
+        <v>0.17272727272727301</v>
       </c>
       <c r="T28">
-        <v>5.5967091410461096</v>
+        <v>5.4292007405623597</v>
       </c>
       <c r="W28">
         <v>20</v>
       </c>
       <c r="X28">
-        <v>0.206680805938494</v>
+        <v>0.22492046659597001</v>
       </c>
       <c r="Y28">
-        <v>0.19489999999999999</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="Z28">
-        <v>9.9397590361445798E-2</v>
+        <v>0.187951807228916</v>
       </c>
       <c r="AA28">
-        <v>5.5897503993957898</v>
+        <v>5.4149306398736599</v>
       </c>
       <c r="AD28">
         <v>20</v>
       </c>
       <c r="AE28">
-        <v>0.19490986214209999</v>
+        <v>0.216702014846235</v>
       </c>
       <c r="AF28">
-        <v>0.18379999999999999</v>
+        <v>0.20435</v>
       </c>
       <c r="AG28">
-        <v>0.103636363636364</v>
+        <v>0.19393939393939399</v>
       </c>
       <c r="AH28">
-        <v>5.5888961483481401</v>
+        <v>5.4170295429446398</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
@@ -6077,76 +6074,76 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>0.15507953340403</v>
+        <v>0.166320254506893</v>
       </c>
       <c r="D29">
-        <v>0.18279999999999999</v>
+        <v>0.19605</v>
       </c>
       <c r="E29">
-        <v>0.124848484848485</v>
+        <v>0.23090909090909101</v>
       </c>
       <c r="F29">
-        <v>5.54704418476119</v>
+        <v>5.3666426859432699</v>
       </c>
       <c r="I29">
         <v>25</v>
       </c>
       <c r="J29">
-        <v>0.17395546129374301</v>
+        <v>0.18731707317073201</v>
       </c>
       <c r="K29">
-        <v>0.20505000000000001</v>
+        <v>0.2208</v>
       </c>
       <c r="L29">
-        <v>0.12075242718446599</v>
+        <v>0.214199029126214</v>
       </c>
       <c r="M29">
-        <v>5.5497961418235997</v>
+        <v>5.3713156419594004</v>
       </c>
       <c r="P29">
         <v>25</v>
       </c>
       <c r="Q29">
-        <v>0.18939554612937401</v>
+        <v>0.21064687168610799</v>
       </c>
       <c r="R29">
-        <v>0.22325</v>
+        <v>0.24829999999999999</v>
       </c>
       <c r="S29">
-        <v>0.11030303030303</v>
+        <v>0.206060606060606</v>
       </c>
       <c r="T29">
-        <v>5.5626211304438504</v>
+        <v>5.3917395537813597</v>
       </c>
       <c r="W29">
         <v>25</v>
       </c>
       <c r="X29">
-        <v>0.191389183457052</v>
+        <v>0.20856839872746599</v>
       </c>
       <c r="Y29">
-        <v>0.22559999999999999</v>
+        <v>0.24585000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.119277108433735</v>
+        <v>0.21807228915662699</v>
       </c>
       <c r="AA29">
-        <v>5.5545769411250001</v>
+        <v>5.3786903915983899</v>
       </c>
       <c r="AD29">
         <v>25</v>
       </c>
       <c r="AE29">
-        <v>0.182311770943796</v>
+        <v>0.200763520678685</v>
       </c>
       <c r="AF29">
-        <v>0.21490000000000001</v>
+        <v>0.23665</v>
       </c>
       <c r="AG29">
-        <v>0.12060606060606099</v>
+        <v>0.218181818181818</v>
       </c>
       <c r="AH29">
-        <v>5.5549545160916498</v>
+        <v>5.37699020326626</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
@@ -6154,76 +6151,76 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.14793213149522799</v>
+        <v>0.15719335454224101</v>
       </c>
       <c r="D30">
-        <v>0.20924999999999999</v>
+        <v>0.22234999999999999</v>
       </c>
       <c r="E30">
-        <v>0.144848484848485</v>
+        <v>0.26060606060606101</v>
       </c>
       <c r="F30">
-        <v>5.51696430647561</v>
+        <v>5.3335078995060998</v>
       </c>
       <c r="I30">
         <v>30</v>
       </c>
       <c r="J30">
-        <v>0.166348533050548</v>
+        <v>0.17691763874160499</v>
       </c>
       <c r="K30">
-        <v>0.23530000000000001</v>
+        <v>0.25024999999999997</v>
       </c>
       <c r="L30">
-        <v>0.13592233009708701</v>
+        <v>0.247572815533981</v>
       </c>
       <c r="M30">
-        <v>5.5222925395297002</v>
+        <v>5.34016792083042</v>
       </c>
       <c r="P30">
         <v>30</v>
       </c>
       <c r="Q30">
-        <v>0.179568752209261</v>
+        <v>0.19639448568398701</v>
       </c>
       <c r="R30">
-        <v>0.254</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="S30">
-        <v>0.12666666666666701</v>
+        <v>0.24424242424242401</v>
       </c>
       <c r="T30">
-        <v>5.5318320931405598</v>
+        <v>5.3553296097478302</v>
       </c>
       <c r="W30">
         <v>30</v>
       </c>
       <c r="X30">
-        <v>0.18059384941675499</v>
+        <v>0.19582891481088699</v>
       </c>
       <c r="Y30">
-        <v>0.25545000000000001</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="Z30">
-        <v>0.13313253012048201</v>
+        <v>0.25120481927710803</v>
       </c>
       <c r="AA30">
-        <v>5.5227946344704097</v>
+        <v>5.3475211800470497</v>
       </c>
       <c r="AD30">
         <v>30</v>
       </c>
       <c r="AE30">
-        <v>0.17242841993637301</v>
+        <v>0.18918345705196199</v>
       </c>
       <c r="AF30">
-        <v>0.24390000000000001</v>
+        <v>0.2676</v>
       </c>
       <c r="AG30">
-        <v>0.13878787878787899</v>
+        <v>0.24727272727272701</v>
       </c>
       <c r="AH30">
-        <v>5.5242025674942097</v>
+        <v>5.3435217172887901</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -6234,16 +6231,16 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.29056203605514302</v>
+        <v>0.28207847295864302</v>
       </c>
       <c r="D31">
-        <v>1.37E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="E31">
-        <v>3.2121212121212099E-2</v>
+        <v>4.9696969696969698E-2</v>
       </c>
       <c r="F31">
-        <v>5.8852491386001802</v>
+        <v>5.7016094522664398</v>
       </c>
       <c r="H31">
         <v>80</v>
@@ -6252,16 +6249,16 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.37857900318133603</v>
+        <v>0.35949098621421</v>
       </c>
       <c r="K31">
-        <v>1.7850000000000001E-2</v>
+        <v>1.695E-2</v>
       </c>
       <c r="L31">
-        <v>2.7912621359223299E-2</v>
+        <v>4.85436893203883E-2</v>
       </c>
       <c r="M31">
-        <v>5.8630485853340701</v>
+        <v>5.6999811689815596</v>
       </c>
       <c r="O31">
         <v>80</v>
@@ -6270,16 +6267,16 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.42735949098621401</v>
+        <v>0.40827147401908798</v>
       </c>
       <c r="R31">
-        <v>2.0150000000000001E-2</v>
+        <v>1.925E-2</v>
       </c>
       <c r="S31">
-        <v>2.4242424242424201E-2</v>
+        <v>3.9393939393939398E-2</v>
       </c>
       <c r="T31">
-        <v>5.8765473399453798</v>
+        <v>5.7164186356732998</v>
       </c>
       <c r="V31">
         <v>80</v>
@@ -6288,16 +6285,16 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>0.451749734888653</v>
+        <v>0.42948038176033898</v>
       </c>
       <c r="Y31">
-        <v>2.1299999999999999E-2</v>
+        <v>2.0250000000000001E-2</v>
       </c>
       <c r="Z31">
-        <v>2.4698795180722901E-2</v>
+        <v>4.09638554216867E-2</v>
       </c>
       <c r="AA31">
-        <v>5.8602772352190202</v>
+        <v>5.6838575038442798</v>
       </c>
       <c r="AC31">
         <v>80</v>
@@ -6306,16 +6303,16 @@
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>0.40933191940615099</v>
+        <v>0.38176033934252401</v>
       </c>
       <c r="AF31">
-        <v>1.9300000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG31">
-        <v>2.3636363636363601E-2</v>
+        <v>3.8181818181818199E-2</v>
       </c>
       <c r="AH31">
-        <v>5.8985859062833503</v>
+        <v>5.7133583034911402</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -6329,70 +6326,70 @@
         <v>5.475E-2</v>
       </c>
       <c r="E32">
-        <v>6.2424242424242403E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F32">
-        <v>5.7456306876262397</v>
+        <v>5.5829184661403399</v>
       </c>
       <c r="I32">
         <v>5</v>
       </c>
       <c r="J32">
-        <v>0.281230116648993</v>
+        <v>0.27889713679745498</v>
       </c>
       <c r="K32">
-        <v>6.6299999999999998E-2</v>
+        <v>6.5750000000000003E-2</v>
       </c>
       <c r="L32">
-        <v>6.25E-2</v>
+        <v>9.6480582524271802E-2</v>
       </c>
       <c r="M32">
-        <v>5.7454263649526496</v>
+        <v>5.5923662170994302</v>
       </c>
       <c r="P32">
         <v>5</v>
       </c>
       <c r="Q32">
-        <v>0.31834570519618199</v>
+        <v>0.32322375397667003</v>
       </c>
       <c r="R32">
-        <v>7.5050000000000006E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="S32">
-        <v>5.2727272727272699E-2</v>
+        <v>8.3636363636363606E-2</v>
       </c>
       <c r="T32">
-        <v>5.7503182508553099</v>
+        <v>5.6119231472587501</v>
       </c>
       <c r="W32">
         <v>5</v>
       </c>
       <c r="X32">
-        <v>0.31749734888653203</v>
+        <v>0.32152704135736998</v>
       </c>
       <c r="Y32">
-        <v>7.485E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="Z32">
-        <v>5.1204819277108397E-2</v>
+        <v>8.6144578313253006E-2</v>
       </c>
       <c r="AA32">
-        <v>5.7434576036263403</v>
+        <v>5.5992537337843196</v>
       </c>
       <c r="AD32">
         <v>5</v>
       </c>
       <c r="AE32">
-        <v>0.29946977730646901</v>
+        <v>0.30349946977730602</v>
       </c>
       <c r="AF32">
-        <v>7.0599999999999996E-2</v>
+        <v>7.1550000000000002E-2</v>
       </c>
       <c r="AG32">
-        <v>5.5151515151515201E-2</v>
+        <v>8.3030303030302996E-2</v>
       </c>
       <c r="AH32">
-        <v>5.7529448216848902</v>
+        <v>5.5987659371480598</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
@@ -6400,76 +6397,76 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>0.199469777306469</v>
+        <v>0.205196182396607</v>
       </c>
       <c r="D33">
-        <v>9.4049999999999995E-2</v>
+        <v>9.6750000000000003E-2</v>
       </c>
       <c r="E33">
-        <v>0.08</v>
+        <v>0.12727272727272701</v>
       </c>
       <c r="F33">
-        <v>5.6576367133256298</v>
+        <v>5.50724774400204</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>0.23096500530222699</v>
+        <v>0.23616118769883401</v>
       </c>
       <c r="K33">
-        <v>0.1089</v>
+        <v>0.11135</v>
       </c>
       <c r="L33">
-        <v>7.6456310679611603E-2</v>
+        <v>0.12864077669902901</v>
       </c>
       <c r="M33">
-        <v>5.6598477092907302</v>
+        <v>5.5126043129731404</v>
       </c>
       <c r="P33">
         <v>10</v>
       </c>
       <c r="Q33">
-        <v>0.25662778366914102</v>
+        <v>0.27115588547189801</v>
       </c>
       <c r="R33">
-        <v>0.121</v>
+        <v>0.12784999999999999</v>
       </c>
       <c r="S33">
-        <v>7.21212121212121E-2</v>
+        <v>0.111515151515152</v>
       </c>
       <c r="T33">
-        <v>5.6687802670256202</v>
+        <v>5.5282987068154004</v>
       </c>
       <c r="W33">
         <v>10</v>
       </c>
       <c r="X33">
-        <v>0.25535524920466601</v>
+        <v>0.271367974549311</v>
       </c>
       <c r="Y33">
-        <v>0.12039999999999999</v>
+        <v>0.12795000000000001</v>
       </c>
       <c r="Z33">
-        <v>6.9277108433734899E-2</v>
+        <v>0.117469879518072</v>
       </c>
       <c r="AA33">
-        <v>5.66692863957726</v>
+        <v>5.5218375769151997</v>
       </c>
       <c r="AD33">
         <v>10</v>
       </c>
       <c r="AE33">
-        <v>0.24400848356309701</v>
+        <v>0.25726405090137899</v>
       </c>
       <c r="AF33">
-        <v>0.11505</v>
+        <v>0.12130000000000001</v>
       </c>
       <c r="AG33">
-        <v>7.3333333333333306E-2</v>
+        <v>0.116969696969697</v>
       </c>
       <c r="AH33">
-        <v>5.6614410973890097</v>
+        <v>5.5255688521056801</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
@@ -6477,76 +6474,76 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>0.177801343230824</v>
+        <v>0.183527748320961</v>
       </c>
       <c r="D34">
-        <v>0.12575</v>
+        <v>0.1298</v>
       </c>
       <c r="E34">
-        <v>9.6969696969696997E-2</v>
+        <v>0.15575757575757601</v>
       </c>
       <c r="F34">
-        <v>5.6025897669664602</v>
+        <v>5.4506249987419801</v>
       </c>
       <c r="I34">
         <v>15</v>
       </c>
       <c r="J34">
-        <v>0.203464121597738</v>
+        <v>0.21025097207493801</v>
       </c>
       <c r="K34">
-        <v>0.1439</v>
+        <v>0.1487</v>
       </c>
       <c r="L34">
-        <v>9.1019417475728198E-2</v>
+        <v>0.14987864077669899</v>
       </c>
       <c r="M34">
-        <v>5.6052604300400901</v>
+        <v>5.4620498291339104</v>
       </c>
       <c r="P34">
         <v>15</v>
       </c>
       <c r="Q34">
-        <v>0.22269353128313901</v>
+        <v>0.23669141039236499</v>
       </c>
       <c r="R34">
-        <v>0.1575</v>
+        <v>0.16739999999999999</v>
       </c>
       <c r="S34">
-        <v>8.6666666666666697E-2</v>
+        <v>0.133939393939394</v>
       </c>
       <c r="T34">
-        <v>5.6170616184553097</v>
+        <v>5.4727866820481701</v>
       </c>
       <c r="W34">
         <v>15</v>
       </c>
       <c r="X34">
-        <v>0.222552138564864</v>
+        <v>0.23810533757511501</v>
       </c>
       <c r="Y34">
-        <v>0.15740000000000001</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="Z34">
-        <v>8.3132530120481898E-2</v>
+        <v>0.142771084337349</v>
       </c>
       <c r="AA34">
-        <v>5.6134651565044598</v>
+        <v>5.4696935454434499</v>
       </c>
       <c r="AD34">
         <v>15</v>
       </c>
       <c r="AE34">
-        <v>0.21343230823612599</v>
+        <v>0.22792506185931399</v>
       </c>
       <c r="AF34">
-        <v>0.15095</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="AG34">
-        <v>8.84848484848485E-2</v>
+        <v>0.14060606060606101</v>
       </c>
       <c r="AH34">
-        <v>5.6082295513201297</v>
+        <v>5.4770528348717198</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
@@ -6554,76 +6551,76 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>0.16447507953340401</v>
+        <v>0.17014846235418901</v>
       </c>
       <c r="D35">
-        <v>0.15509999999999999</v>
+        <v>0.16045000000000001</v>
       </c>
       <c r="E35">
-        <v>0.112727272727273</v>
+        <v>0.18787878787878801</v>
       </c>
       <c r="F35">
-        <v>5.5609767666220096</v>
+        <v>5.4079966409859397</v>
       </c>
       <c r="I35">
         <v>20</v>
       </c>
       <c r="J35">
-        <v>0.18366914103923601</v>
+        <v>0.19220572640509001</v>
       </c>
       <c r="K35">
-        <v>0.17319999999999999</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="L35">
-        <v>0.10861650485436899</v>
+        <v>0.172936893203884</v>
       </c>
       <c r="M35">
-        <v>5.5659234662647403</v>
+        <v>5.4197540059274996</v>
       </c>
       <c r="P35">
         <v>20</v>
       </c>
       <c r="Q35">
-        <v>0.199575821845175</v>
+        <v>0.215164369034995</v>
       </c>
       <c r="R35">
-        <v>0.18820000000000001</v>
+        <v>0.2029</v>
       </c>
       <c r="S35">
-        <v>9.87878787878788E-2</v>
+        <v>0.15454545454545501</v>
       </c>
       <c r="T35">
-        <v>5.5771981354940099</v>
+        <v>5.4337731770883897</v>
       </c>
       <c r="W35">
         <v>20</v>
       </c>
       <c r="X35">
-        <v>0.20010604453870601</v>
+        <v>0.21542948038175999</v>
       </c>
       <c r="Y35">
-        <v>0.18870000000000001</v>
+        <v>0.20315</v>
       </c>
       <c r="Z35">
-        <v>9.9397590361445798E-2</v>
+        <v>0.16144578313253</v>
       </c>
       <c r="AA35">
-        <v>5.5709914694297202</v>
+        <v>5.4322052407097603</v>
       </c>
       <c r="AD35">
         <v>20</v>
       </c>
       <c r="AE35">
-        <v>0.190296924708378</v>
+        <v>0.20471898197242799</v>
       </c>
       <c r="AF35">
-        <v>0.17945</v>
+        <v>0.19305</v>
       </c>
       <c r="AG35">
-        <v>0.100606060606061</v>
+        <v>0.16545454545454499</v>
       </c>
       <c r="AH35">
-        <v>5.5700378997011901</v>
+        <v>5.4372124548376002</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
@@ -6631,76 +6628,76 @@
         <v>25</v>
       </c>
       <c r="C36">
-        <v>0.15351007423117699</v>
+        <v>0.15881230116649001</v>
       </c>
       <c r="D36">
-        <v>0.18095</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="E36">
-        <v>0.124242424242424</v>
+        <v>0.207878787878788</v>
       </c>
       <c r="F36">
-        <v>5.5287802957989101</v>
+        <v>5.3763271282118099</v>
       </c>
       <c r="I36">
         <v>25</v>
       </c>
       <c r="J36">
-        <v>0.171749734888653</v>
+        <v>0.180275715800636</v>
       </c>
       <c r="K36">
-        <v>0.20244999999999999</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="L36">
-        <v>0.122572815533981</v>
+        <v>0.19660194174757301</v>
       </c>
       <c r="M36">
-        <v>5.5345589049911004</v>
+        <v>5.3851502105596598</v>
       </c>
       <c r="P36">
         <v>25</v>
       </c>
       <c r="Q36">
-        <v>0.183541887592789</v>
+        <v>0.19885471898197199</v>
       </c>
       <c r="R36">
-        <v>0.21634999999999999</v>
+        <v>0.2344</v>
       </c>
       <c r="S36">
-        <v>0.110909090909091</v>
+        <v>0.18121212121212099</v>
       </c>
       <c r="T36">
-        <v>5.5454372790575501</v>
+        <v>5.3999952985281201</v>
       </c>
       <c r="W36">
         <v>25</v>
       </c>
       <c r="X36">
-        <v>0.185323435843054</v>
+        <v>0.19970307529162201</v>
       </c>
       <c r="Y36">
-        <v>0.21845000000000001</v>
+        <v>0.2354</v>
       </c>
       <c r="Z36">
-        <v>0.11144578313252999</v>
+        <v>0.181927710843374</v>
       </c>
       <c r="AA36">
-        <v>5.5376746685398102</v>
+        <v>5.3995145152587698</v>
       </c>
       <c r="AD36">
         <v>25</v>
       </c>
       <c r="AE36">
-        <v>0.174761399787911</v>
+        <v>0.18939554612937401</v>
       </c>
       <c r="AF36">
-        <v>0.20599999999999999</v>
+        <v>0.22325</v>
       </c>
       <c r="AG36">
-        <v>0.115757575757576</v>
+        <v>0.190909090909091</v>
       </c>
       <c r="AH36">
-        <v>5.5384910743018896</v>
+        <v>5.40177867270625</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
@@ -6708,76 +6705,76 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <v>0.14492753623188401</v>
+        <v>0.150689289501591</v>
       </c>
       <c r="D37">
-        <v>0.20499999999999999</v>
+        <v>0.21315000000000001</v>
       </c>
       <c r="E37">
-        <v>0.14121212121212101</v>
+        <v>0.23151515151515201</v>
       </c>
       <c r="F37">
-        <v>5.5004076759437899</v>
+        <v>5.3475617703491203</v>
       </c>
       <c r="I37">
         <v>30</v>
       </c>
       <c r="J37">
-        <v>0.16002120890774099</v>
+        <v>0.16956521739130401</v>
       </c>
       <c r="K37">
-        <v>0.22635</v>
+        <v>0.23985000000000001</v>
       </c>
       <c r="L37">
-        <v>0.13592233009708701</v>
+        <v>0.216626213592233</v>
       </c>
       <c r="M37">
-        <v>5.5064990263502702</v>
+        <v>5.35475354008822</v>
       </c>
       <c r="P37">
         <v>30</v>
       </c>
       <c r="Q37">
-        <v>0.17066101095793601</v>
+        <v>0.185012371862849</v>
       </c>
       <c r="R37">
-        <v>0.2414</v>
+        <v>0.26169999999999999</v>
       </c>
       <c r="S37">
-        <v>0.12121212121212099</v>
+        <v>0.20121212121212101</v>
       </c>
       <c r="T37">
-        <v>5.5160843054972197</v>
+        <v>5.3713119591376399</v>
       </c>
       <c r="W37">
         <v>30</v>
       </c>
       <c r="X37">
-        <v>0.172463768115942</v>
+        <v>0.18596677271120499</v>
       </c>
       <c r="Y37">
-        <v>0.24395</v>
+        <v>0.26305000000000001</v>
       </c>
       <c r="Z37">
-        <v>0.12590361445783099</v>
+        <v>0.207228915662651</v>
       </c>
       <c r="AA37">
-        <v>5.5090561808169198</v>
+        <v>5.3693688522920198</v>
       </c>
       <c r="AD37">
         <v>30</v>
       </c>
       <c r="AE37">
-        <v>0.16419229409685401</v>
+        <v>0.17967479674796699</v>
       </c>
       <c r="AF37">
-        <v>0.23225000000000001</v>
+        <v>0.25414999999999999</v>
       </c>
       <c r="AG37">
-        <v>0.131515151515152</v>
+        <v>0.21090909090909099</v>
       </c>
       <c r="AH37">
-        <v>5.5099395231406598</v>
+        <v>5.37070071945059</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
@@ -6788,16 +6785,16 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0.292682926829268</v>
+        <v>0.29480381760339303</v>
       </c>
       <c r="D38">
-        <v>1.38E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E38">
-        <v>3.09090909090909E-2</v>
+        <v>5.15151515151515E-2</v>
       </c>
       <c r="F38">
-        <v>5.90420465141331</v>
+        <v>5.7150630835244103</v>
       </c>
       <c r="H38">
         <v>160</v>
@@ -6806,16 +6803,16 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.37857900318133603</v>
+        <v>0.36903499469777301</v>
       </c>
       <c r="K38">
-        <v>1.7850000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="L38">
-        <v>2.8519417475728202E-2</v>
+        <v>4.67233009708738E-2</v>
       </c>
       <c r="M38">
-        <v>5.8805354956059901</v>
+        <v>5.7139042873771997</v>
       </c>
       <c r="O38">
         <v>160</v>
@@ -6824,16 +6821,16 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0.43160127253446401</v>
+        <v>0.42205726405090099</v>
       </c>
       <c r="R38">
-        <v>2.035E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="S38">
-        <v>2.48484848484848E-2</v>
+        <v>3.6969696969697E-2</v>
       </c>
       <c r="T38">
-        <v>5.8884113217433498</v>
+        <v>5.7261374100961397</v>
       </c>
       <c r="V38">
         <v>160</v>
@@ -6842,16 +6839,16 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0.468716861081654</v>
+        <v>0.460233297985154</v>
       </c>
       <c r="Y38">
-        <v>2.2100000000000002E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="Z38">
-        <v>2.3493975903614499E-2</v>
+        <v>4.57831325301205E-2</v>
       </c>
       <c r="AA38">
-        <v>5.87842167673376</v>
+        <v>5.6859949145956801</v>
       </c>
       <c r="AC38">
         <v>160</v>
@@ -6860,16 +6857,16 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0.41251325556733798</v>
+        <v>0.41993637327677602</v>
       </c>
       <c r="AF38">
-        <v>1.9449999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="AG38">
-        <v>2.3030303030303002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AH38">
-        <v>5.9178010599053303</v>
+        <v>5.7292075104709497</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
@@ -6877,76 +6874,76 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.23414634146341501</v>
+        <v>0.240721102863203</v>
       </c>
       <c r="D39">
-        <v>5.5199999999999999E-2</v>
+        <v>5.6750000000000002E-2</v>
       </c>
       <c r="E39">
-        <v>6.5454545454545501E-2</v>
+        <v>0.102424242424242</v>
       </c>
       <c r="F39">
-        <v>5.7564931798351804</v>
+        <v>5.5922432002252096</v>
       </c>
       <c r="I39">
         <v>5</v>
       </c>
       <c r="J39">
-        <v>0.28462354188759298</v>
+        <v>0.28292682926829299</v>
       </c>
       <c r="K39">
-        <v>6.7100000000000007E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="L39">
-        <v>6.25E-2</v>
+        <v>0.104368932038835</v>
       </c>
       <c r="M39">
-        <v>5.7580430811737902</v>
+        <v>5.5985719090938302</v>
       </c>
       <c r="P39">
         <v>5</v>
       </c>
       <c r="Q39">
-        <v>0.31898197242842002</v>
+        <v>0.32788971367974601</v>
       </c>
       <c r="R39">
-        <v>7.5200000000000003E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="S39">
-        <v>5.15151515151515E-2</v>
+        <v>8.5454545454545505E-2</v>
       </c>
       <c r="T39">
-        <v>5.76202990764624</v>
+        <v>5.6112190405283204</v>
       </c>
       <c r="W39">
         <v>5</v>
       </c>
       <c r="X39">
-        <v>0.31940615058324501</v>
+        <v>0.325344644750795</v>
       </c>
       <c r="Y39">
-        <v>7.5300000000000006E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="Z39">
-        <v>5.3012048192771097E-2</v>
+        <v>9.2168674698795194E-2</v>
       </c>
       <c r="AA39">
-        <v>5.7579563029890197</v>
+        <v>5.6032318115023996</v>
       </c>
       <c r="AD39">
         <v>5</v>
       </c>
       <c r="AE39">
-        <v>0.301166489925769</v>
+        <v>0.30880169671261898</v>
       </c>
       <c r="AF39">
-        <v>7.0999999999999994E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="AG39">
-        <v>5.6969696969696997E-2</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="AH39">
-        <v>5.7633126296033996</v>
+        <v>5.5995366750525601</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
@@ -6954,76 +6951,76 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>0.201590668080594</v>
+        <v>0.20784729586426301</v>
       </c>
       <c r="D40">
-        <v>9.5049999999999996E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E40">
-        <v>8.4848484848484895E-2</v>
+        <v>0.13575757575757599</v>
       </c>
       <c r="F40">
-        <v>5.6676870013908296</v>
+        <v>5.5106283343232603</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
       <c r="J40">
-        <v>0.23255567338282099</v>
+        <v>0.24262990455991501</v>
       </c>
       <c r="K40">
-        <v>0.10965</v>
+        <v>0.1144</v>
       </c>
       <c r="L40">
-        <v>8.3131067961165095E-2</v>
+        <v>0.127427184466019</v>
       </c>
       <c r="M40">
-        <v>5.6705797959191404</v>
+        <v>5.5170428499609203</v>
       </c>
       <c r="P40">
         <v>10</v>
       </c>
       <c r="Q40">
-        <v>0.26065747613997903</v>
+        <v>0.27613997879109198</v>
       </c>
       <c r="R40">
-        <v>0.1229</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="S40">
-        <v>7.6363636363636397E-2</v>
+        <v>0.115151515151515</v>
       </c>
       <c r="T40">
-        <v>5.6766595613344304</v>
+        <v>5.5230225491929703</v>
       </c>
       <c r="W40">
         <v>10</v>
       </c>
       <c r="X40">
-        <v>0.26023329798515399</v>
+        <v>0.27041357370095398</v>
       </c>
       <c r="Y40">
-        <v>0.1227</v>
+        <v>0.1275</v>
       </c>
       <c r="Z40">
-        <v>7.2289156626505993E-2</v>
+        <v>0.120481927710843</v>
       </c>
       <c r="AA40">
-        <v>5.6747151758538497</v>
+        <v>5.5186749714562504</v>
       </c>
       <c r="AD40">
         <v>10</v>
       </c>
       <c r="AE40">
-        <v>0.249204665959703</v>
+        <v>0.25949098621421002</v>
       </c>
       <c r="AF40">
-        <v>0.11749999999999999</v>
+        <v>0.12235</v>
       </c>
       <c r="AG40">
-        <v>7.6363636363636397E-2</v>
+        <v>0.12242424242424201</v>
       </c>
       <c r="AH40">
-        <v>5.6700551578183003</v>
+        <v>5.5184044639160303</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
@@ -7031,76 +7028,76 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>0.18246730293389901</v>
+        <v>0.18670908448214901</v>
       </c>
       <c r="D41">
-        <v>0.12905</v>
+        <v>0.13205</v>
       </c>
       <c r="E41">
-        <v>0.103030303030303</v>
+        <v>0.15696969696969701</v>
       </c>
       <c r="F41">
-        <v>5.6071772669912399</v>
+        <v>5.4543299678330799</v>
       </c>
       <c r="I41">
         <v>15</v>
       </c>
       <c r="J41">
-        <v>0.20699893955461299</v>
+        <v>0.21449275362318801</v>
       </c>
       <c r="K41">
-        <v>0.1464</v>
+        <v>0.1517</v>
       </c>
       <c r="L41">
-        <v>9.6480582524271802E-2</v>
+        <v>0.146844660194175</v>
       </c>
       <c r="M41">
-        <v>5.6092674538028504</v>
+        <v>5.4617976460795399</v>
       </c>
       <c r="P41">
         <v>15</v>
       </c>
       <c r="Q41">
-        <v>0.22658183103570201</v>
+        <v>0.24185224460940299</v>
       </c>
       <c r="R41">
-        <v>0.16025</v>
+        <v>0.17105000000000001</v>
       </c>
       <c r="S41">
-        <v>9.27272727272727E-2</v>
+        <v>0.13878787878787899</v>
       </c>
       <c r="T41">
-        <v>5.6193326206143501</v>
+        <v>5.46916000469853</v>
       </c>
       <c r="W41">
         <v>15</v>
       </c>
       <c r="X41">
-        <v>0.22693531283138901</v>
+        <v>0.237327677624602</v>
       </c>
       <c r="Y41">
-        <v>0.1605</v>
+        <v>0.16785</v>
       </c>
       <c r="Z41">
-        <v>8.8554216867469907E-2</v>
+        <v>0.13975903614457799</v>
       </c>
       <c r="AA41">
-        <v>5.61546748590309</v>
+        <v>5.4656397152580602</v>
       </c>
       <c r="AD41">
         <v>15</v>
       </c>
       <c r="AE41">
-        <v>0.21703782255213899</v>
+        <v>0.22757158006362699</v>
       </c>
       <c r="AF41">
-        <v>0.1535</v>
+        <v>0.16095000000000001</v>
       </c>
       <c r="AG41">
-        <v>9.4545454545454502E-2</v>
+        <v>0.14969696969696999</v>
       </c>
       <c r="AH41">
-        <v>5.6107481143532096</v>
+        <v>5.4677457447787896</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
@@ -7108,76 +7105,76 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <v>0.166967126193001</v>
+        <v>0.171155885471898</v>
       </c>
       <c r="D42">
-        <v>0.15745000000000001</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="E42">
-        <v>0.116363636363636</v>
+        <v>0.178181818181818</v>
       </c>
       <c r="F42">
-        <v>5.5613845413104599</v>
+        <v>5.4096296790180496</v>
       </c>
       <c r="I42">
         <v>20</v>
       </c>
       <c r="J42">
-        <v>0.187433722163309</v>
+        <v>0.192576882290562</v>
       </c>
       <c r="K42">
-        <v>0.17674999999999999</v>
+        <v>0.18160000000000001</v>
       </c>
       <c r="L42">
-        <v>0.114077669902913</v>
+        <v>0.165655339805825</v>
       </c>
       <c r="M42">
-        <v>5.5638067517227903</v>
+        <v>5.4214638136105204</v>
       </c>
       <c r="P42">
         <v>20</v>
       </c>
       <c r="Q42">
-        <v>0.20344644750795299</v>
+        <v>0.21728525980912</v>
       </c>
       <c r="R42">
-        <v>0.19184999999999999</v>
+        <v>0.2049</v>
       </c>
       <c r="S42">
-        <v>0.107878787878788</v>
+        <v>0.15454545454545501</v>
       </c>
       <c r="T42">
-        <v>5.5760109638606803</v>
+        <v>5.4294278564230503</v>
       </c>
       <c r="W42">
         <v>20</v>
       </c>
       <c r="X42">
-        <v>0.20434782608695701</v>
+        <v>0.21362672322375401</v>
       </c>
       <c r="Y42">
-        <v>0.19270000000000001</v>
+        <v>0.20144999999999999</v>
       </c>
       <c r="Z42">
-        <v>0.104819277108434</v>
+        <v>0.16204819277108401</v>
       </c>
       <c r="AA42">
-        <v>5.5701729973443497</v>
+        <v>5.4246070290429698</v>
       </c>
       <c r="AD42">
         <v>20</v>
       </c>
       <c r="AE42">
-        <v>0.19501590668080601</v>
+        <v>0.20328738069989399</v>
       </c>
       <c r="AF42">
-        <v>0.18390000000000001</v>
+        <v>0.19170000000000001</v>
       </c>
       <c r="AG42">
-        <v>0.107878787878788</v>
+        <v>0.163030303030303</v>
       </c>
       <c r="AH42">
-        <v>5.56710445554722</v>
+        <v>5.4297421177397203</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
@@ -7185,76 +7182,76 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <v>0.156691410392365</v>
+        <v>0.16072110286320301</v>
       </c>
       <c r="D43">
-        <v>0.1847</v>
+        <v>0.18945000000000001</v>
       </c>
       <c r="E43">
-        <v>0.132727272727273</v>
+        <v>0.19939393939393901</v>
       </c>
       <c r="F43">
-        <v>5.52360615086537</v>
+        <v>5.3764535325050096</v>
       </c>
       <c r="I43">
         <v>25</v>
       </c>
       <c r="J43">
-        <v>0.173319194061506</v>
+        <v>0.179003181336161</v>
       </c>
       <c r="K43">
-        <v>0.20430000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="L43">
-        <v>0.12621359223301001</v>
+        <v>0.18689320388349501</v>
       </c>
       <c r="M43">
-        <v>5.5279388649128602</v>
+        <v>5.3857560404750098</v>
       </c>
       <c r="P43">
         <v>25</v>
       </c>
       <c r="Q43">
-        <v>0.18651113467656399</v>
+        <v>0.19669141039236501</v>
       </c>
       <c r="R43">
-        <v>0.21984999999999999</v>
+        <v>0.23185</v>
       </c>
       <c r="S43">
-        <v>0.12</v>
+        <v>0.173939393939394</v>
       </c>
       <c r="T43">
-        <v>5.5393424472669404</v>
+        <v>5.3965165451206598</v>
       </c>
       <c r="W43">
         <v>25</v>
       </c>
       <c r="X43">
-        <v>0.18850477200424201</v>
+        <v>0.19452810180275701</v>
       </c>
       <c r="Y43">
-        <v>0.22220000000000001</v>
+        <v>0.2293</v>
       </c>
       <c r="Z43">
-        <v>0.119277108433735</v>
+        <v>0.179518072289157</v>
       </c>
       <c r="AA43">
-        <v>5.5319634711996697</v>
+        <v>5.3944567774821399</v>
       </c>
       <c r="AD43">
         <v>25</v>
       </c>
       <c r="AE43">
-        <v>0.17913043478260901</v>
+        <v>0.18697773064687201</v>
       </c>
       <c r="AF43">
-        <v>0.21115</v>
+        <v>0.22040000000000001</v>
       </c>
       <c r="AG43">
-        <v>0.12121212121212099</v>
+        <v>0.18121212121212099</v>
       </c>
       <c r="AH43">
-        <v>5.53219613939764</v>
+        <v>5.3962439963534496</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
@@ -7262,76 +7259,76 @@
         <v>30</v>
       </c>
       <c r="C44">
-        <v>0.14704842700600901</v>
+        <v>0.152067868504772</v>
       </c>
       <c r="D44">
-        <v>0.20799999999999999</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="E44">
-        <v>0.14121212121212101</v>
+        <v>0.21515151515151501</v>
       </c>
       <c r="F44">
-        <v>5.49194780892583</v>
+        <v>5.3487155821913603</v>
       </c>
       <c r="I44">
         <v>30</v>
       </c>
       <c r="J44">
-        <v>0.16154118062919801</v>
+        <v>0.16910569105691101</v>
       </c>
       <c r="K44">
-        <v>0.22850000000000001</v>
+        <v>0.2392</v>
       </c>
       <c r="L44">
-        <v>0.13834951456310701</v>
+        <v>0.20266990291262099</v>
       </c>
       <c r="M44">
-        <v>5.4976097697095003</v>
+        <v>5.3568896854560402</v>
       </c>
       <c r="P44">
         <v>30</v>
       </c>
       <c r="Q44">
-        <v>0.17387769529869199</v>
+        <v>0.18253799929303599</v>
       </c>
       <c r="R44">
-        <v>0.24595</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="S44">
-        <v>0.12848484848484801</v>
+        <v>0.18787878787878801</v>
       </c>
       <c r="T44">
-        <v>5.5081134226455104</v>
+        <v>5.3696112716942501</v>
       </c>
       <c r="W44">
         <v>30</v>
       </c>
       <c r="X44">
-        <v>0.173842347119123</v>
+        <v>0.18031106398020499</v>
       </c>
       <c r="Y44">
-        <v>0.24590000000000001</v>
+        <v>0.25505</v>
       </c>
       <c r="Z44">
-        <v>0.126506024096386</v>
+        <v>0.19578313253012</v>
       </c>
       <c r="AA44">
-        <v>5.5006047436006602</v>
+        <v>5.3666725979071197</v>
       </c>
       <c r="AD44">
         <v>30</v>
       </c>
       <c r="AE44">
-        <v>0.16624248851184201</v>
+        <v>0.175114881583598</v>
       </c>
       <c r="AF44">
-        <v>0.23515</v>
+        <v>0.2477</v>
       </c>
       <c r="AG44">
-        <v>0.13575757575757599</v>
+        <v>0.20060606060606101</v>
       </c>
       <c r="AH44">
-        <v>5.5006924911842603</v>
+        <v>5.3683498722819198</v>
       </c>
     </row>
   </sheetData>

--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="UserKNN" sheetId="1" r:id="rId1"/>
     <sheet name="ItemKNN" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="13">
   <si>
     <t>N</t>
   </si>
@@ -35,10 +36,6 @@
   </si>
   <si>
     <t>Popularity</t>
-  </si>
-  <si>
-    <t>K(Cosine)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u1.base/u1.test</t>
@@ -63,12 +60,19 @@
     <t>u5.base/u5.test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正确实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按任意键继续. . .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +87,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F46" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,24 +441,27 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>20171201</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
       <c r="AC1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -458,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -476,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -494,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W2" t="s">
         <v>0</v>
@@ -512,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
         <v>0</v>
@@ -538,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.17073170731707299</v>
+        <v>0.19724284199363701</v>
       </c>
       <c r="D3">
-        <v>8.0499999999999999E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E3">
-        <v>0.16848484848484799</v>
+        <v>0.16969696969697001</v>
       </c>
       <c r="F3">
-        <v>4.9818827890678898</v>
+        <v>5.1539748318729002</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -556,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.17497348886532299</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="K3">
-        <v>8.2500000000000004E-3</v>
+        <v>1.035E-2</v>
       </c>
       <c r="L3">
-        <v>0.163834951456311</v>
+        <v>0.17415048543689299</v>
       </c>
       <c r="M3">
-        <v>5.0092311312306101</v>
+        <v>5.1581004548698903</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -574,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.21420996818663801</v>
+        <v>0.27465535524920498</v>
       </c>
       <c r="R3">
-        <v>1.01E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="S3">
-        <v>0.177575757575758</v>
+        <v>0.174545454545455</v>
       </c>
       <c r="T3">
-        <v>5.0213940689450398</v>
+        <v>5.1780837150058003</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -592,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0.2067868504772</v>
+        <v>0.26829268292682901</v>
       </c>
       <c r="Y3">
-        <v>9.75E-3</v>
+        <v>1.265E-2</v>
       </c>
       <c r="Z3">
-        <v>0.17108433734939801</v>
+        <v>0.18373493975903599</v>
       </c>
       <c r="AA3">
-        <v>5.0221681413219397</v>
+        <v>5.1677336830125604</v>
       </c>
       <c r="AC3">
         <v>5</v>
@@ -610,16 +631,16 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.20572640509013801</v>
+        <v>0.251325556733828</v>
       </c>
       <c r="AF3">
-        <v>9.7000000000000003E-3</v>
+        <v>1.1849999999999999E-2</v>
       </c>
       <c r="AG3">
-        <v>0.177575757575758</v>
+        <v>0.17212121212121201</v>
       </c>
       <c r="AH3">
-        <v>4.9472527603024901</v>
+        <v>5.1684948339540204</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -627,76 +648,76 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.16945917285259801</v>
+        <v>0.1966065747614</v>
       </c>
       <c r="D4">
-        <v>3.9949999999999999E-2</v>
+        <v>4.6350000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>0.32969696969696999</v>
+        <v>0.326060606060606</v>
       </c>
       <c r="F4">
-        <v>5.0300352423877701</v>
+        <v>5.1208640626384003</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.18939554612937401</v>
+        <v>0.232237539766702</v>
       </c>
       <c r="K4">
-        <v>4.4650000000000002E-2</v>
+        <v>5.475E-2</v>
       </c>
       <c r="L4">
-        <v>0.30885922330097099</v>
+        <v>0.31614077669902901</v>
       </c>
       <c r="M4">
-        <v>5.0873812287453299</v>
+        <v>5.1517131530196503</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.2067868504772</v>
+        <v>0.252810180275716</v>
       </c>
       <c r="R4">
-        <v>4.8750000000000002E-2</v>
+        <v>5.96E-2</v>
       </c>
       <c r="S4">
-        <v>0.33515151515151498</v>
+        <v>0.32909090909090899</v>
       </c>
       <c r="T4">
-        <v>5.0438555691071398</v>
+        <v>5.1422142085694098</v>
       </c>
       <c r="W4">
         <v>5</v>
       </c>
       <c r="X4">
-        <v>0.19851537645811199</v>
+        <v>0.24475079533404001</v>
       </c>
       <c r="Y4">
-        <v>4.6800000000000001E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="Z4">
-        <v>0.33795180722891599</v>
+        <v>0.35180722891566302</v>
       </c>
       <c r="AA4">
-        <v>5.0129989163257402</v>
+        <v>5.1060994043135404</v>
       </c>
       <c r="AD4">
         <v>5</v>
       </c>
       <c r="AE4">
-        <v>0.19766702014846199</v>
+        <v>0.240721102863203</v>
       </c>
       <c r="AF4">
-        <v>4.6600000000000003E-2</v>
+        <v>5.6750000000000002E-2</v>
       </c>
       <c r="AG4">
-        <v>0.34545454545454501</v>
+        <v>0.33636363636363598</v>
       </c>
       <c r="AH4">
-        <v>4.9897615828938502</v>
+        <v>5.10915536289387</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -704,76 +725,76 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.16638388123011699</v>
+        <v>0.18865323435843101</v>
       </c>
       <c r="D5">
-        <v>7.8450000000000006E-2</v>
+        <v>8.8950000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.40363636363636402</v>
+        <v>0.412727272727273</v>
       </c>
       <c r="F5">
-        <v>5.0409762852651001</v>
+        <v>5.0884463680092002</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>0.18727465535524901</v>
+        <v>0.21484623541887601</v>
       </c>
       <c r="K5">
-        <v>8.8300000000000003E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="L5">
-        <v>0.393810679611651</v>
+        <v>0.40533980582524298</v>
       </c>
       <c r="M5">
-        <v>5.0729292420862198</v>
+        <v>5.1074671488893797</v>
       </c>
       <c r="P5">
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>0.201060445387063</v>
+        <v>0.23488865323435801</v>
       </c>
       <c r="R5">
-        <v>9.4799999999999995E-2</v>
+        <v>0.11075</v>
       </c>
       <c r="S5">
-        <v>0.40484848484848501</v>
+        <v>0.42242424242424198</v>
       </c>
       <c r="T5">
-        <v>5.0391808080280498</v>
+        <v>5.0831125586128101</v>
       </c>
       <c r="W5">
         <v>10</v>
       </c>
       <c r="X5">
-        <v>0.18907741251325599</v>
+        <v>0.230752916224814</v>
       </c>
       <c r="Y5">
-        <v>8.9149999999999993E-2</v>
+        <v>0.10879999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.41084337349397598</v>
+        <v>0.42590361445783098</v>
       </c>
       <c r="AA5">
-        <v>5.0087634447138303</v>
+        <v>5.0639918662399701</v>
       </c>
       <c r="AD5">
         <v>10</v>
       </c>
       <c r="AE5">
-        <v>0.18738069989395501</v>
+        <v>0.222905620360551</v>
       </c>
       <c r="AF5">
-        <v>8.8349999999999998E-2</v>
+        <v>0.1051</v>
       </c>
       <c r="AG5">
-        <v>0.410909090909091</v>
+        <v>0.41575757575757599</v>
       </c>
       <c r="AH5">
-        <v>4.99111041159445</v>
+        <v>5.0650603598707997</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -781,76 +802,76 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.16168257334747299</v>
+        <v>0.179285966772711</v>
       </c>
       <c r="D6">
-        <v>0.11434999999999999</v>
+        <v>0.1268</v>
       </c>
       <c r="E6">
-        <v>0.44848484848484799</v>
+        <v>0.470909090909091</v>
       </c>
       <c r="F6">
-        <v>5.0299662165289503</v>
+        <v>5.0428586561759801</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>0.180275715800636</v>
+        <v>0.20219158713326299</v>
       </c>
       <c r="K6">
-        <v>0.1275</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L6">
-        <v>0.45327669902912598</v>
+        <v>0.461165048543689</v>
       </c>
       <c r="M6">
-        <v>5.0486104766768998</v>
+        <v>5.0546765520526398</v>
       </c>
       <c r="P6">
         <v>15</v>
       </c>
       <c r="Q6">
-        <v>0.19427359490986201</v>
+        <v>0.218663838812301</v>
       </c>
       <c r="R6">
-        <v>0.13739999999999999</v>
+        <v>0.15465000000000001</v>
       </c>
       <c r="S6">
-        <v>0.45333333333333298</v>
+        <v>0.48303030303030298</v>
       </c>
       <c r="T6">
-        <v>5.0089365846775697</v>
+        <v>5.0216931703104004</v>
       </c>
       <c r="W6">
         <v>15</v>
       </c>
       <c r="X6">
-        <v>0.185648639095087</v>
+        <v>0.21251325556733799</v>
       </c>
       <c r="Y6">
-        <v>0.1313</v>
+        <v>0.15029999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.462048192771084</v>
+        <v>0.48915662650602398</v>
       </c>
       <c r="AA6">
-        <v>4.9983851895311098</v>
+        <v>5.0134757515618302</v>
       </c>
       <c r="AD6">
         <v>15</v>
       </c>
       <c r="AE6">
-        <v>0.18006362672322401</v>
+        <v>0.20600919052668801</v>
       </c>
       <c r="AF6">
-        <v>0.12734999999999999</v>
+        <v>0.1457</v>
       </c>
       <c r="AG6">
-        <v>0.46</v>
+        <v>0.47696969696969699</v>
       </c>
       <c r="AH6">
-        <v>4.9858385104324503</v>
+        <v>5.0169208280091997</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -858,76 +879,76 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.156998939554613</v>
+        <v>0.168292682926829</v>
       </c>
       <c r="D7">
-        <v>0.14804999999999999</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="E7">
-        <v>0.48969696969697002</v>
+        <v>0.51272727272727303</v>
       </c>
       <c r="F7">
-        <v>5.0054964139890803</v>
+        <v>4.9996411549687902</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
       <c r="J7">
-        <v>0.17364793213149499</v>
+        <v>0.19003181336161201</v>
       </c>
       <c r="K7">
-        <v>0.16375000000000001</v>
+        <v>0.1792</v>
       </c>
       <c r="L7">
-        <v>0.48725728155339798</v>
+        <v>0.52002427184466005</v>
       </c>
       <c r="M7">
-        <v>5.0145112153812601</v>
+        <v>5.0010694282633201</v>
       </c>
       <c r="P7">
         <v>20</v>
       </c>
       <c r="Q7">
-        <v>0.18446447507953301</v>
+        <v>0.20286320254506901</v>
       </c>
       <c r="R7">
-        <v>0.17394999999999999</v>
+        <v>0.1913</v>
       </c>
       <c r="S7">
-        <v>0.48909090909090902</v>
+        <v>0.52969696969697</v>
       </c>
       <c r="T7">
-        <v>4.9751564533706896</v>
+        <v>4.9633287438416103</v>
       </c>
       <c r="W7">
         <v>20</v>
       </c>
       <c r="X7">
-        <v>0.180328738069989</v>
+        <v>0.19793213149522801</v>
       </c>
       <c r="Y7">
-        <v>0.17005000000000001</v>
+        <v>0.18665000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.49939759036144599</v>
+        <v>0.52650602409638603</v>
       </c>
       <c r="AA7">
-        <v>4.9662034303741303</v>
+        <v>4.9564835488694001</v>
       </c>
       <c r="AD7">
         <v>20</v>
       </c>
       <c r="AE7">
-        <v>0.17242841993637301</v>
+        <v>0.193266171792153</v>
       </c>
       <c r="AF7">
-        <v>0.16259999999999999</v>
+        <v>0.18225</v>
       </c>
       <c r="AG7">
-        <v>0.49151515151515202</v>
+        <v>0.53393939393939405</v>
       </c>
       <c r="AH7">
-        <v>4.96807515606762</v>
+        <v>4.9559305502625799</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -935,76 +956,76 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>0.15138918345705199</v>
+        <v>0.16008483563096501</v>
       </c>
       <c r="D8">
-        <v>0.17845</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="E8">
-        <v>0.52121212121212102</v>
+        <v>0.55333333333333301</v>
       </c>
       <c r="F8">
-        <v>4.9757068636484298</v>
+        <v>4.9568151748790497</v>
       </c>
       <c r="I8">
         <v>25</v>
       </c>
       <c r="J8">
-        <v>0.16704135737009501</v>
+        <v>0.177815482502651</v>
       </c>
       <c r="K8">
-        <v>0.19689999999999999</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="L8">
-        <v>0.51759708737864096</v>
+        <v>0.55157766990291301</v>
       </c>
       <c r="M8">
-        <v>4.9784538507824703</v>
+        <v>4.9528324126664796</v>
       </c>
       <c r="P8">
         <v>25</v>
       </c>
       <c r="Q8">
-        <v>0.175058324496288</v>
+        <v>0.18995503520828</v>
       </c>
       <c r="R8">
-        <v>0.20635000000000001</v>
+        <v>0.22389999999999999</v>
       </c>
       <c r="S8">
-        <v>0.52909090909090895</v>
+        <v>0.56606060606060604</v>
       </c>
       <c r="T8">
-        <v>4.9367453576185802</v>
+        <v>4.9109119190388704</v>
       </c>
       <c r="W8">
         <v>25</v>
       </c>
       <c r="X8">
-        <v>0.17068928950159101</v>
+        <v>0.18485683987274701</v>
       </c>
       <c r="Y8">
-        <v>0.20119999999999999</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.53734939759036104</v>
+        <v>0.56927710843373502</v>
       </c>
       <c r="AA8">
-        <v>4.9271151543912497</v>
+        <v>4.9074235385508196</v>
       </c>
       <c r="AD8">
         <v>25</v>
       </c>
       <c r="AE8">
-        <v>0.16521739130434801</v>
+        <v>0.181081654294804</v>
       </c>
       <c r="AF8">
-        <v>0.19475000000000001</v>
+        <v>0.21345</v>
       </c>
       <c r="AG8">
-        <v>0.53030303030303005</v>
+        <v>0.560606060606061</v>
       </c>
       <c r="AH8">
-        <v>4.9334957239926398</v>
+        <v>4.9100547434925002</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1012,76 +1033,76 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>0.145705196182397</v>
+        <v>0.15203252032520301</v>
       </c>
       <c r="D9">
-        <v>0.20610000000000001</v>
+        <v>0.21504999999999999</v>
       </c>
       <c r="E9">
-        <v>0.54727272727272702</v>
+        <v>0.58303030303030301</v>
       </c>
       <c r="F9">
-        <v>4.9430421956594097</v>
+        <v>4.9119624203917098</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
       <c r="J9">
-        <v>0.158324496288441</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="K9">
-        <v>0.22395000000000001</v>
+        <v>0.23574999999999999</v>
       </c>
       <c r="L9">
-        <v>0.54975728155339798</v>
+        <v>0.58980582524271796</v>
       </c>
       <c r="M9">
-        <v>4.9367683196115504</v>
+        <v>4.9037927042933704</v>
       </c>
       <c r="P9">
         <v>30</v>
       </c>
       <c r="Q9">
-        <v>0.16687875574407901</v>
+        <v>0.18096955553198299</v>
       </c>
       <c r="R9">
-        <v>0.23605000000000001</v>
+        <v>0.25590000000000002</v>
       </c>
       <c r="S9">
-        <v>0.56000000000000005</v>
+        <v>0.59757575757575798</v>
       </c>
       <c r="T9">
-        <v>4.8983313313195902</v>
+        <v>4.8699763785732104</v>
       </c>
       <c r="W9">
         <v>30</v>
       </c>
       <c r="X9">
-        <v>0.16299045599151599</v>
+        <v>0.17366560622127999</v>
       </c>
       <c r="Y9">
-        <v>0.23055</v>
+        <v>0.24565000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.56867469879518096</v>
+        <v>0.60060240963855405</v>
       </c>
       <c r="AA9">
-        <v>4.8919971278960803</v>
+        <v>4.8613547905365602</v>
       </c>
       <c r="AD9">
         <v>30</v>
       </c>
       <c r="AE9">
-        <v>0.15881937080240399</v>
+        <v>0.17090844821491699</v>
       </c>
       <c r="AF9">
-        <v>0.22464999999999999</v>
+        <v>0.24174999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.56303030303030299</v>
+        <v>0.58545454545454501</v>
       </c>
       <c r="AH9">
-        <v>4.8966067009447896</v>
+        <v>4.8688694735025804</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1092,16 +1113,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.240721102863203</v>
+        <v>0.284199363732768</v>
       </c>
       <c r="D10">
-        <v>1.1350000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E10">
-        <v>0.118181818181818</v>
+        <v>0.12727272727272701</v>
       </c>
       <c r="F10">
-        <v>5.3762605896761801</v>
+        <v>5.4391123471136398</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1110,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.28738069989395498</v>
+        <v>0.335100742311771</v>
       </c>
       <c r="K10">
-        <v>1.355E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="L10">
-        <v>0.115291262135922</v>
+        <v>0.121359223300971</v>
       </c>
       <c r="M10">
-        <v>5.3946679801695296</v>
+        <v>5.46820116978716</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -1128,16 +1149,16 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.31389183457052</v>
+        <v>0.372216330858961</v>
       </c>
       <c r="R10">
-        <v>1.4800000000000001E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="S10">
-        <v>0.12666666666666701</v>
+        <v>0.12727272727272701</v>
       </c>
       <c r="T10">
-        <v>5.3871658908829696</v>
+        <v>5.4552334744208197</v>
       </c>
       <c r="V10">
         <v>10</v>
@@ -1146,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0.31601272534464497</v>
+        <v>0.380699893955461</v>
       </c>
       <c r="Y10">
-        <v>1.49E-2</v>
+        <v>1.7950000000000001E-2</v>
       </c>
       <c r="Z10">
-        <v>0.12710843373493999</v>
+        <v>0.131325301204819</v>
       </c>
       <c r="AA10">
-        <v>5.3654795803055704</v>
+        <v>5.4554551532407203</v>
       </c>
       <c r="AC10">
         <v>10</v>
@@ -1164,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.29162248144220598</v>
+        <v>0.36691410392364798</v>
       </c>
       <c r="AF10">
-        <v>1.375E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="AG10">
-        <v>0.13818181818181799</v>
+        <v>0.124848484848485</v>
       </c>
       <c r="AH10">
-        <v>5.34391034696145</v>
+        <v>5.4657657571205096</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1181,76 +1202,76 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.23202545068929001</v>
+        <v>0.24453870625662799</v>
       </c>
       <c r="D11">
-        <v>5.4699999999999999E-2</v>
+        <v>5.765E-2</v>
       </c>
       <c r="E11">
-        <v>0.22727272727272699</v>
+        <v>0.237575757575758</v>
       </c>
       <c r="F11">
-        <v>5.3578595801593796</v>
+        <v>5.3715694521149704</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11">
-        <v>0.255567338282078</v>
+        <v>0.285471898197243</v>
       </c>
       <c r="K11">
-        <v>6.0249999999999998E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="L11">
-        <v>0.21541262135922301</v>
+        <v>0.22754854368932001</v>
       </c>
       <c r="M11">
-        <v>5.3617038764792699</v>
+        <v>5.3822450416806698</v>
       </c>
       <c r="P11">
         <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.27317073170731698</v>
+        <v>0.31219512195122001</v>
       </c>
       <c r="R11">
-        <v>6.4399999999999999E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="S11">
-        <v>0.22727272727272699</v>
+        <v>0.24181818181818199</v>
       </c>
       <c r="T11">
-        <v>5.3309512749695598</v>
+        <v>5.3514255855692996</v>
       </c>
       <c r="W11">
         <v>5</v>
       </c>
       <c r="X11">
-        <v>0.27613997879109198</v>
+        <v>0.31495227995758202</v>
       </c>
       <c r="Y11">
-        <v>6.5100000000000005E-2</v>
+        <v>7.4249999999999997E-2</v>
       </c>
       <c r="Z11">
-        <v>0.234939759036145</v>
+        <v>0.24277108433734901</v>
       </c>
       <c r="AA11">
-        <v>5.31644438692165</v>
+        <v>5.34001489032077</v>
       </c>
       <c r="AD11">
         <v>5</v>
       </c>
       <c r="AE11">
-        <v>0.275503711558855</v>
+        <v>0.30180275715800597</v>
       </c>
       <c r="AF11">
-        <v>6.4949999999999994E-2</v>
+        <v>7.1150000000000005E-2</v>
       </c>
       <c r="AG11">
-        <v>0.232727272727273</v>
+        <v>0.24181818181818199</v>
       </c>
       <c r="AH11">
-        <v>5.3322742615938203</v>
+        <v>5.3535344849669402</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1258,76 +1279,76 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.20901378579003199</v>
+        <v>0.21919406150583201</v>
       </c>
       <c r="D12">
-        <v>9.8549999999999999E-2</v>
+        <v>0.10335</v>
       </c>
       <c r="E12">
-        <v>0.293939393939394</v>
+        <v>0.31030303030303003</v>
       </c>
       <c r="F12">
-        <v>5.2960851171520904</v>
+        <v>5.28708554465749</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0.23191940615058301</v>
+        <v>0.25238600212089102</v>
       </c>
       <c r="K12">
-        <v>0.10935</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="L12">
-        <v>0.28458737864077699</v>
+        <v>0.307645631067961</v>
       </c>
       <c r="M12">
-        <v>5.2952071289925797</v>
+        <v>5.2930191882309998</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="Q12">
-        <v>0.25079533404029702</v>
+        <v>0.27497348886532302</v>
       </c>
       <c r="R12">
-        <v>0.11824999999999999</v>
+        <v>0.12964999999999999</v>
       </c>
       <c r="S12">
-        <v>0.29090909090909101</v>
+        <v>0.31696969696969701</v>
       </c>
       <c r="T12">
-        <v>5.25973363183628</v>
+        <v>5.2560978208305302</v>
       </c>
       <c r="W12">
         <v>10</v>
       </c>
       <c r="X12">
-        <v>0.246553552492047</v>
+        <v>0.27338282078472997</v>
       </c>
       <c r="Y12">
-        <v>0.11625000000000001</v>
+        <v>0.12889999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.298192771084337</v>
+        <v>0.32289156626505999</v>
       </c>
       <c r="AA12">
-        <v>5.2514284619862899</v>
+        <v>5.2544748976158404</v>
       </c>
       <c r="AD12">
         <v>10</v>
       </c>
       <c r="AE12">
-        <v>0.24602332979851499</v>
+        <v>0.26532343584305401</v>
       </c>
       <c r="AF12">
-        <v>0.11600000000000001</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="AG12">
-        <v>0.293939393939394</v>
+        <v>0.31151515151515202</v>
       </c>
       <c r="AH12">
-        <v>5.2617346964410201</v>
+        <v>5.2638663885645096</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1335,76 +1356,76 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.19335454224107501</v>
+        <v>0.200777659950513</v>
       </c>
       <c r="D13">
-        <v>0.13675000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E13">
-        <v>0.33454545454545498</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="F13">
-        <v>5.24200160619964</v>
+        <v>5.2215757254286803</v>
       </c>
       <c r="I13">
         <v>15</v>
       </c>
       <c r="J13">
-        <v>0.21336161187698799</v>
+        <v>0.227712972781902</v>
       </c>
       <c r="K13">
-        <v>0.15090000000000001</v>
+        <v>0.16105</v>
       </c>
       <c r="L13">
-        <v>0.32281553398058299</v>
+        <v>0.360436893203884</v>
       </c>
       <c r="M13">
-        <v>5.2416122996352499</v>
+        <v>5.2263219257237798</v>
       </c>
       <c r="P13">
         <v>15</v>
       </c>
       <c r="Q13">
-        <v>0.23054082714740201</v>
+        <v>0.24849770236832799</v>
       </c>
       <c r="R13">
-        <v>0.16305</v>
+        <v>0.17574999999999999</v>
       </c>
       <c r="S13">
-        <v>0.34727272727272701</v>
+        <v>0.37212121212121202</v>
       </c>
       <c r="T13">
-        <v>5.2006548794064704</v>
+        <v>5.1903718135792198</v>
       </c>
       <c r="W13">
         <v>15</v>
       </c>
       <c r="X13">
-        <v>0.22877341816896399</v>
+        <v>0.24623541887592801</v>
       </c>
       <c r="Y13">
-        <v>0.1618</v>
+        <v>0.17415</v>
       </c>
       <c r="Z13">
-        <v>0.34759036144578298</v>
+        <v>0.37710843373494002</v>
       </c>
       <c r="AA13">
-        <v>5.1975240440725399</v>
+        <v>5.1865743400998596</v>
       </c>
       <c r="AD13">
         <v>15</v>
       </c>
       <c r="AE13">
-        <v>0.22431954754330199</v>
+        <v>0.239236479321315</v>
       </c>
       <c r="AF13">
-        <v>0.15865000000000001</v>
+        <v>0.16919999999999999</v>
       </c>
       <c r="AG13">
-        <v>0.34242424242424202</v>
+        <v>0.36909090909090903</v>
       </c>
       <c r="AH13">
-        <v>5.1992763137481903</v>
+        <v>5.1934335222175596</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -1412,76 +1433,76 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.181124072110286</v>
+        <v>0.18791092258748701</v>
       </c>
       <c r="D14">
-        <v>0.17080000000000001</v>
+        <v>0.1772</v>
       </c>
       <c r="E14">
-        <v>0.37030303030303002</v>
+        <v>0.41030303030303</v>
       </c>
       <c r="F14">
-        <v>5.1916358073875299</v>
+        <v>5.1629125012407799</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14">
-        <v>0.198780487804878</v>
+        <v>0.210233297985154</v>
       </c>
       <c r="K14">
-        <v>0.18745000000000001</v>
+        <v>0.19825000000000001</v>
       </c>
       <c r="L14">
-        <v>0.35922330097087402</v>
+        <v>0.40716019417475702</v>
       </c>
       <c r="M14">
-        <v>5.1881229630772703</v>
+        <v>5.1625404986533603</v>
       </c>
       <c r="P14">
         <v>20</v>
       </c>
       <c r="Q14">
-        <v>0.21548250265111299</v>
+        <v>0.22767762460233301</v>
       </c>
       <c r="R14">
-        <v>0.20319999999999999</v>
+        <v>0.2147</v>
       </c>
       <c r="S14">
-        <v>0.37878787878787901</v>
+        <v>0.412727272727273</v>
       </c>
       <c r="T14">
-        <v>5.1508126213724799</v>
+        <v>5.1336183669217998</v>
       </c>
       <c r="W14">
         <v>20</v>
       </c>
       <c r="X14">
-        <v>0.211611876988335</v>
+        <v>0.22682926829268299</v>
       </c>
       <c r="Y14">
-        <v>0.19955000000000001</v>
+        <v>0.21390000000000001</v>
       </c>
       <c r="Z14">
-        <v>0.37831325301204799</v>
+        <v>0.416867469879518</v>
       </c>
       <c r="AA14">
-        <v>5.1495496952467397</v>
+        <v>5.1298279068706103</v>
       </c>
       <c r="AD14">
         <v>20</v>
       </c>
       <c r="AE14">
-        <v>0.20795334040296901</v>
+        <v>0.22062566277836701</v>
       </c>
       <c r="AF14">
-        <v>0.1961</v>
+        <v>0.20805000000000001</v>
       </c>
       <c r="AG14">
-        <v>0.37636363636363601</v>
+        <v>0.410909090909091</v>
       </c>
       <c r="AH14">
-        <v>5.1510891651698101</v>
+        <v>5.1317496667961802</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -1489,76 +1510,76 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>0.17158006362672301</v>
+        <v>0.177857900318134</v>
       </c>
       <c r="D15">
-        <v>0.20225000000000001</v>
+        <v>0.20965</v>
       </c>
       <c r="E15">
-        <v>0.39393939393939398</v>
+        <v>0.44424242424242399</v>
       </c>
       <c r="F15">
-        <v>5.1469009557262497</v>
+        <v>5.1157053517539799</v>
       </c>
       <c r="I15">
         <v>25</v>
       </c>
       <c r="J15">
-        <v>0.188377518557794</v>
+        <v>0.19707317073170699</v>
       </c>
       <c r="K15">
-        <v>0.22205</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="L15">
-        <v>0.39745145631068002</v>
+        <v>0.44296116504854399</v>
       </c>
       <c r="M15">
-        <v>5.1410170405810502</v>
+        <v>5.1132817464834197</v>
       </c>
       <c r="P15">
         <v>25</v>
       </c>
       <c r="Q15">
-        <v>0.20161187698833499</v>
+        <v>0.21242841993637299</v>
       </c>
       <c r="R15">
-        <v>0.23765</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="S15">
-        <v>0.40666666666666701</v>
+        <v>0.440606060606061</v>
       </c>
       <c r="T15">
-        <v>5.1039527027699503</v>
+        <v>5.0833444349882901</v>
       </c>
       <c r="W15">
         <v>25</v>
       </c>
       <c r="X15">
-        <v>0.19915164369034999</v>
+        <v>0.211071049840933</v>
       </c>
       <c r="Y15">
-        <v>0.23474999999999999</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.40722891566265101</v>
+        <v>0.44518072289156602</v>
       </c>
       <c r="AA15">
-        <v>5.1068859632279802</v>
+        <v>5.0812546435745798</v>
       </c>
       <c r="AD15">
         <v>25</v>
       </c>
       <c r="AE15">
-        <v>0.19401908801696699</v>
+        <v>0.20538706256627801</v>
       </c>
       <c r="AF15">
-        <v>0.22869999999999999</v>
+        <v>0.24210000000000001</v>
       </c>
       <c r="AG15">
-        <v>0.40545454545454501</v>
+        <v>0.44545454545454499</v>
       </c>
       <c r="AH15">
-        <v>5.1064572819914602</v>
+        <v>5.0799950627394503</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -1566,76 +1587,76 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>0.162849063273241</v>
+        <v>0.16871686108165401</v>
       </c>
       <c r="D16">
-        <v>0.23035</v>
+        <v>0.23865</v>
       </c>
       <c r="E16">
-        <v>0.42545454545454497</v>
+        <v>0.46969696969697</v>
       </c>
       <c r="F16">
-        <v>5.10549410581483</v>
+        <v>5.06909745960977</v>
       </c>
       <c r="I16">
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.17925061859314201</v>
+        <v>0.18642629904559899</v>
       </c>
       <c r="K16">
-        <v>0.25355</v>
+        <v>0.26369999999999999</v>
       </c>
       <c r="L16">
-        <v>0.43082524271844702</v>
+        <v>0.470873786407767</v>
       </c>
       <c r="M16">
-        <v>5.0986400214232903</v>
+        <v>5.0644429012885999</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16">
-        <v>0.191162955107812</v>
+        <v>0.20017674089784401</v>
       </c>
       <c r="R16">
-        <v>0.27039999999999997</v>
+        <v>0.28315000000000001</v>
       </c>
       <c r="S16">
-        <v>0.43151515151515202</v>
+        <v>0.47575757575757599</v>
       </c>
       <c r="T16">
-        <v>5.0629505397808003</v>
+        <v>5.0341367868743996</v>
       </c>
       <c r="W16">
         <v>30</v>
       </c>
       <c r="X16">
-        <v>0.18695652173912999</v>
+        <v>0.19798515376458101</v>
       </c>
       <c r="Y16">
-        <v>0.26445000000000002</v>
+        <v>0.28005000000000002</v>
       </c>
       <c r="Z16">
-        <v>0.431927710843374</v>
+        <v>0.47831325301204802</v>
       </c>
       <c r="AA16">
-        <v>5.0656558602239601</v>
+        <v>5.0335538715892501</v>
       </c>
       <c r="AD16">
         <v>30</v>
       </c>
       <c r="AE16">
-        <v>0.18229056203605501</v>
+        <v>0.19307175680452501</v>
       </c>
       <c r="AF16">
-        <v>0.25785000000000002</v>
+        <v>0.27310000000000001</v>
       </c>
       <c r="AG16">
-        <v>0.42303030303030298</v>
+        <v>0.472121212121212</v>
       </c>
       <c r="AH16">
-        <v>5.0662077550759497</v>
+        <v>5.0353332414435998</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
@@ -1646,16 +1667,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.27677624602333001</v>
+        <v>0.31495227995758202</v>
       </c>
       <c r="D17">
-        <v>1.3050000000000001E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="E17">
-        <v>8.6666666666666697E-2</v>
+        <v>9.0303030303030302E-2</v>
       </c>
       <c r="F17">
-        <v>5.6205895187511103</v>
+        <v>5.6248481285823502</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -1664,16 +1685,16 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.34570519618239698</v>
+        <v>0.37115588547189798</v>
       </c>
       <c r="K17">
-        <v>1.6299999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="L17">
-        <v>8.4344660194174803E-2</v>
+        <v>8.9805825242718407E-2</v>
       </c>
       <c r="M17">
-        <v>5.6052193195903302</v>
+        <v>5.62267191184874</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -1682,16 +1703,16 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.37963944856839899</v>
+        <v>0.40509013785789999</v>
       </c>
       <c r="R17">
-        <v>1.7899999999999999E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="S17">
-        <v>8.1818181818181804E-2</v>
+        <v>8.9090909090909096E-2</v>
       </c>
       <c r="T17">
-        <v>5.6075894039779204</v>
+        <v>5.6119063919586898</v>
       </c>
       <c r="V17">
         <v>20</v>
@@ -1700,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0.376458112407211</v>
+        <v>0.44538706256627802</v>
       </c>
       <c r="Y17">
-        <v>1.7749999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Z17">
-        <v>8.1927710843373497E-2</v>
+        <v>8.8554216867469907E-2</v>
       </c>
       <c r="AA17">
-        <v>5.5529326358332503</v>
+        <v>5.5986149095541604</v>
       </c>
       <c r="AC17">
         <v>20</v>
@@ -1718,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>0.376458112407211</v>
+        <v>0.42735949098621401</v>
       </c>
       <c r="AF17">
-        <v>1.7749999999999998E-2</v>
+        <v>2.0150000000000001E-2</v>
       </c>
       <c r="AG17">
-        <v>8.3030303030302996E-2</v>
+        <v>9.0303030303030302E-2</v>
       </c>
       <c r="AH17">
-        <v>5.5971850482718999</v>
+        <v>5.6231802909153297</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -1735,76 +1756,76 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.255567338282078</v>
+        <v>0.26044538706256598</v>
       </c>
       <c r="D18">
-        <v>6.0249999999999998E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="E18">
-        <v>0.16545454545454499</v>
+        <v>0.18484848484848501</v>
       </c>
       <c r="F18">
-        <v>5.5096551444970796</v>
+        <v>5.5009409999570398</v>
       </c>
       <c r="I18">
         <v>5</v>
       </c>
       <c r="J18">
-        <v>0.29162248144220598</v>
+        <v>0.30646871686108201</v>
       </c>
       <c r="K18">
-        <v>6.8750000000000006E-2</v>
+        <v>7.2249999999999995E-2</v>
       </c>
       <c r="L18">
-        <v>0.16626213592233</v>
+        <v>0.16929611650485399</v>
       </c>
       <c r="M18">
-        <v>5.4852757183669496</v>
+        <v>5.4942979586294802</v>
       </c>
       <c r="P18">
         <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.31007423117709398</v>
+        <v>0.34273594909862098</v>
       </c>
       <c r="R18">
-        <v>7.3099999999999998E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="S18">
-        <v>0.15454545454545501</v>
+        <v>0.18303030303030299</v>
       </c>
       <c r="T18">
-        <v>5.4749032605403096</v>
+        <v>5.4777402620827997</v>
       </c>
       <c r="W18">
         <v>5</v>
       </c>
       <c r="X18">
-        <v>0.31728525980911998</v>
+        <v>0.36182396606574802</v>
       </c>
       <c r="Y18">
-        <v>7.4800000000000005E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="Z18">
-        <v>0.160240963855422</v>
+        <v>0.17650602409638599</v>
       </c>
       <c r="AA18">
-        <v>5.4600602189921403</v>
+        <v>5.4670376520028396</v>
       </c>
       <c r="AD18">
         <v>5</v>
       </c>
       <c r="AE18">
-        <v>0.31389183457052</v>
+        <v>0.33891834570519602</v>
       </c>
       <c r="AF18">
-        <v>7.3999999999999996E-2</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="AG18">
-        <v>0.16666666666666699</v>
+        <v>0.18060606060606099</v>
       </c>
       <c r="AH18">
-        <v>5.4856880685286997</v>
+        <v>5.4860675243436203</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -1812,76 +1833,76 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.22343584305408301</v>
+        <v>0.232343584305408</v>
       </c>
       <c r="D19">
-        <v>0.10535</v>
+        <v>0.10954999999999999</v>
       </c>
       <c r="E19">
-        <v>0.222424242424242</v>
+        <v>0.24606060606060601</v>
       </c>
       <c r="F19">
-        <v>5.4156310464300601</v>
+        <v>5.3990510447933797</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
-        <v>0.254294803817603</v>
+        <v>0.27083775185577902</v>
       </c>
       <c r="K19">
-        <v>0.11990000000000001</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="L19">
-        <v>0.213592233009709</v>
+        <v>0.23725728155339801</v>
       </c>
       <c r="M19">
-        <v>5.4029816743298502</v>
+        <v>5.3933820212407797</v>
       </c>
       <c r="P19">
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>0.27635206786850502</v>
+        <v>0.29469777306468697</v>
       </c>
       <c r="R19">
-        <v>0.1303</v>
+        <v>0.13894999999999999</v>
       </c>
       <c r="S19">
-        <v>0.21515151515151501</v>
+        <v>0.23939393939393899</v>
       </c>
       <c r="T19">
-        <v>5.3858396201288103</v>
+        <v>5.3807684240817597</v>
       </c>
       <c r="W19">
         <v>10</v>
       </c>
       <c r="X19">
-        <v>0.27910922587486697</v>
+        <v>0.30201484623541902</v>
       </c>
       <c r="Y19">
-        <v>0.13159999999999999</v>
+        <v>0.1424</v>
       </c>
       <c r="Z19">
-        <v>0.21867469879518101</v>
+        <v>0.232530120481928</v>
       </c>
       <c r="AA19">
-        <v>5.3812825574848304</v>
+        <v>5.3735044735315398</v>
       </c>
       <c r="AD19">
         <v>10</v>
       </c>
       <c r="AE19">
-        <v>0.27327677624602298</v>
+        <v>0.28642629904559902</v>
       </c>
       <c r="AF19">
-        <v>0.12884999999999999</v>
+        <v>0.13505</v>
       </c>
       <c r="AG19">
-        <v>0.218181818181818</v>
+        <v>0.24545454545454501</v>
       </c>
       <c r="AH19">
-        <v>5.3955139407875201</v>
+        <v>5.3802655932311998</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -1889,76 +1910,76 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>0.205019441498763</v>
+        <v>0.212230470130788</v>
       </c>
       <c r="D20">
-        <v>0.14499999999999999</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="E20">
-        <v>0.262424242424242</v>
+        <v>0.29030303030303001</v>
       </c>
       <c r="F20">
-        <v>5.3468462953109404</v>
+        <v>5.3280950404435501</v>
       </c>
       <c r="I20">
         <v>15</v>
       </c>
       <c r="J20">
-        <v>0.229833863556027</v>
+        <v>0.24248851184164</v>
       </c>
       <c r="K20">
-        <v>0.16255</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="L20">
-        <v>0.24939320388349501</v>
+        <v>0.28216019417475702</v>
       </c>
       <c r="M20">
-        <v>5.3396620004515603</v>
+        <v>5.3256056803672998</v>
       </c>
       <c r="P20">
         <v>15</v>
       </c>
       <c r="Q20">
-        <v>0.25309296571226603</v>
+        <v>0.266101095793567</v>
       </c>
       <c r="R20">
-        <v>0.17899999999999999</v>
+        <v>0.18820000000000001</v>
       </c>
       <c r="S20">
-        <v>0.25515151515151502</v>
+        <v>0.28303030303030302</v>
       </c>
       <c r="T20">
-        <v>5.3211857284263804</v>
+        <v>5.3089283907131497</v>
       </c>
       <c r="W20">
         <v>15</v>
       </c>
       <c r="X20">
-        <v>0.254294803817603</v>
+        <v>0.26984800282785398</v>
       </c>
       <c r="Y20">
-        <v>0.17985000000000001</v>
+        <v>0.19084999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.25783132530120501</v>
+        <v>0.28072289156626501</v>
       </c>
       <c r="AA20">
-        <v>5.3224941680657096</v>
+        <v>5.3060049930979298</v>
       </c>
       <c r="AD20">
         <v>15</v>
       </c>
       <c r="AE20">
-        <v>0.24475079533404001</v>
+        <v>0.25712265818310398</v>
       </c>
       <c r="AF20">
-        <v>0.1731</v>
+        <v>0.18185000000000001</v>
       </c>
       <c r="AG20">
-        <v>0.25818181818181801</v>
+        <v>0.27333333333333298</v>
       </c>
       <c r="AH20">
-        <v>5.32449386421212</v>
+        <v>5.31020643968907</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -1966,76 +1987,76 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.189607635206787</v>
+        <v>0.197507953340403</v>
       </c>
       <c r="D21">
-        <v>0.17879999999999999</v>
+        <v>0.18625</v>
       </c>
       <c r="E21">
-        <v>0.293939393939394</v>
+        <v>0.32666666666666699</v>
       </c>
       <c r="F21">
-        <v>5.2942416186889201</v>
+        <v>5.2679603382212097</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21">
-        <v>0.21325556733828199</v>
+        <v>0.22285259809119801</v>
       </c>
       <c r="K21">
-        <v>0.2011</v>
+        <v>0.21015</v>
       </c>
       <c r="L21">
-        <v>0.278519417475728</v>
+        <v>0.31917475728155298</v>
       </c>
       <c r="M21">
-        <v>5.2863785010684703</v>
+        <v>5.2662515897259601</v>
       </c>
       <c r="P21">
         <v>20</v>
       </c>
       <c r="Q21">
-        <v>0.23398727465535499</v>
+        <v>0.244432661717922</v>
       </c>
       <c r="R21">
-        <v>0.22065000000000001</v>
+        <v>0.23050000000000001</v>
       </c>
       <c r="S21">
-        <v>0.28848484848484901</v>
+        <v>0.322424242424242</v>
       </c>
       <c r="T21">
-        <v>5.2656673338281097</v>
+        <v>5.2523005122643598</v>
       </c>
       <c r="W21">
         <v>20</v>
       </c>
       <c r="X21">
-        <v>0.23282078472958601</v>
+        <v>0.24528101802757199</v>
       </c>
       <c r="Y21">
-        <v>0.21955</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.28855421686747001</v>
+        <v>0.31867469879518101</v>
       </c>
       <c r="AA21">
-        <v>5.2734663284129901</v>
+        <v>5.2501521982254502</v>
       </c>
       <c r="AD21">
         <v>20</v>
       </c>
       <c r="AE21">
-        <v>0.22476139978791099</v>
+        <v>0.237221633085896</v>
       </c>
       <c r="AF21">
-        <v>0.21195</v>
+        <v>0.22370000000000001</v>
       </c>
       <c r="AG21">
-        <v>0.28848484848484901</v>
+        <v>0.31757575757575801</v>
       </c>
       <c r="AH21">
-        <v>5.2717236115578201</v>
+        <v>5.2513840528413001</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
@@ -2043,76 +2064,76 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.17730646871686101</v>
+        <v>0.18460233297985201</v>
       </c>
       <c r="D22">
-        <v>0.20899999999999999</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="E22">
-        <v>0.31696969696969701</v>
+        <v>0.354545454545455</v>
       </c>
       <c r="F22">
-        <v>5.2486819579682704</v>
+        <v>5.2177447591606798</v>
       </c>
       <c r="I22">
         <v>25</v>
       </c>
       <c r="J22">
-        <v>0.20016967126193</v>
+        <v>0.20670201484623499</v>
       </c>
       <c r="K22">
-        <v>0.23594999999999999</v>
+        <v>0.24365000000000001</v>
       </c>
       <c r="L22">
-        <v>0.3125</v>
+        <v>0.34890776699029102</v>
       </c>
       <c r="M22">
-        <v>5.2411242045462201</v>
+        <v>5.2136901488402598</v>
       </c>
       <c r="P22">
         <v>25</v>
       </c>
       <c r="Q22">
-        <v>0.21637327677624599</v>
+        <v>0.227062566277837</v>
       </c>
       <c r="R22">
-        <v>0.25505</v>
+        <v>0.26765</v>
       </c>
       <c r="S22">
-        <v>0.31939393939393901</v>
+        <v>0.352727272727273</v>
       </c>
       <c r="T22">
-        <v>5.2196670766201398</v>
+        <v>5.2010157647635902</v>
       </c>
       <c r="W22">
         <v>25</v>
       </c>
       <c r="X22">
-        <v>0.214718981972428</v>
+        <v>0.22663838812301201</v>
       </c>
       <c r="Y22">
-        <v>0.25309999999999999</v>
+        <v>0.26715</v>
       </c>
       <c r="Z22">
-        <v>0.318072289156627</v>
+        <v>0.35060240963855399</v>
       </c>
       <c r="AA22">
-        <v>5.2266555639540604</v>
+        <v>5.1974196403068298</v>
       </c>
       <c r="AD22">
         <v>25</v>
       </c>
       <c r="AE22">
-        <v>0.20759278897136799</v>
+        <v>0.220190880169671</v>
       </c>
       <c r="AF22">
-        <v>0.2447</v>
+        <v>0.25955</v>
       </c>
       <c r="AG22">
-        <v>0.324848484848485</v>
+        <v>0.35030303030303001</v>
       </c>
       <c r="AH22">
-        <v>5.2230612400928003</v>
+        <v>5.1981292206524898</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
@@ -2120,76 +2141,76 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>0.16864616472251701</v>
+        <v>0.175044185224461</v>
       </c>
       <c r="D23">
-        <v>0.23855000000000001</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="E23">
-        <v>0.34</v>
+        <v>0.382424242424242</v>
       </c>
       <c r="F23">
-        <v>5.2061497274179001</v>
+        <v>5.1721503655401104</v>
       </c>
       <c r="I23">
         <v>30</v>
       </c>
       <c r="J23">
-        <v>0.187592788971368</v>
+        <v>0.19558147755390601</v>
       </c>
       <c r="K23">
-        <v>0.26534999999999997</v>
+        <v>0.27665000000000001</v>
       </c>
       <c r="L23">
-        <v>0.336165048543689</v>
+        <v>0.384708737864078</v>
       </c>
       <c r="M23">
-        <v>5.2007297531351702</v>
+        <v>5.1660889149433897</v>
       </c>
       <c r="P23">
         <v>30</v>
       </c>
       <c r="Q23">
-        <v>0.20360551431601301</v>
+        <v>0.21067515022976299</v>
       </c>
       <c r="R23">
-        <v>0.28799999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="S23">
-        <v>0.34606060606060601</v>
+        <v>0.38545454545454499</v>
       </c>
       <c r="T23">
-        <v>5.1796884245705597</v>
+        <v>5.1528903898650098</v>
       </c>
       <c r="W23">
         <v>30</v>
       </c>
       <c r="X23">
-        <v>0.202332979851538</v>
+        <v>0.212407211028632</v>
       </c>
       <c r="Y23">
-        <v>0.28620000000000001</v>
+        <v>0.30044999999999999</v>
       </c>
       <c r="Z23">
-        <v>0.33975903614457797</v>
+        <v>0.37409638554216901</v>
       </c>
       <c r="AA23">
-        <v>5.1808864264597601</v>
+        <v>5.1525568063197502</v>
       </c>
       <c r="AD23">
         <v>30</v>
       </c>
       <c r="AE23">
-        <v>0.195227995758218</v>
+        <v>0.20413573700954399</v>
       </c>
       <c r="AF23">
-        <v>0.27615000000000001</v>
+        <v>0.28875000000000001</v>
       </c>
       <c r="AG23">
-        <v>0.34363636363636402</v>
+        <v>0.381212121212121</v>
       </c>
       <c r="AH23">
-        <v>5.1794558408395401</v>
+        <v>5.1517388512264004</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
@@ -2200,16 +2221,16 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.31177094379639397</v>
+        <v>0.31495227995758202</v>
       </c>
       <c r="D24">
-        <v>1.47E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="E24">
-        <v>6.1212121212121197E-2</v>
+        <v>6.8484848484848496E-2</v>
       </c>
       <c r="F24">
-        <v>5.7327905755525199</v>
+        <v>5.7421833982308099</v>
       </c>
       <c r="H24">
         <v>40</v>
@@ -2218,16 +2239,16 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.37115588547189798</v>
+        <v>0.39978791092258698</v>
       </c>
       <c r="K24">
-        <v>1.7500000000000002E-2</v>
+        <v>1.8849999999999999E-2</v>
       </c>
       <c r="L24">
-        <v>6.3106796116504896E-2</v>
+        <v>6.8567961165048499E-2</v>
       </c>
       <c r="M24">
-        <v>5.7032148016863298</v>
+        <v>5.7118181446559602</v>
       </c>
       <c r="O24">
         <v>40</v>
@@ -2236,16 +2257,16 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.42735949098621401</v>
+        <v>0.447507953340403</v>
       </c>
       <c r="R24">
-        <v>2.0150000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="S24">
-        <v>5.8181818181818203E-2</v>
+        <v>6.4242424242424198E-2</v>
       </c>
       <c r="T24">
-        <v>5.7004150387268799</v>
+        <v>5.7189279962075403</v>
       </c>
       <c r="V24">
         <v>40</v>
@@ -2254,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="X24">
-        <v>0.44114528101802802</v>
+        <v>0.49310710498409299</v>
       </c>
       <c r="Y24">
-        <v>2.0799999999999999E-2</v>
+        <v>2.325E-2</v>
       </c>
       <c r="Z24">
-        <v>6.26506024096386E-2</v>
+        <v>7.0481927710843398E-2</v>
       </c>
       <c r="AA24">
-        <v>5.6928168606574596</v>
+        <v>5.6962030497140104</v>
       </c>
       <c r="AC24">
         <v>40</v>
@@ -2272,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>0.43584305408271501</v>
+        <v>0.451749734888653</v>
       </c>
       <c r="AF24">
-        <v>2.0549999999999999E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="AG24">
-        <v>0.06</v>
+        <v>6.78787878787879E-2</v>
       </c>
       <c r="AH24">
-        <v>5.71252370687818</v>
+        <v>5.7350619509637299</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
@@ -2289,76 +2310,76 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0.26044538706256598</v>
+        <v>0.26532343584305401</v>
       </c>
       <c r="D25">
-        <v>6.1400000000000003E-2</v>
+        <v>6.2549999999999994E-2</v>
       </c>
       <c r="E25">
-        <v>0.132121212121212</v>
+        <v>0.13939393939393899</v>
       </c>
       <c r="F25">
-        <v>5.5938724506923503</v>
+        <v>5.5901746223253896</v>
       </c>
       <c r="I25">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>0.30710498409331899</v>
+        <v>0.32004241781548198</v>
       </c>
       <c r="K25">
-        <v>7.2400000000000006E-2</v>
+        <v>7.5450000000000003E-2</v>
       </c>
       <c r="L25">
-        <v>0.12439320388349499</v>
+        <v>0.13410194174757301</v>
       </c>
       <c r="M25">
-        <v>5.5805668555516101</v>
+        <v>5.5829676675856197</v>
       </c>
       <c r="P25">
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>0.34273594909862098</v>
+        <v>0.36309650053022302</v>
       </c>
       <c r="R25">
-        <v>8.0799999999999997E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="S25">
-        <v>0.12181818181818201</v>
+        <v>0.134545454545455</v>
       </c>
       <c r="T25">
-        <v>5.5749294163328402</v>
+        <v>5.5694495185450599</v>
       </c>
       <c r="W25">
         <v>5</v>
       </c>
       <c r="X25">
-        <v>0.34867444326617197</v>
+        <v>0.37433722163308603</v>
       </c>
       <c r="Y25">
-        <v>8.2199999999999995E-2</v>
+        <v>8.8249999999999995E-2</v>
       </c>
       <c r="Z25">
-        <v>0.120481927710843</v>
+        <v>0.13313253012048201</v>
       </c>
       <c r="AA25">
-        <v>5.5698412681150202</v>
+        <v>5.56761115132662</v>
       </c>
       <c r="AD25">
         <v>5</v>
       </c>
       <c r="AE25">
-        <v>0.33191940615058302</v>
+        <v>0.35397667020148499</v>
       </c>
       <c r="AF25">
-        <v>7.825E-2</v>
+        <v>8.3449999999999996E-2</v>
       </c>
       <c r="AG25">
-        <v>0.115151515151515</v>
+        <v>0.130909090909091</v>
       </c>
       <c r="AH25">
-        <v>5.5837887653463403</v>
+        <v>5.5787382308469802</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
@@ -2366,76 +2387,76 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>0.22831389183457099</v>
+        <v>0.23478260869565201</v>
       </c>
       <c r="D26">
-        <v>0.10765</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="E26">
-        <v>0.17272727272727301</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
-        <v>5.4904513929068903</v>
+        <v>5.4799786534806199</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <v>0.26182396606574798</v>
+        <v>0.27486744432661703</v>
       </c>
       <c r="K26">
-        <v>0.12345</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="L26">
-        <v>0.16504854368932001</v>
+        <v>0.189927184466019</v>
       </c>
       <c r="M26">
-        <v>5.4849337620902201</v>
+        <v>5.4738629044592901</v>
       </c>
       <c r="P26">
         <v>10</v>
       </c>
       <c r="Q26">
-        <v>0.295440084835631</v>
+        <v>0.31039236479321303</v>
       </c>
       <c r="R26">
-        <v>0.13930000000000001</v>
+        <v>0.14635000000000001</v>
       </c>
       <c r="S26">
-        <v>0.16545454545454499</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="T26">
-        <v>5.4757492171865199</v>
+        <v>5.4632209292702401</v>
       </c>
       <c r="W26">
         <v>10</v>
       </c>
       <c r="X26">
-        <v>0.29724284199363699</v>
+        <v>0.316648992576882</v>
       </c>
       <c r="Y26">
-        <v>0.14015</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.16385542168674699</v>
+        <v>0.17891566265060199</v>
       </c>
       <c r="AA26">
-        <v>5.4728005125130803</v>
+        <v>5.4609262121087898</v>
       </c>
       <c r="AD26">
         <v>10</v>
       </c>
       <c r="AE26">
-        <v>0.283987274655355</v>
+        <v>0.30010604453870598</v>
       </c>
       <c r="AF26">
-        <v>0.13389999999999999</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="AG26">
-        <v>0.161818181818182</v>
+        <v>0.176969696969697</v>
       </c>
       <c r="AH26">
-        <v>5.4810566330943002</v>
+        <v>5.4704572995482001</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
@@ -2443,76 +2464,76 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>0.205655708731</v>
+        <v>0.21364439731353799</v>
       </c>
       <c r="D27">
-        <v>0.14545</v>
+        <v>0.15110000000000001</v>
       </c>
       <c r="E27">
-        <v>0.206060606060606</v>
+        <v>0.236363636363636</v>
       </c>
       <c r="F27">
-        <v>5.4193903422743102</v>
+        <v>5.4029832858557896</v>
       </c>
       <c r="I27">
         <v>15</v>
       </c>
       <c r="J27">
-        <v>0.23881230116648999</v>
+        <v>0.247366560622128</v>
       </c>
       <c r="K27">
-        <v>0.16889999999999999</v>
+        <v>0.17494999999999999</v>
       </c>
       <c r="L27">
-        <v>0.20084951456310701</v>
+        <v>0.228155339805825</v>
       </c>
       <c r="M27">
-        <v>5.4165377789477098</v>
+        <v>5.3993620007415704</v>
       </c>
       <c r="P27">
         <v>15</v>
       </c>
       <c r="Q27">
-        <v>0.26617179215270398</v>
+        <v>0.27741251325556698</v>
       </c>
       <c r="R27">
-        <v>0.18825</v>
+        <v>0.19620000000000001</v>
       </c>
       <c r="S27">
-        <v>0.19818181818181799</v>
+        <v>0.21212121212121199</v>
       </c>
       <c r="T27">
-        <v>5.4089499835107802</v>
+        <v>5.3940825977006597</v>
       </c>
       <c r="W27">
         <v>15</v>
       </c>
       <c r="X27">
-        <v>0.26489925768822897</v>
+        <v>0.279392011311417</v>
       </c>
       <c r="Y27">
-        <v>0.18734999999999999</v>
+        <v>0.1976</v>
       </c>
       <c r="Z27">
-        <v>0.19216867469879501</v>
+        <v>0.21746987951807201</v>
       </c>
       <c r="AA27">
-        <v>5.4092021006305</v>
+        <v>5.3901784763898997</v>
       </c>
       <c r="AD27">
         <v>15</v>
       </c>
       <c r="AE27">
-        <v>0.253729232944503</v>
+        <v>0.26482856132909199</v>
       </c>
       <c r="AF27">
-        <v>0.17945</v>
+        <v>0.18729999999999999</v>
       </c>
       <c r="AG27">
-        <v>0.19818181818181799</v>
+        <v>0.21757575757575801</v>
       </c>
       <c r="AH27">
-        <v>5.4123077007162603</v>
+        <v>5.3970990329283497</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
@@ -2520,76 +2541,76 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>0.190296924708378</v>
+        <v>0.195970307529162</v>
       </c>
       <c r="D28">
-        <v>0.17945</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="E28">
-        <v>0.233333333333333</v>
+        <v>0.265454545454545</v>
       </c>
       <c r="F28">
-        <v>5.3674145355226299</v>
+        <v>5.3438401950670196</v>
       </c>
       <c r="I28">
         <v>20</v>
       </c>
       <c r="J28">
-        <v>0.218080593849417</v>
+        <v>0.227889713679746</v>
       </c>
       <c r="K28">
-        <v>0.20565</v>
+        <v>0.21490000000000001</v>
       </c>
       <c r="L28">
-        <v>0.23422330097087399</v>
+        <v>0.26031553398058299</v>
       </c>
       <c r="M28">
-        <v>5.3603967359452804</v>
+        <v>5.3421854191380103</v>
       </c>
       <c r="P28">
         <v>20</v>
       </c>
       <c r="Q28">
-        <v>0.24188759278897101</v>
+        <v>0.25121951219512201</v>
       </c>
       <c r="R28">
-        <v>0.2281</v>
+        <v>0.2369</v>
       </c>
       <c r="S28">
-        <v>0.221212121212121</v>
+        <v>0.249090909090909</v>
       </c>
       <c r="T28">
-        <v>5.35442761698146</v>
+        <v>5.3363499813496498</v>
       </c>
       <c r="W28">
         <v>20</v>
       </c>
       <c r="X28">
-        <v>0.24162248144220599</v>
+        <v>0.25201484623541898</v>
       </c>
       <c r="Y28">
-        <v>0.22785</v>
+        <v>0.23765</v>
       </c>
       <c r="Z28">
-        <v>0.22048192771084299</v>
+        <v>0.239759036144578</v>
       </c>
       <c r="AA28">
-        <v>5.3572161930131204</v>
+        <v>5.3350168776167104</v>
       </c>
       <c r="AD28">
         <v>20</v>
       </c>
       <c r="AE28">
-        <v>0.23123011664899301</v>
+        <v>0.24125132555673401</v>
       </c>
       <c r="AF28">
-        <v>0.21804999999999999</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="AG28">
-        <v>0.22363636363636399</v>
+        <v>0.24606060606060601</v>
       </c>
       <c r="AH28">
-        <v>5.35544846231367</v>
+        <v>5.33530500093815</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
@@ -2597,76 +2618,76 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>0.17802757158006399</v>
+        <v>0.18375397667020099</v>
       </c>
       <c r="D29">
-        <v>0.20985000000000001</v>
+        <v>0.21659999999999999</v>
       </c>
       <c r="E29">
-        <v>0.25939393939393901</v>
+        <v>0.291515151515152</v>
       </c>
       <c r="F29">
-        <v>5.3169447095216604</v>
+        <v>5.2925504947158997</v>
       </c>
       <c r="I29">
         <v>25</v>
       </c>
       <c r="J29">
-        <v>0.20343584305408299</v>
+        <v>0.21213149522799599</v>
       </c>
       <c r="K29">
-        <v>0.23980000000000001</v>
+        <v>0.25004999999999999</v>
       </c>
       <c r="L29">
-        <v>0.25242718446601897</v>
+        <v>0.28155339805825202</v>
       </c>
       <c r="M29">
-        <v>5.3121789686976504</v>
+        <v>5.2894391380426899</v>
       </c>
       <c r="P29">
         <v>25</v>
       </c>
       <c r="Q29">
-        <v>0.22248144220572599</v>
+        <v>0.231983032873807</v>
       </c>
       <c r="R29">
-        <v>0.26224999999999998</v>
+        <v>0.27345000000000003</v>
       </c>
       <c r="S29">
-        <v>0.248484848484848</v>
+        <v>0.27515151515151498</v>
       </c>
       <c r="T29">
-        <v>5.3074220542297397</v>
+        <v>5.2820368406485603</v>
       </c>
       <c r="W29">
         <v>25</v>
       </c>
       <c r="X29">
-        <v>0.22184517497348899</v>
+        <v>0.23308589607635199</v>
       </c>
       <c r="Y29">
-        <v>0.26150000000000001</v>
+        <v>0.27474999999999999</v>
       </c>
       <c r="Z29">
-        <v>0.24578313253011999</v>
+        <v>0.26987951807228899</v>
       </c>
       <c r="AA29">
-        <v>5.3078870827777003</v>
+        <v>5.2832126363002399</v>
       </c>
       <c r="AD29">
         <v>25</v>
       </c>
       <c r="AE29">
-        <v>0.21306468716861099</v>
+        <v>0.22430540827147399</v>
       </c>
       <c r="AF29">
-        <v>0.25114999999999998</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="AG29">
-        <v>0.24969696969697</v>
+        <v>0.27454545454545498</v>
       </c>
       <c r="AH29">
-        <v>5.3065026915209996</v>
+        <v>5.2838909269447702</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
@@ -2674,76 +2695,76 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.16935312831389199</v>
+        <v>0.17444326617179201</v>
       </c>
       <c r="D30">
-        <v>0.23955000000000001</v>
+        <v>0.24675</v>
       </c>
       <c r="E30">
-        <v>0.27878787878787897</v>
+        <v>0.31333333333333302</v>
       </c>
       <c r="F30">
-        <v>5.2724510060711003</v>
+        <v>5.2441375100706704</v>
       </c>
       <c r="I30">
         <v>30</v>
       </c>
       <c r="J30">
-        <v>0.190809473312124</v>
+        <v>0.19961117002474399</v>
       </c>
       <c r="K30">
-        <v>0.26989999999999997</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="L30">
-        <v>0.27002427184465999</v>
+        <v>0.30946601941747598</v>
       </c>
       <c r="M30">
-        <v>5.2682774350624104</v>
+        <v>5.2418657107618598</v>
       </c>
       <c r="P30">
         <v>30</v>
       </c>
       <c r="Q30">
-        <v>0.20675150229763201</v>
+        <v>0.21587133262637001</v>
       </c>
       <c r="R30">
-        <v>0.29244999999999999</v>
+        <v>0.30535000000000001</v>
       </c>
       <c r="S30">
-        <v>0.27030303030302999</v>
+        <v>0.30363636363636398</v>
       </c>
       <c r="T30">
-        <v>5.26201689455407</v>
+        <v>5.2361594229502098</v>
       </c>
       <c r="W30">
         <v>30</v>
       </c>
       <c r="X30">
-        <v>0.20600919052668801</v>
+        <v>0.21615411806292001</v>
       </c>
       <c r="Y30">
-        <v>0.29139999999999999</v>
+        <v>0.30575000000000002</v>
       </c>
       <c r="Z30">
-        <v>0.265060240963855</v>
+        <v>0.29337349397590401</v>
       </c>
       <c r="AA30">
-        <v>5.2650452932443201</v>
+        <v>5.2365363787008796</v>
       </c>
       <c r="AD30">
         <v>30</v>
       </c>
       <c r="AE30">
-        <v>0.19886885825379999</v>
+        <v>0.209261223047013</v>
       </c>
       <c r="AF30">
-        <v>0.28129999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="AG30">
-        <v>0.27333333333333298</v>
+        <v>0.30242424242424198</v>
       </c>
       <c r="AH30">
-        <v>5.2612432783871101</v>
+        <v>5.2351702639610398</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -2754,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.30858960763520699</v>
+        <v>0.31707317073170699</v>
       </c>
       <c r="D31">
-        <v>1.455E-2</v>
+        <v>1.495E-2</v>
       </c>
       <c r="E31">
-        <v>4.60606060606061E-2</v>
+        <v>4.9090909090909102E-2</v>
       </c>
       <c r="F31">
-        <v>5.8142786904239996</v>
+        <v>5.8198538304626002</v>
       </c>
       <c r="H31">
         <v>80</v>
@@ -2772,16 +2793,16 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.401908801696713</v>
+        <v>0.41463414634146301</v>
       </c>
       <c r="K31">
-        <v>1.8950000000000002E-2</v>
+        <v>1.9550000000000001E-2</v>
       </c>
       <c r="L31">
-        <v>4.5509708737864099E-2</v>
+        <v>4.6116504854368898E-2</v>
       </c>
       <c r="M31">
-        <v>5.7840207041665099</v>
+        <v>5.7997413541062404</v>
       </c>
       <c r="O31">
         <v>80</v>
@@ -2790,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.45493107104984098</v>
+        <v>0.46235418875927897</v>
       </c>
       <c r="R31">
-        <v>2.145E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="S31">
-        <v>3.8181818181818199E-2</v>
+        <v>4.6666666666666697E-2</v>
       </c>
       <c r="T31">
-        <v>5.8087299951061402</v>
+        <v>5.8038299957988899</v>
       </c>
       <c r="V31">
         <v>80</v>
@@ -2808,16 +2829,16 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>0.489925768822906</v>
+        <v>0.49522799575821802</v>
       </c>
       <c r="Y31">
-        <v>2.3099999999999999E-2</v>
+        <v>2.3349999999999999E-2</v>
       </c>
       <c r="Z31">
-        <v>4.51807228915663E-2</v>
+        <v>4.8795180722891601E-2</v>
       </c>
       <c r="AA31">
-        <v>5.7868629036326098</v>
+        <v>5.7922169466948903</v>
       </c>
       <c r="AC31">
         <v>80</v>
@@ -2826,16 +2847,16 @@
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>0.42523860021208898</v>
+        <v>0.46129374337221601</v>
       </c>
       <c r="AF31">
-        <v>2.0049999999999998E-2</v>
+        <v>2.1749999999999999E-2</v>
       </c>
       <c r="AG31">
-        <v>3.9393939393939398E-2</v>
+        <v>4.5454545454545497E-2</v>
       </c>
       <c r="AH31">
-        <v>5.8330531362039002</v>
+        <v>5.82959370031615</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -2843,76 +2864,76 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>0.257051961823966</v>
+        <v>0.26150583244962899</v>
       </c>
       <c r="D32">
-        <v>6.0600000000000001E-2</v>
+        <v>6.1650000000000003E-2</v>
       </c>
       <c r="E32">
-        <v>0.102424242424242</v>
+        <v>0.11333333333333299</v>
       </c>
       <c r="F32">
-        <v>5.6583007003940899</v>
+        <v>5.6509668376653703</v>
       </c>
       <c r="I32">
         <v>5</v>
       </c>
       <c r="J32">
-        <v>0.31071049840933201</v>
+        <v>0.32152704135736998</v>
       </c>
       <c r="K32">
-        <v>7.3249999999999996E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="L32">
-        <v>9.95145631067961E-2</v>
+        <v>0.106796116504854</v>
       </c>
       <c r="M32">
-        <v>5.6514754807597303</v>
+        <v>5.6530775681546404</v>
       </c>
       <c r="P32">
         <v>5</v>
       </c>
       <c r="Q32">
-        <v>0.35291622481442197</v>
+        <v>0.37136797454931098</v>
       </c>
       <c r="R32">
-        <v>8.3199999999999996E-2</v>
+        <v>8.7550000000000003E-2</v>
       </c>
       <c r="S32">
-        <v>9.27272727272727E-2</v>
+        <v>0.102424242424242</v>
       </c>
       <c r="T32">
-        <v>5.6554364123788297</v>
+        <v>5.6464901363787101</v>
       </c>
       <c r="W32">
         <v>5</v>
       </c>
       <c r="X32">
-        <v>0.35970307529162199</v>
+        <v>0.373700954400848</v>
       </c>
       <c r="Y32">
-        <v>8.48E-2</v>
+        <v>8.8099999999999998E-2</v>
       </c>
       <c r="Z32">
-        <v>9.0963855421686807E-2</v>
+        <v>9.7590361445783105E-2</v>
       </c>
       <c r="AA32">
-        <v>5.6499242589920797</v>
+        <v>5.6439569896881903</v>
       </c>
       <c r="AD32">
         <v>5</v>
       </c>
       <c r="AE32">
-        <v>0.33319194061505802</v>
+        <v>0.35843054082714698</v>
       </c>
       <c r="AF32">
-        <v>7.8549999999999995E-2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="AG32">
-        <v>8.7272727272727293E-2</v>
+        <v>9.7575757575757593E-2</v>
       </c>
       <c r="AH32">
-        <v>5.6588768058336196</v>
+        <v>5.6508436725411197</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
@@ -2920,76 +2941,76 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>0.22555673382820801</v>
+        <v>0.230752916224814</v>
       </c>
       <c r="D33">
-        <v>0.10635</v>
+        <v>0.10879999999999999</v>
       </c>
       <c r="E33">
-        <v>0.14060606060606101</v>
+        <v>0.159393939393939</v>
       </c>
       <c r="F33">
-        <v>5.5461745665068598</v>
+        <v>5.53584479982307</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>0.26468716861081698</v>
+        <v>0.27518557794273601</v>
       </c>
       <c r="K33">
-        <v>0.12479999999999999</v>
+        <v>0.12975</v>
       </c>
       <c r="L33">
-        <v>0.137135922330097</v>
+        <v>0.15533980582524301</v>
       </c>
       <c r="M33">
-        <v>5.5462821447474404</v>
+        <v>5.5386747336748696</v>
       </c>
       <c r="P33">
         <v>10</v>
       </c>
       <c r="Q33">
-        <v>0.29809119830328701</v>
+        <v>0.31124072110286299</v>
       </c>
       <c r="R33">
-        <v>0.14055000000000001</v>
+        <v>0.14674999999999999</v>
       </c>
       <c r="S33">
-        <v>0.12545454545454501</v>
+        <v>0.13878787878787899</v>
       </c>
       <c r="T33">
-        <v>5.5484307890990703</v>
+        <v>5.5363423210154998</v>
       </c>
       <c r="W33">
         <v>10</v>
       </c>
       <c r="X33">
-        <v>0.3</v>
+        <v>0.31336161187698802</v>
       </c>
       <c r="Y33">
-        <v>0.14144999999999999</v>
+        <v>0.14774999999999999</v>
       </c>
       <c r="Z33">
-        <v>0.119879518072289</v>
+        <v>0.141566265060241</v>
       </c>
       <c r="AA33">
-        <v>5.5402845419470204</v>
+        <v>5.5298058260110201</v>
       </c>
       <c r="AD33">
         <v>10</v>
       </c>
       <c r="AE33">
-        <v>0.28345705196182402</v>
+        <v>0.30212089077412502</v>
       </c>
       <c r="AF33">
-        <v>0.13364999999999999</v>
+        <v>0.14244999999999999</v>
       </c>
       <c r="AG33">
-        <v>0.124242424242424</v>
+        <v>0.13696969696969699</v>
       </c>
       <c r="AH33">
-        <v>5.5462935714740302</v>
+        <v>5.5338318898020002</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
@@ -2997,76 +3018,76 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>0.20332272887946301</v>
+        <v>0.20933191940615101</v>
       </c>
       <c r="D34">
-        <v>0.14380000000000001</v>
+        <v>0.14804999999999999</v>
       </c>
       <c r="E34">
-        <v>0.16545454545454499</v>
+        <v>0.192121212121212</v>
       </c>
       <c r="F34">
-        <v>5.4758165910584404</v>
+        <v>5.4584671108640102</v>
       </c>
       <c r="I34">
         <v>15</v>
       </c>
       <c r="J34">
-        <v>0.23718628490632701</v>
+        <v>0.248285613290916</v>
       </c>
       <c r="K34">
-        <v>0.16775000000000001</v>
+        <v>0.17560000000000001</v>
       </c>
       <c r="L34">
-        <v>0.16262135922330101</v>
+        <v>0.18143203883495099</v>
       </c>
       <c r="M34">
-        <v>5.4752997204807103</v>
+        <v>5.4616130421274898</v>
       </c>
       <c r="P34">
         <v>15</v>
       </c>
       <c r="Q34">
-        <v>0.26496995404736701</v>
+        <v>0.27762460233297998</v>
       </c>
       <c r="R34">
-        <v>0.18740000000000001</v>
+        <v>0.19635</v>
       </c>
       <c r="S34">
-        <v>0.15393939393939399</v>
+        <v>0.17272727272727301</v>
       </c>
       <c r="T34">
-        <v>5.4712310986902803</v>
+        <v>5.4578469114287103</v>
       </c>
       <c r="W34">
         <v>15</v>
       </c>
       <c r="X34">
-        <v>0.26857546836337898</v>
+        <v>0.27910922587486697</v>
       </c>
       <c r="Y34">
-        <v>0.18995000000000001</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="Z34">
-        <v>0.157831325301205</v>
+        <v>0.171686746987952</v>
       </c>
       <c r="AA34">
-        <v>5.4694996054885596</v>
+        <v>5.4530347659365397</v>
       </c>
       <c r="AD34">
         <v>15</v>
       </c>
       <c r="AE34">
-        <v>0.25394132202191599</v>
+        <v>0.26567691763874202</v>
       </c>
       <c r="AF34">
-        <v>0.17960000000000001</v>
+        <v>0.18790000000000001</v>
       </c>
       <c r="AG34">
-        <v>0.15212121212121199</v>
+        <v>0.16848484848484799</v>
       </c>
       <c r="AH34">
-        <v>5.4736826761494903</v>
+        <v>5.4578476326955796</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
@@ -3074,76 +3095,76 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>0.18791092258748701</v>
+        <v>0.19289501590668101</v>
       </c>
       <c r="D35">
-        <v>0.1772</v>
+        <v>0.18190000000000001</v>
       </c>
       <c r="E35">
-        <v>0.189090909090909</v>
+        <v>0.221212121212121</v>
       </c>
       <c r="F35">
-        <v>5.4183237107274804</v>
+        <v>5.3964341446072002</v>
       </c>
       <c r="I35">
         <v>20</v>
       </c>
       <c r="J35">
-        <v>0.216648992576882</v>
+        <v>0.224549310710498</v>
       </c>
       <c r="K35">
-        <v>0.20430000000000001</v>
+        <v>0.21174999999999999</v>
       </c>
       <c r="L35">
-        <v>0.1875</v>
+        <v>0.211165048543689</v>
       </c>
       <c r="M35">
-        <v>5.4166475996636798</v>
+        <v>5.3997122466689804</v>
       </c>
       <c r="P35">
         <v>20</v>
       </c>
       <c r="Q35">
-        <v>0.24093319194061499</v>
+        <v>0.25174973488865299</v>
       </c>
       <c r="R35">
-        <v>0.22720000000000001</v>
+        <v>0.2374</v>
       </c>
       <c r="S35">
-        <v>0.175151515151515</v>
+        <v>0.19939393939393901</v>
       </c>
       <c r="T35">
-        <v>5.41362430935727</v>
+        <v>5.39625023535105</v>
       </c>
       <c r="W35">
         <v>20</v>
       </c>
       <c r="X35">
-        <v>0.24262990455991501</v>
+        <v>0.25243902439024402</v>
       </c>
       <c r="Y35">
-        <v>0.2288</v>
+        <v>0.23805000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.181927710843374</v>
+        <v>0.196987951807229</v>
       </c>
       <c r="AA35">
-        <v>5.4139942108659902</v>
+        <v>5.3942934600294503</v>
       </c>
       <c r="AD35">
         <v>20</v>
       </c>
       <c r="AE35">
-        <v>0.230858960763521</v>
+        <v>0.24040296924708399</v>
       </c>
       <c r="AF35">
-        <v>0.2177</v>
+        <v>0.22670000000000001</v>
       </c>
       <c r="AG35">
-        <v>0.176363636363636</v>
+        <v>0.19818181818181799</v>
       </c>
       <c r="AH35">
-        <v>5.4144754377340503</v>
+        <v>5.3956110811383198</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
@@ -3151,76 +3172,76 @@
         <v>25</v>
       </c>
       <c r="C36">
-        <v>0.175949098621421</v>
+        <v>0.18159066808059399</v>
       </c>
       <c r="D36">
-        <v>0.2074</v>
+        <v>0.21404999999999999</v>
       </c>
       <c r="E36">
-        <v>0.206666666666667</v>
+        <v>0.23878787878787899</v>
       </c>
       <c r="F36">
-        <v>5.3697819488150698</v>
+        <v>5.3457528215442496</v>
       </c>
       <c r="I36">
         <v>25</v>
       </c>
       <c r="J36">
-        <v>0.20118769883351001</v>
+        <v>0.208992576882291</v>
       </c>
       <c r="K36">
-        <v>0.23715</v>
+        <v>0.24635000000000001</v>
       </c>
       <c r="L36">
-        <v>0.20752427184465999</v>
+        <v>0.23361650485436899</v>
       </c>
       <c r="M36">
-        <v>5.3652352484513903</v>
+        <v>5.3441213926429398</v>
       </c>
       <c r="P36">
         <v>25</v>
       </c>
       <c r="Q36">
-        <v>0.22095440084835599</v>
+        <v>0.23028632025450699</v>
       </c>
       <c r="R36">
-        <v>0.26045000000000001</v>
+        <v>0.27145000000000002</v>
       </c>
       <c r="S36">
-        <v>0.192121212121212</v>
+        <v>0.218787878787879</v>
       </c>
       <c r="T36">
-        <v>5.3642858785487499</v>
+        <v>5.3422943071900804</v>
       </c>
       <c r="W36">
         <v>25</v>
       </c>
       <c r="X36">
-        <v>0.222608695652174</v>
+        <v>0.23219512195122</v>
       </c>
       <c r="Y36">
-        <v>0.26240000000000002</v>
+        <v>0.2737</v>
       </c>
       <c r="Z36">
-        <v>0.19879518072289201</v>
+        <v>0.219879518072289</v>
       </c>
       <c r="AA36">
-        <v>5.3659804087150302</v>
+        <v>5.3421493363118202</v>
       </c>
       <c r="AD36">
         <v>25</v>
       </c>
       <c r="AE36">
-        <v>0.21264050901378601</v>
+        <v>0.22294803817603401</v>
       </c>
       <c r="AF36">
-        <v>0.25064999999999998</v>
+        <v>0.26279999999999998</v>
       </c>
       <c r="AG36">
-        <v>0.19757575757575799</v>
+        <v>0.218181818181818</v>
       </c>
       <c r="AH36">
-        <v>5.36492055614963</v>
+        <v>5.3424396355501704</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
@@ -3228,76 +3249,76 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <v>0.167196889360198</v>
+        <v>0.17225167903853</v>
       </c>
       <c r="D37">
-        <v>0.23649999999999999</v>
+        <v>0.24365000000000001</v>
       </c>
       <c r="E37">
-        <v>0.22787878787878799</v>
+        <v>0.263636363636364</v>
       </c>
       <c r="F37">
-        <v>5.3258653991469798</v>
+        <v>5.2995277261053504</v>
       </c>
       <c r="I37">
         <v>30</v>
       </c>
       <c r="J37">
-        <v>0.18826440438317399</v>
+        <v>0.19639448568398701</v>
       </c>
       <c r="K37">
-        <v>0.26629999999999998</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="L37">
-        <v>0.22694174757281599</v>
+        <v>0.25424757281553401</v>
       </c>
       <c r="M37">
-        <v>5.3198932832198702</v>
+        <v>5.2965881289702201</v>
       </c>
       <c r="P37">
         <v>30</v>
       </c>
       <c r="Q37">
-        <v>0.20597384234711899</v>
+        <v>0.21385648639095101</v>
       </c>
       <c r="R37">
-        <v>0.29135</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="S37">
-        <v>0.207878787878788</v>
+        <v>0.24303030303030301</v>
       </c>
       <c r="T37">
-        <v>5.3214600074101597</v>
+        <v>5.2959027996545496</v>
       </c>
       <c r="W37">
         <v>30</v>
       </c>
       <c r="X37">
-        <v>0.2067868504772</v>
+        <v>0.215800636267232</v>
       </c>
       <c r="Y37">
-        <v>0.29249999999999998</v>
+        <v>0.30525000000000002</v>
       </c>
       <c r="Z37">
-        <v>0.21265060240963901</v>
+        <v>0.246385542168675</v>
       </c>
       <c r="AA37">
-        <v>5.3238229940193298</v>
+        <v>5.2956054349075004</v>
       </c>
       <c r="AD37">
         <v>30</v>
       </c>
       <c r="AE37">
-        <v>0.19787910922587501</v>
+        <v>0.20735242135029999</v>
       </c>
       <c r="AF37">
-        <v>0.27989999999999998</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="AG37">
-        <v>0.21575757575757601</v>
+        <v>0.24242424242424199</v>
       </c>
       <c r="AH37">
-        <v>5.3225467391356904</v>
+        <v>5.2963878492098404</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
@@ -3314,10 +3335,10 @@
         <v>1.4749999999999999E-2</v>
       </c>
       <c r="E38">
-        <v>3.7575757575757603E-2</v>
+        <v>4.3636363636363598E-2</v>
       </c>
       <c r="F38">
-        <v>5.8699701556404902</v>
+        <v>5.8715313250549199</v>
       </c>
       <c r="H38">
         <v>160</v>
@@ -3326,16 +3347,16 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.41145281018027602</v>
+        <v>0.42099681866383898</v>
       </c>
       <c r="K38">
-        <v>1.9400000000000001E-2</v>
+        <v>1.985E-2</v>
       </c>
       <c r="L38">
-        <v>3.4587378640776698E-2</v>
+        <v>3.70145631067961E-2</v>
       </c>
       <c r="M38">
-        <v>5.8502548285306597</v>
+        <v>5.8597705544174801</v>
       </c>
       <c r="O38">
         <v>160</v>
@@ -3344,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0.451749734888653</v>
+        <v>0.46341463414634099</v>
       </c>
       <c r="R38">
-        <v>2.1299999999999999E-2</v>
+        <v>2.1850000000000001E-2</v>
       </c>
       <c r="S38">
-        <v>2.7878787878787899E-2</v>
+        <v>3.2727272727272702E-2</v>
       </c>
       <c r="T38">
-        <v>5.85883612786228</v>
+        <v>5.8594746808318501</v>
       </c>
       <c r="V38">
         <v>160</v>
@@ -3362,16 +3383,16 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0.49204665959703098</v>
+        <v>0.50583244962884399</v>
       </c>
       <c r="Y38">
-        <v>2.3199999999999998E-2</v>
+        <v>2.385E-2</v>
       </c>
       <c r="Z38">
         <v>3.13253012048193E-2</v>
       </c>
       <c r="AA38">
-        <v>5.8565517386420201</v>
+        <v>5.8646976831698803</v>
       </c>
       <c r="AC38">
         <v>160</v>
@@ -3380,16 +3401,16 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0.43584305408271501</v>
+        <v>0.45811240721102903</v>
       </c>
       <c r="AF38">
-        <v>2.0549999999999999E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="AG38">
-        <v>2.9090909090909101E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="AH38">
-        <v>5.8990020693063503</v>
+        <v>5.8907289132063001</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
@@ -3397,76 +3418,76 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.250053022269353</v>
+        <v>0.25620360551431598</v>
       </c>
       <c r="D39">
-        <v>5.8950000000000002E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="E39">
-        <v>8.0606060606060598E-2</v>
+        <v>9.2121212121212104E-2</v>
       </c>
       <c r="F39">
-        <v>5.7085746785400202</v>
+        <v>5.7020324198273302</v>
       </c>
       <c r="I39">
         <v>5</v>
       </c>
       <c r="J39">
-        <v>0.30710498409331899</v>
+        <v>0.31728525980911998</v>
       </c>
       <c r="K39">
-        <v>7.2400000000000006E-2</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="L39">
-        <v>7.9490291262135901E-2</v>
+        <v>8.6165048543689296E-2</v>
       </c>
       <c r="M39">
-        <v>5.7104655911125102</v>
+        <v>5.7061323497366203</v>
       </c>
       <c r="P39">
         <v>5</v>
       </c>
       <c r="Q39">
-        <v>0.34825026511134699</v>
+        <v>0.35673382820784699</v>
       </c>
       <c r="R39">
-        <v>8.2100000000000006E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="S39">
-        <v>7.0303030303030298E-2</v>
+        <v>7.3333333333333306E-2</v>
       </c>
       <c r="T39">
-        <v>5.7154476609332896</v>
+        <v>5.7102133918856701</v>
       </c>
       <c r="W39">
         <v>5</v>
       </c>
       <c r="X39">
-        <v>0.35143160127253398</v>
+        <v>0.36839872746553598</v>
       </c>
       <c r="Y39">
-        <v>8.2849999999999993E-2</v>
+        <v>8.6849999999999997E-2</v>
       </c>
       <c r="Z39">
-        <v>6.9879518072289204E-2</v>
+        <v>8.0120481927710804E-2</v>
       </c>
       <c r="AA39">
-        <v>5.7134630844798497</v>
+        <v>5.7052628117572697</v>
       </c>
       <c r="AD39">
         <v>5</v>
       </c>
       <c r="AE39">
-        <v>0.32852598091198298</v>
+        <v>0.34549310710498399</v>
       </c>
       <c r="AF39">
-        <v>7.7450000000000005E-2</v>
+        <v>8.1449999999999995E-2</v>
       </c>
       <c r="AG39">
-        <v>6.8484848484848496E-2</v>
+        <v>7.3333333333333306E-2</v>
       </c>
       <c r="AH39">
-        <v>5.7134377503393603</v>
+        <v>5.7058833442296297</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
@@ -3474,76 +3495,76 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>0.21749734888653199</v>
+        <v>0.22279957582184501</v>
       </c>
       <c r="D40">
-        <v>0.10255</v>
+        <v>0.10505</v>
       </c>
       <c r="E40">
-        <v>0.116363636363636</v>
+        <v>0.130909090909091</v>
       </c>
       <c r="F40">
-        <v>5.5980290505169803</v>
+        <v>5.5843884354606796</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
       <c r="J40">
-        <v>0.25652173913043502</v>
+        <v>0.26606574761399798</v>
       </c>
       <c r="K40">
-        <v>0.12095</v>
+        <v>0.12545000000000001</v>
       </c>
       <c r="L40">
-        <v>0.11225728155339799</v>
+        <v>0.127427184466019</v>
       </c>
       <c r="M40">
-        <v>5.5972829124441796</v>
+        <v>5.5858524332373802</v>
       </c>
       <c r="P40">
         <v>10</v>
       </c>
       <c r="Q40">
-        <v>0.29172852598091198</v>
+        <v>0.30413573700954399</v>
       </c>
       <c r="R40">
-        <v>0.13755000000000001</v>
+        <v>0.1434</v>
       </c>
       <c r="S40">
-        <v>0.102424242424242</v>
+        <v>0.11030303030303</v>
       </c>
       <c r="T40">
-        <v>5.6017081796799202</v>
+        <v>5.5910850023697201</v>
       </c>
       <c r="W40">
         <v>10</v>
       </c>
       <c r="X40">
-        <v>0.291092258748674</v>
+        <v>0.304029692470838</v>
       </c>
       <c r="Y40">
-        <v>0.13725000000000001</v>
+        <v>0.14335000000000001</v>
       </c>
       <c r="Z40">
-        <v>9.8192771084337396E-2</v>
+        <v>0.109036144578313</v>
       </c>
       <c r="AA40">
-        <v>5.59597381033318</v>
+        <v>5.5847249247754904</v>
       </c>
       <c r="AD40">
         <v>10</v>
       </c>
       <c r="AE40">
-        <v>0.27900318133616098</v>
+        <v>0.28854718981972399</v>
       </c>
       <c r="AF40">
-        <v>0.13155</v>
+        <v>0.13605</v>
       </c>
       <c r="AG40">
-        <v>0.1</v>
+        <v>0.111515151515152</v>
       </c>
       <c r="AH40">
-        <v>5.5976885332586397</v>
+        <v>5.5869492442101496</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
@@ -3551,76 +3572,76 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>0.198091198303287</v>
+        <v>0.20402969247083799</v>
       </c>
       <c r="D41">
-        <v>0.1401</v>
+        <v>0.14430000000000001</v>
       </c>
       <c r="E41">
-        <v>0.13939393939393899</v>
+        <v>0.16</v>
       </c>
       <c r="F41">
-        <v>5.5218987885361903</v>
+        <v>5.5048312244432198</v>
       </c>
       <c r="I41">
         <v>15</v>
       </c>
       <c r="J41">
-        <v>0.23004595263343899</v>
+        <v>0.23966065747613999</v>
       </c>
       <c r="K41">
-        <v>0.16270000000000001</v>
+        <v>0.16950000000000001</v>
       </c>
       <c r="L41">
-        <v>0.13349514563106801</v>
+        <v>0.15533980582524301</v>
       </c>
       <c r="M41">
-        <v>5.5215535887738003</v>
+        <v>5.5075759368192303</v>
       </c>
       <c r="P41">
         <v>15</v>
       </c>
       <c r="Q41">
-        <v>0.25867797808412901</v>
+        <v>0.269423824673029</v>
       </c>
       <c r="R41">
-        <v>0.18295</v>
+        <v>0.19055</v>
       </c>
       <c r="S41">
-        <v>0.12181818181818201</v>
+        <v>0.14060606060606101</v>
       </c>
       <c r="T41">
-        <v>5.5255674253783296</v>
+        <v>5.5102357863038298</v>
       </c>
       <c r="W41">
         <v>15</v>
       </c>
       <c r="X41">
-        <v>0.26051608342170401</v>
+        <v>0.27203958996111699</v>
       </c>
       <c r="Y41">
-        <v>0.18425</v>
+        <v>0.19239999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.121686746987952</v>
+        <v>0.13855421686746999</v>
       </c>
       <c r="AA41">
-        <v>5.5202987158702097</v>
+        <v>5.5042577540055699</v>
       </c>
       <c r="AD41">
         <v>15</v>
       </c>
       <c r="AE41">
-        <v>0.24814422057264099</v>
+        <v>0.25846588900671602</v>
       </c>
       <c r="AF41">
-        <v>0.17549999999999999</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="AG41">
-        <v>0.12545454545454501</v>
+        <v>0.13939393939393899</v>
       </c>
       <c r="AH41">
-        <v>5.51938565088202</v>
+        <v>5.5043957889486803</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
@@ -3628,76 +3649,76 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <v>0.183138918345705</v>
+        <v>0.188918345705196</v>
       </c>
       <c r="D42">
-        <v>0.17269999999999999</v>
+        <v>0.17815</v>
       </c>
       <c r="E42">
-        <v>0.15818181818181801</v>
+        <v>0.18242424242424199</v>
       </c>
       <c r="F42">
-        <v>5.4647736715663999</v>
+        <v>5.4442719653071698</v>
       </c>
       <c r="I42">
         <v>20</v>
       </c>
       <c r="J42">
-        <v>0.210922587486744</v>
+        <v>0.21930010604453901</v>
       </c>
       <c r="K42">
-        <v>0.19889999999999999</v>
+        <v>0.20680000000000001</v>
       </c>
       <c r="L42">
-        <v>0.155946601941748</v>
+        <v>0.180218446601942</v>
       </c>
       <c r="M42">
-        <v>5.4612224672695504</v>
+        <v>5.4444999783806898</v>
       </c>
       <c r="P42">
         <v>20</v>
       </c>
       <c r="Q42">
-        <v>0.234358430540827</v>
+        <v>0.24395546129374299</v>
       </c>
       <c r="R42">
-        <v>0.221</v>
+        <v>0.23005</v>
       </c>
       <c r="S42">
-        <v>0.15090909090909099</v>
+        <v>0.163030303030303</v>
       </c>
       <c r="T42">
-        <v>5.4646272075034998</v>
+        <v>5.4449321253905598</v>
       </c>
       <c r="W42">
         <v>20</v>
       </c>
       <c r="X42">
-        <v>0.23669141039236499</v>
+        <v>0.24544008483563101</v>
       </c>
       <c r="Y42">
-        <v>0.22320000000000001</v>
+        <v>0.23144999999999999</v>
       </c>
       <c r="Z42">
-        <v>0.141566265060241</v>
+        <v>0.159036144578313</v>
       </c>
       <c r="AA42">
-        <v>5.4634829382257903</v>
+        <v>5.4436818682682304</v>
       </c>
       <c r="AD42">
         <v>20</v>
       </c>
       <c r="AE42">
-        <v>0.22401908801696699</v>
+        <v>0.23467656415694599</v>
       </c>
       <c r="AF42">
-        <v>0.21124999999999999</v>
+        <v>0.2213</v>
       </c>
       <c r="AG42">
-        <v>0.144848484848485</v>
+        <v>0.163030303030303</v>
       </c>
       <c r="AH42">
-        <v>5.4640187915377698</v>
+        <v>5.4420569376570196</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
@@ -3705,76 +3726,76 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <v>0.172386002120891</v>
+        <v>0.17705196182396599</v>
       </c>
       <c r="D43">
-        <v>0.20319999999999999</v>
+        <v>0.2087</v>
       </c>
       <c r="E43">
-        <v>0.17151515151515201</v>
+        <v>0.203636363636364</v>
       </c>
       <c r="F43">
-        <v>5.4173599978838904</v>
+        <v>5.39192342437339</v>
       </c>
       <c r="I43">
         <v>25</v>
       </c>
       <c r="J43">
-        <v>0.19546129374337201</v>
+        <v>0.20513255567338301</v>
       </c>
       <c r="K43">
-        <v>0.23039999999999999</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="L43">
-        <v>0.170509708737864</v>
+        <v>0.19902912621359201</v>
       </c>
       <c r="M43">
-        <v>5.4114548338092296</v>
+        <v>5.3901656972746297</v>
       </c>
       <c r="P43">
         <v>25</v>
       </c>
       <c r="Q43">
-        <v>0.21544008483563101</v>
+        <v>0.22481442205726401</v>
       </c>
       <c r="R43">
-        <v>0.25395000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="S43">
-        <v>0.164242424242424</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="T43">
-        <v>5.4155952295976801</v>
+        <v>5.3932975825850198</v>
       </c>
       <c r="W43">
         <v>25</v>
       </c>
       <c r="X43">
-        <v>0.21667020148462399</v>
+        <v>0.227147401908802</v>
       </c>
       <c r="Y43">
-        <v>0.25540000000000002</v>
+        <v>0.26774999999999999</v>
       </c>
       <c r="Z43">
-        <v>0.155421686746988</v>
+        <v>0.17771084337349399</v>
       </c>
       <c r="AA43">
-        <v>5.4171936690424403</v>
+        <v>5.3930430722623202</v>
       </c>
       <c r="AD43">
         <v>25</v>
       </c>
       <c r="AE43">
-        <v>0.20632025450689301</v>
+        <v>0.215906680805939</v>
       </c>
       <c r="AF43">
-        <v>0.2432</v>
+        <v>0.2545</v>
       </c>
       <c r="AG43">
-        <v>0.159393939393939</v>
+        <v>0.17939393939393899</v>
       </c>
       <c r="AH43">
-        <v>5.4176488160313898</v>
+        <v>5.3921828561648999</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
@@ -3782,76 +3803,81 @@
         <v>30</v>
       </c>
       <c r="C44">
-        <v>0.162566277836691</v>
+        <v>0.16772711205372901</v>
       </c>
       <c r="D44">
-        <v>0.22994999999999999</v>
+        <v>0.23724999999999999</v>
       </c>
       <c r="E44">
-        <v>0.18787878787878801</v>
+        <v>0.221212121212121</v>
       </c>
       <c r="F44">
-        <v>5.3792758372505602</v>
+        <v>5.3485514862844497</v>
       </c>
       <c r="I44">
         <v>30</v>
       </c>
       <c r="J44">
-        <v>0.18441145281018001</v>
+        <v>0.191268999646518</v>
       </c>
       <c r="K44">
-        <v>0.26085000000000003</v>
+        <v>0.27055000000000001</v>
       </c>
       <c r="L44">
-        <v>0.18689320388349501</v>
+        <v>0.216019417475728</v>
       </c>
       <c r="M44">
-        <v>5.3700091648077102</v>
+        <v>5.3441537134720596</v>
       </c>
       <c r="P44">
         <v>30</v>
       </c>
       <c r="Q44">
-        <v>0.199752562743019</v>
+        <v>0.209084482149169</v>
       </c>
       <c r="R44">
-        <v>0.28255000000000002</v>
+        <v>0.29575000000000001</v>
       </c>
       <c r="S44">
-        <v>0.17333333333333301</v>
+        <v>0.19878787878787901</v>
       </c>
       <c r="T44">
-        <v>5.3756152447638401</v>
+        <v>5.3474660014996402</v>
       </c>
       <c r="W44">
         <v>30</v>
       </c>
       <c r="X44">
-        <v>0.200035348179569</v>
+        <v>0.211488158359844</v>
       </c>
       <c r="Y44">
-        <v>0.28294999999999998</v>
+        <v>0.29915000000000003</v>
       </c>
       <c r="Z44">
-        <v>0.17469879518072301</v>
+        <v>0.2</v>
       </c>
       <c r="AA44">
-        <v>5.3796959620605698</v>
+        <v>5.3483410584218802</v>
       </c>
       <c r="AD44">
         <v>30</v>
       </c>
       <c r="AE44">
-        <v>0.1926475786497</v>
+        <v>0.20144927536231899</v>
       </c>
       <c r="AF44">
-        <v>0.27250000000000002</v>
+        <v>0.28494999999999998</v>
       </c>
       <c r="AG44">
-        <v>0.175757575757576</v>
+        <v>0.205454545454545</v>
       </c>
       <c r="AH44">
-        <v>5.3800994107150197</v>
+        <v>5.3481435940842204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V45" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3865,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3900,24 +3926,24 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
       <c r="AC1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3935,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -3953,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -3971,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W2" t="s">
         <v>0</v>
@@ -3989,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
         <v>0</v>
@@ -7335,4 +7361,4137 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO45"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AJ1:AO44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.21420996818663801</v>
+      </c>
+      <c r="D3">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.177575757575758</v>
+      </c>
+      <c r="F3">
+        <v>5.0213940689450398</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.27465535524920498</v>
+      </c>
+      <c r="K3">
+        <v>1.295E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.174545454545455</v>
+      </c>
+      <c r="M3">
+        <v>5.1780837150058003</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.2067868504772</v>
+      </c>
+      <c r="R3">
+        <v>9.75E-3</v>
+      </c>
+      <c r="S3">
+        <v>0.17108433734939801</v>
+      </c>
+      <c r="T3">
+        <v>5.0221681413219397</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="Y3">
+        <v>1.265E-2</v>
+      </c>
+      <c r="Z3">
+        <v>0.18373493975903599</v>
+      </c>
+      <c r="AA3">
+        <v>5.1677336830125604</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0.20572640509013801</v>
+      </c>
+      <c r="AF3">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="AG3">
+        <v>0.177575757575758</v>
+      </c>
+      <c r="AH3">
+        <v>4.9472527603024901</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0.251325556733828</v>
+      </c>
+      <c r="AM3">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="AN3">
+        <v>0.17212121212121201</v>
+      </c>
+      <c r="AO3">
+        <v>5.1684948339540204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.2067868504772</v>
+      </c>
+      <c r="D4">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.33515151515151498</v>
+      </c>
+      <c r="F4">
+        <v>5.0438555691071398</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.252810180275716</v>
+      </c>
+      <c r="K4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.32909090909090899</v>
+      </c>
+      <c r="M4">
+        <v>5.1422142085694098</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>0.19851537645811199</v>
+      </c>
+      <c r="R4">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.33795180722891599</v>
+      </c>
+      <c r="T4">
+        <v>5.0129989163257402</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>0.24475079533404001</v>
+      </c>
+      <c r="Y4">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="Z4">
+        <v>0.35180722891566302</v>
+      </c>
+      <c r="AA4">
+        <v>5.1060994043135404</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>0.19766702014846199</v>
+      </c>
+      <c r="AF4">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="AG4">
+        <v>0.34545454545454501</v>
+      </c>
+      <c r="AH4">
+        <v>4.9897615828938502</v>
+      </c>
+      <c r="AK4">
+        <v>5</v>
+      </c>
+      <c r="AL4">
+        <v>0.240721102863203</v>
+      </c>
+      <c r="AM4">
+        <v>5.6750000000000002E-2</v>
+      </c>
+      <c r="AN4">
+        <v>0.33636363636363598</v>
+      </c>
+      <c r="AO4">
+        <v>5.10915536289387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.201060445387063</v>
+      </c>
+      <c r="D5">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.40484848484848501</v>
+      </c>
+      <c r="F5">
+        <v>5.0391808080280498</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0.23488865323435801</v>
+      </c>
+      <c r="K5">
+        <v>0.11075</v>
+      </c>
+      <c r="L5">
+        <v>0.42242424242424198</v>
+      </c>
+      <c r="M5">
+        <v>5.0831125586128101</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>0.18907741251325599</v>
+      </c>
+      <c r="R5">
+        <v>8.9149999999999993E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.41084337349397598</v>
+      </c>
+      <c r="T5">
+        <v>5.0087634447138303</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>0.230752916224814</v>
+      </c>
+      <c r="Y5">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.42590361445783098</v>
+      </c>
+      <c r="AA5">
+        <v>5.0639918662399701</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>0.18738069989395501</v>
+      </c>
+      <c r="AF5">
+        <v>8.8349999999999998E-2</v>
+      </c>
+      <c r="AG5">
+        <v>0.410909090909091</v>
+      </c>
+      <c r="AH5">
+        <v>4.99111041159445</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <v>0.222905620360551</v>
+      </c>
+      <c r="AM5">
+        <v>0.1051</v>
+      </c>
+      <c r="AN5">
+        <v>0.41575757575757599</v>
+      </c>
+      <c r="AO5">
+        <v>5.0650603598707997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.19427359490986201</v>
+      </c>
+      <c r="D6">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.45333333333333298</v>
+      </c>
+      <c r="F6">
+        <v>5.0089365846775697</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0.218663838812301</v>
+      </c>
+      <c r="K6">
+        <v>0.15465000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.48303030303030298</v>
+      </c>
+      <c r="M6">
+        <v>5.0216931703104004</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>0.185648639095087</v>
+      </c>
+      <c r="R6">
+        <v>0.1313</v>
+      </c>
+      <c r="S6">
+        <v>0.462048192771084</v>
+      </c>
+      <c r="T6">
+        <v>4.9983851895311098</v>
+      </c>
+      <c r="W6">
+        <v>15</v>
+      </c>
+      <c r="X6">
+        <v>0.21251325556733799</v>
+      </c>
+      <c r="Y6">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.48915662650602398</v>
+      </c>
+      <c r="AA6">
+        <v>5.0134757515618302</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
+        <v>0.18006362672322401</v>
+      </c>
+      <c r="AF6">
+        <v>0.12734999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>0.46</v>
+      </c>
+      <c r="AH6">
+        <v>4.9858385104324503</v>
+      </c>
+      <c r="AK6">
+        <v>15</v>
+      </c>
+      <c r="AL6">
+        <v>0.20600919052668801</v>
+      </c>
+      <c r="AM6">
+        <v>0.1457</v>
+      </c>
+      <c r="AN6">
+        <v>0.47696969696969699</v>
+      </c>
+      <c r="AO6">
+        <v>5.0169208280091997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.18446447507953301</v>
+      </c>
+      <c r="D7">
+        <v>0.17394999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.48909090909090902</v>
+      </c>
+      <c r="F7">
+        <v>4.9751564533706896</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>0.20286320254506901</v>
+      </c>
+      <c r="K7">
+        <v>0.1913</v>
+      </c>
+      <c r="L7">
+        <v>0.52969696969697</v>
+      </c>
+      <c r="M7">
+        <v>4.9633287438416103</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>0.180328738069989</v>
+      </c>
+      <c r="R7">
+        <v>0.17005000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.49939759036144599</v>
+      </c>
+      <c r="T7">
+        <v>4.9662034303741303</v>
+      </c>
+      <c r="W7">
+        <v>20</v>
+      </c>
+      <c r="X7">
+        <v>0.19793213149522801</v>
+      </c>
+      <c r="Y7">
+        <v>0.18665000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.52650602409638603</v>
+      </c>
+      <c r="AA7">
+        <v>4.9564835488694001</v>
+      </c>
+      <c r="AD7">
+        <v>20</v>
+      </c>
+      <c r="AE7">
+        <v>0.17242841993637301</v>
+      </c>
+      <c r="AF7">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.49151515151515202</v>
+      </c>
+      <c r="AH7">
+        <v>4.96807515606762</v>
+      </c>
+      <c r="AK7">
+        <v>20</v>
+      </c>
+      <c r="AL7">
+        <v>0.193266171792153</v>
+      </c>
+      <c r="AM7">
+        <v>0.18225</v>
+      </c>
+      <c r="AN7">
+        <v>0.53393939393939405</v>
+      </c>
+      <c r="AO7">
+        <v>4.9559305502625799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.175058324496288</v>
+      </c>
+      <c r="D8">
+        <v>0.20635000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.52909090909090895</v>
+      </c>
+      <c r="F8">
+        <v>4.9367453576185802</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>0.18995503520828</v>
+      </c>
+      <c r="K8">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.56606060606060604</v>
+      </c>
+      <c r="M8">
+        <v>4.9109119190388704</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>0.17068928950159101</v>
+      </c>
+      <c r="R8">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.53734939759036104</v>
+      </c>
+      <c r="T8">
+        <v>4.9271151543912497</v>
+      </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
+      <c r="X8">
+        <v>0.18485683987274701</v>
+      </c>
+      <c r="Y8">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>0.56927710843373502</v>
+      </c>
+      <c r="AA8">
+        <v>4.9074235385508196</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>0.16521739130434801</v>
+      </c>
+      <c r="AF8">
+        <v>0.19475000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.53030303030303005</v>
+      </c>
+      <c r="AH8">
+        <v>4.9334957239926398</v>
+      </c>
+      <c r="AK8">
+        <v>25</v>
+      </c>
+      <c r="AL8">
+        <v>0.181081654294804</v>
+      </c>
+      <c r="AM8">
+        <v>0.21345</v>
+      </c>
+      <c r="AN8">
+        <v>0.560606060606061</v>
+      </c>
+      <c r="AO8">
+        <v>4.9100547434925002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0.16687875574407901</v>
+      </c>
+      <c r="D9">
+        <v>0.23605000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F9">
+        <v>4.8983313313195902</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>0.18096955553198299</v>
+      </c>
+      <c r="K9">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.59757575757575798</v>
+      </c>
+      <c r="M9">
+        <v>4.8699763785732104</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>0.16299045599151599</v>
+      </c>
+      <c r="R9">
+        <v>0.23055</v>
+      </c>
+      <c r="S9">
+        <v>0.56867469879518096</v>
+      </c>
+      <c r="T9">
+        <v>4.8919971278960803</v>
+      </c>
+      <c r="W9">
+        <v>30</v>
+      </c>
+      <c r="X9">
+        <v>0.17366560622127999</v>
+      </c>
+      <c r="Y9">
+        <v>0.24565000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.60060240963855405</v>
+      </c>
+      <c r="AA9">
+        <v>4.8613547905365602</v>
+      </c>
+      <c r="AD9">
+        <v>30</v>
+      </c>
+      <c r="AE9">
+        <v>0.15881937080240399</v>
+      </c>
+      <c r="AF9">
+        <v>0.22464999999999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.56303030303030299</v>
+      </c>
+      <c r="AH9">
+        <v>4.8966067009447896</v>
+      </c>
+      <c r="AK9">
+        <v>30</v>
+      </c>
+      <c r="AL9">
+        <v>0.17090844821491699</v>
+      </c>
+      <c r="AM9">
+        <v>0.24174999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.58545454545454501</v>
+      </c>
+      <c r="AO9">
+        <v>4.8688694735025804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.31389183457052</v>
+      </c>
+      <c r="D10">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.12666666666666701</v>
+      </c>
+      <c r="F10">
+        <v>5.3871658908829696</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.372216330858961</v>
+      </c>
+      <c r="K10">
+        <v>1.755E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.12727272727272701</v>
+      </c>
+      <c r="M10">
+        <v>5.4552334744208197</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0.31601272534464497</v>
+      </c>
+      <c r="R10">
+        <v>1.49E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.12710843373493999</v>
+      </c>
+      <c r="T10">
+        <v>5.3654795803055704</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.380699893955461</v>
+      </c>
+      <c r="Y10">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="Z10">
+        <v>0.131325301204819</v>
+      </c>
+      <c r="AA10">
+        <v>5.4554551532407203</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>0.29162248144220598</v>
+      </c>
+      <c r="AF10">
+        <v>1.375E-2</v>
+      </c>
+      <c r="AG10">
+        <v>0.13818181818181799</v>
+      </c>
+      <c r="AH10">
+        <v>5.34391034696145</v>
+      </c>
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>0.36691410392364798</v>
+      </c>
+      <c r="AM10">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="AN10">
+        <v>0.124848484848485</v>
+      </c>
+      <c r="AO10">
+        <v>5.4657657571205096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D11">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.22727272727272699</v>
+      </c>
+      <c r="F11">
+        <v>5.3309512749695598</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.31219512195122001</v>
+      </c>
+      <c r="K11">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.24181818181818199</v>
+      </c>
+      <c r="M11">
+        <v>5.3514255855692996</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>0.27613997879109198</v>
+      </c>
+      <c r="R11">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.234939759036145</v>
+      </c>
+      <c r="T11">
+        <v>5.31644438692165</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>0.31495227995758202</v>
+      </c>
+      <c r="Y11">
+        <v>7.4249999999999997E-2</v>
+      </c>
+      <c r="Z11">
+        <v>0.24277108433734901</v>
+      </c>
+      <c r="AA11">
+        <v>5.34001489032077</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>0.275503711558855</v>
+      </c>
+      <c r="AF11">
+        <v>6.4949999999999994E-2</v>
+      </c>
+      <c r="AG11">
+        <v>0.232727272727273</v>
+      </c>
+      <c r="AH11">
+        <v>5.3322742615938203</v>
+      </c>
+      <c r="AK11">
+        <v>5</v>
+      </c>
+      <c r="AL11">
+        <v>0.30180275715800597</v>
+      </c>
+      <c r="AM11">
+        <v>7.1150000000000005E-2</v>
+      </c>
+      <c r="AN11">
+        <v>0.24181818181818199</v>
+      </c>
+      <c r="AO11">
+        <v>5.3535344849669402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.25079533404029702</v>
+      </c>
+      <c r="D12">
+        <v>0.11824999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.29090909090909101</v>
+      </c>
+      <c r="F12">
+        <v>5.25973363183628</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0.27497348886532302</v>
+      </c>
+      <c r="K12">
+        <v>0.12964999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.31696969696969701</v>
+      </c>
+      <c r="M12">
+        <v>5.2560978208305302</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>0.246553552492047</v>
+      </c>
+      <c r="R12">
+        <v>0.11625000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.298192771084337</v>
+      </c>
+      <c r="T12">
+        <v>5.2514284619862899</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>0.27338282078472997</v>
+      </c>
+      <c r="Y12">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="Z12">
+        <v>0.32289156626505999</v>
+      </c>
+      <c r="AA12">
+        <v>5.2544748976158404</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>0.24602332979851499</v>
+      </c>
+      <c r="AF12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AG12">
+        <v>0.293939393939394</v>
+      </c>
+      <c r="AH12">
+        <v>5.2617346964410201</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>0.26532343584305401</v>
+      </c>
+      <c r="AM12">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="AN12">
+        <v>0.31151515151515202</v>
+      </c>
+      <c r="AO12">
+        <v>5.2638663885645096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0.23054082714740201</v>
+      </c>
+      <c r="D13">
+        <v>0.16305</v>
+      </c>
+      <c r="E13">
+        <v>0.34727272727272701</v>
+      </c>
+      <c r="F13">
+        <v>5.2006548794064704</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0.24849770236832799</v>
+      </c>
+      <c r="K13">
+        <v>0.17574999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.37212121212121202</v>
+      </c>
+      <c r="M13">
+        <v>5.1903718135792198</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>0.22877341816896399</v>
+      </c>
+      <c r="R13">
+        <v>0.1618</v>
+      </c>
+      <c r="S13">
+        <v>0.34759036144578298</v>
+      </c>
+      <c r="T13">
+        <v>5.1975240440725399</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>0.24623541887592801</v>
+      </c>
+      <c r="Y13">
+        <v>0.17415</v>
+      </c>
+      <c r="Z13">
+        <v>0.37710843373494002</v>
+      </c>
+      <c r="AA13">
+        <v>5.1865743400998596</v>
+      </c>
+      <c r="AD13">
+        <v>15</v>
+      </c>
+      <c r="AE13">
+        <v>0.22431954754330199</v>
+      </c>
+      <c r="AF13">
+        <v>0.15865000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.34242424242424202</v>
+      </c>
+      <c r="AH13">
+        <v>5.1992763137481903</v>
+      </c>
+      <c r="AK13">
+        <v>15</v>
+      </c>
+      <c r="AL13">
+        <v>0.239236479321315</v>
+      </c>
+      <c r="AM13">
+        <v>0.16919999999999999</v>
+      </c>
+      <c r="AN13">
+        <v>0.36909090909090903</v>
+      </c>
+      <c r="AO13">
+        <v>5.1934335222175596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.21548250265111299</v>
+      </c>
+      <c r="D14">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.37878787878787901</v>
+      </c>
+      <c r="F14">
+        <v>5.1508126213724799</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.22767762460233301</v>
+      </c>
+      <c r="K14">
+        <v>0.2147</v>
+      </c>
+      <c r="L14">
+        <v>0.412727272727273</v>
+      </c>
+      <c r="M14">
+        <v>5.1336183669217998</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>0.211611876988335</v>
+      </c>
+      <c r="R14">
+        <v>0.19955000000000001</v>
+      </c>
+      <c r="S14">
+        <v>0.37831325301204799</v>
+      </c>
+      <c r="T14">
+        <v>5.1495496952467397</v>
+      </c>
+      <c r="W14">
+        <v>20</v>
+      </c>
+      <c r="X14">
+        <v>0.22682926829268299</v>
+      </c>
+      <c r="Y14">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>0.416867469879518</v>
+      </c>
+      <c r="AA14">
+        <v>5.1298279068706103</v>
+      </c>
+      <c r="AD14">
+        <v>20</v>
+      </c>
+      <c r="AE14">
+        <v>0.20795334040296901</v>
+      </c>
+      <c r="AF14">
+        <v>0.1961</v>
+      </c>
+      <c r="AG14">
+        <v>0.37636363636363601</v>
+      </c>
+      <c r="AH14">
+        <v>5.1510891651698101</v>
+      </c>
+      <c r="AK14">
+        <v>20</v>
+      </c>
+      <c r="AL14">
+        <v>0.22062566277836701</v>
+      </c>
+      <c r="AM14">
+        <v>0.20805000000000001</v>
+      </c>
+      <c r="AN14">
+        <v>0.410909090909091</v>
+      </c>
+      <c r="AO14">
+        <v>5.1317496667961802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0.20161187698833499</v>
+      </c>
+      <c r="D15">
+        <v>0.23765</v>
+      </c>
+      <c r="E15">
+        <v>0.40666666666666701</v>
+      </c>
+      <c r="F15">
+        <v>5.1039527027699503</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>0.21242841993637299</v>
+      </c>
+      <c r="K15">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.440606060606061</v>
+      </c>
+      <c r="M15">
+        <v>5.0833444349882901</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>0.19915164369034999</v>
+      </c>
+      <c r="R15">
+        <v>0.23474999999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.40722891566265101</v>
+      </c>
+      <c r="T15">
+        <v>5.1068859632279802</v>
+      </c>
+      <c r="W15">
+        <v>25</v>
+      </c>
+      <c r="X15">
+        <v>0.211071049840933</v>
+      </c>
+      <c r="Y15">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="Z15">
+        <v>0.44518072289156602</v>
+      </c>
+      <c r="AA15">
+        <v>5.0812546435745798</v>
+      </c>
+      <c r="AD15">
+        <v>25</v>
+      </c>
+      <c r="AE15">
+        <v>0.19401908801696699</v>
+      </c>
+      <c r="AF15">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="AG15">
+        <v>0.40545454545454501</v>
+      </c>
+      <c r="AH15">
+        <v>5.1064572819914602</v>
+      </c>
+      <c r="AK15">
+        <v>25</v>
+      </c>
+      <c r="AL15">
+        <v>0.20538706256627801</v>
+      </c>
+      <c r="AM15">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="AN15">
+        <v>0.44545454545454499</v>
+      </c>
+      <c r="AO15">
+        <v>5.0799950627394503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>0.191162955107812</v>
+      </c>
+      <c r="D16">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.43151515151515202</v>
+      </c>
+      <c r="F16">
+        <v>5.0629505397808003</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>0.20017674089784401</v>
+      </c>
+      <c r="K16">
+        <v>0.28315000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.47575757575757599</v>
+      </c>
+      <c r="M16">
+        <v>5.0341367868743996</v>
+      </c>
+      <c r="P16">
+        <v>30</v>
+      </c>
+      <c r="Q16">
+        <v>0.18695652173912999</v>
+      </c>
+      <c r="R16">
+        <v>0.26445000000000002</v>
+      </c>
+      <c r="S16">
+        <v>0.431927710843374</v>
+      </c>
+      <c r="T16">
+        <v>5.0656558602239601</v>
+      </c>
+      <c r="W16">
+        <v>30</v>
+      </c>
+      <c r="X16">
+        <v>0.19798515376458101</v>
+      </c>
+      <c r="Y16">
+        <v>0.28005000000000002</v>
+      </c>
+      <c r="Z16">
+        <v>0.47831325301204802</v>
+      </c>
+      <c r="AA16">
+        <v>5.0335538715892501</v>
+      </c>
+      <c r="AD16">
+        <v>30</v>
+      </c>
+      <c r="AE16">
+        <v>0.18229056203605501</v>
+      </c>
+      <c r="AF16">
+        <v>0.25785000000000002</v>
+      </c>
+      <c r="AG16">
+        <v>0.42303030303030298</v>
+      </c>
+      <c r="AH16">
+        <v>5.0662077550759497</v>
+      </c>
+      <c r="AK16">
+        <v>30</v>
+      </c>
+      <c r="AL16">
+        <v>0.19307175680452501</v>
+      </c>
+      <c r="AM16">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="AN16">
+        <v>0.472121212121212</v>
+      </c>
+      <c r="AO16">
+        <v>5.0353332414435998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.37963944856839899</v>
+      </c>
+      <c r="D17">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="F17">
+        <v>5.6075894039779204</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.40509013785789999</v>
+      </c>
+      <c r="K17">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="L17">
+        <v>8.9090909090909096E-2</v>
+      </c>
+      <c r="M17">
+        <v>5.6119063919586898</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0.376458112407211</v>
+      </c>
+      <c r="R17">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="S17">
+        <v>8.1927710843373497E-2</v>
+      </c>
+      <c r="T17">
+        <v>5.5529326358332503</v>
+      </c>
+      <c r="V17">
+        <v>20</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0.44538706256627802</v>
+      </c>
+      <c r="Y17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z17">
+        <v>8.8554216867469907E-2</v>
+      </c>
+      <c r="AA17">
+        <v>5.5986149095541604</v>
+      </c>
+      <c r="AC17">
+        <v>20</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0.376458112407211</v>
+      </c>
+      <c r="AF17">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="AG17">
+        <v>8.3030303030302996E-2</v>
+      </c>
+      <c r="AH17">
+        <v>5.5971850482718999</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>0.42735949098621401</v>
+      </c>
+      <c r="AM17">
+        <v>2.0150000000000001E-2</v>
+      </c>
+      <c r="AN17">
+        <v>9.0303030303030302E-2</v>
+      </c>
+      <c r="AO17">
+        <v>5.6231802909153297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.31007423117709398</v>
+      </c>
+      <c r="D18">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.15454545454545501</v>
+      </c>
+      <c r="F18">
+        <v>5.4749032605403096</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>0.34273594909862098</v>
+      </c>
+      <c r="K18">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.18303030303030299</v>
+      </c>
+      <c r="M18">
+        <v>5.4777402620827997</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>0.31728525980911998</v>
+      </c>
+      <c r="R18">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="S18">
+        <v>0.160240963855422</v>
+      </c>
+      <c r="T18">
+        <v>5.4600602189921403</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>0.36182396606574802</v>
+      </c>
+      <c r="Y18">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="Z18">
+        <v>0.17650602409638599</v>
+      </c>
+      <c r="AA18">
+        <v>5.4670376520028396</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <v>0.31389183457052</v>
+      </c>
+      <c r="AF18">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AG18">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AH18">
+        <v>5.4856880685286997</v>
+      </c>
+      <c r="AK18">
+        <v>5</v>
+      </c>
+      <c r="AL18">
+        <v>0.33891834570519602</v>
+      </c>
+      <c r="AM18">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="AN18">
+        <v>0.18060606060606099</v>
+      </c>
+      <c r="AO18">
+        <v>5.4860675243436203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.27635206786850502</v>
+      </c>
+      <c r="D19">
+        <v>0.1303</v>
+      </c>
+      <c r="E19">
+        <v>0.21515151515151501</v>
+      </c>
+      <c r="F19">
+        <v>5.3858396201288103</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0.29469777306468697</v>
+      </c>
+      <c r="K19">
+        <v>0.13894999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.23939393939393899</v>
+      </c>
+      <c r="M19">
+        <v>5.3807684240817597</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>0.27910922587486697</v>
+      </c>
+      <c r="R19">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="S19">
+        <v>0.21867469879518101</v>
+      </c>
+      <c r="T19">
+        <v>5.3812825574848304</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>0.30201484623541902</v>
+      </c>
+      <c r="Y19">
+        <v>0.1424</v>
+      </c>
+      <c r="Z19">
+        <v>0.232530120481928</v>
+      </c>
+      <c r="AA19">
+        <v>5.3735044735315398</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>0.27327677624602298</v>
+      </c>
+      <c r="AF19">
+        <v>0.12884999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>0.218181818181818</v>
+      </c>
+      <c r="AH19">
+        <v>5.3955139407875201</v>
+      </c>
+      <c r="AK19">
+        <v>10</v>
+      </c>
+      <c r="AL19">
+        <v>0.28642629904559902</v>
+      </c>
+      <c r="AM19">
+        <v>0.13505</v>
+      </c>
+      <c r="AN19">
+        <v>0.24545454545454501</v>
+      </c>
+      <c r="AO19">
+        <v>5.3802655932311998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>0.25309296571226603</v>
+      </c>
+      <c r="D20">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.25515151515151502</v>
+      </c>
+      <c r="F20">
+        <v>5.3211857284263804</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>0.266101095793567</v>
+      </c>
+      <c r="K20">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.28303030303030302</v>
+      </c>
+      <c r="M20">
+        <v>5.3089283907131497</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>0.254294803817603</v>
+      </c>
+      <c r="R20">
+        <v>0.17985000000000001</v>
+      </c>
+      <c r="S20">
+        <v>0.25783132530120501</v>
+      </c>
+      <c r="T20">
+        <v>5.3224941680657096</v>
+      </c>
+      <c r="W20">
+        <v>15</v>
+      </c>
+      <c r="X20">
+        <v>0.26984800282785398</v>
+      </c>
+      <c r="Y20">
+        <v>0.19084999999999999</v>
+      </c>
+      <c r="Z20">
+        <v>0.28072289156626501</v>
+      </c>
+      <c r="AA20">
+        <v>5.3060049930979298</v>
+      </c>
+      <c r="AD20">
+        <v>15</v>
+      </c>
+      <c r="AE20">
+        <v>0.24475079533404001</v>
+      </c>
+      <c r="AF20">
+        <v>0.1731</v>
+      </c>
+      <c r="AG20">
+        <v>0.25818181818181801</v>
+      </c>
+      <c r="AH20">
+        <v>5.32449386421212</v>
+      </c>
+      <c r="AK20">
+        <v>15</v>
+      </c>
+      <c r="AL20">
+        <v>0.25712265818310398</v>
+      </c>
+      <c r="AM20">
+        <v>0.18185000000000001</v>
+      </c>
+      <c r="AN20">
+        <v>0.27333333333333298</v>
+      </c>
+      <c r="AO20">
+        <v>5.31020643968907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.23398727465535499</v>
+      </c>
+      <c r="D21">
+        <v>0.22065000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.28848484848484901</v>
+      </c>
+      <c r="F21">
+        <v>5.2656673338281097</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0.244432661717922</v>
+      </c>
+      <c r="K21">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.322424242424242</v>
+      </c>
+      <c r="M21">
+        <v>5.2523005122643598</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>0.23282078472958601</v>
+      </c>
+      <c r="R21">
+        <v>0.21955</v>
+      </c>
+      <c r="S21">
+        <v>0.28855421686747001</v>
+      </c>
+      <c r="T21">
+        <v>5.2734663284129901</v>
+      </c>
+      <c r="W21">
+        <v>20</v>
+      </c>
+      <c r="X21">
+        <v>0.24528101802757199</v>
+      </c>
+      <c r="Y21">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>0.31867469879518101</v>
+      </c>
+      <c r="AA21">
+        <v>5.2501521982254502</v>
+      </c>
+      <c r="AD21">
+        <v>20</v>
+      </c>
+      <c r="AE21">
+        <v>0.22476139978791099</v>
+      </c>
+      <c r="AF21">
+        <v>0.21195</v>
+      </c>
+      <c r="AG21">
+        <v>0.28848484848484901</v>
+      </c>
+      <c r="AH21">
+        <v>5.2717236115578201</v>
+      </c>
+      <c r="AK21">
+        <v>20</v>
+      </c>
+      <c r="AL21">
+        <v>0.237221633085896</v>
+      </c>
+      <c r="AM21">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="AN21">
+        <v>0.31757575757575801</v>
+      </c>
+      <c r="AO21">
+        <v>5.2513840528413001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0.21637327677624599</v>
+      </c>
+      <c r="D22">
+        <v>0.25505</v>
+      </c>
+      <c r="E22">
+        <v>0.31939393939393901</v>
+      </c>
+      <c r="F22">
+        <v>5.2196670766201398</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>0.227062566277837</v>
+      </c>
+      <c r="K22">
+        <v>0.26765</v>
+      </c>
+      <c r="L22">
+        <v>0.352727272727273</v>
+      </c>
+      <c r="M22">
+        <v>5.2010157647635902</v>
+      </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
+      <c r="Q22">
+        <v>0.214718981972428</v>
+      </c>
+      <c r="R22">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="S22">
+        <v>0.318072289156627</v>
+      </c>
+      <c r="T22">
+        <v>5.2266555639540604</v>
+      </c>
+      <c r="W22">
+        <v>25</v>
+      </c>
+      <c r="X22">
+        <v>0.22663838812301201</v>
+      </c>
+      <c r="Y22">
+        <v>0.26715</v>
+      </c>
+      <c r="Z22">
+        <v>0.35060240963855399</v>
+      </c>
+      <c r="AA22">
+        <v>5.1974196403068298</v>
+      </c>
+      <c r="AD22">
+        <v>25</v>
+      </c>
+      <c r="AE22">
+        <v>0.20759278897136799</v>
+      </c>
+      <c r="AF22">
+        <v>0.2447</v>
+      </c>
+      <c r="AG22">
+        <v>0.324848484848485</v>
+      </c>
+      <c r="AH22">
+        <v>5.2230612400928003</v>
+      </c>
+      <c r="AK22">
+        <v>25</v>
+      </c>
+      <c r="AL22">
+        <v>0.220190880169671</v>
+      </c>
+      <c r="AM22">
+        <v>0.25955</v>
+      </c>
+      <c r="AN22">
+        <v>0.35030303030303001</v>
+      </c>
+      <c r="AO22">
+        <v>5.1981292206524898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>0.20360551431601301</v>
+      </c>
+      <c r="D23">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.34606060606060601</v>
+      </c>
+      <c r="F23">
+        <v>5.1796884245705597</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>0.21067515022976299</v>
+      </c>
+      <c r="K23">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.38545454545454499</v>
+      </c>
+      <c r="M23">
+        <v>5.1528903898650098</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+      <c r="Q23">
+        <v>0.202332979851538</v>
+      </c>
+      <c r="R23">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="S23">
+        <v>0.33975903614457797</v>
+      </c>
+      <c r="T23">
+        <v>5.1808864264597601</v>
+      </c>
+      <c r="W23">
+        <v>30</v>
+      </c>
+      <c r="X23">
+        <v>0.212407211028632</v>
+      </c>
+      <c r="Y23">
+        <v>0.30044999999999999</v>
+      </c>
+      <c r="Z23">
+        <v>0.37409638554216901</v>
+      </c>
+      <c r="AA23">
+        <v>5.1525568063197502</v>
+      </c>
+      <c r="AD23">
+        <v>30</v>
+      </c>
+      <c r="AE23">
+        <v>0.195227995758218</v>
+      </c>
+      <c r="AF23">
+        <v>0.27615000000000001</v>
+      </c>
+      <c r="AG23">
+        <v>0.34363636363636402</v>
+      </c>
+      <c r="AH23">
+        <v>5.1794558408395401</v>
+      </c>
+      <c r="AK23">
+        <v>30</v>
+      </c>
+      <c r="AL23">
+        <v>0.20413573700954399</v>
+      </c>
+      <c r="AM23">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="AN23">
+        <v>0.381212121212121</v>
+      </c>
+      <c r="AO23">
+        <v>5.1517388512264004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.42735949098621401</v>
+      </c>
+      <c r="D24">
+        <v>2.0150000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.8181818181818203E-2</v>
+      </c>
+      <c r="F24">
+        <v>5.7004150387268799</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.447507953340403</v>
+      </c>
+      <c r="K24">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="L24">
+        <v>6.4242424242424198E-2</v>
+      </c>
+      <c r="M24">
+        <v>5.7189279962075403</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0.44114528101802802</v>
+      </c>
+      <c r="R24">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>6.26506024096386E-2</v>
+      </c>
+      <c r="T24">
+        <v>5.6928168606574596</v>
+      </c>
+      <c r="V24">
+        <v>40</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0.49310710498409299</v>
+      </c>
+      <c r="Y24">
+        <v>2.325E-2</v>
+      </c>
+      <c r="Z24">
+        <v>7.0481927710843398E-2</v>
+      </c>
+      <c r="AA24">
+        <v>5.6962030497140104</v>
+      </c>
+      <c r="AC24">
+        <v>40</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>0.43584305408271501</v>
+      </c>
+      <c r="AF24">
+        <v>2.0549999999999999E-2</v>
+      </c>
+      <c r="AG24">
+        <v>0.06</v>
+      </c>
+      <c r="AH24">
+        <v>5.71252370687818</v>
+      </c>
+      <c r="AJ24">
+        <v>40</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>0.451749734888653</v>
+      </c>
+      <c r="AM24">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AN24">
+        <v>6.78787878787879E-2</v>
+      </c>
+      <c r="AO24">
+        <v>5.7350619509637299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.34273594909862098</v>
+      </c>
+      <c r="D25">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.12181818181818201</v>
+      </c>
+      <c r="F25">
+        <v>5.5749294163328402</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>0.36309650053022302</v>
+      </c>
+      <c r="K25">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="L25">
+        <v>0.134545454545455</v>
+      </c>
+      <c r="M25">
+        <v>5.5694495185450599</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>0.34867444326617197</v>
+      </c>
+      <c r="R25">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="S25">
+        <v>0.120481927710843</v>
+      </c>
+      <c r="T25">
+        <v>5.5698412681150202</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>0.37433722163308603</v>
+      </c>
+      <c r="Y25">
+        <v>8.8249999999999995E-2</v>
+      </c>
+      <c r="Z25">
+        <v>0.13313253012048201</v>
+      </c>
+      <c r="AA25">
+        <v>5.56761115132662</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>0.33191940615058302</v>
+      </c>
+      <c r="AF25">
+        <v>7.825E-2</v>
+      </c>
+      <c r="AG25">
+        <v>0.115151515151515</v>
+      </c>
+      <c r="AH25">
+        <v>5.5837887653463403</v>
+      </c>
+      <c r="AK25">
+        <v>5</v>
+      </c>
+      <c r="AL25">
+        <v>0.35397667020148499</v>
+      </c>
+      <c r="AM25">
+        <v>8.3449999999999996E-2</v>
+      </c>
+      <c r="AN25">
+        <v>0.130909090909091</v>
+      </c>
+      <c r="AO25">
+        <v>5.5787382308469802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.295440084835631</v>
+      </c>
+      <c r="D26">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.16545454545454499</v>
+      </c>
+      <c r="F26">
+        <v>5.4757492171865199</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0.31039236479321303</v>
+      </c>
+      <c r="K26">
+        <v>0.14635000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="M26">
+        <v>5.4632209292702401</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>0.29724284199363699</v>
+      </c>
+      <c r="R26">
+        <v>0.14015</v>
+      </c>
+      <c r="S26">
+        <v>0.16385542168674699</v>
+      </c>
+      <c r="T26">
+        <v>5.4728005125130803</v>
+      </c>
+      <c r="W26">
+        <v>10</v>
+      </c>
+      <c r="X26">
+        <v>0.316648992576882</v>
+      </c>
+      <c r="Y26">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>0.17891566265060199</v>
+      </c>
+      <c r="AA26">
+        <v>5.4609262121087898</v>
+      </c>
+      <c r="AD26">
+        <v>10</v>
+      </c>
+      <c r="AE26">
+        <v>0.283987274655355</v>
+      </c>
+      <c r="AF26">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="AG26">
+        <v>0.161818181818182</v>
+      </c>
+      <c r="AH26">
+        <v>5.4810566330943002</v>
+      </c>
+      <c r="AK26">
+        <v>10</v>
+      </c>
+      <c r="AL26">
+        <v>0.30010604453870598</v>
+      </c>
+      <c r="AM26">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="AN26">
+        <v>0.176969696969697</v>
+      </c>
+      <c r="AO26">
+        <v>5.4704572995482001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>0.26617179215270398</v>
+      </c>
+      <c r="D27">
+        <v>0.18825</v>
+      </c>
+      <c r="E27">
+        <v>0.19818181818181799</v>
+      </c>
+      <c r="F27">
+        <v>5.4089499835107802</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>0.27741251325556698</v>
+      </c>
+      <c r="K27">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.21212121212121199</v>
+      </c>
+      <c r="M27">
+        <v>5.3940825977006597</v>
+      </c>
+      <c r="P27">
+        <v>15</v>
+      </c>
+      <c r="Q27">
+        <v>0.26489925768822897</v>
+      </c>
+      <c r="R27">
+        <v>0.18734999999999999</v>
+      </c>
+      <c r="S27">
+        <v>0.19216867469879501</v>
+      </c>
+      <c r="T27">
+        <v>5.4092021006305</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>0.279392011311417</v>
+      </c>
+      <c r="Y27">
+        <v>0.1976</v>
+      </c>
+      <c r="Z27">
+        <v>0.21746987951807201</v>
+      </c>
+      <c r="AA27">
+        <v>5.3901784763898997</v>
+      </c>
+      <c r="AD27">
+        <v>15</v>
+      </c>
+      <c r="AE27">
+        <v>0.253729232944503</v>
+      </c>
+      <c r="AF27">
+        <v>0.17945</v>
+      </c>
+      <c r="AG27">
+        <v>0.19818181818181799</v>
+      </c>
+      <c r="AH27">
+        <v>5.4123077007162603</v>
+      </c>
+      <c r="AK27">
+        <v>15</v>
+      </c>
+      <c r="AL27">
+        <v>0.26482856132909199</v>
+      </c>
+      <c r="AM27">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="AN27">
+        <v>0.21757575757575801</v>
+      </c>
+      <c r="AO27">
+        <v>5.3970990329283497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>0.24188759278897101</v>
+      </c>
+      <c r="D28">
+        <v>0.2281</v>
+      </c>
+      <c r="E28">
+        <v>0.221212121212121</v>
+      </c>
+      <c r="F28">
+        <v>5.35442761698146</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0.25121951219512201</v>
+      </c>
+      <c r="K28">
+        <v>0.2369</v>
+      </c>
+      <c r="L28">
+        <v>0.249090909090909</v>
+      </c>
+      <c r="M28">
+        <v>5.3363499813496498</v>
+      </c>
+      <c r="P28">
+        <v>20</v>
+      </c>
+      <c r="Q28">
+        <v>0.24162248144220599</v>
+      </c>
+      <c r="R28">
+        <v>0.22785</v>
+      </c>
+      <c r="S28">
+        <v>0.22048192771084299</v>
+      </c>
+      <c r="T28">
+        <v>5.3572161930131204</v>
+      </c>
+      <c r="W28">
+        <v>20</v>
+      </c>
+      <c r="X28">
+        <v>0.25201484623541898</v>
+      </c>
+      <c r="Y28">
+        <v>0.23765</v>
+      </c>
+      <c r="Z28">
+        <v>0.239759036144578</v>
+      </c>
+      <c r="AA28">
+        <v>5.3350168776167104</v>
+      </c>
+      <c r="AD28">
+        <v>20</v>
+      </c>
+      <c r="AE28">
+        <v>0.23123011664899301</v>
+      </c>
+      <c r="AF28">
+        <v>0.21804999999999999</v>
+      </c>
+      <c r="AG28">
+        <v>0.22363636363636399</v>
+      </c>
+      <c r="AH28">
+        <v>5.35544846231367</v>
+      </c>
+      <c r="AK28">
+        <v>20</v>
+      </c>
+      <c r="AL28">
+        <v>0.24125132555673401</v>
+      </c>
+      <c r="AM28">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="AN28">
+        <v>0.24606060606060601</v>
+      </c>
+      <c r="AO28">
+        <v>5.33530500093815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>0.22248144220572599</v>
+      </c>
+      <c r="D29">
+        <v>0.26224999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.248484848484848</v>
+      </c>
+      <c r="F29">
+        <v>5.3074220542297397</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>0.231983032873807</v>
+      </c>
+      <c r="K29">
+        <v>0.27345000000000003</v>
+      </c>
+      <c r="L29">
+        <v>0.27515151515151498</v>
+      </c>
+      <c r="M29">
+        <v>5.2820368406485603</v>
+      </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
+      <c r="Q29">
+        <v>0.22184517497348899</v>
+      </c>
+      <c r="R29">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="S29">
+        <v>0.24578313253011999</v>
+      </c>
+      <c r="T29">
+        <v>5.3078870827777003</v>
+      </c>
+      <c r="W29">
+        <v>25</v>
+      </c>
+      <c r="X29">
+        <v>0.23308589607635199</v>
+      </c>
+      <c r="Y29">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="Z29">
+        <v>0.26987951807228899</v>
+      </c>
+      <c r="AA29">
+        <v>5.2832126363002399</v>
+      </c>
+      <c r="AD29">
+        <v>25</v>
+      </c>
+      <c r="AE29">
+        <v>0.21306468716861099</v>
+      </c>
+      <c r="AF29">
+        <v>0.25114999999999998</v>
+      </c>
+      <c r="AG29">
+        <v>0.24969696969697</v>
+      </c>
+      <c r="AH29">
+        <v>5.3065026915209996</v>
+      </c>
+      <c r="AK29">
+        <v>25</v>
+      </c>
+      <c r="AL29">
+        <v>0.22430540827147399</v>
+      </c>
+      <c r="AM29">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="AN29">
+        <v>0.27454545454545498</v>
+      </c>
+      <c r="AO29">
+        <v>5.2838909269447702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>0.20675150229763201</v>
+      </c>
+      <c r="D30">
+        <v>0.29244999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.27030303030302999</v>
+      </c>
+      <c r="F30">
+        <v>5.26201689455407</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>0.21587133262637001</v>
+      </c>
+      <c r="K30">
+        <v>0.30535000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.30363636363636398</v>
+      </c>
+      <c r="M30">
+        <v>5.2361594229502098</v>
+      </c>
+      <c r="P30">
+        <v>30</v>
+      </c>
+      <c r="Q30">
+        <v>0.20600919052668801</v>
+      </c>
+      <c r="R30">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="S30">
+        <v>0.265060240963855</v>
+      </c>
+      <c r="T30">
+        <v>5.2650452932443201</v>
+      </c>
+      <c r="W30">
+        <v>30</v>
+      </c>
+      <c r="X30">
+        <v>0.21615411806292001</v>
+      </c>
+      <c r="Y30">
+        <v>0.30575000000000002</v>
+      </c>
+      <c r="Z30">
+        <v>0.29337349397590401</v>
+      </c>
+      <c r="AA30">
+        <v>5.2365363787008796</v>
+      </c>
+      <c r="AD30">
+        <v>30</v>
+      </c>
+      <c r="AE30">
+        <v>0.19886885825379999</v>
+      </c>
+      <c r="AF30">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="AG30">
+        <v>0.27333333333333298</v>
+      </c>
+      <c r="AH30">
+        <v>5.2612432783871101</v>
+      </c>
+      <c r="AK30">
+        <v>30</v>
+      </c>
+      <c r="AL30">
+        <v>0.209261223047013</v>
+      </c>
+      <c r="AM30">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AN30">
+        <v>0.30242424242424198</v>
+      </c>
+      <c r="AO30">
+        <v>5.2351702639610398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.45493107104984098</v>
+      </c>
+      <c r="D31">
+        <v>2.145E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.8181818181818199E-2</v>
+      </c>
+      <c r="F31">
+        <v>5.8087299951061402</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.46235418875927897</v>
+      </c>
+      <c r="K31">
+        <v>2.18E-2</v>
+      </c>
+      <c r="L31">
+        <v>4.6666666666666697E-2</v>
+      </c>
+      <c r="M31">
+        <v>5.8038299957988899</v>
+      </c>
+      <c r="O31">
+        <v>80</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0.489925768822906</v>
+      </c>
+      <c r="R31">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>4.51807228915663E-2</v>
+      </c>
+      <c r="T31">
+        <v>5.7868629036326098</v>
+      </c>
+      <c r="V31">
+        <v>80</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0.49522799575821802</v>
+      </c>
+      <c r="Y31">
+        <v>2.3349999999999999E-2</v>
+      </c>
+      <c r="Z31">
+        <v>4.8795180722891601E-2</v>
+      </c>
+      <c r="AA31">
+        <v>5.7922169466948903</v>
+      </c>
+      <c r="AC31">
+        <v>80</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>0.42523860021208898</v>
+      </c>
+      <c r="AF31">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="AG31">
+        <v>3.9393939393939398E-2</v>
+      </c>
+      <c r="AH31">
+        <v>5.8330531362039002</v>
+      </c>
+      <c r="AJ31">
+        <v>80</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>0.46129374337221601</v>
+      </c>
+      <c r="AM31">
+        <v>2.1749999999999999E-2</v>
+      </c>
+      <c r="AN31">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="AO31">
+        <v>5.82959370031615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.35291622481442197</v>
+      </c>
+      <c r="D32">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E32">
+        <v>9.27272727272727E-2</v>
+      </c>
+      <c r="F32">
+        <v>5.6554364123788297</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>0.37136797454931098</v>
+      </c>
+      <c r="K32">
+        <v>8.7550000000000003E-2</v>
+      </c>
+      <c r="L32">
+        <v>0.102424242424242</v>
+      </c>
+      <c r="M32">
+        <v>5.6464901363787101</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>0.35970307529162199</v>
+      </c>
+      <c r="R32">
+        <v>8.48E-2</v>
+      </c>
+      <c r="S32">
+        <v>9.0963855421686807E-2</v>
+      </c>
+      <c r="T32">
+        <v>5.6499242589920797</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>0.373700954400848</v>
+      </c>
+      <c r="Y32">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="Z32">
+        <v>9.7590361445783105E-2</v>
+      </c>
+      <c r="AA32">
+        <v>5.6439569896881903</v>
+      </c>
+      <c r="AD32">
+        <v>5</v>
+      </c>
+      <c r="AE32">
+        <v>0.33319194061505802</v>
+      </c>
+      <c r="AF32">
+        <v>7.8549999999999995E-2</v>
+      </c>
+      <c r="AG32">
+        <v>8.7272727272727293E-2</v>
+      </c>
+      <c r="AH32">
+        <v>5.6588768058336196</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>0.35843054082714698</v>
+      </c>
+      <c r="AM32">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="AN32">
+        <v>9.7575757575757593E-2</v>
+      </c>
+      <c r="AO32">
+        <v>5.6508436725411197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0.29809119830328701</v>
+      </c>
+      <c r="D33">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.12545454545454501</v>
+      </c>
+      <c r="F33">
+        <v>5.5484307890990703</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0.31124072110286299</v>
+      </c>
+      <c r="K33">
+        <v>0.14674999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.13878787878787899</v>
+      </c>
+      <c r="M33">
+        <v>5.5363423210154998</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>0.3</v>
+      </c>
+      <c r="R33">
+        <v>0.14144999999999999</v>
+      </c>
+      <c r="S33">
+        <v>0.119879518072289</v>
+      </c>
+      <c r="T33">
+        <v>5.5402845419470204</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>0.31336161187698802</v>
+      </c>
+      <c r="Y33">
+        <v>0.14774999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>0.141566265060241</v>
+      </c>
+      <c r="AA33">
+        <v>5.5298058260110201</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <v>0.28345705196182402</v>
+      </c>
+      <c r="AF33">
+        <v>0.13364999999999999</v>
+      </c>
+      <c r="AG33">
+        <v>0.124242424242424</v>
+      </c>
+      <c r="AH33">
+        <v>5.5462935714740302</v>
+      </c>
+      <c r="AK33">
+        <v>10</v>
+      </c>
+      <c r="AL33">
+        <v>0.30212089077412502</v>
+      </c>
+      <c r="AM33">
+        <v>0.14244999999999999</v>
+      </c>
+      <c r="AN33">
+        <v>0.13696969696969699</v>
+      </c>
+      <c r="AO33">
+        <v>5.5338318898020002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>0.26496995404736701</v>
+      </c>
+      <c r="D34">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.15393939393939399</v>
+      </c>
+      <c r="F34">
+        <v>5.4712310986902803</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>0.27762460233297998</v>
+      </c>
+      <c r="K34">
+        <v>0.19635</v>
+      </c>
+      <c r="L34">
+        <v>0.17272727272727301</v>
+      </c>
+      <c r="M34">
+        <v>5.4578469114287103</v>
+      </c>
+      <c r="P34">
+        <v>15</v>
+      </c>
+      <c r="Q34">
+        <v>0.26857546836337898</v>
+      </c>
+      <c r="R34">
+        <v>0.18995000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.157831325301205</v>
+      </c>
+      <c r="T34">
+        <v>5.4694996054885596</v>
+      </c>
+      <c r="W34">
+        <v>15</v>
+      </c>
+      <c r="X34">
+        <v>0.27910922587486697</v>
+      </c>
+      <c r="Y34">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="Z34">
+        <v>0.171686746987952</v>
+      </c>
+      <c r="AA34">
+        <v>5.4530347659365397</v>
+      </c>
+      <c r="AD34">
+        <v>15</v>
+      </c>
+      <c r="AE34">
+        <v>0.25394132202191599</v>
+      </c>
+      <c r="AF34">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="AG34">
+        <v>0.15212121212121199</v>
+      </c>
+      <c r="AH34">
+        <v>5.4736826761494903</v>
+      </c>
+      <c r="AK34">
+        <v>15</v>
+      </c>
+      <c r="AL34">
+        <v>0.26567691763874202</v>
+      </c>
+      <c r="AM34">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="AN34">
+        <v>0.16848484848484799</v>
+      </c>
+      <c r="AO34">
+        <v>5.4578476326955796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>0.24093319194061499</v>
+      </c>
+      <c r="D35">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.175151515151515</v>
+      </c>
+      <c r="F35">
+        <v>5.41362430935727</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>0.25174973488865299</v>
+      </c>
+      <c r="K35">
+        <v>0.2374</v>
+      </c>
+      <c r="L35">
+        <v>0.19939393939393901</v>
+      </c>
+      <c r="M35">
+        <v>5.39625023535105</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35">
+        <v>0.24262990455991501</v>
+      </c>
+      <c r="R35">
+        <v>0.2288</v>
+      </c>
+      <c r="S35">
+        <v>0.181927710843374</v>
+      </c>
+      <c r="T35">
+        <v>5.4139942108659902</v>
+      </c>
+      <c r="W35">
+        <v>20</v>
+      </c>
+      <c r="X35">
+        <v>0.25243902439024402</v>
+      </c>
+      <c r="Y35">
+        <v>0.23805000000000001</v>
+      </c>
+      <c r="Z35">
+        <v>0.196987951807229</v>
+      </c>
+      <c r="AA35">
+        <v>5.3942934600294503</v>
+      </c>
+      <c r="AD35">
+        <v>20</v>
+      </c>
+      <c r="AE35">
+        <v>0.230858960763521</v>
+      </c>
+      <c r="AF35">
+        <v>0.2177</v>
+      </c>
+      <c r="AG35">
+        <v>0.176363636363636</v>
+      </c>
+      <c r="AH35">
+        <v>5.4144754377340503</v>
+      </c>
+      <c r="AK35">
+        <v>20</v>
+      </c>
+      <c r="AL35">
+        <v>0.24040296924708399</v>
+      </c>
+      <c r="AM35">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="AN35">
+        <v>0.19818181818181799</v>
+      </c>
+      <c r="AO35">
+        <v>5.3956110811383198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>0.22095440084835599</v>
+      </c>
+      <c r="D36">
+        <v>0.26045000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.192121212121212</v>
+      </c>
+      <c r="F36">
+        <v>5.3642858785487499</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>0.23028632025450699</v>
+      </c>
+      <c r="K36">
+        <v>0.27145000000000002</v>
+      </c>
+      <c r="L36">
+        <v>0.218787878787879</v>
+      </c>
+      <c r="M36">
+        <v>5.3422943071900804</v>
+      </c>
+      <c r="P36">
+        <v>25</v>
+      </c>
+      <c r="Q36">
+        <v>0.222608695652174</v>
+      </c>
+      <c r="R36">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="S36">
+        <v>0.19879518072289201</v>
+      </c>
+      <c r="T36">
+        <v>5.3659804087150302</v>
+      </c>
+      <c r="W36">
+        <v>25</v>
+      </c>
+      <c r="X36">
+        <v>0.23219512195122</v>
+      </c>
+      <c r="Y36">
+        <v>0.2737</v>
+      </c>
+      <c r="Z36">
+        <v>0.219879518072289</v>
+      </c>
+      <c r="AA36">
+        <v>5.3421493363118202</v>
+      </c>
+      <c r="AD36">
+        <v>25</v>
+      </c>
+      <c r="AE36">
+        <v>0.21264050901378601</v>
+      </c>
+      <c r="AF36">
+        <v>0.25064999999999998</v>
+      </c>
+      <c r="AG36">
+        <v>0.19757575757575799</v>
+      </c>
+      <c r="AH36">
+        <v>5.36492055614963</v>
+      </c>
+      <c r="AK36">
+        <v>25</v>
+      </c>
+      <c r="AL36">
+        <v>0.22294803817603401</v>
+      </c>
+      <c r="AM36">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="AN36">
+        <v>0.218181818181818</v>
+      </c>
+      <c r="AO36">
+        <v>5.3424396355501704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>0.20597384234711899</v>
+      </c>
+      <c r="D37">
+        <v>0.29135</v>
+      </c>
+      <c r="E37">
+        <v>0.207878787878788</v>
+      </c>
+      <c r="F37">
+        <v>5.3214600074101597</v>
+      </c>
+      <c r="I37">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>0.21385648639095101</v>
+      </c>
+      <c r="K37">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="L37">
+        <v>0.24303030303030301</v>
+      </c>
+      <c r="M37">
+        <v>5.2959027996545496</v>
+      </c>
+      <c r="P37">
+        <v>30</v>
+      </c>
+      <c r="Q37">
+        <v>0.2067868504772</v>
+      </c>
+      <c r="R37">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="S37">
+        <v>0.21265060240963901</v>
+      </c>
+      <c r="T37">
+        <v>5.3238229940193298</v>
+      </c>
+      <c r="W37">
+        <v>30</v>
+      </c>
+      <c r="X37">
+        <v>0.215800636267232</v>
+      </c>
+      <c r="Y37">
+        <v>0.30525000000000002</v>
+      </c>
+      <c r="Z37">
+        <v>0.246385542168675</v>
+      </c>
+      <c r="AA37">
+        <v>5.2956054349075004</v>
+      </c>
+      <c r="AD37">
+        <v>30</v>
+      </c>
+      <c r="AE37">
+        <v>0.19787910922587501</v>
+      </c>
+      <c r="AF37">
+        <v>0.27989999999999998</v>
+      </c>
+      <c r="AG37">
+        <v>0.21575757575757601</v>
+      </c>
+      <c r="AH37">
+        <v>5.3225467391356904</v>
+      </c>
+      <c r="AK37">
+        <v>30</v>
+      </c>
+      <c r="AL37">
+        <v>0.20735242135029999</v>
+      </c>
+      <c r="AM37">
+        <v>0.29330000000000001</v>
+      </c>
+      <c r="AN37">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="AO37">
+        <v>5.2963878492098404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>160</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.451749734888653</v>
+      </c>
+      <c r="D38">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.7878787878787899E-2</v>
+      </c>
+      <c r="F38">
+        <v>5.85883612786228</v>
+      </c>
+      <c r="H38">
+        <v>160</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.46341463414634099</v>
+      </c>
+      <c r="K38">
+        <v>2.1850000000000001E-2</v>
+      </c>
+      <c r="L38">
+        <v>3.2727272727272702E-2</v>
+      </c>
+      <c r="M38">
+        <v>5.8594746808318501</v>
+      </c>
+      <c r="O38">
+        <v>160</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0.49204665959703098</v>
+      </c>
+      <c r="R38">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="S38">
+        <v>3.13253012048193E-2</v>
+      </c>
+      <c r="T38">
+        <v>5.8565517386420201</v>
+      </c>
+      <c r="V38">
+        <v>160</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0.50583244962884399</v>
+      </c>
+      <c r="Y38">
+        <v>2.385E-2</v>
+      </c>
+      <c r="Z38">
+        <v>3.13253012048193E-2</v>
+      </c>
+      <c r="AA38">
+        <v>5.8646976831698803</v>
+      </c>
+      <c r="AC38">
+        <v>160</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>0.43584305408271501</v>
+      </c>
+      <c r="AF38">
+        <v>2.0549999999999999E-2</v>
+      </c>
+      <c r="AG38">
+        <v>2.9090909090909101E-2</v>
+      </c>
+      <c r="AH38">
+        <v>5.8990020693063503</v>
+      </c>
+      <c r="AJ38">
+        <v>160</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>0.45811240721102903</v>
+      </c>
+      <c r="AM38">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="AN38">
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="AO38">
+        <v>5.8907289132063001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0.34825026511134699</v>
+      </c>
+      <c r="D39">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="E39">
+        <v>7.0303030303030298E-2</v>
+      </c>
+      <c r="F39">
+        <v>5.7154476609332896</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>0.35673382820784699</v>
+      </c>
+      <c r="K39">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="L39">
+        <v>7.3333333333333306E-2</v>
+      </c>
+      <c r="M39">
+        <v>5.7102133918856701</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>0.35143160127253398</v>
+      </c>
+      <c r="R39">
+        <v>8.2849999999999993E-2</v>
+      </c>
+      <c r="S39">
+        <v>6.9879518072289204E-2</v>
+      </c>
+      <c r="T39">
+        <v>5.7134630844798497</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>0.36839872746553598</v>
+      </c>
+      <c r="Y39">
+        <v>8.6849999999999997E-2</v>
+      </c>
+      <c r="Z39">
+        <v>8.0120481927710804E-2</v>
+      </c>
+      <c r="AA39">
+        <v>5.7052628117572697</v>
+      </c>
+      <c r="AD39">
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <v>0.32852598091198298</v>
+      </c>
+      <c r="AF39">
+        <v>7.7450000000000005E-2</v>
+      </c>
+      <c r="AG39">
+        <v>6.8484848484848496E-2</v>
+      </c>
+      <c r="AH39">
+        <v>5.7134377503393603</v>
+      </c>
+      <c r="AK39">
+        <v>5</v>
+      </c>
+      <c r="AL39">
+        <v>0.34549310710498399</v>
+      </c>
+      <c r="AM39">
+        <v>8.1449999999999995E-2</v>
+      </c>
+      <c r="AN39">
+        <v>7.3333333333333306E-2</v>
+      </c>
+      <c r="AO39">
+        <v>5.7058833442296297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0.29172852598091198</v>
+      </c>
+      <c r="D40">
+        <v>0.13755000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.102424242424242</v>
+      </c>
+      <c r="F40">
+        <v>5.6017081796799202</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0.30413573700954399</v>
+      </c>
+      <c r="K40">
+        <v>0.1434</v>
+      </c>
+      <c r="L40">
+        <v>0.11030303030303</v>
+      </c>
+      <c r="M40">
+        <v>5.5910850023697201</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <v>0.291092258748674</v>
+      </c>
+      <c r="R40">
+        <v>0.13725000000000001</v>
+      </c>
+      <c r="S40">
+        <v>9.8192771084337396E-2</v>
+      </c>
+      <c r="T40">
+        <v>5.59597381033318</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40">
+        <v>0.304029692470838</v>
+      </c>
+      <c r="Y40">
+        <v>0.14335000000000001</v>
+      </c>
+      <c r="Z40">
+        <v>0.109036144578313</v>
+      </c>
+      <c r="AA40">
+        <v>5.5847249247754904</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>0.27900318133616098</v>
+      </c>
+      <c r="AF40">
+        <v>0.13155</v>
+      </c>
+      <c r="AG40">
+        <v>0.1</v>
+      </c>
+      <c r="AH40">
+        <v>5.5976885332586397</v>
+      </c>
+      <c r="AK40">
+        <v>10</v>
+      </c>
+      <c r="AL40">
+        <v>0.28854718981972399</v>
+      </c>
+      <c r="AM40">
+        <v>0.13605</v>
+      </c>
+      <c r="AN40">
+        <v>0.111515151515152</v>
+      </c>
+      <c r="AO40">
+        <v>5.5869492442101496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>0.25867797808412901</v>
+      </c>
+      <c r="D41">
+        <v>0.18295</v>
+      </c>
+      <c r="E41">
+        <v>0.12181818181818201</v>
+      </c>
+      <c r="F41">
+        <v>5.5255674253783296</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>0.269423824673029</v>
+      </c>
+      <c r="K41">
+        <v>0.19055</v>
+      </c>
+      <c r="L41">
+        <v>0.14060606060606101</v>
+      </c>
+      <c r="M41">
+        <v>5.5102357863038298</v>
+      </c>
+      <c r="P41">
+        <v>15</v>
+      </c>
+      <c r="Q41">
+        <v>0.26051608342170401</v>
+      </c>
+      <c r="R41">
+        <v>0.18425</v>
+      </c>
+      <c r="S41">
+        <v>0.121686746987952</v>
+      </c>
+      <c r="T41">
+        <v>5.5202987158702097</v>
+      </c>
+      <c r="W41">
+        <v>15</v>
+      </c>
+      <c r="X41">
+        <v>0.27203958996111699</v>
+      </c>
+      <c r="Y41">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>0.13855421686746999</v>
+      </c>
+      <c r="AA41">
+        <v>5.5042577540055699</v>
+      </c>
+      <c r="AD41">
+        <v>15</v>
+      </c>
+      <c r="AE41">
+        <v>0.24814422057264099</v>
+      </c>
+      <c r="AF41">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="AG41">
+        <v>0.12545454545454501</v>
+      </c>
+      <c r="AH41">
+        <v>5.51938565088202</v>
+      </c>
+      <c r="AK41">
+        <v>15</v>
+      </c>
+      <c r="AL41">
+        <v>0.25846588900671602</v>
+      </c>
+      <c r="AM41">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="AN41">
+        <v>0.13939393939393899</v>
+      </c>
+      <c r="AO41">
+        <v>5.5043957889486803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>0.234358430540827</v>
+      </c>
+      <c r="D42">
+        <v>0.221</v>
+      </c>
+      <c r="E42">
+        <v>0.15090909090909099</v>
+      </c>
+      <c r="F42">
+        <v>5.4646272075034998</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>0.24395546129374299</v>
+      </c>
+      <c r="K42">
+        <v>0.23005</v>
+      </c>
+      <c r="L42">
+        <v>0.163030303030303</v>
+      </c>
+      <c r="M42">
+        <v>5.4449321253905598</v>
+      </c>
+      <c r="P42">
+        <v>20</v>
+      </c>
+      <c r="Q42">
+        <v>0.23669141039236499</v>
+      </c>
+      <c r="R42">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="S42">
+        <v>0.141566265060241</v>
+      </c>
+      <c r="T42">
+        <v>5.4634829382257903</v>
+      </c>
+      <c r="W42">
+        <v>20</v>
+      </c>
+      <c r="X42">
+        <v>0.24544008483563101</v>
+      </c>
+      <c r="Y42">
+        <v>0.23144999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>0.159036144578313</v>
+      </c>
+      <c r="AA42">
+        <v>5.4436818682682304</v>
+      </c>
+      <c r="AD42">
+        <v>20</v>
+      </c>
+      <c r="AE42">
+        <v>0.22401908801696699</v>
+      </c>
+      <c r="AF42">
+        <v>0.21124999999999999</v>
+      </c>
+      <c r="AG42">
+        <v>0.144848484848485</v>
+      </c>
+      <c r="AH42">
+        <v>5.4640187915377698</v>
+      </c>
+      <c r="AK42">
+        <v>20</v>
+      </c>
+      <c r="AL42">
+        <v>0.23467656415694599</v>
+      </c>
+      <c r="AM42">
+        <v>0.2213</v>
+      </c>
+      <c r="AN42">
+        <v>0.163030303030303</v>
+      </c>
+      <c r="AO42">
+        <v>5.4420569376570196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>0.21544008483563101</v>
+      </c>
+      <c r="D43">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.164242424242424</v>
+      </c>
+      <c r="F43">
+        <v>5.4155952295976801</v>
+      </c>
+      <c r="I43">
+        <v>25</v>
+      </c>
+      <c r="J43">
+        <v>0.22481442205726401</v>
+      </c>
+      <c r="K43">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="M43">
+        <v>5.3932975825850198</v>
+      </c>
+      <c r="P43">
+        <v>25</v>
+      </c>
+      <c r="Q43">
+        <v>0.21667020148462399</v>
+      </c>
+      <c r="R43">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="S43">
+        <v>0.155421686746988</v>
+      </c>
+      <c r="T43">
+        <v>5.4171936690424403</v>
+      </c>
+      <c r="W43">
+        <v>25</v>
+      </c>
+      <c r="X43">
+        <v>0.227147401908802</v>
+      </c>
+      <c r="Y43">
+        <v>0.26774999999999999</v>
+      </c>
+      <c r="Z43">
+        <v>0.17771084337349399</v>
+      </c>
+      <c r="AA43">
+        <v>5.3930430722623202</v>
+      </c>
+      <c r="AD43">
+        <v>25</v>
+      </c>
+      <c r="AE43">
+        <v>0.20632025450689301</v>
+      </c>
+      <c r="AF43">
+        <v>0.2432</v>
+      </c>
+      <c r="AG43">
+        <v>0.159393939393939</v>
+      </c>
+      <c r="AH43">
+        <v>5.4176488160313898</v>
+      </c>
+      <c r="AK43">
+        <v>25</v>
+      </c>
+      <c r="AL43">
+        <v>0.215906680805939</v>
+      </c>
+      <c r="AM43">
+        <v>0.2545</v>
+      </c>
+      <c r="AN43">
+        <v>0.17939393939393899</v>
+      </c>
+      <c r="AO43">
+        <v>5.3921828561648999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>0.199752562743019</v>
+      </c>
+      <c r="D44">
+        <v>0.28255000000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.17333333333333301</v>
+      </c>
+      <c r="F44">
+        <v>5.3756152447638401</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>0.209084482149169</v>
+      </c>
+      <c r="K44">
+        <v>0.29575000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.19878787878787901</v>
+      </c>
+      <c r="M44">
+        <v>5.3474660014996402</v>
+      </c>
+      <c r="P44">
+        <v>30</v>
+      </c>
+      <c r="Q44">
+        <v>0.200035348179569</v>
+      </c>
+      <c r="R44">
+        <v>0.28294999999999998</v>
+      </c>
+      <c r="S44">
+        <v>0.17469879518072301</v>
+      </c>
+      <c r="T44">
+        <v>5.3796959620605698</v>
+      </c>
+      <c r="W44">
+        <v>30</v>
+      </c>
+      <c r="X44">
+        <v>0.211488158359844</v>
+      </c>
+      <c r="Y44">
+        <v>0.29915000000000003</v>
+      </c>
+      <c r="Z44">
+        <v>0.2</v>
+      </c>
+      <c r="AA44">
+        <v>5.3483410584218802</v>
+      </c>
+      <c r="AD44">
+        <v>30</v>
+      </c>
+      <c r="AE44">
+        <v>0.1926475786497</v>
+      </c>
+      <c r="AF44">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="AG44">
+        <v>0.175757575757576</v>
+      </c>
+      <c r="AH44">
+        <v>5.3800994107150197</v>
+      </c>
+      <c r="AK44">
+        <v>30</v>
+      </c>
+      <c r="AL44">
+        <v>0.20144927536231899</v>
+      </c>
+      <c r="AM44">
+        <v>0.28494999999999998</v>
+      </c>
+      <c r="AN44">
+        <v>0.205454545454545</v>
+      </c>
+      <c r="AO44">
+        <v>5.3481435940842204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="V45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +179,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +201,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -203,10 +216,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,9 +239,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7466,8 +7486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7520,7 +7540,7 @@
       <c r="AM1" s="3"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="4" t="s">

--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -129,6 +129,10 @@
     <t>u3.base/u3.test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7484,10 +7491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM89"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14416,148 +14423,1076 @@
         <v>7.8461087111265898E-2</v>
       </c>
     </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>10</v>
+      </c>
+      <c r="B77" s="6">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0.25945945945945897</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>7.5151515151515205E-2</v>
+      </c>
+      <c r="F77" s="6">
+        <v>6.0360356568085596</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0.52980132450331097</v>
+      </c>
+    </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6">
+        <v>5</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0.223783783783784</v>
+      </c>
+      <c r="D78" s="6">
+        <v>5.1749999999999997E-2</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0.16727272727272699</v>
+      </c>
+      <c r="F78" s="6">
+        <v>5.96736028596069</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0.36838116261957299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6">
+        <v>10</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0.200756756756757</v>
+      </c>
+      <c r="D79" s="6">
+        <v>9.2850000000000002E-2</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0.237575757575758</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5.9201359522169001</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0.29825475664879603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6">
+        <v>15</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0.182702702702703</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0.12675</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0.30363636363636398</v>
+      </c>
+      <c r="F80" s="6">
+        <v>5.8891776205772297</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0.25871257146091597</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6">
+        <v>20</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0.16874831035415</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.15604999999999999</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0.35939393939393899</v>
+      </c>
+      <c r="F81" s="6">
+        <v>5.8652417709897602</v>
+      </c>
+      <c r="G81" s="6">
+        <v>0.229332219248682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6">
+        <v>25</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0.15737775854608399</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.18185000000000001</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.40727272727272701</v>
+      </c>
+      <c r="F82" s="6">
+        <v>5.8459204718958597</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.20711129555048299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6">
+        <v>30</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0.147339945897205</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0.20424999999999999</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0.44606060606060599</v>
+      </c>
+      <c r="F83" s="6">
+        <v>5.8307522530225402</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0.18844955035914501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>20</v>
+      </c>
+      <c r="B84" s="6">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0.27891891891891901</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E84" s="6">
+        <v>7.7575757575757603E-2</v>
+      </c>
+      <c r="F84" s="6">
+        <v>6.0365060542084699</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0.56953642384105996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D85" s="6">
+        <v>5.3650000000000003E-2</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.17272727272727301</v>
+      </c>
+      <c r="F85" s="6">
+        <v>5.9616744758709697</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0.39142016188373802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6">
+        <v>10</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0.20735135135135099</v>
+      </c>
+      <c r="D86" s="6">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.25090909090909103</v>
+      </c>
+      <c r="F86" s="6">
+        <v>5.9163665420518496</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0.31625030659798897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6">
+        <v>15</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0.18731531531531501</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.12995000000000001</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.31454545454545502</v>
+      </c>
+      <c r="F87" s="6">
+        <v>5.8854716023620899</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0.27234336957295002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6">
+        <v>20</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0.17437145174371499</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.16125</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="F88" s="6">
+        <v>5.86171874388672</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.24320480779793599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6">
+        <v>25</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0.16356555603634801</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.189</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.40606060606060601</v>
+      </c>
+      <c r="F89" s="6">
+        <v>5.8426071397515296</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0.220827535743328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6">
+        <v>30</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0.15336339044184</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.441212121212121</v>
+      </c>
+      <c r="F90" s="6">
+        <v>5.8264053894908896</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.20154096345748199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>50</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0.29297297297297298</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1.355E-2</v>
+      </c>
+      <c r="E91" s="6">
+        <v>8.3636363636363606E-2</v>
+      </c>
+      <c r="F91" s="6">
+        <v>6.0290572136268201</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0.59823399558498902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6">
+        <v>5</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0.23913513513513501</v>
+      </c>
+      <c r="D92" s="6">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.18484848484848501</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5.9604646054545896</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.41003679175864599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6">
+        <v>10</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0.21264864864864899</v>
+      </c>
+      <c r="D93" s="6">
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.25878787878787901</v>
+      </c>
+      <c r="F93" s="6">
+        <v>5.9112123312284401</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0.33012736956445599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6">
+        <v>15</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0.19776576576576599</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.31636363636363601</v>
+      </c>
+      <c r="F94" s="6">
+        <v>5.8795181788009598</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.29016315219405697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6">
+        <v>20</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0.17945390646120599</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0.16594999999999999</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.36606060606060598</v>
+      </c>
+      <c r="F95" s="6">
+        <v>5.8554702128999896</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0.25503162727761902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6">
+        <v>25</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0.16564257897014301</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.413333333333333</v>
+      </c>
+      <c r="F96" s="6">
+        <v>5.8362266116977803</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0.228394212100478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6">
+        <v>30</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0.15603246167718701</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.44909090909090899</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5.8203452026367204</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0.208302014151728</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>100</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0.30810810810810801</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="E98" s="6">
+        <v>8.24242424242424E-2</v>
+      </c>
+      <c r="F98" s="6">
+        <v>6.0126417993544097</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.629139072847682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6">
+        <v>5</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0.24929729729729699</v>
+      </c>
+      <c r="D99" s="6">
+        <v>5.765E-2</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.18242424242424199</v>
+      </c>
+      <c r="F99" s="6">
+        <v>5.9509425705263297</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0.43581309786607803</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6">
+        <v>10</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0.22010810810810799</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0.1018</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0.25878787878787901</v>
+      </c>
+      <c r="F100" s="6">
+        <v>5.9070913792940303</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0.350040032937384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6">
+        <v>15</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0.197981981981982</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0.13735</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0.32666666666666699</v>
+      </c>
+      <c r="F101" s="6">
+        <v>5.8765455808045797</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0.29882914199691302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6">
+        <v>20</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.181995133819951</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0.37636363636363601</v>
+      </c>
+      <c r="F102" s="6">
+        <v>5.8530949452426002</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0.26366189971376203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6">
+        <v>25</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0.169839896148853</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0.19625000000000001</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0.41818181818181799</v>
+      </c>
+      <c r="F103" s="6">
+        <v>5.8338003057053403</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0.237881051126688</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6">
+        <v>30</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0.16014427412082999</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0.222</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.45696969696969703</v>
+      </c>
+      <c r="F104" s="6">
+        <v>5.8180361193366403</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0.218211821564815</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>200</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E105" s="6">
+        <v>8.3636363636363606E-2</v>
+      </c>
+      <c r="F105" s="6">
+        <v>6.02390411185345</v>
+      </c>
+      <c r="G105" s="6">
+        <v>0.653421633554084</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6">
+        <v>5</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0.248648648648649</v>
+      </c>
+      <c r="D106" s="6">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.18060606060606099</v>
+      </c>
+      <c r="F106" s="6">
+        <v>5.9598503411820696</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0.434716703458425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="6">
+        <v>10</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0.21945945945945899</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.25636363636363602</v>
+      </c>
+      <c r="F107" s="6">
+        <v>5.9140223866744996</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0.34791031570832898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6">
+        <v>15</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.19870270270270299</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0.13785</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0.31515151515151502</v>
+      </c>
+      <c r="F108" s="6">
+        <v>5.8825179020970904</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0.298643788963877</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6">
+        <v>20</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0.183400919167343</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.1696</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0.37212121212121202</v>
+      </c>
+      <c r="F109" s="6">
+        <v>5.85755082309129</v>
+      </c>
+      <c r="G109" s="6">
+        <v>0.26514381534902598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6">
+        <v>25</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0.17144093466032001</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0.1981</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.42060606060606098</v>
+      </c>
+      <c r="F110" s="6">
+        <v>5.8373364150560096</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0.23996902776273901</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6">
+        <v>30</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0.16068530207394</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0.22275</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="F111" s="6">
+        <v>5.8209305558277302</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0.218925360204444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>500</v>
+      </c>
+      <c r="B112" s="6">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0.302702702702703</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F112" s="6">
+        <v>6.0390286091184704</v>
+      </c>
+      <c r="G112" s="6">
+        <v>0.61810154525386296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="6">
+        <v>5</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0.245837837837838</v>
+      </c>
+      <c r="D113" s="6">
+        <v>5.6849999999999998E-2</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0.17151515151515201</v>
+      </c>
+      <c r="F113" s="6">
+        <v>5.9604217496928698</v>
+      </c>
+      <c r="G113" s="6">
+        <v>0.42637969094922701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0.10174999999999999</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.24727272727272701</v>
+      </c>
+      <c r="F114" s="6">
+        <v>5.9083041743702198</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0.34765242300010502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="6">
+        <v>15</v>
+      </c>
+      <c r="C115" s="6">
+        <v>0.197621621621622</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0.1371</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0.321212121212121</v>
+      </c>
+      <c r="F115" s="6">
+        <v>5.8748262308433503</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0.29658545893645299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6">
+        <v>20</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0.184103811841038</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0.17025000000000001</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0.37636363636363601</v>
+      </c>
+      <c r="F116" s="6">
+        <v>5.8508209144220604</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0.26527213697949797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6">
+        <v>25</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0.17070532237126801</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0.19725000000000001</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0.42181818181818198</v>
+      </c>
+      <c r="F117" s="6">
+        <v>5.8310296224060298</v>
+      </c>
+      <c r="G117" s="6">
+        <v>0.23805582077656101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6">
+        <v>30</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0.160108205590622</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0.22195000000000001</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0.46181818181818202</v>
+      </c>
+      <c r="F118" s="6">
+        <v>5.8154975980783199</v>
+      </c>
+      <c r="G118" s="6">
+        <v>0.21694171128557299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B135" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B137" s="3">
         <v>160000</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B138" s="3">
         <v>20000</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B139" s="3">
         <v>943</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D139" s="3">
         <v>1682</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F139" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B140" s="3">
         <v>100</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B141" s="3">
         <v>0.02</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B142" s="3">
         <v>0.01</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B143" s="3">
         <v>0.9</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B144" s="3">
         <v>1</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B145" s="3">
         <v>5</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t>N</t>
   </si>
@@ -130,6 +130,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>u2.base/u2.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u4.base/u4.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5.base/u5.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>f</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -226,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -249,6 +269,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7493,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:G118"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:AM118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14433,10 +14454,50 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>0</v>
@@ -14454,6 +14515,94 @@
         <v>4</v>
       </c>
       <c r="G76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM76" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14478,6 +14627,94 @@
       </c>
       <c r="G77" s="6">
         <v>0.52980132450331097</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="6">
+        <v>10</v>
+      </c>
+      <c r="J77" s="10">
+        <v>1</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0.32901833872707698</v>
+      </c>
+      <c r="L77" s="10">
+        <v>1.525E-2</v>
+      </c>
+      <c r="M77" s="10">
+        <v>7.0995145631067999E-2</v>
+      </c>
+      <c r="N77" s="10">
+        <v>6.0556648034418599</v>
+      </c>
+      <c r="O77" s="10">
+        <v>0.47360248447205</v>
+      </c>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="6">
+        <v>10</v>
+      </c>
+      <c r="R77" s="10">
+        <v>1</v>
+      </c>
+      <c r="S77" s="10">
+        <v>0.37310195227765702</v>
+      </c>
+      <c r="T77" s="10">
+        <v>1.72E-2</v>
+      </c>
+      <c r="U77" s="10">
+        <v>6.5454545454545501E-2</v>
+      </c>
+      <c r="V77" s="10">
+        <v>6.0577528529499398</v>
+      </c>
+      <c r="W77" s="10">
+        <v>0.40470588235294103</v>
+      </c>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>0.36047774158523299</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>1.66E-2</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>6.3253012048192794E-2</v>
+      </c>
+      <c r="AD77" s="10">
+        <v>6.03746555340956</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>0.36847946725860198</v>
+      </c>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="6">
+        <v>10</v>
+      </c>
+      <c r="AH77" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="10">
+        <v>0.38411316648531002</v>
+      </c>
+      <c r="AJ77" s="10">
+        <v>1.7649999999999999E-2</v>
+      </c>
+      <c r="AK77" s="10">
+        <v>6.5454545454545501E-2</v>
+      </c>
+      <c r="AL77" s="10">
+        <v>6.0294615224853203</v>
+      </c>
+      <c r="AM77" s="10">
+        <v>0.39091915836101898</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.2">
@@ -14500,6 +14737,86 @@
       <c r="G78" s="6">
         <v>0.36838116261957299</v>
       </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="10">
+        <v>5</v>
+      </c>
+      <c r="K78" s="10">
+        <v>0.27011866235167198</v>
+      </c>
+      <c r="L78" s="10">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="M78" s="10">
+        <v>0.15473300970873799</v>
+      </c>
+      <c r="N78" s="10">
+        <v>5.9863022941802102</v>
+      </c>
+      <c r="O78" s="10">
+        <v>0.30273809523809497</v>
+      </c>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="10">
+        <v>5</v>
+      </c>
+      <c r="S78" s="10">
+        <v>0.28438177874186499</v>
+      </c>
+      <c r="T78" s="10">
+        <v>6.5549999999999997E-2</v>
+      </c>
+      <c r="U78" s="10">
+        <v>0.13818181818181799</v>
+      </c>
+      <c r="V78" s="10">
+        <v>5.9849138507337196</v>
+      </c>
+      <c r="W78" s="10">
+        <v>0.23690588235294099</v>
+      </c>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>0.29489685124864301</v>
+      </c>
+      <c r="AB78" s="10">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0.13734939759036099</v>
+      </c>
+      <c r="AD78" s="10">
+        <v>5.97147529890296</v>
+      </c>
+      <c r="AE78" s="10">
+        <v>0.227454679985201</v>
+      </c>
+      <c r="AF78" s="10"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI78" s="10">
+        <v>0.29466811751904198</v>
+      </c>
+      <c r="AJ78" s="10">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="AK78" s="10">
+        <v>0.147878787878788</v>
+      </c>
+      <c r="AL78" s="10">
+        <v>5.9668540109302501</v>
+      </c>
+      <c r="AM78" s="10">
+        <v>0.22734957548911</v>
+      </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
@@ -14521,6 +14838,86 @@
       <c r="G79" s="6">
         <v>0.29825475664879603</v>
       </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="10">
+        <v>10</v>
+      </c>
+      <c r="K79" s="10">
+        <v>0.225674217907228</v>
+      </c>
+      <c r="L79" s="10">
+        <v>0.1046</v>
+      </c>
+      <c r="M79" s="10">
+        <v>0.228155339805825</v>
+      </c>
+      <c r="N79" s="10">
+        <v>5.9371883507374399</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0.225687543133195</v>
+      </c>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="10">
+        <v>10</v>
+      </c>
+      <c r="S79" s="10">
+        <v>0.23939229517091701</v>
+      </c>
+      <c r="T79" s="10">
+        <v>0.1103</v>
+      </c>
+      <c r="U79" s="10">
+        <v>0.20181818181818201</v>
+      </c>
+      <c r="V79" s="10">
+        <v>5.9383525983154399</v>
+      </c>
+      <c r="W79" s="10">
+        <v>0.172607189542484</v>
+      </c>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0.24842562432139001</v>
+      </c>
+      <c r="AB79" s="10">
+        <v>0.1144</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0.20481927710843401</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>5.9213659424950302</v>
+      </c>
+      <c r="AE79" s="10">
+        <v>0.169205336222539</v>
+      </c>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI79" s="10">
+        <v>0.24102285092491799</v>
+      </c>
+      <c r="AJ79" s="10">
+        <v>0.11075</v>
+      </c>
+      <c r="AK79" s="10">
+        <v>0.21151515151515199</v>
+      </c>
+      <c r="AL79" s="10">
+        <v>5.9177516711577498</v>
+      </c>
+      <c r="AM79" s="10">
+        <v>0.16538830002285199</v>
+      </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
@@ -14542,8 +14939,88 @@
       <c r="G80" s="6">
         <v>0.25871257146091597</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="3"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="10">
+        <v>15</v>
+      </c>
+      <c r="K80" s="10">
+        <v>0.20151024811219001</v>
+      </c>
+      <c r="L80" s="10">
+        <v>0.1401</v>
+      </c>
+      <c r="M80" s="10">
+        <v>0.29490291262135898</v>
+      </c>
+      <c r="N80" s="10">
+        <v>5.9070925332031496</v>
+      </c>
+      <c r="O80" s="10">
+        <v>0.18595769712229299</v>
+      </c>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="10">
+        <v>15</v>
+      </c>
+      <c r="S80" s="10">
+        <v>0.20839363241678699</v>
+      </c>
+      <c r="T80" s="10">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="U80" s="10">
+        <v>0.25818181818181801</v>
+      </c>
+      <c r="V80" s="10">
+        <v>5.9076376482237398</v>
+      </c>
+      <c r="W80" s="10">
+        <v>0.13832850591674101</v>
+      </c>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0.21795150199058999</v>
+      </c>
+      <c r="AB80" s="10">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0.240963855421687</v>
+      </c>
+      <c r="AD80" s="10">
+        <v>5.8874917614788798</v>
+      </c>
+      <c r="AE80" s="10">
+        <v>0.13723347335444999</v>
+      </c>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI80" s="10">
+        <v>0.213207547169811</v>
+      </c>
+      <c r="AJ80" s="10">
+        <v>0.1469</v>
+      </c>
+      <c r="AK80" s="10">
+        <v>0.26060606060606101</v>
+      </c>
+      <c r="AL80" s="10">
+        <v>5.8845781622649698</v>
+      </c>
+      <c r="AM80" s="10">
+        <v>0.13547663894286299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="6">
         <v>20</v>
@@ -14563,8 +15040,88 @@
       <c r="G81" s="6">
         <v>0.229332219248682</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="3"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="10">
+        <v>20</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0.18292156651202901</v>
+      </c>
+      <c r="L81" s="10">
+        <v>0.16955000000000001</v>
+      </c>
+      <c r="M81" s="10">
+        <v>0.345873786407767</v>
+      </c>
+      <c r="N81" s="10">
+        <v>5.8832960973061299</v>
+      </c>
+      <c r="O81" s="10">
+        <v>0.15952152397627001</v>
+      </c>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="10">
+        <v>20</v>
+      </c>
+      <c r="S81" s="10">
+        <v>0.18871099050203499</v>
+      </c>
+      <c r="T81" s="10">
+        <v>0.17385</v>
+      </c>
+      <c r="U81" s="10">
+        <v>0.30606060606060598</v>
+      </c>
+      <c r="V81" s="10">
+        <v>5.8841807853225099</v>
+      </c>
+      <c r="W81" s="10">
+        <v>0.117576706841996</v>
+      </c>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>0.19636264929424499</v>
+      </c>
+      <c r="AB81" s="10">
+        <v>0.18085000000000001</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>0.28253012048192799</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>5.8623884341475803</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>0.116130826728554</v>
+      </c>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI81" s="10">
+        <v>0.19232444202504101</v>
+      </c>
+      <c r="AJ81" s="10">
+        <v>0.17665</v>
+      </c>
+      <c r="AK81" s="10">
+        <v>0.29939393939393899</v>
+      </c>
+      <c r="AL81" s="10">
+        <v>5.8596841640145199</v>
+      </c>
+      <c r="AM81" s="10">
+        <v>0.115914238800689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="6">
         <v>25</v>
@@ -14584,8 +15141,88 @@
       <c r="G82" s="6">
         <v>0.20711129555048299</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="3"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="10">
+        <v>25</v>
+      </c>
+      <c r="K82" s="10">
+        <v>0.16846512430939201</v>
+      </c>
+      <c r="L82" s="10">
+        <v>0.19514999999999999</v>
+      </c>
+      <c r="M82" s="10">
+        <v>0.38592233009708699</v>
+      </c>
+      <c r="N82" s="10">
+        <v>5.86408636668064</v>
+      </c>
+      <c r="O82" s="10">
+        <v>0.14025953218802001</v>
+      </c>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="10">
+        <v>25</v>
+      </c>
+      <c r="S82" s="10">
+        <v>0.17371850564726299</v>
+      </c>
+      <c r="T82" s="10">
+        <v>0.19994999999999999</v>
+      </c>
+      <c r="U82" s="10">
+        <v>0.352727272727273</v>
+      </c>
+      <c r="V82" s="10">
+        <v>5.8650018609674603</v>
+      </c>
+      <c r="W82" s="10">
+        <v>0.102491952026004</v>
+      </c>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>0.179934853420195</v>
+      </c>
+      <c r="AB82" s="10">
+        <v>0.20715</v>
+      </c>
+      <c r="AC82" s="10">
+        <v>0.318072289156627</v>
+      </c>
+      <c r="AD82" s="10">
+        <v>5.8433400251796499</v>
+      </c>
+      <c r="AE82" s="10">
+        <v>0.101489000301497</v>
+      </c>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="10">
+        <v>25</v>
+      </c>
+      <c r="AI82" s="10">
+        <v>0.17739547038327499</v>
+      </c>
+      <c r="AJ82" s="10">
+        <v>0.20365</v>
+      </c>
+      <c r="AK82" s="10">
+        <v>0.34363636363636402</v>
+      </c>
+      <c r="AL82" s="10">
+        <v>5.8406871615893596</v>
+      </c>
+      <c r="AM82" s="10">
+        <v>0.10256249325562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="6">
         <v>30</v>
@@ -14605,8 +15242,88 @@
       <c r="G83" s="6">
         <v>0.18844955035914501</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="3"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="10">
+        <v>30</v>
+      </c>
+      <c r="K83" s="10">
+        <v>0.155274140164052</v>
+      </c>
+      <c r="L83" s="10">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="M83" s="10">
+        <v>0.42961165048543698</v>
+      </c>
+      <c r="N83" s="10">
+        <v>5.8482734182750704</v>
+      </c>
+      <c r="O83" s="10">
+        <v>0.12523740611421899</v>
+      </c>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="10">
+        <v>30</v>
+      </c>
+      <c r="S83" s="10">
+        <v>0.16128915444504799</v>
+      </c>
+      <c r="T83" s="10">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="U83" s="10">
+        <v>0.39272727272727298</v>
+      </c>
+      <c r="V83" s="10">
+        <v>5.8484718310716097</v>
+      </c>
+      <c r="W83" s="10">
+        <v>9.1205133915964798E-2</v>
+      </c>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>0.16746290264205599</v>
+      </c>
+      <c r="AB83" s="10">
+        <v>0.23135</v>
+      </c>
+      <c r="AC83" s="10">
+        <v>0.36204819277108402</v>
+      </c>
+      <c r="AD83" s="10">
+        <v>5.8273079001006201</v>
+      </c>
+      <c r="AE83" s="10">
+        <v>9.1033191958400206E-2</v>
+      </c>
+      <c r="AF83" s="10"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI83" s="10">
+        <v>0.16548094373865699</v>
+      </c>
+      <c r="AJ83" s="10">
+        <v>0.22795000000000001</v>
+      </c>
+      <c r="AK83" s="10">
+        <v>0.37333333333333302</v>
+      </c>
+      <c r="AL83" s="10">
+        <v>5.8253342738431897</v>
+      </c>
+      <c r="AM83" s="10">
+        <v>9.2374129340464697E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>20</v>
       </c>
@@ -14628,8 +15345,96 @@
       <c r="G84" s="6">
         <v>0.56953642384105996</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="3"/>
+      <c r="I84" s="6">
+        <v>20</v>
+      </c>
+      <c r="J84" s="10">
+        <v>1</v>
+      </c>
+      <c r="K84" s="10">
+        <v>0.346278317152104</v>
+      </c>
+      <c r="L84" s="10">
+        <v>1.6049999999999998E-2</v>
+      </c>
+      <c r="M84" s="10">
+        <v>7.0388349514563103E-2</v>
+      </c>
+      <c r="N84" s="10">
+        <v>6.0423460354665002</v>
+      </c>
+      <c r="O84" s="10">
+        <v>0.49844720496894401</v>
+      </c>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="6">
+        <v>20</v>
+      </c>
+      <c r="R84" s="10">
+        <v>1</v>
+      </c>
+      <c r="S84" s="10">
+        <v>0.36225596529284199</v>
+      </c>
+      <c r="T84" s="10">
+        <v>1.67E-2</v>
+      </c>
+      <c r="U84" s="10">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="V84" s="10">
+        <v>6.02966426038995</v>
+      </c>
+      <c r="W84" s="10">
+        <v>0.39294117647058802</v>
+      </c>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="6">
+        <v>20</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>0.35504885993485302</v>
+      </c>
+      <c r="AB84" s="10">
+        <v>1.635E-2</v>
+      </c>
+      <c r="AC84" s="10">
+        <v>6.3855421686747002E-2</v>
+      </c>
+      <c r="AD84" s="10">
+        <v>6.04024712427724</v>
+      </c>
+      <c r="AE84" s="10">
+        <v>0.36293007769145402</v>
+      </c>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="6">
+        <v>20</v>
+      </c>
+      <c r="AH84" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="10">
+        <v>0.40043525571273098</v>
+      </c>
+      <c r="AJ84" s="10">
+        <v>1.84E-2</v>
+      </c>
+      <c r="AK84" s="10">
+        <v>7.4545454545454498E-2</v>
+      </c>
+      <c r="AL84" s="10">
+        <v>6.0458073248044801</v>
+      </c>
+      <c r="AM84" s="10">
+        <v>0.40753045404208199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="6">
         <v>5</v>
@@ -14649,8 +15454,88 @@
       <c r="G85" s="6">
         <v>0.39142016188373802</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="3"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="10">
+        <v>5</v>
+      </c>
+      <c r="K85" s="10">
+        <v>0.27184466019417503</v>
+      </c>
+      <c r="L85" s="10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M85" s="10">
+        <v>0.15291262135922301</v>
+      </c>
+      <c r="N85" s="10">
+        <v>5.9739433187914504</v>
+      </c>
+      <c r="O85" s="10">
+        <v>0.31389751552794998</v>
+      </c>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="10">
+        <v>5</v>
+      </c>
+      <c r="S85" s="10">
+        <v>0.30563991323210399</v>
+      </c>
+      <c r="T85" s="10">
+        <v>7.0449999999999999E-2</v>
+      </c>
+      <c r="U85" s="10">
+        <v>0.15333333333333299</v>
+      </c>
+      <c r="V85" s="10">
+        <v>5.9690124039556398</v>
+      </c>
+      <c r="W85" s="10">
+        <v>0.25316078431372502</v>
+      </c>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>0.29902280130293202</v>
+      </c>
+      <c r="AB85" s="10">
+        <v>6.8849999999999995E-2</v>
+      </c>
+      <c r="AC85" s="10">
+        <v>0.14337349397590399</v>
+      </c>
+      <c r="AD85" s="10">
+        <v>5.9700547968151003</v>
+      </c>
+      <c r="AE85" s="10">
+        <v>0.227824639289677</v>
+      </c>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI85" s="10">
+        <v>0.29075081610446102</v>
+      </c>
+      <c r="AJ85" s="10">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="AK85" s="10">
+        <v>0.15454545454545501</v>
+      </c>
+      <c r="AL85" s="10">
+        <v>5.9675013717151302</v>
+      </c>
+      <c r="AM85" s="10">
+        <v>0.228486526393503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="6">
         <v>10</v>
@@ -14670,8 +15555,88 @@
       <c r="G86" s="6">
         <v>0.31625030659798897</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="3"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="10">
+        <v>10</v>
+      </c>
+      <c r="K86" s="10">
+        <v>0.23527508090614899</v>
+      </c>
+      <c r="L86" s="10">
+        <v>0.10904999999999999</v>
+      </c>
+      <c r="M86" s="10">
+        <v>0.22208737864077699</v>
+      </c>
+      <c r="N86" s="10">
+        <v>5.9270110765428301</v>
+      </c>
+      <c r="O86" s="10">
+        <v>0.239853285517105</v>
+      </c>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="10">
+        <v>10</v>
+      </c>
+      <c r="S86" s="10">
+        <v>0.25469343461747201</v>
+      </c>
+      <c r="T86" s="10">
+        <v>0.11735</v>
+      </c>
+      <c r="U86" s="10">
+        <v>0.22363636363636399</v>
+      </c>
+      <c r="V86" s="10">
+        <v>5.9243087539563</v>
+      </c>
+      <c r="W86" s="10">
+        <v>0.18547955182072801</v>
+      </c>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>0.250814332247557</v>
+      </c>
+      <c r="AB86" s="10">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="AC86" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AD86" s="10">
+        <v>5.9239222496400696</v>
+      </c>
+      <c r="AE86" s="10">
+        <v>0.169269594630305</v>
+      </c>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI86" s="10">
+        <v>0.24483133841131699</v>
+      </c>
+      <c r="AJ86" s="10">
+        <v>0.1125</v>
+      </c>
+      <c r="AK86" s="10">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="AL86" s="10">
+        <v>5.9152278621638796</v>
+      </c>
+      <c r="AM86" s="10">
+        <v>0.168839011056619</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="6">
         <v>15</v>
@@ -14691,8 +15656,88 @@
       <c r="G87" s="6">
         <v>0.27234336957295002</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="3"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="10">
+        <v>15</v>
+      </c>
+      <c r="K87" s="10">
+        <v>0.20805465659834599</v>
+      </c>
+      <c r="L87" s="10">
+        <v>0.14465</v>
+      </c>
+      <c r="M87" s="10">
+        <v>0.29065533980582497</v>
+      </c>
+      <c r="N87" s="10">
+        <v>5.89576244860306</v>
+      </c>
+      <c r="O87" s="10">
+        <v>0.19631063007615801</v>
+      </c>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="10">
+        <v>15</v>
+      </c>
+      <c r="S87" s="10">
+        <v>0.22329956584659899</v>
+      </c>
+      <c r="T87" s="10">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="U87" s="10">
+        <v>0.28181818181818202</v>
+      </c>
+      <c r="V87" s="10">
+        <v>5.8919805973433697</v>
+      </c>
+      <c r="W87" s="10">
+        <v>0.15057939576763099</v>
+      </c>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>0.224031849439016</v>
+      </c>
+      <c r="AB87" s="10">
+        <v>0.15475</v>
+      </c>
+      <c r="AC87" s="10">
+        <v>0.25421686746987998</v>
+      </c>
+      <c r="AD87" s="10">
+        <v>5.8914117600130602</v>
+      </c>
+      <c r="AE87" s="10">
+        <v>0.13965021167019001</v>
+      </c>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI87" s="10">
+        <v>0.21683599419448499</v>
+      </c>
+      <c r="AJ87" s="10">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AK87" s="10">
+        <v>0.26060606060606101</v>
+      </c>
+      <c r="AL87" s="10">
+        <v>5.8813456034853502</v>
+      </c>
+      <c r="AM87" s="10">
+        <v>0.13780389312504501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="6">
         <v>20</v>
@@ -14712,8 +15757,88 @@
       <c r="G88" s="6">
         <v>0.24320480779793599</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="3"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="10">
+        <v>20</v>
+      </c>
+      <c r="K88" s="10">
+        <v>0.18831589168195101</v>
+      </c>
+      <c r="L88" s="10">
+        <v>0.17455000000000001</v>
+      </c>
+      <c r="M88" s="10">
+        <v>0.341626213592233</v>
+      </c>
+      <c r="N88" s="10">
+        <v>5.8726805700634097</v>
+      </c>
+      <c r="O88" s="10">
+        <v>0.167873315221644</v>
+      </c>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="10">
+        <v>20</v>
+      </c>
+      <c r="S88" s="10">
+        <v>0.20135685210312099</v>
+      </c>
+      <c r="T88" s="10">
+        <v>0.1855</v>
+      </c>
+      <c r="U88" s="10">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="V88" s="10">
+        <v>5.8687362316159799</v>
+      </c>
+      <c r="W88" s="10">
+        <v>0.12794917100872999</v>
+      </c>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>0.202823018458198</v>
+      </c>
+      <c r="AB88" s="10">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="AC88" s="10">
+        <v>0.29759036144578299</v>
+      </c>
+      <c r="AD88" s="10">
+        <v>5.8667111404710397</v>
+      </c>
+      <c r="AE88" s="10">
+        <v>0.11992302306329</v>
+      </c>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI88" s="10">
+        <v>0.19510070767555801</v>
+      </c>
+      <c r="AJ88" s="10">
+        <v>0.1792</v>
+      </c>
+      <c r="AK88" s="10">
+        <v>0.29939393939393899</v>
+      </c>
+      <c r="AL88" s="10">
+        <v>5.85690324409972</v>
+      </c>
+      <c r="AM88" s="10">
+        <v>0.117567193272453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="6">
         <v>25</v>
@@ -14733,8 +15858,88 @@
       <c r="G89" s="6">
         <v>0.220827535743328</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="3"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="10">
+        <v>25</v>
+      </c>
+      <c r="K89" s="10">
+        <v>0.171702348066298</v>
+      </c>
+      <c r="L89" s="10">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="M89" s="10">
+        <v>0.38895631067961201</v>
+      </c>
+      <c r="N89" s="10">
+        <v>5.8538719344519503</v>
+      </c>
+      <c r="O89" s="10">
+        <v>0.147017561789622</v>
+      </c>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="10">
+        <v>25</v>
+      </c>
+      <c r="S89" s="10">
+        <v>0.18405734144222399</v>
+      </c>
+      <c r="T89" s="10">
+        <v>0.21185000000000001</v>
+      </c>
+      <c r="U89" s="10">
+        <v>0.37575757575757601</v>
+      </c>
+      <c r="V89" s="10">
+        <v>5.8500522245127096</v>
+      </c>
+      <c r="W89" s="10">
+        <v>0.111457914812099</v>
+      </c>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA89" s="10">
+        <v>0.18532030401737201</v>
+      </c>
+      <c r="AB89" s="10">
+        <v>0.21335000000000001</v>
+      </c>
+      <c r="AC89" s="10">
+        <v>0.34759036144578298</v>
+      </c>
+      <c r="AD89" s="10">
+        <v>5.8478811784029601</v>
+      </c>
+      <c r="AE89" s="10">
+        <v>0.1050930334475</v>
+      </c>
+      <c r="AF89" s="10"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="10">
+        <v>25</v>
+      </c>
+      <c r="AI89" s="10">
+        <v>0.17900696864111501</v>
+      </c>
+      <c r="AJ89" s="10">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AK89" s="10">
+        <v>0.350909090909091</v>
+      </c>
+      <c r="AL89" s="10">
+        <v>5.8379131877544497</v>
+      </c>
+      <c r="AM89" s="10">
+        <v>0.10340936378322101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="6">
         <v>30</v>
@@ -14754,8 +15959,88 @@
       <c r="G90" s="6">
         <v>0.20154096345748199</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="3"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="10">
+        <v>30</v>
+      </c>
+      <c r="K90" s="10">
+        <v>0.158440063318463</v>
+      </c>
+      <c r="L90" s="10">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="M90" s="10">
+        <v>0.427791262135922</v>
+      </c>
+      <c r="N90" s="10">
+        <v>5.8392141559928303</v>
+      </c>
+      <c r="O90" s="10">
+        <v>0.130689258448102</v>
+      </c>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="10">
+        <v>30</v>
+      </c>
+      <c r="S90" s="10">
+        <v>0.16972659786347999</v>
+      </c>
+      <c r="T90" s="10">
+        <v>0.23435</v>
+      </c>
+      <c r="U90" s="10">
+        <v>0.40545454545454501</v>
+      </c>
+      <c r="V90" s="10">
+        <v>5.8340402637786397</v>
+      </c>
+      <c r="W90" s="10">
+        <v>9.8998779734771503E-2</v>
+      </c>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA90" s="10">
+        <v>0.17119073470865001</v>
+      </c>
+      <c r="AB90" s="10">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="AC90" s="10">
+        <v>0.38433734939759001</v>
+      </c>
+      <c r="AD90" s="10">
+        <v>5.8317919632024902</v>
+      </c>
+      <c r="AE90" s="10">
+        <v>9.4085620665852396E-2</v>
+      </c>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI90" s="10">
+        <v>0.16591651542649699</v>
+      </c>
+      <c r="AJ90" s="10">
+        <v>0.22855</v>
+      </c>
+      <c r="AK90" s="10">
+        <v>0.383030303030303</v>
+      </c>
+      <c r="AL90" s="10">
+        <v>5.82229450980065</v>
+      </c>
+      <c r="AM90" s="10">
+        <v>9.2594029406894193E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>50</v>
       </c>
@@ -14777,8 +16062,96 @@
       <c r="G91" s="6">
         <v>0.59823399558498902</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="3"/>
+      <c r="I91" s="6">
+        <v>50</v>
+      </c>
+      <c r="J91" s="10">
+        <v>1</v>
+      </c>
+      <c r="K91" s="10">
+        <v>0.34735706580366799</v>
+      </c>
+      <c r="L91" s="10">
+        <v>1.61E-2</v>
+      </c>
+      <c r="M91" s="10">
+        <v>7.8883495145631102E-2</v>
+      </c>
+      <c r="N91" s="10">
+        <v>6.0230399406614596</v>
+      </c>
+      <c r="O91" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="6">
+        <v>50</v>
+      </c>
+      <c r="R91" s="10">
+        <v>1</v>
+      </c>
+      <c r="S91" s="10">
+        <v>0.38611713665943598</v>
+      </c>
+      <c r="T91" s="10">
+        <v>1.78E-2</v>
+      </c>
+      <c r="U91" s="10">
+        <v>7.21212121212121E-2</v>
+      </c>
+      <c r="V91" s="10">
+        <v>6.0268635036746998</v>
+      </c>
+      <c r="W91" s="10">
+        <v>0.41882352941176498</v>
+      </c>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z91" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="10">
+        <v>0.436482084690554</v>
+      </c>
+      <c r="AB91" s="10">
+        <v>2.01E-2</v>
+      </c>
+      <c r="AC91" s="10">
+        <v>7.1084337349397606E-2</v>
+      </c>
+      <c r="AD91" s="10">
+        <v>6.0217941548123601</v>
+      </c>
+      <c r="AE91" s="10">
+        <v>0.44617092119866802</v>
+      </c>
+      <c r="AF91" s="10"/>
+      <c r="AG91" s="6">
+        <v>50</v>
+      </c>
+      <c r="AH91" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="10">
+        <v>0.41349292709466801</v>
+      </c>
+      <c r="AJ91" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AK91" s="10">
+        <v>6.9090909090909106E-2</v>
+      </c>
+      <c r="AL91" s="10">
+        <v>6.0272419554591901</v>
+      </c>
+      <c r="AM91" s="10">
+        <v>0.42081949058693202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="6">
         <v>5</v>
@@ -14798,8 +16171,88 @@
       <c r="G92" s="6">
         <v>0.41003679175864599</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="3"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="10">
+        <v>5</v>
+      </c>
+      <c r="K92" s="10">
+        <v>0.29255663430420698</v>
+      </c>
+      <c r="L92" s="10">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="M92" s="10">
+        <v>0.17597087378640799</v>
+      </c>
+      <c r="N92" s="10">
+        <v>5.9577408546845101</v>
+      </c>
+      <c r="O92" s="10">
+        <v>0.33618530020703902</v>
+      </c>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="10">
+        <v>5</v>
+      </c>
+      <c r="S92" s="10">
+        <v>0.311713665943601</v>
+      </c>
+      <c r="T92" s="10">
+        <v>7.1849999999999997E-2</v>
+      </c>
+      <c r="U92" s="10">
+        <v>0.15878787878787901</v>
+      </c>
+      <c r="V92" s="10">
+        <v>5.9658175219774598</v>
+      </c>
+      <c r="W92" s="10">
+        <v>0.25869019607843102</v>
+      </c>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA92" s="10">
+        <v>0.32529858849077098</v>
+      </c>
+      <c r="AB92" s="10">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="AC92" s="10">
+        <v>0.15240963855421699</v>
+      </c>
+      <c r="AD92" s="10">
+        <v>5.9579334796437804</v>
+      </c>
+      <c r="AE92" s="10">
+        <v>0.26021457639659601</v>
+      </c>
+      <c r="AF92" s="10"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI92" s="10">
+        <v>0.30707290533188197</v>
+      </c>
+      <c r="AJ92" s="10">
+        <v>7.0550000000000002E-2</v>
+      </c>
+      <c r="AK92" s="10">
+        <v>0.163030303030303</v>
+      </c>
+      <c r="AL92" s="10">
+        <v>5.9567891202905097</v>
+      </c>
+      <c r="AM92" s="10">
+        <v>0.24016611295681001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="6">
         <v>10</v>
@@ -14819,8 +16272,88 @@
       <c r="G93" s="6">
         <v>0.33012736956445599</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="3"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="10">
+        <v>10</v>
+      </c>
+      <c r="K93" s="10">
+        <v>0.24336569579288</v>
+      </c>
+      <c r="L93" s="10">
+        <v>0.1128</v>
+      </c>
+      <c r="M93" s="10">
+        <v>0.24817961165048499</v>
+      </c>
+      <c r="N93" s="10">
+        <v>5.91511074896657</v>
+      </c>
+      <c r="O93" s="10">
+        <v>0.252255188307207</v>
+      </c>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="10">
+        <v>10</v>
+      </c>
+      <c r="S93" s="10">
+        <v>0.265545306565383</v>
+      </c>
+      <c r="T93" s="10">
+        <v>0.12235</v>
+      </c>
+      <c r="U93" s="10">
+        <v>0.22909090909090901</v>
+      </c>
+      <c r="V93" s="10">
+        <v>5.9217772247620104</v>
+      </c>
+      <c r="W93" s="10">
+        <v>0.194455742296919</v>
+      </c>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA93" s="10">
+        <v>0.26872964169381103</v>
+      </c>
+      <c r="AB93" s="10">
+        <v>0.12375</v>
+      </c>
+      <c r="AC93" s="10">
+        <v>0.21807228915662699</v>
+      </c>
+      <c r="AD93" s="10">
+        <v>5.9110005437414701</v>
+      </c>
+      <c r="AE93" s="10">
+        <v>0.19148098233003899</v>
+      </c>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI93" s="10">
+        <v>0.25712731229597402</v>
+      </c>
+      <c r="AJ93" s="10">
+        <v>0.11815000000000001</v>
+      </c>
+      <c r="AK93" s="10">
+        <v>0.22848484848484801</v>
+      </c>
+      <c r="AL93" s="10">
+        <v>5.9080244219156199</v>
+      </c>
+      <c r="AM93" s="10">
+        <v>0.17722920951326299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="6">
         <v>15</v>
@@ -14840,8 +16373,88 @@
       <c r="G94" s="6">
         <v>0.29016315219405697</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="3"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="10">
+        <v>15</v>
+      </c>
+      <c r="K94" s="10">
+        <v>0.216037396619921</v>
+      </c>
+      <c r="L94" s="10">
+        <v>0.1502</v>
+      </c>
+      <c r="M94" s="10">
+        <v>0.30036407766990297</v>
+      </c>
+      <c r="N94" s="10">
+        <v>5.88420619835063</v>
+      </c>
+      <c r="O94" s="10">
+        <v>0.20878093812099999</v>
+      </c>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="10">
+        <v>15</v>
+      </c>
+      <c r="S94" s="10">
+        <v>0.23234442836468899</v>
+      </c>
+      <c r="T94" s="10">
+        <v>0.16055</v>
+      </c>
+      <c r="U94" s="10">
+        <v>0.27757575757575798</v>
+      </c>
+      <c r="V94" s="10">
+        <v>5.8899986986275703</v>
+      </c>
+      <c r="W94" s="10">
+        <v>0.1579860231272</v>
+      </c>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA94" s="10">
+        <v>0.23488961273977599</v>
+      </c>
+      <c r="AB94" s="10">
+        <v>0.16225000000000001</v>
+      </c>
+      <c r="AC94" s="10">
+        <v>0.26686746987951798</v>
+      </c>
+      <c r="AD94" s="10">
+        <v>5.8798387744952603</v>
+      </c>
+      <c r="AE94" s="10">
+        <v>0.15545778264979199</v>
+      </c>
+      <c r="AF94" s="10"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI94" s="10">
+        <v>0.226705370101597</v>
+      </c>
+      <c r="AJ94" s="10">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="AK94" s="10">
+        <v>0.28181818181818202</v>
+      </c>
+      <c r="AL94" s="10">
+        <v>5.8751110360072003</v>
+      </c>
+      <c r="AM94" s="10">
+        <v>0.145841430010865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="6">
         <v>20</v>
@@ -14861,8 +16474,88 @@
       <c r="G95" s="6">
         <v>0.25503162727761902</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="3"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="10">
+        <v>20</v>
+      </c>
+      <c r="K95" s="10">
+        <v>0.19624554968173499</v>
+      </c>
+      <c r="L95" s="10">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="M95" s="10">
+        <v>0.35861650485436902</v>
+      </c>
+      <c r="N95" s="10">
+        <v>5.8602276058293397</v>
+      </c>
+      <c r="O95" s="10">
+        <v>0.179172012380093</v>
+      </c>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="10">
+        <v>20</v>
+      </c>
+      <c r="S95" s="10">
+        <v>0.20797829036634999</v>
+      </c>
+      <c r="T95" s="10">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="U95" s="10">
+        <v>0.321818181818182</v>
+      </c>
+      <c r="V95" s="10">
+        <v>5.86621253591409</v>
+      </c>
+      <c r="W95" s="10">
+        <v>0.13387589657201299</v>
+      </c>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA95" s="10">
+        <v>0.21199782844734</v>
+      </c>
+      <c r="AB95" s="10">
+        <v>0.19525000000000001</v>
+      </c>
+      <c r="AC95" s="10">
+        <v>0.31084337349397601</v>
+      </c>
+      <c r="AD95" s="10">
+        <v>5.8566419639413301</v>
+      </c>
+      <c r="AE95" s="10">
+        <v>0.132578265584052</v>
+      </c>
+      <c r="AF95" s="10"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI95" s="10">
+        <v>0.204681545998911</v>
+      </c>
+      <c r="AJ95" s="10">
+        <v>0.188</v>
+      </c>
+      <c r="AK95" s="10">
+        <v>0.31575757575757601</v>
+      </c>
+      <c r="AL95" s="10">
+        <v>5.8505886447208901</v>
+      </c>
+      <c r="AM95" s="10">
+        <v>0.125319175241422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="6">
         <v>25</v>
@@ -14882,8 +16575,88 @@
       <c r="G96" s="6">
         <v>0.228394212100478</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="3"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="10">
+        <v>25</v>
+      </c>
+      <c r="K96" s="10">
+        <v>0.180032803867403</v>
+      </c>
+      <c r="L96" s="10">
+        <v>0.20855000000000001</v>
+      </c>
+      <c r="M96" s="10">
+        <v>0.404126213592233</v>
+      </c>
+      <c r="N96" s="10">
+        <v>5.84163162920379</v>
+      </c>
+      <c r="O96" s="10">
+        <v>0.15731627690275299</v>
+      </c>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="10">
+        <v>25</v>
+      </c>
+      <c r="S96" s="10">
+        <v>0.19100781928757599</v>
+      </c>
+      <c r="T96" s="10">
+        <v>0.21984999999999999</v>
+      </c>
+      <c r="U96" s="10">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="V96" s="10">
+        <v>5.8468743618661696</v>
+      </c>
+      <c r="W96" s="10">
+        <v>0.117343657171916</v>
+      </c>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA96" s="10">
+        <v>0.19309446254071699</v>
+      </c>
+      <c r="AB96" s="10">
+        <v>0.2223</v>
+      </c>
+      <c r="AC96" s="10">
+        <v>0.34819277108433699</v>
+      </c>
+      <c r="AD96" s="10">
+        <v>5.8377426551558802</v>
+      </c>
+      <c r="AE96" s="10">
+        <v>0.115600097366489</v>
+      </c>
+      <c r="AF96" s="10"/>
+      <c r="AG96" s="6"/>
+      <c r="AH96" s="10">
+        <v>25</v>
+      </c>
+      <c r="AI96" s="10">
+        <v>0.18837108013937301</v>
+      </c>
+      <c r="AJ96" s="10">
+        <v>0.21625</v>
+      </c>
+      <c r="AK96" s="10">
+        <v>0.35636363636363599</v>
+      </c>
+      <c r="AL96" s="10">
+        <v>5.8315871220779298</v>
+      </c>
+      <c r="AM96" s="10">
+        <v>0.110590294698885</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="6">
         <v>30</v>
@@ -14903,8 +16676,88 @@
       <c r="G97" s="6">
         <v>0.208302014151728</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="3"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="10">
+        <v>30</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0.16693049359620099</v>
+      </c>
+      <c r="L97" s="10">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="M97" s="10">
+        <v>0.43992718446601897</v>
+      </c>
+      <c r="N97" s="10">
+        <v>5.82656678915209</v>
+      </c>
+      <c r="O97" s="10">
+        <v>0.140403836483878</v>
+      </c>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="10">
+        <v>30</v>
+      </c>
+      <c r="S97" s="10">
+        <v>0.17646206771682099</v>
+      </c>
+      <c r="T97" s="10">
+        <v>0.24365000000000001</v>
+      </c>
+      <c r="U97" s="10">
+        <v>0.40303030303030302</v>
+      </c>
+      <c r="V97" s="10">
+        <v>5.8319647435180197</v>
+      </c>
+      <c r="W97" s="10">
+        <v>0.10459261227941299</v>
+      </c>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA97" s="10">
+        <v>0.178212088309808</v>
+      </c>
+      <c r="AB97" s="10">
+        <v>0.2462</v>
+      </c>
+      <c r="AC97" s="10">
+        <v>0.38734939759036102</v>
+      </c>
+      <c r="AD97" s="10">
+        <v>5.8218991978730603</v>
+      </c>
+      <c r="AE97" s="10">
+        <v>0.103001387156925</v>
+      </c>
+      <c r="AF97" s="10"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI97" s="10">
+        <v>0.17393829401088901</v>
+      </c>
+      <c r="AJ97" s="10">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="AK97" s="10">
+        <v>0.39090909090909098</v>
+      </c>
+      <c r="AL97" s="10">
+        <v>5.8161855554808897</v>
+      </c>
+      <c r="AM97" s="10">
+        <v>9.8919374289267295E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>100</v>
       </c>
@@ -14926,8 +16779,96 @@
       <c r="G98" s="6">
         <v>0.629139072847682</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" s="3"/>
+      <c r="I98" s="6">
+        <v>100</v>
+      </c>
+      <c r="J98" s="10">
+        <v>1</v>
+      </c>
+      <c r="K98" s="10">
+        <v>0.370010787486516</v>
+      </c>
+      <c r="L98" s="10">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="M98" s="10">
+        <v>7.5849514563106804E-2</v>
+      </c>
+      <c r="N98" s="10">
+        <v>6.0401350450553304</v>
+      </c>
+      <c r="O98" s="10">
+        <v>0.53260869565217395</v>
+      </c>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="6">
+        <v>100</v>
+      </c>
+      <c r="R98" s="10">
+        <v>1</v>
+      </c>
+      <c r="S98" s="10">
+        <v>0.40889370932754898</v>
+      </c>
+      <c r="T98" s="10">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="U98" s="10">
+        <v>7.4545454545454498E-2</v>
+      </c>
+      <c r="V98" s="10">
+        <v>6.0286939047637604</v>
+      </c>
+      <c r="W98" s="10">
+        <v>0.44352941176470601</v>
+      </c>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z98" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="10">
+        <v>0.43539630836047799</v>
+      </c>
+      <c r="AB98" s="10">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="AC98" s="10">
+        <v>6.4457831325301196E-2</v>
+      </c>
+      <c r="AD98" s="10">
+        <v>6.0347850130918701</v>
+      </c>
+      <c r="AE98" s="10">
+        <v>0.44506104328523899</v>
+      </c>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="6">
+        <v>100</v>
+      </c>
+      <c r="AH98" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI98" s="10">
+        <v>0.39934711643090298</v>
+      </c>
+      <c r="AJ98" s="10">
+        <v>1.8350000000000002E-2</v>
+      </c>
+      <c r="AK98" s="10">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="AL98" s="10">
+        <v>6.0275806649342796</v>
+      </c>
+      <c r="AM98" s="10">
+        <v>0.40642303433001098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="6">
         <v>5</v>
@@ -14947,8 +16888,88 @@
       <c r="G99" s="6">
         <v>0.43581309786607803</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" s="3"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="10">
+        <v>5</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0.29298813376483301</v>
+      </c>
+      <c r="L99" s="10">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="M99" s="10">
+        <v>0.16686893203883499</v>
+      </c>
+      <c r="N99" s="10">
+        <v>5.9689066107501496</v>
+      </c>
+      <c r="O99" s="10">
+        <v>0.34202380952380901</v>
+      </c>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="10">
+        <v>5</v>
+      </c>
+      <c r="S99" s="10">
+        <v>0.311713665943601</v>
+      </c>
+      <c r="T99" s="10">
+        <v>7.1849999999999997E-2</v>
+      </c>
+      <c r="U99" s="10">
+        <v>0.16606060606060599</v>
+      </c>
+      <c r="V99" s="10">
+        <v>5.9651890641610903</v>
+      </c>
+      <c r="W99" s="10">
+        <v>0.26444313725490098</v>
+      </c>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA99" s="10">
+        <v>0.33550488599348499</v>
+      </c>
+      <c r="AB99" s="10">
+        <v>7.7249999999999999E-2</v>
+      </c>
+      <c r="AC99" s="10">
+        <v>0.155421686746988</v>
+      </c>
+      <c r="AD99" s="10">
+        <v>5.9673604689295097</v>
+      </c>
+      <c r="AE99" s="10">
+        <v>0.26790233074361802</v>
+      </c>
+      <c r="AF99" s="10"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI99" s="10">
+        <v>0.30642002176278599</v>
+      </c>
+      <c r="AJ99" s="10">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="AK99" s="10">
+        <v>0.15878787878787901</v>
+      </c>
+      <c r="AL99" s="10">
+        <v>5.9553938733137404</v>
+      </c>
+      <c r="AM99" s="10">
+        <v>0.24292727943890699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="6">
         <v>10</v>
@@ -14968,8 +16989,88 @@
       <c r="G100" s="6">
         <v>0.350040032937384</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" s="3"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="10">
+        <v>10</v>
+      </c>
+      <c r="K100" s="10">
+        <v>0.24865156418554499</v>
+      </c>
+      <c r="L100" s="10">
+        <v>0.11525000000000001</v>
+      </c>
+      <c r="M100" s="10">
+        <v>0.24393203883495099</v>
+      </c>
+      <c r="N100" s="10">
+        <v>5.9199761765687304</v>
+      </c>
+      <c r="O100" s="10">
+        <v>0.25772349157054097</v>
+      </c>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="10">
+        <v>10</v>
+      </c>
+      <c r="S100" s="10">
+        <v>0.26218122626153001</v>
+      </c>
+      <c r="T100" s="10">
+        <v>0.1208</v>
+      </c>
+      <c r="U100" s="10">
+        <v>0.23212121212121201</v>
+      </c>
+      <c r="V100" s="10">
+        <v>5.92011600347446</v>
+      </c>
+      <c r="W100" s="10">
+        <v>0.19388683473389401</v>
+      </c>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA100" s="10">
+        <v>0.27557003257328999</v>
+      </c>
+      <c r="AB100" s="10">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="AC100" s="10">
+        <v>0.21385542168674701</v>
+      </c>
+      <c r="AD100" s="10">
+        <v>5.9171436188694404</v>
+      </c>
+      <c r="AE100" s="10">
+        <v>0.194733937600197</v>
+      </c>
+      <c r="AF100" s="10"/>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI100" s="10">
+        <v>0.25799782372143598</v>
+      </c>
+      <c r="AJ100" s="10">
+        <v>0.11855</v>
+      </c>
+      <c r="AK100" s="10">
+        <v>0.222424242424242</v>
+      </c>
+      <c r="AL100" s="10">
+        <v>5.9084928901636102</v>
+      </c>
+      <c r="AM100" s="10">
+        <v>0.180285336356765</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="6">
         <v>15</v>
@@ -14989,8 +17090,88 @@
       <c r="G101" s="6">
         <v>0.29882914199691302</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" s="3"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="10">
+        <v>15</v>
+      </c>
+      <c r="K101" s="10">
+        <v>0.218051060769507</v>
+      </c>
+      <c r="L101" s="10">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="M101" s="10">
+        <v>0.30582524271844702</v>
+      </c>
+      <c r="N101" s="10">
+        <v>5.8883039248127202</v>
+      </c>
+      <c r="O101" s="10">
+        <v>0.21101856132135599</v>
+      </c>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="10">
+        <v>15</v>
+      </c>
+      <c r="S101" s="10">
+        <v>0.23024602026049201</v>
+      </c>
+      <c r="T101" s="10">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="U101" s="10">
+        <v>0.28242424242424202</v>
+      </c>
+      <c r="V101" s="10">
+        <v>5.88812633716425</v>
+      </c>
+      <c r="W101" s="10">
+        <v>0.15739244415715001</v>
+      </c>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA101" s="10">
+        <v>0.23677162504524099</v>
+      </c>
+      <c r="AB101" s="10">
+        <v>0.16355</v>
+      </c>
+      <c r="AC101" s="10">
+        <v>0.26385542168674703</v>
+      </c>
+      <c r="AD101" s="10">
+        <v>5.8831818987675097</v>
+      </c>
+      <c r="AE101" s="10">
+        <v>0.15625447906801901</v>
+      </c>
+      <c r="AF101" s="10"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI101" s="10">
+        <v>0.22728592162554401</v>
+      </c>
+      <c r="AJ101" s="10">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="AK101" s="10">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="AL101" s="10">
+        <v>5.8753643919210097</v>
+      </c>
+      <c r="AM101" s="10">
+        <v>0.147641166306726</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="6">
         <v>20</v>
@@ -15010,8 +17191,88 @@
       <c r="G102" s="6">
         <v>0.26366189971376203</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="3"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="10">
+        <v>20</v>
+      </c>
+      <c r="K102" s="10">
+        <v>0.19737835796741801</v>
+      </c>
+      <c r="L102" s="10">
+        <v>0.18295</v>
+      </c>
+      <c r="M102" s="10">
+        <v>0.35740291262135898</v>
+      </c>
+      <c r="N102" s="10">
+        <v>5.8649639401345803</v>
+      </c>
+      <c r="O102" s="10">
+        <v>0.18126379299359399</v>
+      </c>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="10">
+        <v>20</v>
+      </c>
+      <c r="S102" s="10">
+        <v>0.20819538670284901</v>
+      </c>
+      <c r="T102" s="10">
+        <v>0.1918</v>
+      </c>
+      <c r="U102" s="10">
+        <v>0.33575757575757598</v>
+      </c>
+      <c r="V102" s="10">
+        <v>5.8643247022677896</v>
+      </c>
+      <c r="W102" s="10">
+        <v>0.13373338186429601</v>
+      </c>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA102" s="10">
+        <v>0.21275787187839301</v>
+      </c>
+      <c r="AB102" s="10">
+        <v>0.19595000000000001</v>
+      </c>
+      <c r="AC102" s="10">
+        <v>0.31024096385542199</v>
+      </c>
+      <c r="AD102" s="10">
+        <v>5.8577522334808201</v>
+      </c>
+      <c r="AE102" s="10">
+        <v>0.13268882061144199</v>
+      </c>
+      <c r="AF102" s="10"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI102" s="10">
+        <v>0.20517147523135501</v>
+      </c>
+      <c r="AJ102" s="10">
+        <v>0.18845000000000001</v>
+      </c>
+      <c r="AK102" s="10">
+        <v>0.31272727272727302</v>
+      </c>
+      <c r="AL102" s="10">
+        <v>5.8512190104342103</v>
+      </c>
+      <c r="AM102" s="10">
+        <v>0.12666082848089</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6">
         <v>25</v>
@@ -15031,8 +17292,88 @@
       <c r="G103" s="6">
         <v>0.237881051126688</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="3"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="10">
+        <v>25</v>
+      </c>
+      <c r="K103" s="10">
+        <v>0.18141401933701701</v>
+      </c>
+      <c r="L103" s="10">
+        <v>0.21015</v>
+      </c>
+      <c r="M103" s="10">
+        <v>0.40230582524271802</v>
+      </c>
+      <c r="N103" s="10">
+        <v>5.8461078267870299</v>
+      </c>
+      <c r="O103" s="10">
+        <v>0.159399257995022</v>
+      </c>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="10">
+        <v>25</v>
+      </c>
+      <c r="S103" s="10">
+        <v>0.19231103388358001</v>
+      </c>
+      <c r="T103" s="10">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="U103" s="10">
+        <v>0.37636363636363601</v>
+      </c>
+      <c r="V103" s="10">
+        <v>5.8454565114114798</v>
+      </c>
+      <c r="W103" s="10">
+        <v>0.117627644896448</v>
+      </c>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA103" s="10">
+        <v>0.194657980456026</v>
+      </c>
+      <c r="AB103" s="10">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="AC103" s="10">
+        <v>0.34879518072289201</v>
+      </c>
+      <c r="AD103" s="10">
+        <v>5.8380052579814796</v>
+      </c>
+      <c r="AE103" s="10">
+        <v>0.116111659437171</v>
+      </c>
+      <c r="AF103" s="10"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="10">
+        <v>25</v>
+      </c>
+      <c r="AI103" s="10">
+        <v>0.18989547038327501</v>
+      </c>
+      <c r="AJ103" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="AK103" s="10">
+        <v>0.350909090909091</v>
+      </c>
+      <c r="AL103" s="10">
+        <v>5.8316079820264299</v>
+      </c>
+      <c r="AM103" s="10">
+        <v>0.112153392573677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="6">
         <v>30</v>
@@ -15052,8 +17393,88 @@
       <c r="G104" s="6">
         <v>0.218211821564815</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="3"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="10">
+        <v>30</v>
+      </c>
+      <c r="K104" s="10">
+        <v>0.168153691178587</v>
+      </c>
+      <c r="L104" s="10">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="M104" s="10">
+        <v>0.44478155339805803</v>
+      </c>
+      <c r="N104" s="10">
+        <v>5.8305941847990903</v>
+      </c>
+      <c r="O104" s="10">
+        <v>0.142548114630348</v>
+      </c>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="10">
+        <v>30</v>
+      </c>
+      <c r="S104" s="10">
+        <v>0.177729494839761</v>
+      </c>
+      <c r="T104" s="10">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="U104" s="10">
+        <v>0.40787878787878801</v>
+      </c>
+      <c r="V104" s="10">
+        <v>5.8297507070933898</v>
+      </c>
+      <c r="W104" s="10">
+        <v>0.104925430212854</v>
+      </c>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA104" s="10">
+        <v>0.180962721679334</v>
+      </c>
+      <c r="AB104" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="AC104" s="10">
+        <v>0.38493975903614502</v>
+      </c>
+      <c r="AD104" s="10">
+        <v>5.82205839150053</v>
+      </c>
+      <c r="AE104" s="10">
+        <v>0.103758056056342</v>
+      </c>
+      <c r="AF104" s="10"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI104" s="10">
+        <v>0.17647912885662401</v>
+      </c>
+      <c r="AJ104" s="10">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="AK104" s="10">
+        <v>0.38666666666666699</v>
+      </c>
+      <c r="AL104" s="10">
+        <v>5.8153150566526204</v>
+      </c>
+      <c r="AM104" s="10">
+        <v>0.10075297310751199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>200</v>
       </c>
@@ -15075,8 +17496,96 @@
       <c r="G105" s="6">
         <v>0.653421633554084</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="3"/>
+      <c r="I105" s="6">
+        <v>200</v>
+      </c>
+      <c r="J105" s="10">
+        <v>1</v>
+      </c>
+      <c r="K105" s="10">
+        <v>0.35814455231930997</v>
+      </c>
+      <c r="L105" s="10">
+        <v>1.66E-2</v>
+      </c>
+      <c r="M105" s="10">
+        <v>7.0995145631067999E-2</v>
+      </c>
+      <c r="N105" s="10">
+        <v>6.0299366933951699</v>
+      </c>
+      <c r="O105" s="10">
+        <v>0.51552795031055898</v>
+      </c>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="6">
+        <v>200</v>
+      </c>
+      <c r="R105" s="10">
+        <v>1</v>
+      </c>
+      <c r="S105" s="10">
+        <v>0.41106290672451201</v>
+      </c>
+      <c r="T105" s="10">
+        <v>1.8950000000000002E-2</v>
+      </c>
+      <c r="U105" s="10">
+        <v>7.6363636363636397E-2</v>
+      </c>
+      <c r="V105" s="10">
+        <v>6.0271910302676801</v>
+      </c>
+      <c r="W105" s="10">
+        <v>0.44588235294117601</v>
+      </c>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="6">
+        <v>200</v>
+      </c>
+      <c r="Z105" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="10">
+        <v>0.413680781758958</v>
+      </c>
+      <c r="AB105" s="10">
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="AC105" s="10">
+        <v>6.9277108433734899E-2</v>
+      </c>
+      <c r="AD105" s="10">
+        <v>6.0346663610641604</v>
+      </c>
+      <c r="AE105" s="10">
+        <v>0.422863485016648</v>
+      </c>
+      <c r="AF105" s="10"/>
+      <c r="AG105" s="6">
+        <v>200</v>
+      </c>
+      <c r="AH105" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="10">
+        <v>0.40696409140369999</v>
+      </c>
+      <c r="AJ105" s="10">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="AK105" s="10">
+        <v>7.1515151515151504E-2</v>
+      </c>
+      <c r="AL105" s="10">
+        <v>6.0380501061077103</v>
+      </c>
+      <c r="AM105" s="10">
+        <v>0.41417497231450701</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="6">
         <v>5</v>
@@ -15096,8 +17605,88 @@
       <c r="G106" s="6">
         <v>0.434716703458425</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="3"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="10">
+        <v>5</v>
+      </c>
+      <c r="K106" s="10">
+        <v>0.29363538295577102</v>
+      </c>
+      <c r="L106" s="10">
+        <v>6.8049999999999999E-2</v>
+      </c>
+      <c r="M106" s="10">
+        <v>0.16868932038834999</v>
+      </c>
+      <c r="N106" s="10">
+        <v>5.9679741639115802</v>
+      </c>
+      <c r="O106" s="10">
+        <v>0.337546583850931</v>
+      </c>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="10">
+        <v>5</v>
+      </c>
+      <c r="S106" s="10">
+        <v>0.32039045553145301</v>
+      </c>
+      <c r="T106" s="10">
+        <v>7.3849999999999999E-2</v>
+      </c>
+      <c r="U106" s="10">
+        <v>0.162424242424242</v>
+      </c>
+      <c r="V106" s="10">
+        <v>5.9645784892303704</v>
+      </c>
+      <c r="W106" s="10">
+        <v>0.27334117647058698</v>
+      </c>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA106" s="10">
+        <v>0.324647122692725</v>
+      </c>
+      <c r="AB106" s="10">
+        <v>7.4749999999999997E-2</v>
+      </c>
+      <c r="AC106" s="10">
+        <v>0.15120481927710799</v>
+      </c>
+      <c r="AD106" s="10">
+        <v>5.9667677557397996</v>
+      </c>
+      <c r="AE106" s="10">
+        <v>0.25643359230484603</v>
+      </c>
+      <c r="AF106" s="10"/>
+      <c r="AG106" s="6"/>
+      <c r="AH106" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI106" s="10">
+        <v>0.31643090315560402</v>
+      </c>
+      <c r="AJ106" s="10">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="AK106" s="10">
+        <v>0.15515151515151501</v>
+      </c>
+      <c r="AL106" s="10">
+        <v>5.9644112796998501</v>
+      </c>
+      <c r="AM106" s="10">
+        <v>0.24945736434108401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="6">
         <v>10</v>
@@ -15117,8 +17706,88 @@
       <c r="G107" s="6">
         <v>0.34791031570832898</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="3"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="10">
+        <v>10</v>
+      </c>
+      <c r="K107" s="10">
+        <v>0.248435814455232</v>
+      </c>
+      <c r="L107" s="10">
+        <v>0.11515</v>
+      </c>
+      <c r="M107" s="10">
+        <v>0.242718446601942</v>
+      </c>
+      <c r="N107" s="10">
+        <v>5.9223598020562802</v>
+      </c>
+      <c r="O107" s="10">
+        <v>0.25617858375234098</v>
+      </c>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="10">
+        <v>10</v>
+      </c>
+      <c r="S107" s="10">
+        <v>0.26489419424850802</v>
+      </c>
+      <c r="T107" s="10">
+        <v>0.12205000000000001</v>
+      </c>
+      <c r="U107" s="10">
+        <v>0.232727272727273</v>
+      </c>
+      <c r="V107" s="10">
+        <v>5.9211966663600704</v>
+      </c>
+      <c r="W107" s="10">
+        <v>0.198497058823529</v>
+      </c>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA107" s="10">
+        <v>0.27100977198697102</v>
+      </c>
+      <c r="AB107" s="10">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="AC107" s="10">
+        <v>0.21746987951807201</v>
+      </c>
+      <c r="AD107" s="10">
+        <v>5.9180176496342298</v>
+      </c>
+      <c r="AE107" s="10">
+        <v>0.189933275196871</v>
+      </c>
+      <c r="AF107" s="10"/>
+      <c r="AG107" s="6"/>
+      <c r="AH107" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI107" s="10">
+        <v>0.25614798694232899</v>
+      </c>
+      <c r="AJ107" s="10">
+        <v>0.1177</v>
+      </c>
+      <c r="AK107" s="10">
+        <v>0.22363636363636399</v>
+      </c>
+      <c r="AL107" s="10">
+        <v>5.9159159572860798</v>
+      </c>
+      <c r="AM107" s="10">
+        <v>0.181754425284326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="6">
         <v>15</v>
@@ -15138,8 +17807,88 @@
       <c r="G108" s="6">
         <v>0.298643788963877</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" s="3"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="10">
+        <v>15</v>
+      </c>
+      <c r="K108" s="10">
+        <v>0.22064005753326099</v>
+      </c>
+      <c r="L108" s="10">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="M108" s="10">
+        <v>0.30825242718446599</v>
+      </c>
+      <c r="N108" s="10">
+        <v>5.8913133149257604</v>
+      </c>
+      <c r="O108" s="10">
+        <v>0.21123771529827401</v>
+      </c>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="10">
+        <v>15</v>
+      </c>
+      <c r="S108" s="10">
+        <v>0.23364688856729399</v>
+      </c>
+      <c r="T108" s="10">
+        <v>0.16145000000000001</v>
+      </c>
+      <c r="U108" s="10">
+        <v>0.28121212121212102</v>
+      </c>
+      <c r="V108" s="10">
+        <v>5.8901661217104202</v>
+      </c>
+      <c r="W108" s="10">
+        <v>0.16090171331936001</v>
+      </c>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA108" s="10">
+        <v>0.23604777415852299</v>
+      </c>
+      <c r="AB108" s="10">
+        <v>0.16305</v>
+      </c>
+      <c r="AC108" s="10">
+        <v>0.27048192771084301</v>
+      </c>
+      <c r="AD108" s="10">
+        <v>5.8853311203463896</v>
+      </c>
+      <c r="AE108" s="10">
+        <v>0.15486564797885499</v>
+      </c>
+      <c r="AF108" s="10"/>
+      <c r="AG108" s="6"/>
+      <c r="AH108" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI108" s="10">
+        <v>0.22626995645863601</v>
+      </c>
+      <c r="AJ108" s="10">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="AK108" s="10">
+        <v>0.267272727272727</v>
+      </c>
+      <c r="AL108" s="10">
+        <v>5.8832569064039797</v>
+      </c>
+      <c r="AM108" s="10">
+        <v>0.148453676465858</v>
+      </c>
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="6">
         <v>20</v>
@@ -15159,8 +17908,88 @@
       <c r="G109" s="6">
         <v>0.26514381534902598</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="3"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="10">
+        <v>20</v>
+      </c>
+      <c r="K109" s="10">
+        <v>0.19959003128708599</v>
+      </c>
+      <c r="L109" s="10">
+        <v>0.185</v>
+      </c>
+      <c r="M109" s="10">
+        <v>0.360436893203884</v>
+      </c>
+      <c r="N109" s="10">
+        <v>5.8664607247290901</v>
+      </c>
+      <c r="O109" s="10">
+        <v>0.18174015002538099</v>
+      </c>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="10">
+        <v>20</v>
+      </c>
+      <c r="S109" s="10">
+        <v>0.20928086838534599</v>
+      </c>
+      <c r="T109" s="10">
+        <v>0.1928</v>
+      </c>
+      <c r="U109" s="10">
+        <v>0.33636363636363598</v>
+      </c>
+      <c r="V109" s="10">
+        <v>5.8664917515678798</v>
+      </c>
+      <c r="W109" s="10">
+        <v>0.13615676871035701</v>
+      </c>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA109" s="10">
+        <v>0.21205211726384399</v>
+      </c>
+      <c r="AB109" s="10">
+        <v>0.1953</v>
+      </c>
+      <c r="AC109" s="10">
+        <v>0.31506024096385499</v>
+      </c>
+      <c r="AD109" s="10">
+        <v>5.86004906771546</v>
+      </c>
+      <c r="AE109" s="10">
+        <v>0.13179435848686899</v>
+      </c>
+      <c r="AF109" s="10"/>
+      <c r="AG109" s="6"/>
+      <c r="AH109" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI109" s="10">
+        <v>0.205225911812738</v>
+      </c>
+      <c r="AJ109" s="10">
+        <v>0.1885</v>
+      </c>
+      <c r="AK109" s="10">
+        <v>0.31636363636363601</v>
+      </c>
+      <c r="AL109" s="10">
+        <v>5.8584485049617703</v>
+      </c>
+      <c r="AM109" s="10">
+        <v>0.12711822183996299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="6">
         <v>25</v>
@@ -15180,8 +18009,88 @@
       <c r="G110" s="6">
         <v>0.23996902776273901</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" s="3"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="10">
+        <v>25</v>
+      </c>
+      <c r="K110" s="10">
+        <v>0.18331319060773499</v>
+      </c>
+      <c r="L110" s="10">
+        <v>0.21235000000000001</v>
+      </c>
+      <c r="M110" s="10">
+        <v>0.40473300970873799</v>
+      </c>
+      <c r="N110" s="10">
+        <v>5.84582509739647</v>
+      </c>
+      <c r="O110" s="10">
+        <v>0.16027405978366499</v>
+      </c>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="10">
+        <v>25</v>
+      </c>
+      <c r="S110" s="10">
+        <v>0.19161598609904401</v>
+      </c>
+      <c r="T110" s="10">
+        <v>0.22055</v>
+      </c>
+      <c r="U110" s="10">
+        <v>0.37939393939393901</v>
+      </c>
+      <c r="V110" s="10">
+        <v>5.8470283491218096</v>
+      </c>
+      <c r="W110" s="10">
+        <v>0.118944525252715</v>
+      </c>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA110" s="10">
+        <v>0.19370249728555899</v>
+      </c>
+      <c r="AB110" s="10">
+        <v>0.223</v>
+      </c>
+      <c r="AC110" s="10">
+        <v>0.36024096385542198</v>
+      </c>
+      <c r="AD110" s="10">
+        <v>5.8404408201510503</v>
+      </c>
+      <c r="AE110" s="10">
+        <v>0.115221203017966</v>
+      </c>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="6"/>
+      <c r="AH110" s="10">
+        <v>25</v>
+      </c>
+      <c r="AI110" s="10">
+        <v>0.18780487804877999</v>
+      </c>
+      <c r="AJ110" s="10">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="AK110" s="10">
+        <v>0.35030303030303001</v>
+      </c>
+      <c r="AL110" s="10">
+        <v>5.83776218433389</v>
+      </c>
+      <c r="AM110" s="10">
+        <v>0.11201153979448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="6">
         <v>30</v>
@@ -15201,154 +18110,802 @@
       <c r="G111" s="6">
         <v>0.218925360204444</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
-        <v>500</v>
-      </c>
-      <c r="B112" s="6">
+      <c r="H111" s="3"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="10">
+        <v>30</v>
+      </c>
+      <c r="K111" s="10">
+        <v>0.169484817959419</v>
+      </c>
+      <c r="L111" s="10">
+        <v>0.23555000000000001</v>
+      </c>
+      <c r="M111" s="10">
+        <v>0.45024271844660202</v>
+      </c>
+      <c r="N111" s="10">
+        <v>5.8292483854867498</v>
+      </c>
+      <c r="O111" s="10">
+        <v>0.143081934827999</v>
+      </c>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="10">
+        <v>30</v>
+      </c>
+      <c r="S111" s="10">
+        <v>0.17859858772406301</v>
+      </c>
+      <c r="T111" s="10">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="U111" s="10">
+        <v>0.41636363636363599</v>
+      </c>
+      <c r="V111" s="10">
+        <v>5.8314442638679598</v>
+      </c>
+      <c r="W111" s="10">
+        <v>0.106446924149557</v>
+      </c>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA111" s="10">
+        <v>0.17915309446254099</v>
+      </c>
+      <c r="AB111" s="10">
+        <v>0.2475</v>
+      </c>
+      <c r="AC111" s="10">
+        <v>0.39337349397590399</v>
+      </c>
+      <c r="AD111" s="10">
+        <v>5.8229405994164196</v>
+      </c>
+      <c r="AE111" s="10">
+        <v>0.103044320872775</v>
+      </c>
+      <c r="AF111" s="10"/>
+      <c r="AG111" s="6"/>
+      <c r="AH111" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI111" s="10">
+        <v>0.173647912885662</v>
+      </c>
+      <c r="AJ111" s="10">
+        <v>0.2392</v>
+      </c>
+      <c r="AK111" s="10">
+        <v>0.38969696969696999</v>
+      </c>
+      <c r="AL111" s="10">
+        <v>5.8211414349890997</v>
+      </c>
+      <c r="AM111" s="10">
+        <v>0.10055033459858501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>600</v>
+      </c>
+      <c r="B112" s="7">
         <v>1</v>
       </c>
-      <c r="C112" s="6">
-        <v>0.302702702702703</v>
-      </c>
-      <c r="D112" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E112" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="F112" s="6">
-        <v>6.0390286091184704</v>
-      </c>
-      <c r="G112" s="6">
-        <v>0.61810154525386296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="6">
+      <c r="C112" s="7">
+        <v>0.28864864864864898</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="E112" s="7">
+        <v>8.24242424242424E-2</v>
+      </c>
+      <c r="F112" s="7">
+        <v>6.0348077647926699</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0.58940397350993401</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="4">
+        <v>600</v>
+      </c>
+      <c r="J112" s="7">
+        <v>1</v>
+      </c>
+      <c r="K112" s="7">
+        <v>0.38403451995685001</v>
+      </c>
+      <c r="L112" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="M112" s="7">
+        <v>8.0703883495145595E-2</v>
+      </c>
+      <c r="N112" s="7">
+        <v>6.0338114846320297</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0.552795031055901</v>
+      </c>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="6">
+        <v>600</v>
+      </c>
+      <c r="R112" s="10">
+        <v>1</v>
+      </c>
+      <c r="S112" s="10">
+        <v>0.41106290672451201</v>
+      </c>
+      <c r="T112" s="10">
+        <v>1.8950000000000002E-2</v>
+      </c>
+      <c r="U112" s="10">
+        <v>7.21212121212121E-2</v>
+      </c>
+      <c r="V112" s="10">
+        <v>6.0189454543174898</v>
+      </c>
+      <c r="W112" s="10">
+        <v>0.44588235294117601</v>
+      </c>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="6">
+        <v>600</v>
+      </c>
+      <c r="Z112" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="10">
+        <v>0.436482084690554</v>
+      </c>
+      <c r="AB112" s="10">
+        <v>2.01E-2</v>
+      </c>
+      <c r="AC112" s="10">
+        <v>7.1686746987951799E-2</v>
+      </c>
+      <c r="AD112" s="10">
+        <v>6.0229337680156698</v>
+      </c>
+      <c r="AE112" s="10">
+        <v>0.44617092119866802</v>
+      </c>
+      <c r="AF112" s="10"/>
+      <c r="AG112" s="6">
+        <v>600</v>
+      </c>
+      <c r="AH112" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="10">
+        <v>0.431991294885745</v>
+      </c>
+      <c r="AJ112" s="10">
+        <v>1.985E-2</v>
+      </c>
+      <c r="AK112" s="10">
+        <v>7.6969696969696993E-2</v>
+      </c>
+      <c r="AL112" s="10">
+        <v>6.0493271220942404</v>
+      </c>
+      <c r="AM112" s="10">
+        <v>0.439645625692137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="7">
         <v>5</v>
       </c>
-      <c r="C113" s="6">
-        <v>0.245837837837838</v>
-      </c>
-      <c r="D113" s="6">
-        <v>5.6849999999999998E-2</v>
-      </c>
-      <c r="E113" s="6">
-        <v>0.17151515151515201</v>
-      </c>
-      <c r="F113" s="6">
-        <v>5.9604217496928698</v>
-      </c>
-      <c r="G113" s="6">
-        <v>0.42637969094922701</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="6">
+      <c r="C113" s="7">
+        <v>0.24778378378378399</v>
+      </c>
+      <c r="D113" s="7">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F113" s="7">
+        <v>5.96244990815081</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0.42631346578366403</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="7">
+        <v>5</v>
+      </c>
+      <c r="K113" s="7">
+        <v>0.29385113268608398</v>
+      </c>
+      <c r="L113" s="7">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="M113" s="7">
+        <v>0.17475728155339801</v>
+      </c>
+      <c r="N113" s="7">
+        <v>5.9718145925595696</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0.34519151138716297</v>
+      </c>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="10">
+        <v>5</v>
+      </c>
+      <c r="S113" s="10">
+        <v>0.32451193058568301</v>
+      </c>
+      <c r="T113" s="10">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="U113" s="10">
+        <v>0.162424242424242</v>
+      </c>
+      <c r="V113" s="10">
+        <v>5.9611205430381</v>
+      </c>
+      <c r="W113" s="10">
+        <v>0.272964705882352</v>
+      </c>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA113" s="10">
+        <v>0.32855591748099899</v>
+      </c>
+      <c r="AB113" s="10">
+        <v>7.5649999999999995E-2</v>
+      </c>
+      <c r="AC113" s="10">
+        <v>0.15602409638554199</v>
+      </c>
+      <c r="AD113" s="10">
+        <v>5.9559187165373801</v>
+      </c>
+      <c r="AE113" s="10">
+        <v>0.26171661117277001</v>
+      </c>
+      <c r="AF113" s="10"/>
+      <c r="AG113" s="6"/>
+      <c r="AH113" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI113" s="10">
+        <v>0.320130576713819</v>
+      </c>
+      <c r="AJ113" s="10">
+        <v>7.3550000000000004E-2</v>
+      </c>
+      <c r="AK113" s="10">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="AL113" s="10">
+        <v>5.9659113435197897</v>
+      </c>
+      <c r="AM113" s="10">
+        <v>0.25457733480989198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="7">
         <v>10</v>
       </c>
-      <c r="C114" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="D114" s="6">
-        <v>0.10174999999999999</v>
-      </c>
-      <c r="E114" s="6">
-        <v>0.24727272727272701</v>
-      </c>
-      <c r="F114" s="6">
-        <v>5.9083041743702198</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0.34765242300010502</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="6">
+      <c r="C114" s="7">
+        <v>0.21794594594594599</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.1008</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F114" s="7">
+        <v>5.9144733113416796</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0.34310942920214399</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="7">
+        <v>10</v>
+      </c>
+      <c r="K114" s="7">
+        <v>0.251564185544768</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0.1166</v>
+      </c>
+      <c r="M114" s="7">
+        <v>0.24635922330097099</v>
+      </c>
+      <c r="N114" s="7">
+        <v>5.9231886209877098</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0.26353698363403399</v>
+      </c>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="10">
+        <v>10</v>
+      </c>
+      <c r="S114" s="10">
+        <v>0.26793271839392302</v>
+      </c>
+      <c r="T114" s="10">
+        <v>0.12345</v>
+      </c>
+      <c r="U114" s="10">
+        <v>0.23818181818181799</v>
+      </c>
+      <c r="V114" s="10">
+        <v>5.9144340327868097</v>
+      </c>
+      <c r="W114" s="10">
+        <v>0.199092250233427</v>
+      </c>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA114" s="10">
+        <v>0.27480998914223698</v>
+      </c>
+      <c r="AB114" s="10">
+        <v>0.12655</v>
+      </c>
+      <c r="AC114" s="10">
+        <v>0.222289156626506</v>
+      </c>
+      <c r="AD114" s="10">
+        <v>5.9073983771587599</v>
+      </c>
+      <c r="AE114" s="10">
+        <v>0.193217280622941</v>
+      </c>
+      <c r="AF114" s="10"/>
+      <c r="AG114" s="6"/>
+      <c r="AH114" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI114" s="10">
+        <v>0.26387377584330801</v>
+      </c>
+      <c r="AJ114" s="10">
+        <v>0.12125</v>
+      </c>
+      <c r="AK114" s="10">
+        <v>0.22424242424242399</v>
+      </c>
+      <c r="AL114" s="10">
+        <v>5.9117199806205498</v>
+      </c>
+      <c r="AM114" s="10">
+        <v>0.18709210040605401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="7">
         <v>15</v>
       </c>
-      <c r="C115" s="6">
-        <v>0.197621621621622</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0.1371</v>
-      </c>
-      <c r="E115" s="6">
-        <v>0.321212121212121</v>
-      </c>
-      <c r="F115" s="6">
-        <v>5.8748262308433503</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0.29658545893645299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="6">
+      <c r="C115" s="7">
+        <v>0.19776576576576599</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.32060606060606101</v>
+      </c>
+      <c r="F115" s="7">
+        <v>5.8816998084868803</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0.29486645314459897</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="7">
+        <v>15</v>
+      </c>
+      <c r="K115" s="7">
+        <v>0.22157497303128401</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0.15404999999999999</v>
+      </c>
+      <c r="M115" s="7">
+        <v>0.31856796116504899</v>
+      </c>
+      <c r="N115" s="7">
+        <v>5.8921125224414803</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0.21638989748461801</v>
+      </c>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="10">
+        <v>15</v>
+      </c>
+      <c r="S115" s="10">
+        <v>0.23357452966714901</v>
+      </c>
+      <c r="T115" s="10">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="U115" s="10">
+        <v>0.294545454545455</v>
+      </c>
+      <c r="V115" s="10">
+        <v>5.8838481345103002</v>
+      </c>
+      <c r="W115" s="10">
+        <v>0.161107667060608</v>
+      </c>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA115" s="10">
+        <v>0.237785016286645</v>
+      </c>
+      <c r="AB115" s="10">
+        <v>0.16425000000000001</v>
+      </c>
+      <c r="AC115" s="10">
+        <v>0.26686746987951798</v>
+      </c>
+      <c r="AD115" s="10">
+        <v>5.8753393595333199</v>
+      </c>
+      <c r="AE115" s="10">
+        <v>0.15646938727404799</v>
+      </c>
+      <c r="AF115" s="10"/>
+      <c r="AG115" s="6"/>
+      <c r="AH115" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI115" s="10">
+        <v>0.23011611030479001</v>
+      </c>
+      <c r="AJ115" s="10">
+        <v>0.15855</v>
+      </c>
+      <c r="AK115" s="10">
+        <v>0.27333333333333298</v>
+      </c>
+      <c r="AL115" s="10">
+        <v>5.8801389808211804</v>
+      </c>
+      <c r="AM115" s="10">
+        <v>0.15283445175471699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="7">
         <v>20</v>
       </c>
-      <c r="C116" s="6">
-        <v>0.184103811841038</v>
-      </c>
-      <c r="D116" s="6">
-        <v>0.17025000000000001</v>
-      </c>
-      <c r="E116" s="6">
-        <v>0.37636363636363601</v>
-      </c>
-      <c r="F116" s="6">
-        <v>5.8508209144220604</v>
-      </c>
-      <c r="G116" s="6">
-        <v>0.26527213697949797</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="6">
+      <c r="C116" s="7">
+        <v>0.18248175182481799</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.37393939393939402</v>
+      </c>
+      <c r="F116" s="7">
+        <v>5.8563615057345197</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0.26250540828542501</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="7">
+        <v>20</v>
+      </c>
+      <c r="K116" s="7">
+        <v>0.200561009817672</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="M116" s="7">
+        <v>0.37378640776699001</v>
+      </c>
+      <c r="N116" s="7">
+        <v>5.86777832273272</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0.185806158365383</v>
+      </c>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10">
+        <v>20</v>
+      </c>
+      <c r="S116" s="10">
+        <v>0.20944369063772</v>
+      </c>
+      <c r="T116" s="10">
+        <v>0.19295000000000001</v>
+      </c>
+      <c r="U116" s="10">
+        <v>0.351515151515152</v>
+      </c>
+      <c r="V116" s="10">
+        <v>5.8602191045307803</v>
+      </c>
+      <c r="W116" s="10">
+        <v>0.13663562569762899</v>
+      </c>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="10"/>
+      <c r="Z116" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA116" s="10">
+        <v>0.214060803474484</v>
+      </c>
+      <c r="AB116" s="10">
+        <v>0.19714999999999999</v>
+      </c>
+      <c r="AC116" s="10">
+        <v>0.31686746987951803</v>
+      </c>
+      <c r="AD116" s="10">
+        <v>5.8515382109242902</v>
+      </c>
+      <c r="AE116" s="10">
+        <v>0.13358420514316899</v>
+      </c>
+      <c r="AF116" s="10"/>
+      <c r="AG116" s="10"/>
+      <c r="AH116" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI116" s="10">
+        <v>0.20740337506804599</v>
+      </c>
+      <c r="AJ116" s="10">
+        <v>0.1905</v>
+      </c>
+      <c r="AK116" s="10">
+        <v>0.31818181818181801</v>
+      </c>
+      <c r="AL116" s="10">
+        <v>5.8559750173601399</v>
+      </c>
+      <c r="AM116" s="10">
+        <v>0.13132317642781399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="7">
         <v>25</v>
       </c>
-      <c r="C117" s="6">
-        <v>0.17070532237126801</v>
-      </c>
-      <c r="D117" s="6">
-        <v>0.19725000000000001</v>
-      </c>
-      <c r="E117" s="6">
-        <v>0.42181818181818198</v>
-      </c>
-      <c r="F117" s="6">
-        <v>5.8310296224060298</v>
-      </c>
-      <c r="G117" s="6">
-        <v>0.23805582077656101</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="6">
+      <c r="C117" s="7">
+        <v>0.17174383383816499</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.19844999999999999</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.42121212121212098</v>
+      </c>
+      <c r="F117" s="7">
+        <v>5.8369660162837897</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0.238285214400388</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="7">
+        <v>25</v>
+      </c>
+      <c r="K117" s="7">
+        <v>0.184133287292818</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="M117" s="7">
+        <v>0.41990291262135898</v>
+      </c>
+      <c r="N117" s="7">
+        <v>5.84830193735566</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0.16308687477932601</v>
+      </c>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10">
+        <v>25</v>
+      </c>
+      <c r="S117" s="10">
+        <v>0.19231103388358001</v>
+      </c>
+      <c r="T117" s="10">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="U117" s="10">
+        <v>0.382424242424242</v>
+      </c>
+      <c r="V117" s="10">
+        <v>5.8414044705572898</v>
+      </c>
+      <c r="W117" s="10">
+        <v>0.119356283288587</v>
+      </c>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="10"/>
+      <c r="Z117" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA117" s="10">
+        <v>0.19717698154180199</v>
+      </c>
+      <c r="AB117" s="10">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AC117" s="10">
+        <v>0.35903614457831301</v>
+      </c>
+      <c r="AD117" s="10">
+        <v>5.8317797289007798</v>
+      </c>
+      <c r="AE117" s="10">
+        <v>0.117798016360518</v>
+      </c>
+      <c r="AF117" s="10"/>
+      <c r="AG117" s="10"/>
+      <c r="AH117" s="10">
+        <v>25</v>
+      </c>
+      <c r="AI117" s="10">
+        <v>0.190940766550523</v>
+      </c>
+      <c r="AJ117" s="10">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AK117" s="10">
+        <v>0.352727272727273</v>
+      </c>
+      <c r="AL117" s="10">
+        <v>5.8355668757264896</v>
+      </c>
+      <c r="AM117" s="10">
+        <v>0.116043752451397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="7">
         <v>30</v>
       </c>
-      <c r="C118" s="6">
-        <v>0.160108205590622</v>
-      </c>
-      <c r="D118" s="6">
-        <v>0.22195000000000001</v>
-      </c>
-      <c r="E118" s="6">
-        <v>0.46181818181818202</v>
-      </c>
-      <c r="F118" s="6">
-        <v>5.8154975980783199</v>
-      </c>
-      <c r="G118" s="6">
-        <v>0.21694171128557299</v>
+      <c r="C118" s="7">
+        <v>0.16111812443642901</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.22334999999999999</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F118" s="7">
+        <v>5.8210917083088303</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0.21803265830752</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="7">
+        <v>30</v>
+      </c>
+      <c r="K118" s="7">
+        <v>0.171067779536624</v>
+      </c>
+      <c r="L118" s="7">
+        <v>0.23774999999999999</v>
+      </c>
+      <c r="M118" s="7">
+        <v>0.461771844660194</v>
+      </c>
+      <c r="N118" s="7">
+        <v>5.8319484857489803</v>
+      </c>
+      <c r="O118" s="7">
+        <v>0.14634739979077699</v>
+      </c>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10">
+        <v>30</v>
+      </c>
+      <c r="S118" s="10">
+        <v>0.17769328263624801</v>
+      </c>
+      <c r="T118" s="10">
+        <v>0.24535000000000001</v>
+      </c>
+      <c r="U118" s="10">
+        <v>0.41878787878787899</v>
+      </c>
+      <c r="V118" s="10">
+        <v>5.8263945560213699</v>
+      </c>
+      <c r="W118" s="10">
+        <v>0.106328585369332</v>
+      </c>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="10"/>
+      <c r="Z118" s="10">
+        <v>30</v>
+      </c>
+      <c r="AA118" s="10">
+        <v>0.182120883098082</v>
+      </c>
+      <c r="AB118" s="10">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="AC118" s="10">
+        <v>0.398795180722892</v>
+      </c>
+      <c r="AD118" s="10">
+        <v>5.8155698233212298</v>
+      </c>
+      <c r="AE118" s="10">
+        <v>0.104956853966945</v>
+      </c>
+      <c r="AF118" s="10"/>
+      <c r="AG118" s="10"/>
+      <c r="AH118" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI118" s="10">
+        <v>0.17662431941923801</v>
+      </c>
+      <c r="AJ118" s="10">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="AK118" s="10">
+        <v>0.38666666666666699</v>
+      </c>
+      <c r="AL118" s="10">
+        <v>5.8189199331668098</v>
+      </c>
+      <c r="AM118" s="10">
+        <v>0.1040580960476</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">

--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserKNN" sheetId="1" r:id="rId1"/>
     <sheet name="ItemKNN" sheetId="2" r:id="rId2"/>
     <sheet name="MF" sheetId="5" r:id="rId3"/>
+    <sheet name="SLIM" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>N</t>
   </si>
@@ -153,12 +154,54 @@
     <t>f</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>reg_l1</t>
+  </si>
+  <si>
+    <t>reg_l2</t>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1.base/u1.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +254,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -246,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,6 +328,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7514,7 +7579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:AM118"/>
     </sheetView>
   </sheetViews>
@@ -19055,4 +19120,6108 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.335100742311771</v>
+      </c>
+      <c r="D4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.4545454545454501E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.8260695942679099</v>
+      </c>
+      <c r="G4">
+        <v>0.68845315904139404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.27338282078472997</v>
+      </c>
+      <c r="D5">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.118181818181818</v>
+      </c>
+      <c r="F5">
+        <v>5.6591870440662797</v>
+      </c>
+      <c r="G5">
+        <v>0.49086419753086402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.23743372216330899</v>
+      </c>
+      <c r="D6">
+        <v>0.11194999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F6">
+        <v>5.5500589328141103</v>
+      </c>
+      <c r="G6">
+        <v>0.39161488052010901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.21237186284906301</v>
+      </c>
+      <c r="D7">
+        <v>0.1502</v>
+      </c>
+      <c r="E7">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F7">
+        <v>5.47315702004071</v>
+      </c>
+      <c r="G7">
+        <v>0.33427554491824701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.19729586426299001</v>
+      </c>
+      <c r="D8">
+        <v>0.18604999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F8">
+        <v>5.4137995246865298</v>
+      </c>
+      <c r="G8">
+        <v>0.29836372968701902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D9">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.23212121212121201</v>
+      </c>
+      <c r="F9">
+        <v>5.3647046959533498</v>
+      </c>
+      <c r="G9">
+        <v>0.27330177628504498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0.176882290562036</v>
+      </c>
+      <c r="D10">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.25454545454545502</v>
+      </c>
+      <c r="F10">
+        <v>5.3246957607932703</v>
+      </c>
+      <c r="G10">
+        <v>0.25255207128859802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.335100742311771</v>
+      </c>
+      <c r="D11">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.8328640809783598</v>
+      </c>
+      <c r="G11">
+        <v>0.68845315904139404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.27401908801696701</v>
+      </c>
+      <c r="D12">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.116969696969697</v>
+      </c>
+      <c r="F12">
+        <v>5.6604292789355197</v>
+      </c>
+      <c r="G12">
+        <v>0.49264342774146702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.23711558854719</v>
+      </c>
+      <c r="D13">
+        <v>0.1118</v>
+      </c>
+      <c r="E13">
+        <v>0.160606060606061</v>
+      </c>
+      <c r="F13">
+        <v>5.5483065934942504</v>
+      </c>
+      <c r="G13">
+        <v>0.39157718643012701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D14">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.18787878787878801</v>
+      </c>
+      <c r="F14">
+        <v>5.4734351924812703</v>
+      </c>
+      <c r="G14">
+        <v>0.33577274214529101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.197507953340403</v>
+      </c>
+      <c r="D15">
+        <v>0.18625</v>
+      </c>
+      <c r="E15">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F15">
+        <v>5.4144780956477598</v>
+      </c>
+      <c r="G15">
+        <v>0.29939416007906899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0.18702014846235401</v>
+      </c>
+      <c r="D16">
+        <v>0.22045000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.232727272727273</v>
+      </c>
+      <c r="F16">
+        <v>5.36478782268673</v>
+      </c>
+      <c r="G16">
+        <v>0.27421246736107602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>0.17727112053729199</v>
+      </c>
+      <c r="D17">
+        <v>0.25074999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.25454545454545502</v>
+      </c>
+      <c r="F17">
+        <v>5.3249626382482402</v>
+      </c>
+      <c r="G17">
+        <v>0.25327450479011399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.33404029692470799</v>
+      </c>
+      <c r="D18">
+        <v>1.575E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.4545454545454501E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.82883252541742</v>
+      </c>
+      <c r="G18">
+        <v>0.68627450980392202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.27168610816542899</v>
+      </c>
+      <c r="D19">
+        <v>6.4049999999999996E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.116969696969697</v>
+      </c>
+      <c r="F19">
+        <v>5.6596202106612701</v>
+      </c>
+      <c r="G19">
+        <v>0.486354393609296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0.23775185577942701</v>
+      </c>
+      <c r="D20">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.160606060606061</v>
+      </c>
+      <c r="F20">
+        <v>5.5479424623860796</v>
+      </c>
+      <c r="G20">
+        <v>0.39160199882422098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>0.21272534464475101</v>
+      </c>
+      <c r="D21">
+        <v>0.15045</v>
+      </c>
+      <c r="E21">
+        <v>0.189090909090909</v>
+      </c>
+      <c r="F21">
+        <v>5.4741716364863402</v>
+      </c>
+      <c r="G21">
+        <v>0.33472095724819001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.19745493107105</v>
+      </c>
+      <c r="D22">
+        <v>0.1862</v>
+      </c>
+      <c r="E22">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F22">
+        <v>5.4140088628592702</v>
+      </c>
+      <c r="G22">
+        <v>0.29864836321877097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D23">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F23">
+        <v>5.3641707353503403</v>
+      </c>
+      <c r="G23">
+        <v>0.27314451648728799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0.17720042417815501</v>
+      </c>
+      <c r="D24">
+        <v>0.25064999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.25333333333333302</v>
+      </c>
+      <c r="F24">
+        <v>5.32452411162296</v>
+      </c>
+      <c r="G24">
+        <v>0.25277116513134501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.335100742311771</v>
+      </c>
+      <c r="D25">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E25">
+        <v>5.5151515151515201E-2</v>
+      </c>
+      <c r="F25">
+        <v>5.8265054212639704</v>
+      </c>
+      <c r="G25">
+        <v>0.68845315904139404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.27253446447508001</v>
+      </c>
+      <c r="D26">
+        <v>6.4250000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.116363636363636</v>
+      </c>
+      <c r="F26">
+        <v>5.6607100032070097</v>
+      </c>
+      <c r="G26">
+        <v>0.48775599128540298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.23775185577942701</v>
+      </c>
+      <c r="D27">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.16</v>
+      </c>
+      <c r="F27">
+        <v>5.5477534242242603</v>
+      </c>
+      <c r="G27">
+        <v>0.39148476674620403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>0.212301166489926</v>
+      </c>
+      <c r="D28">
+        <v>0.15015000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F28">
+        <v>5.4736974439570103</v>
+      </c>
+      <c r="G28">
+        <v>0.33404719382932901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>0.19729586426299001</v>
+      </c>
+      <c r="D29">
+        <v>0.18604999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.21333333333333299</v>
+      </c>
+      <c r="F29">
+        <v>5.4140076954978396</v>
+      </c>
+      <c r="G29">
+        <v>0.29830158432091702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>0.18642629904559899</v>
+      </c>
+      <c r="D30">
+        <v>0.21975</v>
+      </c>
+      <c r="E30">
+        <v>0.232727272727273</v>
+      </c>
+      <c r="F30">
+        <v>5.3646567560949698</v>
+      </c>
+      <c r="G30">
+        <v>0.27261997549682199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0.17730646871686101</v>
+      </c>
+      <c r="D31">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F31">
+        <v>5.3241284841312604</v>
+      </c>
+      <c r="G31">
+        <v>0.25235399762042598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.33616118769883402</v>
+      </c>
+      <c r="D32">
+        <v>1.585E-2</v>
+      </c>
+      <c r="E32">
+        <v>5.3333333333333302E-2</v>
+      </c>
+      <c r="F32">
+        <v>5.8290792621763003</v>
+      </c>
+      <c r="G32">
+        <v>0.69063180827886705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0.27211028632025502</v>
+      </c>
+      <c r="D33">
+        <v>6.4149999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.116969696969697</v>
+      </c>
+      <c r="F33">
+        <v>5.6604664113245997</v>
+      </c>
+      <c r="G33">
+        <v>0.48861292665214201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0.23743372216330899</v>
+      </c>
+      <c r="D34">
+        <v>0.11194999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.16</v>
+      </c>
+      <c r="F34">
+        <v>5.5482275173392104</v>
+      </c>
+      <c r="G34">
+        <v>0.39139182833627201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>0.21293743372216301</v>
+      </c>
+      <c r="D35">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F35">
+        <v>5.4741042312720296</v>
+      </c>
+      <c r="G35">
+        <v>0.334876009570999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>0.197507953340403</v>
+      </c>
+      <c r="D36">
+        <v>0.18625</v>
+      </c>
+      <c r="E36">
+        <v>0.21333333333333299</v>
+      </c>
+      <c r="F36">
+        <v>5.4141159673018899</v>
+      </c>
+      <c r="G36">
+        <v>0.298691190499554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>0.18634146341463401</v>
+      </c>
+      <c r="D37">
+        <v>0.21965000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.23212121212121201</v>
+      </c>
+      <c r="F37">
+        <v>5.36503526903837</v>
+      </c>
+      <c r="G37">
+        <v>0.27291487454809499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>0.17762460233298</v>
+      </c>
+      <c r="D38">
+        <v>0.25124999999999997</v>
+      </c>
+      <c r="E38">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F38">
+        <v>5.3241338661244901</v>
+      </c>
+      <c r="G38">
+        <v>0.25298413661270203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.33616118769883402</v>
+      </c>
+      <c r="D39">
+        <v>1.585E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F39">
+        <v>5.8290988244945598</v>
+      </c>
+      <c r="G39">
+        <v>0.69063180827886705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.27295864262990499</v>
+      </c>
+      <c r="D40">
+        <v>6.4350000000000004E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.116969696969697</v>
+      </c>
+      <c r="F40">
+        <v>5.6600236147443397</v>
+      </c>
+      <c r="G40">
+        <v>0.491067538126362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D41">
+        <v>0.11175</v>
+      </c>
+      <c r="E41">
+        <v>0.161818181818182</v>
+      </c>
+      <c r="F41">
+        <v>5.5487214173713104</v>
+      </c>
+      <c r="G41">
+        <v>0.39122142684234101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>0.21244255920820099</v>
+      </c>
+      <c r="D42">
+        <v>0.15024999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.19030303030303</v>
+      </c>
+      <c r="F42">
+        <v>5.4736331982318198</v>
+      </c>
+      <c r="G42">
+        <v>0.33462675144592402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>0.19713679745493101</v>
+      </c>
+      <c r="D43">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.21212121212121199</v>
+      </c>
+      <c r="F43">
+        <v>5.4140757221184597</v>
+      </c>
+      <c r="G43">
+        <v>0.29852173109049301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>0.18612937433722199</v>
+      </c>
+      <c r="D44">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.232727272727273</v>
+      </c>
+      <c r="F44">
+        <v>5.3649142346837904</v>
+      </c>
+      <c r="G44">
+        <v>0.27287345616052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>0.17741251325556701</v>
+      </c>
+      <c r="D45">
+        <v>0.25095000000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F45">
+        <v>5.3244826072135698</v>
+      </c>
+      <c r="G45">
+        <v>0.253037790034641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.33828207847295899</v>
+      </c>
+      <c r="D46">
+        <v>1.5949999999999999E-2</v>
+      </c>
+      <c r="E46">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F46">
+        <v>5.8308523541884298</v>
+      </c>
+      <c r="G46">
+        <v>0.69498910675381298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0.27359490986214202</v>
+      </c>
+      <c r="D47">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.118181818181818</v>
+      </c>
+      <c r="F47">
+        <v>5.6604975332718199</v>
+      </c>
+      <c r="G47">
+        <v>0.49209150326797402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D48">
+        <v>0.11165</v>
+      </c>
+      <c r="E48">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F48">
+        <v>5.5483522777218299</v>
+      </c>
+      <c r="G48">
+        <v>0.39123975516132298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>0.21272534464475101</v>
+      </c>
+      <c r="D49">
+        <v>0.15045</v>
+      </c>
+      <c r="E49">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F49">
+        <v>5.47366464939652</v>
+      </c>
+      <c r="G49">
+        <v>0.33535723535723599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>0.197507953340403</v>
+      </c>
+      <c r="D50">
+        <v>0.18625</v>
+      </c>
+      <c r="E50">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F50">
+        <v>5.4139648716816504</v>
+      </c>
+      <c r="G50">
+        <v>0.29913045633664198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>0.18651113467656399</v>
+      </c>
+      <c r="D51">
+        <v>0.21984999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.232727272727273</v>
+      </c>
+      <c r="F51">
+        <v>5.3647993079183198</v>
+      </c>
+      <c r="G51">
+        <v>0.273452203704109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D52">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.25272727272727302</v>
+      </c>
+      <c r="F52">
+        <v>5.3243737363781296</v>
+      </c>
+      <c r="G52">
+        <v>0.25311753925138297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0.33828207847295899</v>
+      </c>
+      <c r="D53">
+        <v>1.5949999999999999E-2</v>
+      </c>
+      <c r="E53">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F53">
+        <v>5.8310240946409104</v>
+      </c>
+      <c r="G53">
+        <v>0.69498910675381298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0.27359490986214202</v>
+      </c>
+      <c r="D54">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.118181818181818</v>
+      </c>
+      <c r="F54">
+        <v>5.6605272505491397</v>
+      </c>
+      <c r="G54">
+        <v>0.491735657225853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D55">
+        <v>0.11165</v>
+      </c>
+      <c r="E55">
+        <v>0.161818181818182</v>
+      </c>
+      <c r="F55">
+        <v>5.5482139527520502</v>
+      </c>
+      <c r="G55">
+        <v>0.39162006778019798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D56">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E56">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F56">
+        <v>5.4736163006368699</v>
+      </c>
+      <c r="G56">
+        <v>0.33563604111534401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D57">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E57">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F57">
+        <v>5.4142096538354396</v>
+      </c>
+      <c r="G57">
+        <v>0.29923642612082302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>0.18651113467656399</v>
+      </c>
+      <c r="D58">
+        <v>0.21984999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F58">
+        <v>5.3646272918612903</v>
+      </c>
+      <c r="G58">
+        <v>0.27349476597790101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>0.17748320961470501</v>
+      </c>
+      <c r="D59">
+        <v>0.25105</v>
+      </c>
+      <c r="E59">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F59">
+        <v>5.3246095378444203</v>
+      </c>
+      <c r="G59">
+        <v>0.25331327651733199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D60">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E60">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F60">
+        <v>5.8301965228371104</v>
+      </c>
+      <c r="G60">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.27295864262990499</v>
+      </c>
+      <c r="D61">
+        <v>6.4350000000000004E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F61">
+        <v>5.6610885079490503</v>
+      </c>
+      <c r="G61">
+        <v>0.49009440813362398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D62">
+        <v>0.11175</v>
+      </c>
+      <c r="E62">
+        <v>0.161818181818182</v>
+      </c>
+      <c r="F62">
+        <v>5.5480710293775601</v>
+      </c>
+      <c r="G62">
+        <v>0.39120283916035498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>0.21279604100388799</v>
+      </c>
+      <c r="D63">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="E63">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F63">
+        <v>5.4736492455619601</v>
+      </c>
+      <c r="G63">
+        <v>0.335126471607953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D64">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E64">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F64">
+        <v>5.4141613541443601</v>
+      </c>
+      <c r="G64">
+        <v>0.29893244793985202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>0.18646871686108199</v>
+      </c>
+      <c r="D65">
+        <v>0.2198</v>
+      </c>
+      <c r="E65">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F65">
+        <v>5.36488766907976</v>
+      </c>
+      <c r="G65">
+        <v>0.27320880998353098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D66">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E66">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F66">
+        <v>5.3246332622182004</v>
+      </c>
+      <c r="G66">
+        <v>0.25291383264440098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>38</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0.33616118769883402</v>
+      </c>
+      <c r="D67">
+        <v>1.585E-2</v>
+      </c>
+      <c r="E67">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F67">
+        <v>5.8291940317420101</v>
+      </c>
+      <c r="G67">
+        <v>0.69063180827886705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0.27295864262990499</v>
+      </c>
+      <c r="D68">
+        <v>6.4350000000000004E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F68">
+        <v>5.66054385585677</v>
+      </c>
+      <c r="G68">
+        <v>0.48963689179375502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D69">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E69">
+        <v>0.161818181818182</v>
+      </c>
+      <c r="F69">
+        <v>5.5480899697440504</v>
+      </c>
+      <c r="G69">
+        <v>0.390987135594978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>0.21300813008130101</v>
+      </c>
+      <c r="D70">
+        <v>0.15065000000000001</v>
+      </c>
+      <c r="E70">
+        <v>0.19030303030303</v>
+      </c>
+      <c r="F70">
+        <v>5.47365005817732</v>
+      </c>
+      <c r="G70">
+        <v>0.33525030041369902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>0.19729586426299001</v>
+      </c>
+      <c r="D71">
+        <v>0.18604999999999999</v>
+      </c>
+      <c r="E71">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F71">
+        <v>5.4143132809098402</v>
+      </c>
+      <c r="G71">
+        <v>0.298657359121831</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>0.18634146341463401</v>
+      </c>
+      <c r="D72">
+        <v>0.21965000000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F72">
+        <v>5.3648234530301604</v>
+      </c>
+      <c r="G72">
+        <v>0.27299474319292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D73">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E73">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F73">
+        <v>5.3243384794507103</v>
+      </c>
+      <c r="G73">
+        <v>0.25289354811904602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.33616118769883402</v>
+      </c>
+      <c r="D74">
+        <v>1.585E-2</v>
+      </c>
+      <c r="E74">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F74">
+        <v>5.8290353705954203</v>
+      </c>
+      <c r="G74">
+        <v>0.69063180827886705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0.27295864262990499</v>
+      </c>
+      <c r="D75">
+        <v>6.4350000000000004E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F75">
+        <v>5.6606242197413001</v>
+      </c>
+      <c r="G75">
+        <v>0.49033405954974602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D76">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F76">
+        <v>5.5482925780805603</v>
+      </c>
+      <c r="G76">
+        <v>0.39114586575370902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>0.21307882644043799</v>
+      </c>
+      <c r="D77">
+        <v>0.1507</v>
+      </c>
+      <c r="E77">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F77">
+        <v>5.4737059338465404</v>
+      </c>
+      <c r="G77">
+        <v>0.33548433653008802</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>0.19729586426299001</v>
+      </c>
+      <c r="D78">
+        <v>0.18604999999999999</v>
+      </c>
+      <c r="E78">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F78">
+        <v>5.4140813499999103</v>
+      </c>
+      <c r="G78">
+        <v>0.298785105066318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>0.18638388123011701</v>
+      </c>
+      <c r="D79">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="E79">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F79">
+        <v>5.3648132923268896</v>
+      </c>
+      <c r="G79">
+        <v>0.27318778441394798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>0.17741251325556701</v>
+      </c>
+      <c r="D80">
+        <v>0.25095000000000001</v>
+      </c>
+      <c r="E80">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F80">
+        <v>5.3243684038657504</v>
+      </c>
+      <c r="G80">
+        <v>0.25300517291235902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>42</v>
+      </c>
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E81" s="11">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F81" s="11">
+        <v>5.8296729779434902</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11">
+        <v>5</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D82" s="11">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F82" s="11">
+        <v>5.6604968166331302</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0.49090050835148902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11">
+        <v>10</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0.11165</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F83" s="11">
+        <v>5.54821792513237</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0.39117776740325699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11">
+        <v>15</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.21272534464475101</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0.15045</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F84" s="11">
+        <v>5.4736947424902098</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0.335041570629806</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11">
+        <v>20</v>
+      </c>
+      <c r="C85" s="11">
+        <v>0.19724284199363701</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0.186</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F85" s="11">
+        <v>5.4140964046098103</v>
+      </c>
+      <c r="G85" s="11">
+        <v>0.298749875815364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11">
+        <v>25</v>
+      </c>
+      <c r="C86" s="11">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D86" s="11">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F86" s="11">
+        <v>5.3647914322020798</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0.27338761910667703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11">
+        <v>30</v>
+      </c>
+      <c r="C87" s="11">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F87" s="11">
+        <v>5.3244727407037402</v>
+      </c>
+      <c r="G87" s="11">
+        <v>0.25301014810082401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>44</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D88">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E88">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F88">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G88">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D89">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F89">
+        <v>5.6606628612224696</v>
+      </c>
+      <c r="G89">
+        <v>0.49059549745824299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D90">
+        <v>0.11165</v>
+      </c>
+      <c r="E90">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F90">
+        <v>5.5481709227277403</v>
+      </c>
+      <c r="G90">
+        <v>0.39106779748936599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>0.21279604100388799</v>
+      </c>
+      <c r="D91">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="E91">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F91">
+        <v>5.4737275683750202</v>
+      </c>
+      <c r="G91">
+        <v>0.33513368621211798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>0.197348886532344</v>
+      </c>
+      <c r="D92">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="E92">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F92">
+        <v>5.4140972113426198</v>
+      </c>
+      <c r="G92">
+        <v>0.298862440400462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D93">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F93">
+        <v>5.3648031312887099</v>
+      </c>
+      <c r="G93">
+        <v>0.27343556982370298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D94">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E94">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F94">
+        <v>5.3245035037366497</v>
+      </c>
+      <c r="G94">
+        <v>0.25304002507521101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>46</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D95">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E95">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F95">
+        <v>5.8299770773253803</v>
+      </c>
+      <c r="G95">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D96">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F96">
+        <v>5.6607039607949297</v>
+      </c>
+      <c r="G96">
+        <v>0.49066811909949198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D97">
+        <v>0.11165</v>
+      </c>
+      <c r="E97">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F97">
+        <v>5.5484292749094699</v>
+      </c>
+      <c r="G97">
+        <v>0.39102361932427199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D98">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E98">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F98">
+        <v>5.4736582043154698</v>
+      </c>
+      <c r="G98">
+        <v>0.33523338115930701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D99">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E99">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F99">
+        <v>5.4141786311119802</v>
+      </c>
+      <c r="G99">
+        <v>0.29895136402486799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D100">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E100">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F100">
+        <v>5.36479445455464</v>
+      </c>
+      <c r="G100">
+        <v>0.27343773423839601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D101">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E101">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F101">
+        <v>5.3244757585425102</v>
+      </c>
+      <c r="G101">
+        <v>0.252979316078358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>48</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D102">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E102">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F102">
+        <v>5.8299770773253803</v>
+      </c>
+      <c r="G102">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D103">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E103">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F103">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G103">
+        <v>0.49058097312999299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D104">
+        <v>0.11175</v>
+      </c>
+      <c r="E104">
+        <v>0.161818181818182</v>
+      </c>
+      <c r="F104">
+        <v>5.5482365605309498</v>
+      </c>
+      <c r="G104">
+        <v>0.391440675035446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>0.21279604100388799</v>
+      </c>
+      <c r="D105">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="E105">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F105">
+        <v>5.4736262049827804</v>
+      </c>
+      <c r="G105">
+        <v>0.33515042610903201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D106">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E106">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F106">
+        <v>5.4141863630434601</v>
+      </c>
+      <c r="G106">
+        <v>0.298956537285191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D107">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E107">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F107">
+        <v>5.3647797435270901</v>
+      </c>
+      <c r="G107">
+        <v>0.27337185106836298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D108">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E108">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F108">
+        <v>5.3244640092733198</v>
+      </c>
+      <c r="G108">
+        <v>0.25297960993026902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>50</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D109">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E109">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F109">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G109">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D110">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F110">
+        <v>5.6604656611102104</v>
+      </c>
+      <c r="G110">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D111">
+        <v>0.11175</v>
+      </c>
+      <c r="E111">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F111">
+        <v>5.5483978234998599</v>
+      </c>
+      <c r="G111">
+        <v>0.39153525607773898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>0.21293743372216301</v>
+      </c>
+      <c r="D112">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="E112">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F112">
+        <v>5.4737205110153901</v>
+      </c>
+      <c r="G112">
+        <v>0.33542650361822501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D113">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E113">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F113">
+        <v>5.4141877788106303</v>
+      </c>
+      <c r="G113">
+        <v>0.29901598434307303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D114">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E114">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F114">
+        <v>5.36475772838876</v>
+      </c>
+      <c r="G114">
+        <v>0.27343811983840899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D115">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E115">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F115">
+        <v>5.3244878631201704</v>
+      </c>
+      <c r="G115">
+        <v>0.25302191987504002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>52</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D116">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E116">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F116">
+        <v>5.8296729779434902</v>
+      </c>
+      <c r="G116">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D117">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E117">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F117">
+        <v>5.6604656611102104</v>
+      </c>
+      <c r="G117">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D118">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E118">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F118">
+        <v>5.54833762617716</v>
+      </c>
+      <c r="G118">
+        <v>0.39139476778365601</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>0.21293743372216301</v>
+      </c>
+      <c r="D119">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="E119">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F119">
+        <v>5.4737205110153901</v>
+      </c>
+      <c r="G119">
+        <v>0.33539678952532997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D120">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E120">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F120">
+        <v>5.41410772851484</v>
+      </c>
+      <c r="G120">
+        <v>0.29900647688468401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D121">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E121">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F121">
+        <v>5.36476388337198</v>
+      </c>
+      <c r="G121">
+        <v>0.27343430282689402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D122">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E122">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F122">
+        <v>5.3245004562087903</v>
+      </c>
+      <c r="G122">
+        <v>0.25300824409248401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>54</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D123">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E123">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F123">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G123">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D124">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E124">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F124">
+        <v>5.6605572620360203</v>
+      </c>
+      <c r="G124">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D125">
+        <v>0.11165</v>
+      </c>
+      <c r="E125">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F125">
+        <v>5.5483330108272702</v>
+      </c>
+      <c r="G125">
+        <v>0.39119868935228402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>0.21293743372216301</v>
+      </c>
+      <c r="D126">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="E126">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F126">
+        <v>5.4737070440359297</v>
+      </c>
+      <c r="G126">
+        <v>0.33537320139716698</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D127">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E127">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F127">
+        <v>5.4140949688948803</v>
+      </c>
+      <c r="G127">
+        <v>0.29899284686718403</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D128">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E128">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F128">
+        <v>5.3647771454371798</v>
+      </c>
+      <c r="G128">
+        <v>0.27346968992192999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D129">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E129">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F129">
+        <v>5.3244734681735197</v>
+      </c>
+      <c r="G129">
+        <v>0.25299862937767498</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>56</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D130">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E130">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F130">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G130">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D131">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E131">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F131">
+        <v>5.6604179862602404</v>
+      </c>
+      <c r="G131">
+        <v>0.49066811909949198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D132">
+        <v>0.11165</v>
+      </c>
+      <c r="E132">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F132">
+        <v>5.5483330108272702</v>
+      </c>
+      <c r="G132">
+        <v>0.391107912300722</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>0.21293743372216301</v>
+      </c>
+      <c r="D133">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="E133">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F133">
+        <v>5.4737070440359297</v>
+      </c>
+      <c r="G133">
+        <v>0.33531268336279302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D134">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E134">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F134">
+        <v>5.4140949688948803</v>
+      </c>
+      <c r="G134">
+        <v>0.29893835253189699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D135">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E135">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F135">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G135">
+        <v>0.27342307641146701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>30</v>
+      </c>
+      <c r="C136">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D136">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E136">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F136">
+        <v>5.3244734681735197</v>
+      </c>
+      <c r="G136">
+        <v>0.25295678117908299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>58</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D137">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E137">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F137">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G137">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>0.27338282078472997</v>
+      </c>
+      <c r="D138">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="E138">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F138">
+        <v>5.6604552296550503</v>
+      </c>
+      <c r="G138">
+        <v>0.49101670297748701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D139">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E139">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F139">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G139">
+        <v>0.39124589341909599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D140">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E140">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F140">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G140">
+        <v>0.33524182224617999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>20</v>
+      </c>
+      <c r="C141">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D141">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E141">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F141">
+        <v>5.4141219454303098</v>
+      </c>
+      <c r="G141">
+        <v>0.29895328948310901</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D142">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E142">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F142">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G142">
+        <v>0.27343632996351003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D143">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E143">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F143">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G143">
+        <v>0.25299203301953499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>60</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D144">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E144">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F144">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G144">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D145">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E145">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F145">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G145">
+        <v>0.49066811909949198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D146">
+        <v>0.11175</v>
+      </c>
+      <c r="E146">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F146">
+        <v>5.5483869263912702</v>
+      </c>
+      <c r="G146">
+        <v>0.39139736141370102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D147">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E147">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F147">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G147">
+        <v>0.33522396549629702</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D148">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E148">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F148">
+        <v>5.4141363311723598</v>
+      </c>
+      <c r="G148">
+        <v>0.298939896920696</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D149">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E149">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F149">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G149">
+        <v>0.27342561591358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D150">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E150">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F150">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G150">
+        <v>0.25298486328832698</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>62</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D151">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E151">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F151">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G151">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D152">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E152">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F152">
+        <v>5.6604656611102104</v>
+      </c>
+      <c r="G152">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D153">
+        <v>0.11175</v>
+      </c>
+      <c r="E153">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F153">
+        <v>5.5483562868057099</v>
+      </c>
+      <c r="G153">
+        <v>0.39148554483521802</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D154">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E154">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F154">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G154">
+        <v>0.33528275444397498</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>20</v>
+      </c>
+      <c r="C155">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D155">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E155">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F155">
+        <v>5.4141363311723598</v>
+      </c>
+      <c r="G155">
+        <v>0.29898398863145498</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>25</v>
+      </c>
+      <c r="C156">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D156">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F156">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G156">
+        <v>0.27346467823738302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>30</v>
+      </c>
+      <c r="C157">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D157">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E157">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F157">
+        <v>5.3244960675644197</v>
+      </c>
+      <c r="G157">
+        <v>0.25301741522482901</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>64</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D158">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E158">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F158">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G158">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D159">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E159">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F159">
+        <v>5.6604656611102104</v>
+      </c>
+      <c r="G159">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D160">
+        <v>0.11175</v>
+      </c>
+      <c r="E160">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F160">
+        <v>5.5483562868057099</v>
+      </c>
+      <c r="G160">
+        <v>0.39150370024553</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D161">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E161">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F161">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G161">
+        <v>0.33529485805085002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>20</v>
+      </c>
+      <c r="C162">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D162">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E162">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F162">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G162">
+        <v>0.29899306633661099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D163">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E163">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F163">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G163">
+        <v>0.27347194040150702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>30</v>
+      </c>
+      <c r="C164">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D164">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E164">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F164">
+        <v>5.32450254218063</v>
+      </c>
+      <c r="G164">
+        <v>0.25299925981451699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>66</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D165">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E165">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F165">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G165">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D166">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E166">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F166">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G166">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D167">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E167">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F167">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G167">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D168">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E168">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F168">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G168">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D169">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E169">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F169">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G169">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>25</v>
+      </c>
+      <c r="C170">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D170">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E170">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F170">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G170">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D171">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E171">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F171">
+        <v>5.3244946995205504</v>
+      </c>
+      <c r="G171">
+        <v>0.252987266240432</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>68</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D172">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E172">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F172">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G172">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D173">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E173">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F173">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G173">
+        <v>0.49066811909949198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D174">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E174">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F174">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G174">
+        <v>0.39121684476259599</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D175">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E175">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F175">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G175">
+        <v>0.33522245647518001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D176">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E176">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F176">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G176">
+        <v>0.29893876515485901</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>25</v>
+      </c>
+      <c r="C177">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D177">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E177">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F177">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G177">
+        <v>0.27342849945610598</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>30</v>
+      </c>
+      <c r="C178">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D178">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E178">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F178">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G178">
+        <v>0.252987266240432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>70</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D179">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E179">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F179">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G179">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D180">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E180">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F180">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G180">
+        <v>0.49066811909949198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D181">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E181">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F181">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G181">
+        <v>0.39121684476259599</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>15</v>
+      </c>
+      <c r="C182">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D182">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E182">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F182">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G182">
+        <v>0.33522245647518001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>20</v>
+      </c>
+      <c r="C183">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D183">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E183">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F183">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G183">
+        <v>0.29893876515485901</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>25</v>
+      </c>
+      <c r="C184">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D184">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E184">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F184">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G184">
+        <v>0.27342849945610598</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>30</v>
+      </c>
+      <c r="C185">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D185">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E185">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F185">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G185">
+        <v>0.252987266240432</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>72</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D186">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E186">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F186">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G186">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D187">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E187">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F187">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G187">
+        <v>0.49066811909949198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D188">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E188">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F188">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G188">
+        <v>0.39121684476259599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D189">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E189">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F189">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G189">
+        <v>0.33522245647518001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>20</v>
+      </c>
+      <c r="C190">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D190">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E190">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F190">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G190">
+        <v>0.29893876515485901</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>25</v>
+      </c>
+      <c r="C191">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D191">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E191">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F191">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G191">
+        <v>0.27342849945610598</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>30</v>
+      </c>
+      <c r="C192">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D192">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E192">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F192">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G192">
+        <v>0.252987266240432</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>74</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D193">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E193">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F193">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G193">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D194">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E194">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F194">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G194">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>10</v>
+      </c>
+      <c r="C195">
+        <v>0.23700954400848401</v>
+      </c>
+      <c r="D195">
+        <v>0.11175</v>
+      </c>
+      <c r="E195">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F195">
+        <v>5.5483562868057099</v>
+      </c>
+      <c r="G195">
+        <v>0.39148554483521802</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>15</v>
+      </c>
+      <c r="C196">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D196">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E196">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F196">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G196">
+        <v>0.33528275444397498</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>20</v>
+      </c>
+      <c r="C197">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D197">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E197">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F197">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G197">
+        <v>0.29898398863145498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>25</v>
+      </c>
+      <c r="C198">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D198">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E198">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F198">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G198">
+        <v>0.27346467823738302</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>30</v>
+      </c>
+      <c r="C199">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D199">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E199">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F199">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G199">
+        <v>0.25301741522482901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>76</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D200">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E200">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F200">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G200">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D201">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E201">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F201">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G201">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D202">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E202">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F202">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G202">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D203">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E203">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F203">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G203">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="C204">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D204">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E204">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F204">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G204">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>25</v>
+      </c>
+      <c r="C205">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D205">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E205">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F205">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G205">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>30</v>
+      </c>
+      <c r="C206">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D206">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E206">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F206">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G206">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>78</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D207">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E207">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F207">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G207">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D208">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E208">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F208">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G208">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D209">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E209">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F209">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G209">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D210">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E210">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F210">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G210">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>20</v>
+      </c>
+      <c r="C211">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D211">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E211">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F211">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G211">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>25</v>
+      </c>
+      <c r="C212">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D212">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E212">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F212">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G212">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>30</v>
+      </c>
+      <c r="C213">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D213">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E213">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F213">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G213">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>80</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D214">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E214">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F214">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G214">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D215">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E215">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F215">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G215">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>10</v>
+      </c>
+      <c r="C216">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D216">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E216">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F216">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G216">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>15</v>
+      </c>
+      <c r="C217">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D217">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E217">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F217">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G217">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D218">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E218">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F218">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G218">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D219">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E219">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F219">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G219">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>30</v>
+      </c>
+      <c r="C220">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D220">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E220">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F220">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G220">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>82</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D221">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E221">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F221">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G221">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D222">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E222">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F222">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G222">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>10</v>
+      </c>
+      <c r="C223">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D223">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E223">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F223">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G223">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>15</v>
+      </c>
+      <c r="C224">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D224">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E224">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F224">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G224">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>20</v>
+      </c>
+      <c r="C225">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D225">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E225">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F225">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G225">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>25</v>
+      </c>
+      <c r="C226">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D226">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E226">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F226">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G226">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>30</v>
+      </c>
+      <c r="C227">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D227">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E227">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F227">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G227">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>84</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D228">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E228">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F228">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G228">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D229">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E229">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F229">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G229">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>10</v>
+      </c>
+      <c r="C230">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D230">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E230">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F230">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G230">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>15</v>
+      </c>
+      <c r="C231">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D231">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E231">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F231">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G231">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>20</v>
+      </c>
+      <c r="C232">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D232">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E232">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F232">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G232">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>25</v>
+      </c>
+      <c r="C233">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D233">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E233">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F233">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G233">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>30</v>
+      </c>
+      <c r="C234">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D234">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E234">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F234">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G234">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>86</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D235">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E235">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F235">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G235">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D236">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E236">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F236">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G236">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D237">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E237">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F237">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G237">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>15</v>
+      </c>
+      <c r="C238">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D238">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E238">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F238">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G238">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>20</v>
+      </c>
+      <c r="C239">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D239">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E239">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F239">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G239">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>25</v>
+      </c>
+      <c r="C240">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D240">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E240">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F240">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G240">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>30</v>
+      </c>
+      <c r="C241">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D241">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E241">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F241">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G241">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>88</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D242">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E242">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F242">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G242">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D243">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E243">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F243">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G243">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>10</v>
+      </c>
+      <c r="C244">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D244">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E244">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F244">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G244">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>15</v>
+      </c>
+      <c r="C245">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D245">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E245">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F245">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G245">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>20</v>
+      </c>
+      <c r="C246">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D246">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E246">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F246">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G246">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>25</v>
+      </c>
+      <c r="C247">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D247">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E247">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F247">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G247">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>30</v>
+      </c>
+      <c r="C248">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D248">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E248">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F248">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G248">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>90</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D249">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E249">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F249">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G249">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D250">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E250">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F250">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G250">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D251">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E251">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F251">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G251">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>15</v>
+      </c>
+      <c r="C252">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D252">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E252">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F252">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G252">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>20</v>
+      </c>
+      <c r="C253">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D253">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E253">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F253">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G253">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D254">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E254">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F254">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G254">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>30</v>
+      </c>
+      <c r="C255">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D255">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E255">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F255">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G255">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>92</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D256">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E256">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F256">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G256">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D257">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E257">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F257">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G257">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>10</v>
+      </c>
+      <c r="C258">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D258">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E258">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F258">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G258">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>15</v>
+      </c>
+      <c r="C259">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D259">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E259">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F259">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G259">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>20</v>
+      </c>
+      <c r="C260">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D260">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E260">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F260">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G260">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D261">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E261">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F261">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G261">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>30</v>
+      </c>
+      <c r="C262">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D262">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E262">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F262">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G262">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>94</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D263">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E263">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F263">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G263">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D264">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E264">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F264">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G264">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>10</v>
+      </c>
+      <c r="C265">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D265">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E265">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F265">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G265">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D266">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E266">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F266">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G266">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>20</v>
+      </c>
+      <c r="C267">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D267">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E267">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F267">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G267">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D268">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E268">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F268">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G268">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>30</v>
+      </c>
+      <c r="C269">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D269">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E269">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F269">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G269">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>96</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D270">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E270">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F270">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G270">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D271">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E271">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F271">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G271">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D272">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E272">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F272">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G272">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>15</v>
+      </c>
+      <c r="C273">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D273">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E273">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F273">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G273">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>20</v>
+      </c>
+      <c r="C274">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D274">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E274">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F274">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G274">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>25</v>
+      </c>
+      <c r="C275">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D275">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E275">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F275">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G275">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>30</v>
+      </c>
+      <c r="C276">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D276">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E276">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F276">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G276">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>98</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D277">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E277">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F277">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G277">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D278">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E278">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F278">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G278">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>10</v>
+      </c>
+      <c r="C279">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D279">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E279">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F279">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G279">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>15</v>
+      </c>
+      <c r="C280">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D280">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E280">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F280">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G280">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>20</v>
+      </c>
+      <c r="C281">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D281">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E281">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F281">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G281">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>25</v>
+      </c>
+      <c r="C282">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D282">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E282">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F282">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G282">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>30</v>
+      </c>
+      <c r="C283">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D283">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E283">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F283">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G283">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>100</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D284">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E284">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F284">
+        <v>5.8300497034273402</v>
+      </c>
+      <c r="G284">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D285">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E285">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F285">
+        <v>5.6604876901374501</v>
+      </c>
+      <c r="G285">
+        <v>0.49081336238199003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="D286">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E286">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F286">
+        <v>5.5483689974744603</v>
+      </c>
+      <c r="G286">
+        <v>0.39128946640384499</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>15</v>
+      </c>
+      <c r="C287">
+        <v>0.212866737363026</v>
+      </c>
+      <c r="D287">
+        <v>0.15054999999999999</v>
+      </c>
+      <c r="E287">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F287">
+        <v>5.4737032216802399</v>
+      </c>
+      <c r="G287">
+        <v>0.33527087090267899</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>20</v>
+      </c>
+      <c r="C288">
+        <v>0.197401908801697</v>
+      </c>
+      <c r="D288">
+        <v>0.18615000000000001</v>
+      </c>
+      <c r="E288">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F288">
+        <v>5.4140837535867501</v>
+      </c>
+      <c r="G288">
+        <v>0.29897507597548301</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>25</v>
+      </c>
+      <c r="C289">
+        <v>0.186595970307529</v>
+      </c>
+      <c r="D289">
+        <v>0.21995000000000001</v>
+      </c>
+      <c r="E289">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F289">
+        <v>5.3647836128218502</v>
+      </c>
+      <c r="G289">
+        <v>0.27345754811260498</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>30</v>
+      </c>
+      <c r="C290">
+        <v>0.17737716507599899</v>
+      </c>
+      <c r="D290">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E290">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F290">
+        <v>5.32450293062608</v>
+      </c>
+      <c r="G290">
+        <v>0.25301147345418201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="13"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="13"/>
+      <c r="B295" s="13"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="13"/>
+      <c r="G295" s="13"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="11">
+        <v>42</v>
+      </c>
+      <c r="B297" s="11">
+        <v>1</v>
+      </c>
+      <c r="C297" s="11">
+        <v>0.33722163308589598</v>
+      </c>
+      <c r="D297" s="11">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E297" s="11">
+        <v>5.3939393939393898E-2</v>
+      </c>
+      <c r="F297" s="11">
+        <v>5.8296729779434902</v>
+      </c>
+      <c r="G297" s="11">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="11"/>
+      <c r="B298" s="11">
+        <v>5</v>
+      </c>
+      <c r="C298" s="11">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="D298" s="11">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E298" s="11">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="F298" s="11">
+        <v>5.6604968166331302</v>
+      </c>
+      <c r="G298" s="11">
+        <v>0.49090050835148902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="11"/>
+      <c r="B299" s="11">
+        <v>10</v>
+      </c>
+      <c r="C299" s="11">
+        <v>0.23679745493107099</v>
+      </c>
+      <c r="D299" s="11">
+        <v>0.11165</v>
+      </c>
+      <c r="E299" s="11">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="F299" s="11">
+        <v>5.54821792513237</v>
+      </c>
+      <c r="G299" s="11">
+        <v>0.39117776740325699</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="11"/>
+      <c r="B300" s="11">
+        <v>15</v>
+      </c>
+      <c r="C300" s="11">
+        <v>0.21272534464475101</v>
+      </c>
+      <c r="D300" s="11">
+        <v>0.15045</v>
+      </c>
+      <c r="E300" s="11">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="F300" s="11">
+        <v>5.4736947424902098</v>
+      </c>
+      <c r="G300" s="11">
+        <v>0.335041570629806</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="11"/>
+      <c r="B301" s="11">
+        <v>20</v>
+      </c>
+      <c r="C301" s="11">
+        <v>0.19724284199363701</v>
+      </c>
+      <c r="D301" s="11">
+        <v>0.186</v>
+      </c>
+      <c r="E301" s="11">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="F301" s="11">
+        <v>5.4140964046098103</v>
+      </c>
+      <c r="G301" s="11">
+        <v>0.298749875815364</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="11"/>
+      <c r="B302" s="11">
+        <v>25</v>
+      </c>
+      <c r="C302" s="11">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="D302" s="11">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E302" s="11">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F302" s="11">
+        <v>5.3647914322020798</v>
+      </c>
+      <c r="G302" s="11">
+        <v>0.27338761910667703</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="11"/>
+      <c r="B303" s="11">
+        <v>30</v>
+      </c>
+      <c r="C303" s="11">
+        <v>0.17734181689643</v>
+      </c>
+      <c r="D303" s="11">
+        <v>0.25085000000000002</v>
+      </c>
+      <c r="E303" s="11">
+        <v>0.25212121212121202</v>
+      </c>
+      <c r="F303" s="11">
+        <v>5.3244727407037402</v>
+      </c>
+      <c r="G303" s="11">
+        <v>0.25301014810082401</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A294:G295"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="P@N"/>
+    <hyperlink ref="D3" r:id="rId2" display="R@N"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
 </file>
--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -313,7 +313,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11685077616664037"/>
+          <c:y val="4.4799994298895182E-2"/>
+          <c:w val="0.84186203500518741"/>
+          <c:h val="0.84618470103431787"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -509,11 +519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="773684224"/>
-        <c:axId val="773677696"/>
+        <c:axId val="440668144"/>
+        <c:axId val="440673584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="773684224"/>
+        <c:axId val="440668144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,27 +565,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="773677696"/>
+        <c:crossAx val="440673584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="773677696"/>
+        <c:axId val="440673584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,22 +627,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="773684224"/>
+        <c:crossAx val="440668144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -646,7 +656,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8421372191863995"/>
+          <c:y val="5.5417538481821252E-2"/>
+          <c:w val="0.11171827565270188"/>
+          <c:h val="0.15219506533746086"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -660,16 +679,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -700,7 +719,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -1273,16 +1295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20079,8 +20101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserKNN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="42">
   <si>
     <t>N</t>
   </si>
@@ -155,11 +155,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>u2.base/u2.test</t>
+    <t>f变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f变化</t>
+    <t>u1.base/u1.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u4.base/u4.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5.base/u5.test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +228,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -279,6 +294,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -311,25 +327,117 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11685077616664037"/>
+          <c:x val="0.14003383690413068"/>
           <c:y val="4.4799994298895182E-2"/>
-          <c:w val="0.84186203500518741"/>
-          <c:h val="0.84618470103431787"/>
+          <c:w val="0.81867899996100213"/>
+          <c:h val="0.82042270306256981"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>u1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SLIM!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.34040296924708402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27317073170731698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23690349946977701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21272534464475101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19724284199363701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.186553552492047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17773064687168599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SLIM!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6049999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25140000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>u2</c:v>
           </c:tx>
@@ -421,7 +529,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>u3</c:v>
           </c:tx>
@@ -511,6 +619,190 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>u4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SLIM!$W$3:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.485683987274655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.359278897136797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30159066808059398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26631318487097899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24331919406150601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22489925768822899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.210569105691057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SLIM!$X$3:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18834999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2651</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>u5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SLIM!$AD$3:$AD$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48356309650052998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36415694591728498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.302439024390244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26638388123011703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24321314952279999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.225281018027572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21152350653941299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SLIM!$AE$3:$AE$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5849999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26555000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29920000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -519,11 +811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="440668144"/>
-        <c:axId val="440673584"/>
+        <c:axId val="635155232"/>
+        <c:axId val="635145984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="440668144"/>
+        <c:axId val="635155232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,6 +835,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>P@N</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -580,12 +929,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440673584"/>
+        <c:crossAx val="635145984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440673584"/>
+        <c:axId val="635145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,6 +954,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>R@N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -642,7 +1047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440668144"/>
+        <c:crossAx val="635155232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -662,8 +1067,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.8421372191863995"/>
           <c:y val="5.5417538481821252E-2"/>
-          <c:w val="0.11171827565270188"/>
-          <c:h val="0.15219506533746086"/>
+          <c:w val="9.6947127970374872E-2"/>
+          <c:h val="0.30325276195603468"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1295,16 +1700,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170887</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15488,7 +15893,7 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -20101,8 +20506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20125,16 +20530,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="4"/>
-      <c r="AG1" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
@@ -20172,17 +20602,63 @@
       <c r="T2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="7"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.34040296924708402</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.6049999999999998E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.3333333333333302E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.82895340540958</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.69934640522875802</v>
+      </c>
       <c r="H3" s="7">
         <v>1</v>
       </c>
@@ -20220,18 +20696,43 @@
       <c r="T3" s="7">
         <v>0.53509781357882602</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="V3" s="11">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.485683987274655</v>
+      </c>
+      <c r="X3" s="11">
+        <v>2.29E-2</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>4.4848484848484797E-2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>5.8239169745619703</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.49406688241639701</v>
+      </c>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.48356309650052998</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>4.60606060606061E-2</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>5.8272106628490796</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0.49190938511326898</v>
+      </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
@@ -20239,6 +20740,24 @@
       <c r="AM3" s="4"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.27317073170731698</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.117575757575758</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.6592019452021001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.49078431372548997</v>
+      </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
@@ -20276,18 +20795,43 @@
       <c r="T4" s="7">
         <v>0.32628308400460299</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="V4" s="11">
+        <v>5</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0.359278897136797</v>
+      </c>
+      <c r="X4" s="11">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0.10606060606060599</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>5.65190564190355</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0.29801510248112101</v>
+      </c>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="AC4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0.36415694591728498</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>8.5849999999999996E-2</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.107878787878788</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>5.65173780156021</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.30313196691837402</v>
+      </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
@@ -20295,6 +20839,24 @@
       <c r="AM4" s="4"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.23690349946977701</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.161212121212121</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5.5473681448745298</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.39185012276515502</v>
+      </c>
       <c r="H5" s="7">
         <v>10</v>
       </c>
@@ -20332,18 +20894,43 @@
       <c r="T5" s="7">
         <v>0.24972829561437099</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="V5" s="11">
+        <v>10</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0.30159066808059398</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0.146060606060606</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>5.5411632086812102</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.22168644372527799</v>
+      </c>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="AC5" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.302439024390244</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.1426</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.14969696969696999</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>5.5440150358264999</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.22380567113576799</v>
+      </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
@@ -20351,6 +20938,24 @@
       <c r="AM5" s="4"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.21272534464475101</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.15045</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.18969696969697</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5.4729366620545798</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.33514236751709597</v>
+      </c>
       <c r="H6" s="7">
         <v>15</v>
       </c>
@@ -20388,18 +20993,43 @@
       <c r="T6" s="7">
         <v>0.207225599699708</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="V6" s="11">
+        <v>15</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0.26631318487097899</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0.18834999999999999</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0.178787878787879</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>5.4666725264760396</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0.18212145759071299</v>
+      </c>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
+      <c r="AC6" s="3">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.26638388123011703</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>5.4707509243686498</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.18314074873945399</v>
+      </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
@@ -20407,6 +21037,24 @@
       <c r="AM6" s="4"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.19724284199363701</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.186</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.21272727272727299</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5.41361284328607</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.298889473175806</v>
+      </c>
       <c r="H7" s="7">
         <v>20</v>
       </c>
@@ -20444,18 +21092,43 @@
       <c r="T7" s="7">
         <v>0.18024986376468199</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="V7" s="11">
+        <v>20</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0.24331919406150601</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0.22944999999999999</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0.203636363636364</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>5.4092240228223503</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0.15761253193091099</v>
+      </c>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
+      <c r="AC7" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.24321314952279999</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.22935</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.205454545454545</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>5.4125146414607999</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.158891903778416</v>
+      </c>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
@@ -20463,6 +21136,24 @@
       <c r="AM7" s="4"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.186553552492047</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.233939393939394</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5.3643895679045697</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.27348881963178201</v>
+      </c>
       <c r="H8" s="7">
         <v>25</v>
       </c>
@@ -20500,18 +21191,43 @@
       <c r="T8" s="7">
         <v>0.15929500352752099</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="V8" s="11">
+        <v>25</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0.22489925768822899</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0.2651</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0.223030303030303</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>5.3610298313098497</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0.14017383925927199</v>
+      </c>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
+      <c r="AC8" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.225281018027572</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0.26555000000000001</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.22363636363636399</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>5.3655360617335504</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.14105770511989099</v>
+      </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
@@ -20519,6 +21235,24 @@
       <c r="AM8" s="4"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.17773064687168599</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.25333333333333302</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5.3239425194056</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.25342103683869699</v>
+      </c>
       <c r="H9" s="7">
         <v>30</v>
       </c>
@@ -20556,18 +21290,43 @@
       <c r="T9" s="7">
         <v>0.14296709162222701</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="V9" s="11">
+        <v>30</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0.210569105691057</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0.29785</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0.23939393939393899</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>5.3191876091100898</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0.12701407404701001</v>
+      </c>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
+      <c r="AC9" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.21152350653941299</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>5.3228157970149299</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0.12816456720379099</v>
+      </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>

--- a/docs/matlab/ml-100k.xlsx
+++ b/docs/matlab/ml-100k.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserKNN" sheetId="1" r:id="rId1"/>
     <sheet name="ItemKNN" sheetId="2" r:id="rId2"/>
     <sheet name="MF" sheetId="5" r:id="rId3"/>
     <sheet name="SLIM" sheetId="7" r:id="rId4"/>
+    <sheet name="BPRMF" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
   <si>
     <t>N</t>
   </si>
@@ -170,12 +171,16 @@
     <t>u5.base/u5.test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>u2.base/u2.test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +240,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -270,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,6 +307,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -811,11 +824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="635155232"/>
-        <c:axId val="635145984"/>
+        <c:axId val="-1819523984"/>
+        <c:axId val="-1819523440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="635155232"/>
+        <c:axId val="-1819523984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +875,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -929,12 +941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635145984"/>
+        <c:crossAx val="-1819523440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635145984"/>
+        <c:axId val="-1819523440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +992,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1047,7 +1058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635155232"/>
+        <c:crossAx val="-1819523984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20506,8 +20517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25368,4 +25379,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.30646871686108201</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.4449999999999999E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9.27272727272727E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.6149217536338103</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.62962962962962998</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.37857900318133603</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1.7850000000000001E-2</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.100121359223301</v>
+      </c>
+      <c r="L3" s="12">
+        <v>5.5331474774231699</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.54670750382848399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.25026511134676599</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.19878787878787901</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.4989557136957297</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.43392883079157601</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.31495227995758202</v>
+      </c>
+      <c r="J4" s="12">
+        <v>7.4249999999999997E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.214199029126214</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5.4242932396749097</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.37247064828994397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.22248144220572599</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.26848484848484799</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5.4021115039955401</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.352394439257184</v>
+      </c>
+      <c r="H5" s="12">
+        <v>10</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.27189819724284198</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.27669902912621402</v>
+      </c>
+      <c r="L5" s="12">
+        <v>5.3420219880269997</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.29269798731131103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.20636267232237501</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.14595</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.321212121212121</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5.3353325632205797</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.311224976911252</v>
+      </c>
+      <c r="H6" s="12">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.248285613290916</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.32281553398058299</v>
+      </c>
+      <c r="L6" s="12">
+        <v>5.2875624039323696</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.252485516015378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.19209968186638399</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.18115000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.35818181818181799</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5.2813562700119796</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.280690784855605</v>
+      </c>
+      <c r="H7" s="12">
+        <v>20</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.22910922587486701</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.21604999999999999</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.36407766990291301</v>
+      </c>
+      <c r="L7" s="12">
+        <v>5.2392768491800803</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.22278989129003199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.182354188759279</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.21495</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.39212121212121198</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5.2348982443102097</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.25839324843661399</v>
+      </c>
+      <c r="H8" s="12">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.213191940615058</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.39502427184465999</v>
+      </c>
+      <c r="L8" s="12">
+        <v>5.1979770898135804</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.20092781660467199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.17295864262990501</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.24465000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.42060606060606098</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5.1942464006319398</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.24037256110899699</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12">
+        <v>30</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.200954400848356</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.28425</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.43143203883495101</v>
+      </c>
+      <c r="L9" s="12">
+        <v>5.1566218819403202</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.18424631465497701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>